--- a/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
+++ b/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="156">
   <si>
     <t>Phần màn hình dành cho đại lý thu phí</t>
   </si>
@@ -509,6 +509,21 @@
   <si>
     <t xml:space="preserve">THỐNG KÊ </t>
   </si>
+  <si>
+    <t xml:space="preserve">DANH SÁCH LÁI XE TAXI </t>
+  </si>
+  <si>
+    <t>Số CMND</t>
+  </si>
+  <si>
+    <t>Số ĐTDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số CMND </t>
+  </si>
 </sst>
 </file>
 
@@ -517,7 +532,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -578,6 +593,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -611,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1312,11 +1333,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1416,6 +1463,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,33 +1504,134 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1517,15 +1674,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,75 +1686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1676,49 +1755,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1733,126 +1932,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1882,6 +1961,48 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2279,18 +2400,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -2316,55 +2437,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2372,14 +2493,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -2408,16 +2529,16 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87" t="s">
+      <c r="F8" s="102"/>
+      <c r="G8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -2429,14 +2550,14 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -2448,16 +2569,16 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87" t="s">
+      <c r="F10" s="102"/>
+      <c r="G10" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -2488,10 +2609,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="87"/>
+      <c r="H12" s="103"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -2522,14 +2643,14 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
       <c r="K14" s="6"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -2541,12 +2662,12 @@
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
       <c r="K15" s="6"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -2558,12 +2679,12 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
       <c r="K16" s="6"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -2575,12 +2696,12 @@
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
       <c r="K17" s="6"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -2592,12 +2713,12 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
       <c r="K18" s="6"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -3125,17 +3246,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:J8"/>
     <mergeCell ref="E14:J18"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3160,23 +3281,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -3197,55 +3318,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="127"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3266,41 +3387,41 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="222" t="s">
+      <c r="A7" s="236" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="226" t="s">
+      <c r="B7" s="237"/>
+      <c r="C7" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="70"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="224"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
       <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3327,11 +3448,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -3359,25 +3480,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="108" t="s">
+      <c r="D12" s="133"/>
+      <c r="E12" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="132"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="108" t="s">
+      <c r="J12" s="133"/>
+      <c r="K12" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="110"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
@@ -3405,11 +3526,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -3439,19 +3560,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113" t="s">
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -3462,13 +3583,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="93"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="129"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -3482,12 +3603,12 @@
       <c r="E18" s="57">
         <v>1</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="93"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="129"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -3501,12 +3622,12 @@
       <c r="E19" s="57">
         <v>2</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="93"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="129"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -3520,12 +3641,12 @@
       <c r="E20" s="57">
         <v>3</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="93"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="129"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -3541,12 +3662,12 @@
       <c r="E21" s="57">
         <v>4</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="93"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="129"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -3562,12 +3683,12 @@
       <c r="E22" s="57">
         <v>5</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="93"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="129"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -3580,15 +3701,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -3621,15 +3742,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -3890,7 +4011,7 @@
       <c r="V37" s="27"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="74" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="29"/>
@@ -4119,21 +4240,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="E23:K23"/>
@@ -4144,6 +4250,21 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="G10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4151,32 +4272,32 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -4197,55 +4318,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="127"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4266,54 +4387,54 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="222" t="s">
+      <c r="A7" s="236" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="230" t="s">
+      <c r="B7" s="237"/>
+      <c r="C7" s="258" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="99" t="s">
+      <c r="D7" s="259"/>
+      <c r="E7" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="99" t="s">
+      <c r="F7" s="141"/>
+      <c r="G7" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="99" t="s">
+      <c r="H7" s="141"/>
+      <c r="I7" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="99" t="s">
+      <c r="J7" s="141"/>
+      <c r="K7" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="L7" s="101"/>
-      <c r="M7" s="99" t="s">
+      <c r="L7" s="141"/>
+      <c r="M7" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="N7" s="101"/>
-      <c r="O7" s="70"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="224"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="104"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="144"/>
       <c r="O8" s="49"/>
     </row>
-    <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -4330,18 +4451,18 @@
       <c r="N9" s="27"/>
       <c r="O9" s="40"/>
     </row>
-    <row r="10" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="F10" s="255" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="255"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="255"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -4369,42 +4490,42 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="110"/>
+      <c r="C12" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="256"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="102"/>
+      <c r="K12" s="248"/>
+      <c r="L12" s="249"/>
+      <c r="M12" s="250"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="C13" s="233" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="257"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="I13" s="233" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="233"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="158"/>
       <c r="N13" s="27"/>
       <c r="O13" s="40"/>
     </row>
@@ -4415,11 +4536,9 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -4434,8 +4553,10 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="G15" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="158"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -4444,100 +4565,84 @@
       <c r="N15" s="27"/>
       <c r="O15" s="40"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="113" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
       <c r="O16" s="40"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="C17" s="156" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="158"/>
       <c r="N17" s="27"/>
       <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="57">
-        <v>1</v>
-      </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
       <c r="N18" s="27"/>
       <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="57">
-        <v>2</v>
-      </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
+      <c r="C19" s="213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="215" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="216"/>
+      <c r="F19" s="251" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="252"/>
+      <c r="H19" s="251" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="252"/>
+      <c r="J19" s="251" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="252"/>
+      <c r="L19" s="213" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="213" t="s">
+        <v>126</v>
+      </c>
       <c r="N19" s="27"/>
       <c r="O19" s="40"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="57">
-        <v>3</v>
-      </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="253"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="253"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="253"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="214"/>
       <c r="N20" s="27"/>
       <c r="O20" s="40"/>
       <c r="Q20" s="27"/>
@@ -4546,19 +4651,23 @@
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="57">
-        <v>4</v>
-      </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
+      <c r="C21" s="77">
+        <v>1</v>
+      </c>
+      <c r="D21" s="219"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="247"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="220"/>
+      <c r="L21" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="96" t="s">
+        <v>126</v>
+      </c>
       <c r="N21" s="27"/>
       <c r="O21" s="40"/>
       <c r="Q21" s="27"/>
@@ -4567,59 +4676,73 @@
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="57">
-        <v>5</v>
-      </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
+      <c r="C22" s="77">
+        <v>2</v>
+      </c>
+      <c r="D22" s="219"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="219"/>
+      <c r="K22" s="220"/>
+      <c r="L22" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="96" t="s">
+        <v>126</v>
+      </c>
       <c r="N22" s="27"/>
       <c r="O22" s="40"/>
       <c r="Q22" s="27"/>
       <c r="V22" s="27"/>
     </row>
-    <row r="23" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
+      <c r="C23" s="77">
+        <v>3</v>
+      </c>
+      <c r="D23" s="219"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="220"/>
+      <c r="L23" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="96" t="s">
+        <v>126</v>
+      </c>
       <c r="N23" s="27"/>
       <c r="O23" s="40"/>
       <c r="Q23" s="27"/>
       <c r="V23" s="27"/>
     </row>
-    <row r="24" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="C24" s="77">
+        <v>4</v>
+      </c>
+      <c r="D24" s="219"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="96" t="s">
+        <v>126</v>
+      </c>
       <c r="N24" s="27"/>
       <c r="O24" s="40"/>
       <c r="P24" s="27"/>
@@ -4629,39 +4752,45 @@
     <row r="25" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
+      <c r="C25" s="97">
+        <v>5</v>
+      </c>
+      <c r="D25" s="244"/>
+      <c r="E25" s="245"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="220"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="220"/>
+      <c r="L25" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="98" t="s">
+        <v>126</v>
+      </c>
       <c r="N25" s="27"/>
       <c r="O25" s="40"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
       <c r="V25" s="27"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
+      <c r="C26" s="156" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="158"/>
       <c r="N26" s="27"/>
       <c r="O26" s="40"/>
       <c r="P26" s="27"/>
@@ -4708,7 +4837,7 @@
       <c r="Q28" s="27"/>
       <c r="V28" s="27"/>
     </row>
-    <row r="29" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -4729,14 +4858,10 @@
       <c r="V29" s="27"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -4751,14 +4876,10 @@
       <c r="V30" s="27"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="40"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
@@ -4773,21 +4894,6 @@
       <c r="V31" s="27"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
       <c r="N32" s="27"/>
       <c r="O32" s="40"/>
       <c r="P32" s="27"/>
@@ -4795,21 +4901,6 @@
       <c r="V32" s="27"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
       <c r="N33" s="27"/>
       <c r="O33" s="40"/>
       <c r="P33" s="27"/>
@@ -4817,21 +4908,6 @@
       <c r="V33" s="27"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
       <c r="N34" s="27"/>
       <c r="O34" s="40"/>
       <c r="P34" s="27"/>
@@ -4839,21 +4915,6 @@
       <c r="V34" s="27"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
       <c r="N35" s="27"/>
       <c r="O35" s="40"/>
       <c r="P35" s="27"/>
@@ -4861,21 +4922,6 @@
       <c r="V35" s="27"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
       <c r="N36" s="27"/>
       <c r="O36" s="40"/>
       <c r="P36" s="27"/>
@@ -4883,16 +4929,6 @@
       <c r="V36" s="27"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
       <c r="N37" s="27"/>
       <c r="O37" s="40"/>
       <c r="P37" s="27"/>
@@ -4900,21 +4936,6 @@
       <c r="V37" s="27"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
       <c r="N38" s="27"/>
       <c r="O38" s="40"/>
       <c r="P38" s="27"/>
@@ -4922,19 +4943,6 @@
       <c r="V38" s="27"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
       <c r="N39" s="27"/>
       <c r="O39" s="40"/>
       <c r="P39" s="27"/>
@@ -4942,14 +4950,10 @@
       <c r="V39" s="27"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="40"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
@@ -4964,14 +4968,10 @@
       <c r="V40" s="27"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="40"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
@@ -4985,15 +4985,7 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="78"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
@@ -5006,7 +4998,6 @@
       <c r="V42" s="27"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F43" s="40"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
@@ -5020,7 +5011,6 @@
       <c r="V43" s="27"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F44" s="40"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -5034,7 +5024,6 @@
       <c r="V44" s="27"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F45" s="40"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -5048,12 +5037,6 @@
       <c r="V45" s="27"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="40"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -5066,13 +5049,7 @@
       <c r="Q46" s="27"/>
       <c r="V46" s="27"/>
     </row>
-    <row r="47" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -5127,40 +5104,186 @@
       <c r="U49" s="27"/>
       <c r="V49" s="27"/>
     </row>
+    <row r="50" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="39"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="40"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="90"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54" s="39"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="40"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" s="39"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="40"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="40"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="39"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="40"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="40"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="91"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="40"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" s="89"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="40"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" s="89"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="40"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" s="89"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="40"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="92"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="40"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F64" s="40"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="40"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="40"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="40"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
+  <mergeCells count="46">
     <mergeCell ref="K7:L8"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="K12:M12"/>
-    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="J19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5178,23 +5301,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -5217,57 +5340,57 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
       <c r="O3" s="3"/>
       <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
       <c r="O4" s="5"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
       <c r="O5" s="5"/>
       <c r="P5"/>
     </row>
@@ -5276,14 +5399,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -5330,23 +5453,23 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9"/>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
       <c r="H9"/>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87" t="s">
+      <c r="J9" s="102"/>
+      <c r="K9" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
       <c r="N9"/>
       <c r="O9" s="5"/>
       <c r="P9"/>
@@ -5354,25 +5477,25 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10"/>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87" t="s">
+      <c r="D10" s="102"/>
+      <c r="E10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
       <c r="H10"/>
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J10"/>
-      <c r="K10" s="87" t="s">
+      <c r="K10" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
       <c r="N10"/>
       <c r="O10" s="5"/>
       <c r="P10"/>
@@ -5402,11 +5525,11 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -5435,47 +5558,47 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87" t="s">
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87" t="s">
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87" t="s">
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
       <c r="O14" s="5"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
       <c r="O15" s="5"/>
       <c r="P15"/>
     </row>
@@ -5484,26 +5607,26 @@
       <c r="B16" s="22">
         <v>1</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87" t="s">
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="91">
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="106">
         <v>41983</v>
       </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="87">
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="103">
         <v>500000</v>
       </c>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
       <c r="O16" s="5"/>
       <c r="P16"/>
     </row>
@@ -5512,26 +5635,26 @@
       <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87" t="s">
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="91">
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="106">
         <v>41924</v>
       </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="87">
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="103">
         <v>50000</v>
       </c>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
       <c r="O17" s="5"/>
       <c r="P17"/>
     </row>
@@ -5540,26 +5663,26 @@
       <c r="B18" s="22">
         <v>3</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87" t="s">
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87" t="s">
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87" t="s">
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
       <c r="O18" s="5"/>
       <c r="P18"/>
     </row>
@@ -5568,26 +5691,26 @@
       <c r="B19" s="22">
         <v>4</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87" t="s">
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87" t="s">
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87" t="s">
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
       <c r="O19" s="5"/>
       <c r="P19"/>
     </row>
@@ -5596,46 +5719,46 @@
       <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87" t="s">
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87" t="s">
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87" t="s">
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
       <c r="O20" s="5"/>
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
       <c r="O21" s="5"/>
       <c r="P21"/>
     </row>
@@ -6100,13 +6223,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="K10:M10"/>
@@ -6116,27 +6253,13 @@
     <mergeCell ref="F14:H15"/>
     <mergeCell ref="I14:K15"/>
     <mergeCell ref="L14:N15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6161,23 +6284,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -6198,55 +6321,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="127"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6267,49 +6390,49 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="132" t="s">
+      <c r="B7" s="120"/>
+      <c r="C7" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="132" t="s">
+      <c r="D7" s="124"/>
+      <c r="E7" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="133"/>
-      <c r="G7" s="132" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="133"/>
-      <c r="I7" s="132" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="99" t="s">
+      <c r="J7" s="127"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="70"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="144"/>
       <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6336,11 +6459,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -6368,25 +6491,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="108" t="s">
+      <c r="D12" s="133"/>
+      <c r="E12" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="132"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="108" t="s">
+      <c r="J12" s="133"/>
+      <c r="K12" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="110"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
@@ -6414,11 +6537,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -6448,19 +6571,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113" t="s">
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -6471,13 +6594,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="93"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="129"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -6491,12 +6614,12 @@
       <c r="E18" s="57">
         <v>1</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="93"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="129"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -6510,12 +6633,12 @@
       <c r="E19" s="57">
         <v>2</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="93"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="129"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -6529,12 +6652,12 @@
       <c r="E20" s="57">
         <v>3</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="93"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="129"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -6550,12 +6673,12 @@
       <c r="E21" s="57">
         <v>4</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="93"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="129"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -6571,12 +6694,12 @@
       <c r="E22" s="57">
         <v>5</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="93"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="129"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -6589,15 +6712,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -6630,15 +6753,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -6989,11 +7112,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="40"/>
@@ -7154,20 +7277,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:K8"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="E23:K23"/>
@@ -7184,6 +7293,20 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:K8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -7208,23 +7331,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="140"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="154"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -7245,55 +7368,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="127"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7314,49 +7437,49 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="128" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="132" t="s">
+      <c r="D7" s="120"/>
+      <c r="E7" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="133"/>
-      <c r="G7" s="132" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="133"/>
-      <c r="I7" s="132" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="99" t="s">
+      <c r="J7" s="127"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="69"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="144"/>
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7383,11 +7506,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -7415,25 +7538,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="108" t="s">
+      <c r="D12" s="133"/>
+      <c r="E12" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="132"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="108" t="s">
+      <c r="J12" s="133"/>
+      <c r="K12" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="110"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
@@ -7461,11 +7584,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -7495,19 +7618,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113" t="s">
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -7518,13 +7641,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="93"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="129"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -7538,12 +7661,12 @@
       <c r="E18" s="57">
         <v>1</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="93"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="129"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -7557,12 +7680,12 @@
       <c r="E19" s="57">
         <v>2</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="93"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="129"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -7576,12 +7699,12 @@
       <c r="E20" s="57">
         <v>3</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="93"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="129"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -7597,12 +7720,12 @@
       <c r="E21" s="57">
         <v>4</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="93"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="129"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -7618,12 +7741,12 @@
       <c r="E22" s="57">
         <v>5</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="93"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="129"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -7636,15 +7759,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -7677,15 +7800,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -8036,11 +8159,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -8201,20 +8324,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:K8"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="E23:K23"/>
@@ -8231,6 +8340,20 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:K8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8255,23 +8378,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -8292,55 +8415,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="127"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8361,49 +8484,49 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="132" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="128" t="s">
+      <c r="D7" s="124"/>
+      <c r="E7" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="129"/>
-      <c r="G7" s="132" t="s">
+      <c r="F7" s="120"/>
+      <c r="G7" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="133"/>
-      <c r="I7" s="132" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="99" t="s">
+      <c r="J7" s="127"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="141"/>
       <c r="O7" s="58"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="144"/>
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8430,11 +8553,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -8462,23 +8585,23 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="108" t="s">
+      <c r="D12" s="133"/>
+      <c r="E12" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="132"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="110"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
@@ -8506,11 +8629,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -8540,19 +8663,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113" t="s">
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -8563,13 +8686,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="93"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="129"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -8583,12 +8706,12 @@
       <c r="E18" s="57">
         <v>1</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="93"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="129"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -8602,12 +8725,12 @@
       <c r="E19" s="57">
         <v>2</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="93"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="129"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -8621,12 +8744,12 @@
       <c r="E20" s="57">
         <v>3</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="93"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="129"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -8642,12 +8765,12 @@
       <c r="E21" s="57">
         <v>4</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="93"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="129"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -8663,12 +8786,12 @@
       <c r="E22" s="57">
         <v>5</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="93"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="129"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -8681,15 +8804,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -8722,15 +8845,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="145" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -9081,11 +9204,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -9189,7 +9312,7 @@
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
       <c r="E47" s="56"/>
-      <c r="F47" s="73"/>
+      <c r="F47" s="76"/>
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
       <c r="I47" s="48"/>
@@ -9233,20 +9356,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:K8"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="E23:K23"/>
@@ -9263,6 +9372,20 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:K8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9287,76 +9410,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="127"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9364,49 +9487,49 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="132" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="132" t="s">
+      <c r="D7" s="124"/>
+      <c r="E7" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="133"/>
-      <c r="G7" s="128" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="132" t="s">
+      <c r="H7" s="120"/>
+      <c r="I7" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="99" t="s">
+      <c r="J7" s="127"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="141"/>
       <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="144"/>
       <c r="O8" s="61"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9433,11 +9556,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -9467,17 +9590,17 @@
       <c r="B12" s="27"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
-      <c r="E12" s="141" t="s">
+      <c r="E12" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="142" t="s">
+      <c r="F12" s="155"/>
+      <c r="G12" s="156" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="144"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="158"/>
       <c r="L12" s="62"/>
       <c r="M12" s="62"/>
       <c r="N12" s="27"/>
@@ -9488,15 +9611,15 @@
       <c r="B13" s="27"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
-      <c r="E13" s="145" t="s">
+      <c r="E13" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="145"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="148"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="162"/>
       <c r="L13" s="62"/>
       <c r="M13" s="62"/>
       <c r="N13" s="27"/>
@@ -9507,17 +9630,17 @@
       <c r="B14" s="27"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
-      <c r="E14" s="145" t="s">
+      <c r="E14" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="145"/>
-      <c r="G14" s="149" t="s">
+      <c r="F14" s="159"/>
+      <c r="G14" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="165"/>
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
       <c r="N14" s="27"/>
@@ -9528,15 +9651,15 @@
       <c r="B15" s="27"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
-      <c r="E15" s="145" t="s">
+      <c r="E15" s="159" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="145"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="154"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="168"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
       <c r="N15" s="27"/>
@@ -9547,17 +9670,17 @@
       <c r="B16" s="27"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
-      <c r="E16" s="141" t="s">
+      <c r="E16" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="141"/>
-      <c r="G16" s="142" t="s">
+      <c r="F16" s="155"/>
+      <c r="G16" s="156" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="144"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="158"/>
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="27"/>
@@ -9568,17 +9691,17 @@
       <c r="B17" s="27"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
-      <c r="E17" s="145" t="s">
+      <c r="E17" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="145"/>
-      <c r="G17" s="155" t="s">
+      <c r="F17" s="159"/>
+      <c r="G17" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="157"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="171"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
       <c r="N17" s="27"/>
@@ -9591,11 +9714,11 @@
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
       <c r="F18" s="62"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="160"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="174"/>
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
       <c r="N18" s="27"/>
@@ -10069,11 +10192,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -10236,15 +10359,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:K8"/>
-    <mergeCell ref="L7:N8"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="A42:C42"/>
@@ -10258,6 +10372,15 @@
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K18"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:K8"/>
+    <mergeCell ref="L7:N8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10283,23 +10406,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -10320,55 +10443,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="127"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10389,49 +10512,49 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="166" t="s">
+      <c r="B7" s="176"/>
+      <c r="C7" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="167"/>
-      <c r="E7" s="166" t="s">
+      <c r="D7" s="176"/>
+      <c r="E7" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="167"/>
-      <c r="G7" s="166" t="s">
+      <c r="F7" s="176"/>
+      <c r="G7" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="170" t="s">
+      <c r="H7" s="176"/>
+      <c r="I7" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="171"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="99" t="s">
+      <c r="J7" s="180"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="141"/>
       <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="168"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="144"/>
       <c r="O8" s="61"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -10458,11 +10581,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -10493,13 +10616,13 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="164" t="s">
+      <c r="F12" s="186" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="164"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="187"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -10512,15 +10635,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="161" t="s">
+      <c r="F13" s="188" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="161"/>
-      <c r="H13" s="163" t="s">
+      <c r="G13" s="188"/>
+      <c r="H13" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="185"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -10533,13 +10656,13 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="161" t="s">
+      <c r="F14" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="185"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -10552,15 +10675,15 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="161" t="s">
+      <c r="F15" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="161"/>
-      <c r="H15" s="163" t="s">
+      <c r="G15" s="188"/>
+      <c r="H15" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -10573,15 +10696,15 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="161" t="s">
+      <c r="F16" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="163" t="s">
+      <c r="G16" s="188"/>
+      <c r="H16" s="185" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -10594,13 +10717,13 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="161" t="s">
+      <c r="F17" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="161"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -10613,13 +10736,13 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="161" t="s">
+      <c r="F18" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="161"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -10632,13 +10755,13 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="161" t="s">
+      <c r="F19" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="161"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="189"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -10651,13 +10774,13 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="161" t="s">
+      <c r="F20" s="188" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="189"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -10691,15 +10814,15 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="87"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="87" t="s">
+      <c r="I22" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="87"/>
+      <c r="J22" s="103"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -11109,7 +11232,7 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="74" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="44"/>
@@ -11274,19 +11397,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:K8"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="F22:G22"/>
@@ -11303,6 +11413,19 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:K8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11327,23 +11450,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -11364,55 +11487,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="127"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11433,49 +11556,49 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="204" t="s">
+      <c r="B7" s="176"/>
+      <c r="C7" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="205"/>
-      <c r="E7" s="204" t="s">
+      <c r="D7" s="193"/>
+      <c r="E7" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="205"/>
-      <c r="G7" s="166" t="s">
+      <c r="F7" s="193"/>
+      <c r="G7" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="208" t="s">
+      <c r="H7" s="176"/>
+      <c r="I7" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="209"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="214" t="s">
+      <c r="J7" s="197"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="202" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="215"/>
-      <c r="N7" s="216"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="204"/>
       <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="168"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="207"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="218"/>
-      <c r="N8" s="219"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="205"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="207"/>
       <c r="O8" s="61"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11502,11 +11625,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -11537,13 +11660,13 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="200" t="s">
+      <c r="F12" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="201"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="203"/>
+      <c r="G12" s="209"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="211"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -11556,15 +11679,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="197" t="s">
+      <c r="F13" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="161"/>
-      <c r="H13" s="163" t="s">
+      <c r="G13" s="188"/>
+      <c r="H13" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="163"/>
-      <c r="J13" s="199"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="191"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -11577,13 +11700,13 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="197" t="s">
+      <c r="F14" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="199"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="191"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -11596,15 +11719,15 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="197" t="s">
+      <c r="F15" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="161"/>
-      <c r="H15" s="163" t="s">
+      <c r="G15" s="188"/>
+      <c r="H15" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="163"/>
-      <c r="J15" s="199"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="191"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -11617,15 +11740,15 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="197" t="s">
+      <c r="F16" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="163" t="s">
+      <c r="G16" s="188"/>
+      <c r="H16" s="185" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="163"/>
-      <c r="J16" s="199"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="191"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -11638,13 +11761,13 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="197" t="s">
+      <c r="F17" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="161"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="199"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="191"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -11657,13 +11780,13 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="197" t="s">
+      <c r="F18" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="161"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="198"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="212"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -11676,13 +11799,13 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="197" t="s">
+      <c r="F19" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="161"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="198"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="212"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -11695,13 +11818,13 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="197" t="s">
+      <c r="F20" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="198"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="212"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -11731,15 +11854,15 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="108" t="s">
+      <c r="F22" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="110"/>
+      <c r="G22" s="132"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="108" t="s">
+      <c r="I22" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="110"/>
+      <c r="J22" s="132"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -11766,29 +11889,29 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="193" t="s">
+      <c r="D24" s="215" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="194"/>
-      <c r="F24" s="193" t="s">
+      <c r="E24" s="216"/>
+      <c r="F24" s="215" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="194"/>
-      <c r="H24" s="193" t="s">
+      <c r="G24" s="216"/>
+      <c r="H24" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="194"/>
-      <c r="J24" s="193" t="s">
+      <c r="I24" s="216"/>
+      <c r="J24" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="194"/>
-      <c r="L24" s="191" t="s">
+      <c r="K24" s="216"/>
+      <c r="L24" s="213" t="s">
         <v>125</v>
       </c>
-      <c r="M24" s="191" t="s">
+      <c r="M24" s="213" t="s">
         <v>126</v>
       </c>
       <c r="O24" s="40"/>
@@ -11796,37 +11919,37 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="196"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="196"/>
-      <c r="L25" s="192"/>
-      <c r="M25" s="192"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="217"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="214"/>
+      <c r="M25" s="214"/>
       <c r="O25" s="40"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="74">
+      <c r="C26" s="77">
         <v>1</v>
       </c>
-      <c r="D26" s="180"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="75" t="s">
+      <c r="D26" s="219"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="220"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="220"/>
+      <c r="L26" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="M26" s="75" t="s">
+      <c r="M26" s="78" t="s">
         <v>126</v>
       </c>
       <c r="O26" s="40"/>
@@ -11834,21 +11957,21 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="27"/>
-      <c r="C27" s="74">
+      <c r="C27" s="77">
         <v>2</v>
       </c>
-      <c r="D27" s="180"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="75" t="s">
+      <c r="D27" s="219"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="220"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="220"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="220"/>
+      <c r="L27" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="M27" s="75" t="s">
+      <c r="M27" s="78" t="s">
         <v>126</v>
       </c>
       <c r="O27" s="40"/>
@@ -11856,21 +11979,21 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="74">
+      <c r="C28" s="77">
         <v>3</v>
       </c>
-      <c r="D28" s="180"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="75" t="s">
+      <c r="D28" s="219"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="219"/>
+      <c r="K28" s="220"/>
+      <c r="L28" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="M28" s="75" t="s">
+      <c r="M28" s="78" t="s">
         <v>126</v>
       </c>
       <c r="O28" s="40"/>
@@ -11878,59 +12001,59 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="27"/>
-      <c r="C29" s="74">
+      <c r="C29" s="77">
         <v>4</v>
       </c>
-      <c r="D29" s="180"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="75" t="s">
+      <c r="D29" s="219"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="220"/>
+      <c r="L29" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="M29" s="75" t="s">
+      <c r="M29" s="78" t="s">
         <v>126</v>
       </c>
       <c r="O29" s="40"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C30" s="74">
+      <c r="C30" s="77">
         <v>5</v>
       </c>
-      <c r="D30" s="180"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="75" t="s">
+      <c r="D30" s="219"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="M30" s="75" t="s">
+      <c r="M30" s="78" t="s">
         <v>126</v>
       </c>
       <c r="O30" s="40"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C31" s="180" t="s">
+      <c r="C31" s="219" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="182"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="224"/>
+      <c r="F31" s="224"/>
+      <c r="G31" s="224"/>
+      <c r="H31" s="224"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="220"/>
       <c r="O31" s="40"/>
     </row>
     <row r="32" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11948,10 +12071,10 @@
       <c r="O32" s="40"/>
     </row>
     <row r="33" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="142" t="s">
+      <c r="C33" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="144"/>
+      <c r="D33" s="158"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
@@ -11988,17 +12111,17 @@
       <c r="F35" s="67"/>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
-      <c r="I35" s="77" t="s">
+      <c r="I35" s="80" t="s">
         <v>129</v>
       </c>
       <c r="J35" s="27"/>
-      <c r="K35" s="183" t="s">
+      <c r="K35" s="225" t="s">
         <v>128</v>
       </c>
-      <c r="L35" s="184"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="185"/>
-      <c r="O35" s="76" t="s">
+      <c r="L35" s="226"/>
+      <c r="M35" s="226"/>
+      <c r="N35" s="227"/>
+      <c r="O35" s="79" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12020,61 +12143,61 @@
       <c r="O36" s="40"/>
     </row>
     <row r="37" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="188" t="s">
+      <c r="A37" s="221" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="142" t="s">
+      <c r="B37" s="155"/>
+      <c r="C37" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="144"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="158"/>
       <c r="H37" s="27"/>
       <c r="I37" s="40"/>
       <c r="J37" s="27"/>
       <c r="K37" s="39"/>
-      <c r="L37" s="186" t="s">
+      <c r="L37" s="228" t="s">
         <v>131</v>
       </c>
       <c r="M37" s="27"/>
-      <c r="N37" s="186" t="s">
+      <c r="N37" s="228" t="s">
         <v>130</v>
       </c>
       <c r="O37" s="40"/>
     </row>
     <row r="38" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="189" t="s">
+      <c r="A38" s="222" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="190"/>
-      <c r="C38" s="142" t="s">
+      <c r="B38" s="223"/>
+      <c r="C38" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="144"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="158"/>
       <c r="H38" s="27"/>
       <c r="I38" s="40"/>
       <c r="J38" s="27"/>
       <c r="K38" s="39"/>
-      <c r="L38" s="187"/>
+      <c r="L38" s="229"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="187"/>
+      <c r="N38" s="229"/>
       <c r="O38" s="40"/>
     </row>
     <row r="39" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="232" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="179"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="144"/>
+      <c r="B39" s="233"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="158"/>
       <c r="H39" s="27"/>
       <c r="I39" s="40"/>
       <c r="J39" s="27"/>
@@ -12085,15 +12208,15 @@
       <c r="O39" s="49"/>
     </row>
     <row r="40" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="178" t="s">
+      <c r="A40" s="232" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="179"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="144"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="158"/>
       <c r="H40" s="27"/>
       <c r="I40" s="40"/>
       <c r="J40" s="27"/>
@@ -12104,15 +12227,15 @@
       <c r="O40" s="40"/>
     </row>
     <row r="41" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="178" t="s">
+      <c r="A41" s="232" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="179"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="144"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="158"/>
       <c r="H41" s="27"/>
       <c r="I41" s="40"/>
       <c r="J41" s="27"/>
@@ -12157,15 +12280,15 @@
     </row>
     <row r="44" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
-      <c r="B44" s="142" t="s">
+      <c r="B44" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="144"/>
+      <c r="C44" s="158"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="176" t="s">
+      <c r="E44" s="230" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="177"/>
+      <c r="F44" s="231"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="40"/>
@@ -12194,14 +12317,14 @@
       <c r="O45" s="40"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="40"/>
@@ -12213,14 +12336,14 @@
       <c r="O46" s="40"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="40"/>
@@ -12274,7 +12397,7 @@
       <c r="C52" s="51"/>
       <c r="D52" s="51"/>
       <c r="E52" s="51"/>
-      <c r="F52" s="72"/>
+      <c r="F52" s="75"/>
       <c r="G52" s="51"/>
       <c r="H52" s="51"/>
       <c r="I52" s="52"/>
@@ -12421,7 +12544,7 @@
       <c r="I63" s="40"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="74" t="s">
         <v>85</v>
       </c>
       <c r="B64" s="44"/>
@@ -12489,13 +12612,71 @@
       <c r="C69" s="56"/>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
-      <c r="F69" s="73"/>
+      <c r="F69" s="76"/>
       <c r="G69" s="48"/>
       <c r="H69" s="48"/>
       <c r="I69" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="A1:O1"/>
@@ -12511,64 +12692,6 @@
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12588,23 +12711,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -12625,55 +12748,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="127"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12694,41 +12817,41 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="132" t="s">
+      <c r="B7" s="120"/>
+      <c r="C7" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="220"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="70"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
       <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12755,11 +12878,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -12787,25 +12910,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="108" t="s">
+      <c r="D12" s="133"/>
+      <c r="E12" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="132"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="108" t="s">
+      <c r="J12" s="133"/>
+      <c r="K12" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="110"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
@@ -12833,11 +12956,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -12867,19 +12990,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113" t="s">
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -12890,13 +13013,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="93"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="129"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -12910,12 +13033,12 @@
       <c r="E18" s="57">
         <v>1</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="93"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="129"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -12929,12 +13052,12 @@
       <c r="E19" s="57">
         <v>2</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="93"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="129"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -12948,12 +13071,12 @@
       <c r="E20" s="57">
         <v>3</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="93"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="129"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -12969,12 +13092,12 @@
       <c r="E21" s="57">
         <v>4</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="93"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="129"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -12990,12 +13113,12 @@
       <c r="E22" s="57">
         <v>5</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="93"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="129"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -13008,15 +13131,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -13049,15 +13172,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -13318,7 +13441,7 @@
       <c r="V37" s="27"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="74" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="29"/>
@@ -13547,6 +13670,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -13563,15 +13695,6 @@
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
+++ b/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="157">
   <si>
     <t>Phần màn hình dành cho đại lý thu phí</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t xml:space="preserve">Số CMND </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1527,6 +1530,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1536,19 +1548,79 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1617,75 +1689,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1755,6 +1758,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1785,24 +1803,75 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1866,72 +1935,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1962,6 +1965,48 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1973,48 +2018,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2400,18 +2403,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -2437,55 +2440,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2493,14 +2496,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -2529,16 +2532,16 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103" t="s">
+      <c r="F8" s="100"/>
+      <c r="G8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -2550,14 +2553,14 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -2569,16 +2572,16 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103" t="s">
+      <c r="F10" s="100"/>
+      <c r="G10" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -2609,10 +2612,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="103"/>
+      <c r="H12" s="101"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -2643,14 +2646,14 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
       <c r="K14" s="6"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -2662,12 +2665,12 @@
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
       <c r="K15" s="6"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -2679,12 +2682,12 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
       <c r="K16" s="6"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -2696,12 +2699,12 @@
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
       <c r="K17" s="6"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -2713,12 +2716,12 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
       <c r="K18" s="6"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -3246,17 +3249,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="E14:J18"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3281,23 +3284,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="132"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -3318,55 +3321,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="141"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3448,11 +3451,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -3480,25 +3483,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="130" t="s">
+      <c r="D12" s="129"/>
+      <c r="E12" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="131"/>
-      <c r="G12" s="132"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="133"/>
-      <c r="K12" s="130" t="s">
+      <c r="J12" s="129"/>
+      <c r="K12" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="131"/>
-      <c r="M12" s="132"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
@@ -3526,11 +3529,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="130" t="s">
+      <c r="G14" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -3560,19 +3563,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="148" t="s">
+      <c r="E16" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="150" t="s">
+      <c r="F16" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150" t="s">
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="128"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -3583,13 +3586,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="129"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="107"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -3603,12 +3606,12 @@
       <c r="E18" s="57">
         <v>1</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="129"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="107"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -3622,12 +3625,12 @@
       <c r="E19" s="57">
         <v>2</v>
       </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="129"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="107"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -3641,12 +3644,12 @@
       <c r="E20" s="57">
         <v>3</v>
       </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="129"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="107"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -3662,12 +3665,12 @@
       <c r="E21" s="57">
         <v>4</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="129"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="107"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -3683,12 +3686,12 @@
       <c r="E22" s="57">
         <v>5</v>
       </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="129"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="107"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -3701,15 +3704,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="134" t="s">
+      <c r="E23" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -3742,15 +3745,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -4240,6 +4243,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="E23:K23"/>
@@ -4250,21 +4268,6 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="G10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4274,30 +4277,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="132"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -4318,55 +4321,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="141"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4391,47 +4394,47 @@
         <v>142</v>
       </c>
       <c r="B7" s="237"/>
-      <c r="C7" s="258" t="s">
+      <c r="C7" s="244" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="139" t="s">
+      <c r="D7" s="245"/>
+      <c r="E7" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="139" t="s">
+      <c r="F7" s="115"/>
+      <c r="G7" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="141"/>
-      <c r="I7" s="139" t="s">
+      <c r="H7" s="115"/>
+      <c r="I7" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="J7" s="141"/>
-      <c r="K7" s="139" t="s">
+      <c r="J7" s="115"/>
+      <c r="K7" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="L7" s="141"/>
-      <c r="M7" s="139" t="s">
+      <c r="L7" s="115"/>
+      <c r="M7" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="N7" s="141"/>
+      <c r="N7" s="115"/>
       <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="238"/>
       <c r="B8" s="239"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="144"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="118"/>
       <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -4457,12 +4460,12 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="255" t="s">
+      <c r="F10" s="248" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="255"/>
-      <c r="H10" s="255"/>
-      <c r="I10" s="255"/>
+      <c r="G10" s="248"/>
+      <c r="H10" s="248"/>
+      <c r="I10" s="248"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -4490,39 +4493,39 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="256"/>
+      <c r="D12" s="249"/>
       <c r="E12" s="93"/>
       <c r="F12" s="94"/>
       <c r="G12" s="95"/>
       <c r="H12" s="62"/>
-      <c r="I12" s="102" t="s">
+      <c r="I12" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="J12" s="102"/>
-      <c r="K12" s="248"/>
-      <c r="L12" s="249"/>
-      <c r="M12" s="250"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="253"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="233" t="s">
+      <c r="C13" s="193" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="257"/>
+      <c r="D13" s="250"/>
       <c r="E13" s="69"/>
       <c r="F13" s="70"/>
       <c r="G13" s="71"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="233" t="s">
+      <c r="I13" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="233"/>
+      <c r="J13" s="193"/>
       <c r="K13" s="156"/>
       <c r="L13" s="157"/>
       <c r="M13" s="158"/>
@@ -4601,29 +4604,29 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="213" t="s">
+      <c r="C19" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="215" t="s">
+      <c r="D19" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="216"/>
-      <c r="F19" s="251" t="s">
+      <c r="E19" s="208"/>
+      <c r="F19" s="254" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="252"/>
-      <c r="H19" s="251" t="s">
+      <c r="G19" s="255"/>
+      <c r="H19" s="254" t="s">
         <v>153</v>
       </c>
-      <c r="I19" s="252"/>
-      <c r="J19" s="251" t="s">
+      <c r="I19" s="255"/>
+      <c r="J19" s="254" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="252"/>
-      <c r="L19" s="213" t="s">
+      <c r="K19" s="255"/>
+      <c r="L19" s="205" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="213" t="s">
+      <c r="M19" s="205" t="s">
         <v>126</v>
       </c>
       <c r="N19" s="27"/>
@@ -4632,17 +4635,17 @@
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="253"/>
-      <c r="G20" s="254"/>
-      <c r="H20" s="253"/>
-      <c r="I20" s="254"/>
-      <c r="J20" s="253"/>
-      <c r="K20" s="254"/>
-      <c r="L20" s="214"/>
-      <c r="M20" s="214"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="257"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="257"/>
+      <c r="J20" s="256"/>
+      <c r="K20" s="257"/>
+      <c r="L20" s="206"/>
+      <c r="M20" s="206"/>
       <c r="N20" s="27"/>
       <c r="O20" s="40"/>
       <c r="Q20" s="27"/>
@@ -4654,14 +4657,14 @@
       <c r="C21" s="77">
         <v>1</v>
       </c>
-      <c r="D21" s="219"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="246"/>
-      <c r="G21" s="247"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="219"/>
-      <c r="K21" s="220"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="261"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="198"/>
       <c r="L21" s="96" t="s">
         <v>125</v>
       </c>
@@ -4679,14 +4682,14 @@
       <c r="C22" s="77">
         <v>2</v>
       </c>
-      <c r="D22" s="219"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="219"/>
-      <c r="K22" s="220"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="198"/>
       <c r="L22" s="96" t="s">
         <v>125</v>
       </c>
@@ -4704,14 +4707,14 @@
       <c r="C23" s="77">
         <v>3</v>
       </c>
-      <c r="D23" s="219"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="220"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="220"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="220"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="198"/>
       <c r="L23" s="96" t="s">
         <v>125</v>
       </c>
@@ -4729,14 +4732,14 @@
       <c r="C24" s="77">
         <v>4</v>
       </c>
-      <c r="D24" s="219"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="220"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="220"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="198"/>
       <c r="L24" s="96" t="s">
         <v>125</v>
       </c>
@@ -4755,14 +4758,14 @@
       <c r="C25" s="97">
         <v>5</v>
       </c>
-      <c r="D25" s="244"/>
-      <c r="E25" s="245"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="220"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="220"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="220"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="198"/>
       <c r="L25" s="98" t="s">
         <v>125</v>
       </c>
@@ -4862,7 +4865,9 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="G30" s="27" t="s">
+        <v>156</v>
+      </c>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
@@ -5235,6 +5240,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="J19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
@@ -5251,36 +5286,6 @@
     <mergeCell ref="E7:F8"/>
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="I7:J8"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="J19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5301,23 +5306,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -5340,57 +5345,57 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
       <c r="O3" s="3"/>
       <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
       <c r="O4" s="5"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
       <c r="O5" s="5"/>
       <c r="P5"/>
     </row>
@@ -5399,14 +5404,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -5453,23 +5458,23 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9"/>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
       <c r="H9"/>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="102"/>
-      <c r="K9" s="103" t="s">
+      <c r="J9" s="100"/>
+      <c r="K9" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
       <c r="N9"/>
       <c r="O9" s="5"/>
       <c r="P9"/>
@@ -5477,25 +5482,25 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10"/>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103" t="s">
+      <c r="D10" s="100"/>
+      <c r="E10" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
       <c r="H10"/>
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J10"/>
-      <c r="K10" s="103" t="s">
+      <c r="K10" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
       <c r="N10"/>
       <c r="O10" s="5"/>
       <c r="P10"/>
@@ -5525,11 +5530,11 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -5558,47 +5563,47 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103" t="s">
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103" t="s">
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
       <c r="O14" s="5"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
       <c r="O15" s="5"/>
       <c r="P15"/>
     </row>
@@ -5607,26 +5612,26 @@
       <c r="B16" s="22">
         <v>1</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="106">
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="105">
         <v>41983</v>
       </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="103">
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="101">
         <v>500000</v>
       </c>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
       <c r="O16" s="5"/>
       <c r="P16"/>
     </row>
@@ -5635,26 +5640,26 @@
       <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103" t="s">
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="106">
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="105">
         <v>41924</v>
       </c>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="103">
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="101">
         <v>50000</v>
       </c>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
       <c r="O17" s="5"/>
       <c r="P17"/>
     </row>
@@ -5663,26 +5668,26 @@
       <c r="B18" s="22">
         <v>3</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103" t="s">
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103" t="s">
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
       <c r="O18" s="5"/>
       <c r="P18"/>
     </row>
@@ -5691,26 +5696,26 @@
       <c r="B19" s="22">
         <v>4</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103" t="s">
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103" t="s">
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103" t="s">
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
       <c r="O19" s="5"/>
       <c r="P19"/>
     </row>
@@ -5719,46 +5724,46 @@
       <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103" t="s">
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103" t="s">
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103" t="s">
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
       <c r="O20" s="5"/>
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
       <c r="O21" s="5"/>
       <c r="P21"/>
     </row>
@@ -6223,27 +6228,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="K10:M10"/>
@@ -6253,13 +6244,27 @@
     <mergeCell ref="F14:H15"/>
     <mergeCell ref="I14:K15"/>
     <mergeCell ref="L14:N15"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="B21:N21"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6284,23 +6289,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="132"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -6321,55 +6326,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="141"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6390,49 +6395,49 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="123" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="123" t="s">
+      <c r="D7" s="147"/>
+      <c r="E7" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
+      <c r="F7" s="147"/>
+      <c r="G7" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123" t="s">
+      <c r="H7" s="147"/>
+      <c r="I7" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="127"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="139" t="s">
+      <c r="J7" s="150"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="M7" s="140"/>
-      <c r="N7" s="141"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="115"/>
       <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="144"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
       <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6459,11 +6464,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -6491,25 +6496,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="130" t="s">
+      <c r="D12" s="129"/>
+      <c r="E12" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="131"/>
-      <c r="G12" s="132"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="133"/>
-      <c r="K12" s="130" t="s">
+      <c r="J12" s="129"/>
+      <c r="K12" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="131"/>
-      <c r="M12" s="132"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
@@ -6537,11 +6542,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="130" t="s">
+      <c r="G14" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -6571,19 +6576,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="148" t="s">
+      <c r="E16" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="150" t="s">
+      <c r="F16" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150" t="s">
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="128"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -6594,13 +6599,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="129"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="107"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -6614,12 +6619,12 @@
       <c r="E18" s="57">
         <v>1</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="129"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="107"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -6633,12 +6638,12 @@
       <c r="E19" s="57">
         <v>2</v>
       </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="129"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="107"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -6652,12 +6657,12 @@
       <c r="E20" s="57">
         <v>3</v>
       </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="129"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="107"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -6673,12 +6678,12 @@
       <c r="E21" s="57">
         <v>4</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="129"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="107"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -6694,12 +6699,12 @@
       <c r="E22" s="57">
         <v>5</v>
       </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="129"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="107"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -6712,15 +6717,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="134" t="s">
+      <c r="E23" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -6753,15 +6758,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -7112,11 +7117,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="137" t="s">
+      <c r="A42" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="40"/>
@@ -7277,6 +7282,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:K8"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="E23:K23"/>
@@ -7293,20 +7312,6 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:K8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -7368,55 +7373,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="141"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7437,49 +7442,49 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="119" t="s">
+      <c r="B7" s="147"/>
+      <c r="C7" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="123" t="s">
+      <c r="D7" s="143"/>
+      <c r="E7" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
+      <c r="F7" s="147"/>
+      <c r="G7" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123" t="s">
+      <c r="H7" s="147"/>
+      <c r="I7" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="127"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="139" t="s">
+      <c r="J7" s="150"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="140"/>
-      <c r="N7" s="141"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="115"/>
       <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="144"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7506,11 +7511,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -7538,25 +7543,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="130" t="s">
+      <c r="D12" s="129"/>
+      <c r="E12" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="131"/>
-      <c r="G12" s="132"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="133"/>
-      <c r="K12" s="130" t="s">
+      <c r="J12" s="129"/>
+      <c r="K12" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="131"/>
-      <c r="M12" s="132"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
@@ -7584,11 +7589,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="130" t="s">
+      <c r="G14" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -7618,19 +7623,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="148" t="s">
+      <c r="E16" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="150" t="s">
+      <c r="F16" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150" t="s">
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="128"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -7641,13 +7646,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="129"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="107"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -7661,12 +7666,12 @@
       <c r="E18" s="57">
         <v>1</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="129"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="107"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -7680,12 +7685,12 @@
       <c r="E19" s="57">
         <v>2</v>
       </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="129"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="107"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -7699,12 +7704,12 @@
       <c r="E20" s="57">
         <v>3</v>
       </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="129"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="107"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -7720,12 +7725,12 @@
       <c r="E21" s="57">
         <v>4</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="129"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="107"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -7741,12 +7746,12 @@
       <c r="E22" s="57">
         <v>5</v>
       </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="129"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="107"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -7759,15 +7764,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="134" t="s">
+      <c r="E23" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -7800,15 +7805,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -8159,11 +8164,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="137" t="s">
+      <c r="A42" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -8324,6 +8329,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:K8"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="E23:K23"/>
@@ -8340,20 +8359,6 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:K8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8378,23 +8383,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="132"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -8415,55 +8420,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="141"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8484,49 +8489,49 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="123" t="s">
+      <c r="B7" s="147"/>
+      <c r="C7" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="119" t="s">
+      <c r="D7" s="147"/>
+      <c r="E7" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="120"/>
-      <c r="G7" s="123" t="s">
+      <c r="F7" s="143"/>
+      <c r="G7" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123" t="s">
+      <c r="H7" s="147"/>
+      <c r="I7" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="127"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="139" t="s">
+      <c r="J7" s="150"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="140"/>
-      <c r="N7" s="141"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="115"/>
       <c r="O7" s="58"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="144"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8553,11 +8558,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -8585,23 +8590,23 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="130" t="s">
+      <c r="D12" s="129"/>
+      <c r="E12" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="131"/>
-      <c r="G12" s="132"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="133"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="132"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
@@ -8629,11 +8634,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="130" t="s">
+      <c r="G14" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -8663,19 +8668,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="148" t="s">
+      <c r="E16" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="150" t="s">
+      <c r="F16" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150" t="s">
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="128"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -8686,13 +8691,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="129"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="107"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -8706,12 +8711,12 @@
       <c r="E18" s="57">
         <v>1</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="129"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="107"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -8725,12 +8730,12 @@
       <c r="E19" s="57">
         <v>2</v>
       </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="129"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="107"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -8744,12 +8749,12 @@
       <c r="E20" s="57">
         <v>3</v>
       </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="129"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="107"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -8765,12 +8770,12 @@
       <c r="E21" s="57">
         <v>4</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="129"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="107"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -8786,12 +8791,12 @@
       <c r="E22" s="57">
         <v>5</v>
       </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="129"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="107"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -8804,15 +8809,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="134" t="s">
+      <c r="E23" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -8845,15 +8850,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -9204,11 +9209,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="137" t="s">
+      <c r="A42" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -9356,6 +9361,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:K8"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="E23:K23"/>
@@ -9372,20 +9391,6 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:K8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9410,76 +9415,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="132"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="141"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9487,49 +9492,49 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="123" t="s">
+      <c r="B7" s="147"/>
+      <c r="C7" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="123" t="s">
+      <c r="D7" s="147"/>
+      <c r="E7" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="119" t="s">
+      <c r="F7" s="147"/>
+      <c r="G7" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="120"/>
-      <c r="I7" s="123" t="s">
+      <c r="H7" s="143"/>
+      <c r="I7" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="127"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="139" t="s">
+      <c r="J7" s="150"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="140"/>
-      <c r="N7" s="141"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="115"/>
       <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="144"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
       <c r="O8" s="61"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9556,11 +9561,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -10192,11 +10197,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="137" t="s">
+      <c r="A42" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -10359,6 +10364,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:K8"/>
+    <mergeCell ref="L7:N8"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="A42:C42"/>
@@ -10372,15 +10386,6 @@
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K18"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:K8"/>
-    <mergeCell ref="L7:N8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10406,23 +10411,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="132"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -10443,55 +10448,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="141"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10512,49 +10517,49 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="175" t="s">
+      <c r="B7" s="181"/>
+      <c r="C7" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="175" t="s">
+      <c r="D7" s="181"/>
+      <c r="E7" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="176"/>
-      <c r="G7" s="175" t="s">
+      <c r="F7" s="181"/>
+      <c r="G7" s="180" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="176"/>
-      <c r="I7" s="179" t="s">
+      <c r="H7" s="181"/>
+      <c r="I7" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="180"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="139" t="s">
+      <c r="J7" s="185"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="140"/>
-      <c r="N7" s="141"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="115"/>
       <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="144"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
       <c r="O8" s="61"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -10581,11 +10586,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -10616,13 +10621,13 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="186" t="s">
+      <c r="F12" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="186"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="187"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -10635,15 +10640,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="188" t="s">
+      <c r="F13" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="188"/>
-      <c r="H13" s="185" t="s">
+      <c r="G13" s="175"/>
+      <c r="H13" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="185"/>
-      <c r="J13" s="185"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -10656,13 +10661,13 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="188" t="s">
+      <c r="F14" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="188"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="185"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -10675,15 +10680,15 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="188" t="s">
+      <c r="F15" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="188"/>
-      <c r="H15" s="185" t="s">
+      <c r="G15" s="175"/>
+      <c r="H15" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -10696,15 +10701,15 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="188" t="s">
+      <c r="F16" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="188"/>
-      <c r="H16" s="185" t="s">
+      <c r="G16" s="175"/>
+      <c r="H16" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -10717,13 +10722,13 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="188" t="s">
+      <c r="F17" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="188"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -10736,13 +10741,13 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="188" t="s">
+      <c r="F18" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="188"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="189"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -10755,13 +10760,13 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="188" t="s">
+      <c r="F19" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="188"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="189"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -10774,13 +10779,13 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="188" t="s">
+      <c r="F20" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="188"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="189"/>
-      <c r="J20" s="189"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -10814,15 +10819,15 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="103" t="s">
+      <c r="F22" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="103"/>
+      <c r="G22" s="101"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="103" t="s">
+      <c r="I22" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="103"/>
+      <c r="J22" s="101"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -11397,6 +11402,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:K8"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="F22:G22"/>
@@ -11413,19 +11431,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:K8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11450,23 +11455,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="132"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -11487,55 +11492,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="141"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11556,49 +11561,49 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="192" t="s">
+      <c r="B7" s="181"/>
+      <c r="C7" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="192" t="s">
+      <c r="D7" s="215"/>
+      <c r="E7" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="193"/>
-      <c r="G7" s="175" t="s">
+      <c r="F7" s="215"/>
+      <c r="G7" s="180" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="176"/>
-      <c r="I7" s="196" t="s">
+      <c r="H7" s="181"/>
+      <c r="I7" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="197"/>
-      <c r="K7" s="198"/>
-      <c r="L7" s="202" t="s">
+      <c r="J7" s="219"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="224" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="203"/>
-      <c r="N7" s="204"/>
+      <c r="M7" s="225"/>
+      <c r="N7" s="226"/>
       <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="207"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="227"/>
+      <c r="M8" s="228"/>
+      <c r="N8" s="229"/>
       <c r="O8" s="61"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11625,11 +11630,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -11660,13 +11665,13 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="208" t="s">
+      <c r="F12" s="230" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="209"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="211"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="232"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="233"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -11679,15 +11684,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="190" t="s">
+      <c r="F13" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="188"/>
-      <c r="H13" s="185" t="s">
+      <c r="G13" s="175"/>
+      <c r="H13" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="185"/>
-      <c r="J13" s="191"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="213"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -11700,13 +11705,13 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="190" t="s">
+      <c r="F14" s="211" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="188"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="191"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="213"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -11719,15 +11724,15 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="190" t="s">
+      <c r="F15" s="211" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="188"/>
-      <c r="H15" s="185" t="s">
+      <c r="G15" s="175"/>
+      <c r="H15" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="185"/>
-      <c r="J15" s="191"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="213"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -11740,15 +11745,15 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="211" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="188"/>
-      <c r="H16" s="185" t="s">
+      <c r="G16" s="175"/>
+      <c r="H16" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="185"/>
-      <c r="J16" s="191"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="213"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -11761,13 +11766,13 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="190" t="s">
+      <c r="F17" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="188"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="191"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="213"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -11780,12 +11785,12 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="190" t="s">
+      <c r="F18" s="211" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="188"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
       <c r="J18" s="212"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
@@ -11799,12 +11804,12 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="190" t="s">
+      <c r="F19" s="211" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="188"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="189"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
       <c r="J19" s="212"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -11818,12 +11823,12 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="190" t="s">
+      <c r="F20" s="211" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="188"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="189"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
       <c r="J20" s="212"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -11854,15 +11859,15 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="130" t="s">
+      <c r="F22" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="132"/>
+      <c r="G22" s="124"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="130" t="s">
+      <c r="I22" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="132"/>
+      <c r="J22" s="124"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -11889,29 +11894,29 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="213" t="s">
+      <c r="C24" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="215" t="s">
+      <c r="D24" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="216"/>
-      <c r="F24" s="215" t="s">
+      <c r="E24" s="208"/>
+      <c r="F24" s="207" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="216"/>
-      <c r="H24" s="215" t="s">
+      <c r="G24" s="208"/>
+      <c r="H24" s="207" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="216"/>
-      <c r="J24" s="215" t="s">
+      <c r="I24" s="208"/>
+      <c r="J24" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="216"/>
-      <c r="L24" s="213" t="s">
+      <c r="K24" s="208"/>
+      <c r="L24" s="205" t="s">
         <v>125</v>
       </c>
-      <c r="M24" s="213" t="s">
+      <c r="M24" s="205" t="s">
         <v>126</v>
       </c>
       <c r="O24" s="40"/>
@@ -11919,17 +11924,17 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="218"/>
-      <c r="F25" s="217"/>
-      <c r="G25" s="218"/>
-      <c r="H25" s="217"/>
-      <c r="I25" s="218"/>
-      <c r="J25" s="217"/>
-      <c r="K25" s="218"/>
-      <c r="L25" s="214"/>
-      <c r="M25" s="214"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="210"/>
+      <c r="J25" s="209"/>
+      <c r="K25" s="210"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="206"/>
       <c r="O25" s="40"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -11938,14 +11943,14 @@
       <c r="C26" s="77">
         <v>1</v>
       </c>
-      <c r="D26" s="219"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="220"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="220"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="220"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="198"/>
       <c r="L26" s="78" t="s">
         <v>125</v>
       </c>
@@ -11960,14 +11965,14 @@
       <c r="C27" s="77">
         <v>2</v>
       </c>
-      <c r="D27" s="219"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="220"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="220"/>
-      <c r="J27" s="219"/>
-      <c r="K27" s="220"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="198"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
       <c r="L27" s="78" t="s">
         <v>125</v>
       </c>
@@ -11982,14 +11987,14 @@
       <c r="C28" s="77">
         <v>3</v>
       </c>
-      <c r="D28" s="219"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="220"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="220"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="220"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="198"/>
       <c r="L28" s="78" t="s">
         <v>125</v>
       </c>
@@ -12004,14 +12009,14 @@
       <c r="C29" s="77">
         <v>4</v>
       </c>
-      <c r="D29" s="219"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="220"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="220"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="220"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="198"/>
       <c r="L29" s="78" t="s">
         <v>125</v>
       </c>
@@ -12024,14 +12029,14 @@
       <c r="C30" s="77">
         <v>5</v>
       </c>
-      <c r="D30" s="219"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="220"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
       <c r="L30" s="78" t="s">
         <v>125</v>
       </c>
@@ -12041,19 +12046,19 @@
       <c r="O30" s="40"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C31" s="219" t="s">
+      <c r="C31" s="197" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="224"/>
-      <c r="E31" s="224"/>
-      <c r="F31" s="224"/>
-      <c r="G31" s="224"/>
-      <c r="H31" s="224"/>
-      <c r="I31" s="224"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="224"/>
-      <c r="L31" s="224"/>
-      <c r="M31" s="220"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="199"/>
+      <c r="K31" s="199"/>
+      <c r="L31" s="199"/>
+      <c r="M31" s="198"/>
       <c r="O31" s="40"/>
     </row>
     <row r="32" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12115,12 +12120,12 @@
         <v>129</v>
       </c>
       <c r="J35" s="27"/>
-      <c r="K35" s="225" t="s">
+      <c r="K35" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="L35" s="226"/>
-      <c r="M35" s="226"/>
-      <c r="N35" s="227"/>
+      <c r="L35" s="201"/>
+      <c r="M35" s="201"/>
+      <c r="N35" s="202"/>
       <c r="O35" s="79" t="s">
         <v>129</v>
       </c>
@@ -12143,7 +12148,7 @@
       <c r="O36" s="40"/>
     </row>
     <row r="37" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="221" t="s">
+      <c r="A37" s="194" t="s">
         <v>119</v>
       </c>
       <c r="B37" s="155"/>
@@ -12158,20 +12163,20 @@
       <c r="I37" s="40"/>
       <c r="J37" s="27"/>
       <c r="K37" s="39"/>
-      <c r="L37" s="228" t="s">
+      <c r="L37" s="203" t="s">
         <v>131</v>
       </c>
       <c r="M37" s="27"/>
-      <c r="N37" s="228" t="s">
+      <c r="N37" s="203" t="s">
         <v>130</v>
       </c>
       <c r="O37" s="40"/>
     </row>
     <row r="38" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="222" t="s">
+      <c r="A38" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="223"/>
+      <c r="B38" s="196"/>
       <c r="C38" s="156" t="s">
         <v>24</v>
       </c>
@@ -12183,16 +12188,16 @@
       <c r="I38" s="40"/>
       <c r="J38" s="27"/>
       <c r="K38" s="39"/>
-      <c r="L38" s="229"/>
+      <c r="L38" s="204"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="229"/>
+      <c r="N38" s="204"/>
       <c r="O38" s="40"/>
     </row>
     <row r="39" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="232" t="s">
+      <c r="A39" s="192" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="233"/>
+      <c r="B39" s="193"/>
       <c r="C39" s="156"/>
       <c r="D39" s="157"/>
       <c r="E39" s="157"/>
@@ -12208,10 +12213,10 @@
       <c r="O39" s="49"/>
     </row>
     <row r="40" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="232" t="s">
+      <c r="A40" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="233"/>
+      <c r="B40" s="193"/>
       <c r="C40" s="156"/>
       <c r="D40" s="157"/>
       <c r="E40" s="157"/>
@@ -12227,10 +12232,10 @@
       <c r="O40" s="40"/>
     </row>
     <row r="41" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="232" t="s">
+      <c r="A41" s="192" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="233"/>
+      <c r="B41" s="193"/>
       <c r="C41" s="156"/>
       <c r="D41" s="157"/>
       <c r="E41" s="157"/>
@@ -12285,10 +12290,10 @@
       </c>
       <c r="C44" s="158"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="230" t="s">
+      <c r="E44" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="231"/>
+      <c r="F44" s="191"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="40"/>
@@ -12619,64 +12624,6 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="A1:O1"/>
@@ -12692,6 +12639,64 @@
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12711,23 +12716,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="132"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -12748,55 +12753,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="141"/>
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12817,11 +12822,11 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="123" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="146" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="234"/>
@@ -12838,9 +12843,9 @@
       <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="148"/>
       <c r="D8" s="235"/>
       <c r="E8" s="86"/>
       <c r="F8" s="87"/>
@@ -12878,11 +12883,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -12910,25 +12915,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="130" t="s">
+      <c r="D12" s="129"/>
+      <c r="E12" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="131"/>
-      <c r="G12" s="132"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="133"/>
-      <c r="K12" s="130" t="s">
+      <c r="J12" s="129"/>
+      <c r="K12" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="131"/>
-      <c r="M12" s="132"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
       <c r="N12" s="27"/>
       <c r="O12" s="40"/>
     </row>
@@ -12956,11 +12961,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="130" t="s">
+      <c r="G14" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -12990,19 +12995,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="148" t="s">
+      <c r="E16" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="150" t="s">
+      <c r="F16" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150" t="s">
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="128"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -13013,13 +13018,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="129"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="107"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -13033,12 +13038,12 @@
       <c r="E18" s="57">
         <v>1</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="129"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="107"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -13052,12 +13057,12 @@
       <c r="E19" s="57">
         <v>2</v>
       </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="129"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="107"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -13071,12 +13076,12 @@
       <c r="E20" s="57">
         <v>3</v>
       </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="129"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="107"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -13092,12 +13097,12 @@
       <c r="E21" s="57">
         <v>4</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="129"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="107"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -13113,12 +13118,12 @@
       <c r="E22" s="57">
         <v>5</v>
       </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="129"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="107"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -13131,15 +13136,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="134" t="s">
+      <c r="E23" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -13172,15 +13177,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -13670,15 +13675,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -13695,6 +13691,15 @@
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
     <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
+++ b/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="705" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="705" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Đại lý - Nạp tiền tài khoản" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,16 @@
     <sheet name="Khách hàng - Đk hành trình" sheetId="12" r:id="rId9"/>
     <sheet name="Lái xe - lich sử nạp tiền " sheetId="9" r:id="rId10"/>
     <sheet name="Lái xe - lịch sử hành trình " sheetId="10" r:id="rId11"/>
-    <sheet name="Doanh nghiệp - QL taxi " sheetId="11" r:id="rId12"/>
+    <sheet name="Lái xe - đk hành trình " sheetId="13" r:id="rId12"/>
+    <sheet name="Lái xe - TT lái xe " sheetId="14" r:id="rId13"/>
+    <sheet name="Doanh nghiệp - QL taxi " sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="184">
   <si>
     <t>Phần màn hình dành cho đại lý thu phí</t>
   </si>
@@ -551,6 +553,63 @@
   </si>
   <si>
     <t>Mã khách hàng : #123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điểm đến </t>
+  </si>
+  <si>
+    <t>Điểm đi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách chuyến đi dài </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điểm đi </t>
+  </si>
+  <si>
+    <t>TÌM</t>
+  </si>
+  <si>
+    <t>Điểm đến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lái xe </t>
+  </si>
+  <si>
+    <t>Số ĐTDĐ</t>
+  </si>
+  <si>
+    <t>Biển số xe</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>(View)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo hành trình mới </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông tin chi tiết hành trình </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đóng </t>
+  </si>
+  <si>
+    <t>Điểm đi (*)</t>
+  </si>
+  <si>
+    <t>Điểm đến (*)</t>
+  </si>
+  <si>
+    <t>tạo hành trình mới không hiển thị bảng ( nếu người dùng chưa tìm kiếm )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐĂNG KÍ HÀNH TRÌNH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THÔNG TIN LÁI XE </t>
   </si>
 </sst>
 </file>
@@ -629,7 +688,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +716,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,7 +1500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1534,24 +1605,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1580,351 +1639,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1934,146 +1654,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2095,28 +1686,526 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2502,18 +2591,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -2539,55 +2628,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2595,14 +2684,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -2631,16 +2720,16 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96" t="s">
+      <c r="F8" s="108"/>
+      <c r="G8" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -2652,14 +2741,14 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -2671,16 +2760,16 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96" t="s">
+      <c r="F10" s="108"/>
+      <c r="G10" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -2711,10 +2800,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="96"/>
+      <c r="H12" s="109"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -2745,14 +2834,14 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
       <c r="K14" s="6"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -2764,12 +2853,12 @@
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
       <c r="K15" s="6"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -2781,12 +2870,12 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
       <c r="K16" s="6"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -2798,12 +2887,12 @@
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
       <c r="K17" s="6"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -2815,12 +2904,12 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
       <c r="K18" s="6"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -3348,17 +3437,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="E14:J18"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3373,8 +3462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3383,23 +3472,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -3420,55 +3509,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3489,41 +3578,45 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="116" t="s">
+      <c r="B7" s="145"/>
+      <c r="C7" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="152" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="153"/>
+      <c r="G7" s="152" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="153"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
       <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
       <c r="O8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3550,11 +3643,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -3582,25 +3675,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="119" t="s">
+      <c r="D12" s="131"/>
+      <c r="E12" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="119" t="s">
+      <c r="J12" s="131"/>
+      <c r="K12" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -3628,11 +3721,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -3662,19 +3755,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="137" t="s">
+      <c r="F16" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137" t="s">
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -3685,13 +3778,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="118"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="115"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -3705,12 +3798,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="118"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="115"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -3724,12 +3817,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="118"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="115"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -3743,12 +3836,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="118"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="115"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -3764,12 +3857,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="118"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="115"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -3785,12 +3878,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="118"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="115"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -3803,15 +3896,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="123" t="s">
+      <c r="E23" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -3844,15 +3937,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="132" t="s">
+      <c r="E25" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="134"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -4341,16 +4434,9 @@
       <c r="V49" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
+  <mergeCells count="27">
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -4367,7 +4453,22 @@
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
     <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
+    <hyperlink ref="C7:D8" location="'Lái xe - lịch sử hành trình '!A1" display="LỊCH SỬ HÀNH TRÌNH"/>
+    <hyperlink ref="E7:F8" location="'Lái xe - đk hành trình '!A1" display="ĐĂNG KÍ HÀNH TRÌNH "/>
+    <hyperlink ref="G7:H8" location="'Lái xe - TT lái xe '!A1" display="THÔNG TIN LÁI XE "/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4377,7 +4478,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4386,23 +4487,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -4423,55 +4524,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4492,41 +4593,41 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="199" t="s">
+      <c r="B7" s="238"/>
+      <c r="C7" s="241" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="200"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
+      <c r="D7" s="242"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="250"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
       <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="197"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
       <c r="O8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4553,11 +4654,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -4585,25 +4686,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="119" t="s">
+      <c r="D12" s="131"/>
+      <c r="E12" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="119" t="s">
+      <c r="J12" s="131"/>
+      <c r="K12" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -4631,11 +4732,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -4665,19 +4766,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="137" t="s">
+      <c r="F16" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137" t="s">
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -4688,13 +4789,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="118"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="115"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -4708,12 +4809,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="118"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="115"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -4727,12 +4828,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="118"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="115"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -4746,12 +4847,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="118"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="115"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -4767,12 +4868,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="118"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="115"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -4788,12 +4889,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="118"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="115"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -4806,15 +4907,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="123" t="s">
+      <c r="E23" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -4847,15 +4948,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="132" t="s">
+      <c r="E25" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="134"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -5344,7 +5445,23 @@
       <c r="V49" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="E23:K23"/>
@@ -5355,27 +5472,38 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="G10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V68"/>
   <sheetViews>
@@ -5386,23 +5514,23 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -5423,55 +5551,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5492,51 +5620,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="237" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="214" t="s">
+      <c r="B7" s="238"/>
+      <c r="C7" s="245" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="215"/>
-      <c r="E7" s="128" t="s">
+      <c r="D7" s="246"/>
+      <c r="E7" s="249" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="129"/>
-      <c r="G7" s="128" t="s">
+      <c r="F7" s="250"/>
+      <c r="G7" s="249" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="128" t="s">
+      <c r="H7" s="250"/>
+      <c r="I7" s="249" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="128" t="s">
+      <c r="J7" s="250"/>
+      <c r="K7" s="249" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="129"/>
-      <c r="M7" s="128" t="s">
+      <c r="L7" s="250"/>
+      <c r="M7" s="249" t="s">
         <v>141</v>
       </c>
-      <c r="N7" s="129"/>
+      <c r="N7" s="250"/>
       <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="197"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="131"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="252"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="251"/>
+      <c r="N8" s="252"/>
       <c r="O8" s="48"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -5562,12 +5690,12 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="218" t="s">
+      <c r="F10" s="253" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="253"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -5595,42 +5723,42 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="219"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="84"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="95" t="s">
+      <c r="I12" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="207"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="209"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="229"/>
+      <c r="M12" s="230"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="198" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="220"/>
+      <c r="D13" s="255"/>
       <c r="E13" s="64"/>
       <c r="F13" s="65"/>
       <c r="G13" s="66"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="192" t="s">
+      <c r="I13" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="192"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="145"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="178"/>
       <c r="N13" s="27"/>
       <c r="O13" s="39"/>
     </row>
@@ -5658,10 +5786,10 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="143" t="s">
+      <c r="G15" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="145"/>
+      <c r="H15" s="178"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -5690,10 +5818,10 @@
     <row r="17" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="143" t="s">
+      <c r="C17" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="145"/>
+      <c r="D17" s="178"/>
       <c r="N17" s="27"/>
       <c r="O17" s="39"/>
     </row>
@@ -5706,29 +5834,29 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="172" t="s">
+      <c r="C19" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="174" t="s">
+      <c r="D19" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="175"/>
-      <c r="F19" s="210" t="s">
+      <c r="E19" s="210"/>
+      <c r="F19" s="256" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="211"/>
-      <c r="H19" s="210" t="s">
+      <c r="G19" s="257"/>
+      <c r="H19" s="256" t="s">
         <v>144</v>
       </c>
-      <c r="I19" s="211"/>
-      <c r="J19" s="210" t="s">
+      <c r="I19" s="257"/>
+      <c r="J19" s="256" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="211"/>
-      <c r="L19" s="172" t="s">
+      <c r="K19" s="257"/>
+      <c r="L19" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="M19" s="172" t="s">
+      <c r="M19" s="207" t="s">
         <v>117</v>
       </c>
       <c r="N19" s="27"/>
@@ -5737,17 +5865,17 @@
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="173"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="258"/>
+      <c r="G20" s="259"/>
+      <c r="H20" s="258"/>
+      <c r="I20" s="259"/>
+      <c r="J20" s="258"/>
+      <c r="K20" s="259"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="208"/>
       <c r="N20" s="27"/>
       <c r="O20" s="39"/>
       <c r="Q20" s="27"/>
@@ -5759,18 +5887,18 @@
       <c r="C21" s="71">
         <v>1</v>
       </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="206"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="89" t="s">
+      <c r="D21" s="199"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="263"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M21" s="89" t="s">
+      <c r="M21" s="85" t="s">
         <v>117</v>
       </c>
       <c r="N21" s="27"/>
@@ -5784,18 +5912,18 @@
       <c r="C22" s="71">
         <v>2</v>
       </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="89" t="s">
+      <c r="D22" s="199"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M22" s="89" t="s">
+      <c r="M22" s="85" t="s">
         <v>117</v>
       </c>
       <c r="N22" s="27"/>
@@ -5809,18 +5937,18 @@
       <c r="C23" s="71">
         <v>3</v>
       </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="89" t="s">
+      <c r="D23" s="199"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M23" s="89" t="s">
+      <c r="M23" s="85" t="s">
         <v>117</v>
       </c>
       <c r="N23" s="27"/>
@@ -5834,18 +5962,18 @@
       <c r="C24" s="71">
         <v>4</v>
       </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="89" t="s">
+      <c r="D24" s="199"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M24" s="89" t="s">
+      <c r="M24" s="85" t="s">
         <v>117</v>
       </c>
       <c r="N24" s="27"/>
@@ -5857,21 +5985,21 @@
     <row r="25" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="90">
+      <c r="C25" s="86">
         <v>5</v>
       </c>
-      <c r="D25" s="203"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="91" t="s">
+      <c r="D25" s="260"/>
+      <c r="E25" s="261"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="91" t="s">
+      <c r="M25" s="87" t="s">
         <v>117</v>
       </c>
       <c r="N25" s="27"/>
@@ -5883,19 +6011,19 @@
     <row r="26" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="145"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="178"/>
       <c r="N26" s="27"/>
       <c r="O26" s="39"/>
       <c r="P26" s="27"/>
@@ -6092,7 +6220,7 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G42" s="74"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
@@ -6231,12 +6359,12 @@
       <c r="F52" s="39"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A53" s="81"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="83"/>
+      <c r="A53" s="77"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="79"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="38"/>
@@ -6276,43 +6404,43 @@
       <c r="F58" s="39"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" s="84"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
+      <c r="A59" s="80"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
       <c r="F59" s="39"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A61" s="82"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
       <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A62" s="82"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
       <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A63" s="85"/>
-      <c r="B63" s="82"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
       <c r="F63" s="39"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
@@ -6342,14 +6470,28 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="J21:K21"/>
@@ -6366,28 +6508,14 @@
     <mergeCell ref="J19:K20"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6408,23 +6536,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -6447,57 +6575,57 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
       <c r="O3" s="3"/>
       <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
       <c r="O4" s="5"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
       <c r="O5" s="5"/>
       <c r="P5"/>
     </row>
@@ -6506,14 +6634,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -6560,23 +6688,23 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9"/>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
       <c r="H9"/>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="96" t="s">
+      <c r="J9" s="108"/>
+      <c r="K9" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
       <c r="N9"/>
       <c r="O9" s="5"/>
       <c r="P9"/>
@@ -6584,25 +6712,25 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10"/>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96" t="s">
+      <c r="D10" s="108"/>
+      <c r="E10" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
       <c r="H10"/>
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J10"/>
-      <c r="K10" s="96" t="s">
+      <c r="K10" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
       <c r="N10"/>
       <c r="O10" s="5"/>
       <c r="P10"/>
@@ -6632,11 +6760,11 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -6665,47 +6793,47 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96" t="s">
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96" t="s">
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96" t="s">
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
       <c r="O14" s="5"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
       <c r="O15" s="5"/>
       <c r="P15"/>
     </row>
@@ -6714,26 +6842,26 @@
       <c r="B16" s="22">
         <v>1</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96" t="s">
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="99">
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="113">
         <v>41983</v>
       </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="96">
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="109">
         <v>500000</v>
       </c>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
       <c r="O16" s="5"/>
       <c r="P16"/>
     </row>
@@ -6742,26 +6870,26 @@
       <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96" t="s">
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="99">
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="113">
         <v>41924</v>
       </c>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="96">
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="109">
         <v>50000</v>
       </c>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
       <c r="O17" s="5"/>
       <c r="P17"/>
     </row>
@@ -6770,26 +6898,26 @@
       <c r="B18" s="22">
         <v>3</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96" t="s">
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96" t="s">
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96" t="s">
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
       <c r="O18" s="5"/>
       <c r="P18"/>
     </row>
@@ -6798,26 +6926,26 @@
       <c r="B19" s="22">
         <v>4</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96" t="s">
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96" t="s">
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96" t="s">
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
       <c r="O19" s="5"/>
       <c r="P19"/>
     </row>
@@ -6826,46 +6954,46 @@
       <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96" t="s">
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96" t="s">
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96" t="s">
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
       <c r="O20" s="5"/>
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
       <c r="O21" s="5"/>
       <c r="P21"/>
     </row>
@@ -7330,27 +7458,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="K10:M10"/>
@@ -7360,13 +7474,27 @@
     <mergeCell ref="F14:H15"/>
     <mergeCell ref="I14:K15"/>
     <mergeCell ref="L14:N15"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="B21:N21"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7391,23 +7519,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -7428,55 +7556,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7497,52 +7625,52 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="221" t="s">
+      <c r="B7" s="145"/>
+      <c r="C7" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="222"/>
-      <c r="E7" s="221" t="s">
+      <c r="D7" s="149"/>
+      <c r="E7" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="222"/>
-      <c r="G7" s="221" t="s">
+      <c r="F7" s="149"/>
+      <c r="G7" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="222"/>
-      <c r="I7" s="231" t="s">
+      <c r="H7" s="149"/>
+      <c r="I7" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="232"/>
-      <c r="K7" s="231" t="s">
+      <c r="J7" s="153"/>
+      <c r="K7" s="152" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="232"/>
-      <c r="M7" s="231" t="s">
+      <c r="L7" s="153"/>
+      <c r="M7" s="152" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="232"/>
-      <c r="O7" s="225"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="93"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="229"/>
-      <c r="B8" s="230"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="233"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="233"/>
-      <c r="N8" s="234"/>
-      <c r="O8" s="226"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
@@ -7568,11 +7696,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -7600,25 +7728,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="119" t="s">
+      <c r="D12" s="131"/>
+      <c r="E12" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="119" t="s">
+      <c r="J12" s="131"/>
+      <c r="K12" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -7646,11 +7774,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -7680,19 +7808,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="137" t="s">
+      <c r="F16" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137" t="s">
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -7703,13 +7831,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="118"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="115"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -7723,12 +7851,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="118"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="115"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -7742,12 +7870,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="118"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="115"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -7761,12 +7889,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="118"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="115"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -7782,12 +7910,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="118"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="115"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -7803,12 +7931,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="118"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="115"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -7821,15 +7949,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="123" t="s">
+      <c r="E23" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -7862,15 +7990,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="132" t="s">
+      <c r="E25" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="134"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -8221,11 +8349,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="126" t="s">
+      <c r="A42" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="39"/>
@@ -8386,28 +8514,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -8417,6 +8523,28 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E25:K25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -8450,23 +8578,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="158"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -8487,55 +8615,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8556,52 +8684,52 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="249" t="s">
+      <c r="B7" s="160"/>
+      <c r="C7" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="250"/>
-      <c r="E7" s="237" t="s">
+      <c r="D7" s="164"/>
+      <c r="E7" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="238"/>
-      <c r="G7" s="237" t="s">
+      <c r="F7" s="168"/>
+      <c r="G7" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="238"/>
-      <c r="I7" s="239" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="240"/>
-      <c r="K7" s="239" t="s">
+      <c r="J7" s="172"/>
+      <c r="K7" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="240"/>
-      <c r="M7" s="239" t="s">
+      <c r="L7" s="172"/>
+      <c r="M7" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="240"/>
-      <c r="O7" s="241"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
-      <c r="B8" s="243"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="248"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
@@ -8627,11 +8755,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -8659,25 +8787,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="119" t="s">
+      <c r="D12" s="131"/>
+      <c r="E12" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="119" t="s">
+      <c r="J12" s="131"/>
+      <c r="K12" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -8705,11 +8833,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -8739,19 +8867,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="137" t="s">
+      <c r="F16" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137" t="s">
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -8762,13 +8890,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="118"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="115"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -8782,12 +8910,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="118"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="115"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -8801,12 +8929,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="118"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="115"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -8820,12 +8948,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="118"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="115"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -8841,12 +8969,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="118"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="115"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -8862,12 +8990,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="118"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="115"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -8880,15 +9008,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="123" t="s">
+      <c r="E23" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -8921,15 +9049,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="132" t="s">
+      <c r="E25" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="134"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -9282,11 +9410,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="126" t="s">
+      <c r="A42" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -9447,28 +9575,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -9478,6 +9584,28 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E25:K25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -9511,23 +9639,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -9548,55 +9676,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9617,52 +9745,52 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237" t="s">
+      <c r="B7" s="160"/>
+      <c r="C7" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="249" t="s">
+      <c r="D7" s="168"/>
+      <c r="E7" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="250"/>
-      <c r="G7" s="237" t="s">
+      <c r="F7" s="164"/>
+      <c r="G7" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="238"/>
-      <c r="I7" s="239" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="240"/>
-      <c r="K7" s="239" t="s">
+      <c r="J7" s="172"/>
+      <c r="K7" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="240"/>
-      <c r="M7" s="239" t="s">
+      <c r="L7" s="172"/>
+      <c r="M7" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="240"/>
-      <c r="O7" s="241"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
-      <c r="B8" s="243"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="245"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="248"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
@@ -9688,11 +9816,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -9720,23 +9848,23 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="119" t="s">
+      <c r="D12" s="131"/>
+      <c r="E12" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -9764,11 +9892,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -9798,19 +9926,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="137" t="s">
+      <c r="F16" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137" t="s">
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -9821,13 +9949,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="118"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="115"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -9841,12 +9969,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="118"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="115"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -9860,12 +9988,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="118"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="115"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -9879,12 +10007,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="118"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="115"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -9900,12 +10028,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="118"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="115"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -9921,12 +10049,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="118"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="115"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -9939,15 +10067,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="123" t="s">
+      <c r="E23" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -9980,15 +10108,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="132" t="s">
+      <c r="E25" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="134"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -10341,11 +10469,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="126" t="s">
+      <c r="A42" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -10493,28 +10621,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -10524,6 +10630,28 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E25:K25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -10548,7 +10676,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B41"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10557,76 +10685,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10634,52 +10762,52 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237" t="s">
+      <c r="B7" s="160"/>
+      <c r="C7" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="237" t="s">
+      <c r="D7" s="168"/>
+      <c r="E7" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="238"/>
-      <c r="G7" s="249" t="s">
+      <c r="F7" s="168"/>
+      <c r="G7" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="250"/>
-      <c r="I7" s="239" t="s">
+      <c r="H7" s="164"/>
+      <c r="I7" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="240"/>
-      <c r="K7" s="239" t="s">
+      <c r="J7" s="172"/>
+      <c r="K7" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="240"/>
-      <c r="M7" s="239" t="s">
+      <c r="L7" s="172"/>
+      <c r="M7" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="240"/>
-      <c r="O7" s="241"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
-      <c r="B8" s="243"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="245"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="252"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="248"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
@@ -10705,11 +10833,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -10739,17 +10867,17 @@
       <c r="B12" s="27"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="142" t="s">
+      <c r="E12" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="142"/>
-      <c r="G12" s="143" t="s">
+      <c r="F12" s="175"/>
+      <c r="G12" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="178"/>
       <c r="L12" s="57"/>
       <c r="M12" s="57"/>
       <c r="N12" s="27"/>
@@ -10760,15 +10888,15 @@
       <c r="B13" s="27"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="146"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="149"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="182"/>
       <c r="L13" s="57"/>
       <c r="M13" s="57"/>
       <c r="N13" s="27"/>
@@ -10779,17 +10907,17 @@
       <c r="B14" s="27"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
-      <c r="E14" s="146" t="s">
+      <c r="E14" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="150" t="s">
+      <c r="F14" s="179"/>
+      <c r="G14" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="152"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="185"/>
       <c r="L14" s="57"/>
       <c r="M14" s="57"/>
       <c r="N14" s="27"/>
@@ -10800,15 +10928,15 @@
       <c r="B15" s="27"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="146" t="s">
+      <c r="E15" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="146"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="155"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="188"/>
       <c r="L15" s="57"/>
       <c r="M15" s="57"/>
       <c r="N15" s="27"/>
@@ -10819,17 +10947,17 @@
       <c r="B16" s="27"/>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
-      <c r="E16" s="142" t="s">
+      <c r="E16" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="142"/>
-      <c r="G16" s="143" t="s">
+      <c r="F16" s="175"/>
+      <c r="G16" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="145"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="178"/>
       <c r="L16" s="57"/>
       <c r="M16" s="57"/>
       <c r="N16" s="27"/>
@@ -10840,17 +10968,17 @@
       <c r="B17" s="27"/>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
-      <c r="E17" s="146" t="s">
+      <c r="E17" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="146"/>
-      <c r="G17" s="156" t="s">
+      <c r="F17" s="179"/>
+      <c r="G17" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="158"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="191"/>
       <c r="L17" s="57"/>
       <c r="M17" s="57"/>
       <c r="N17" s="27"/>
@@ -10863,11 +10991,11 @@
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
       <c r="F18" s="57"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="161"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="194"/>
       <c r="L18" s="57"/>
       <c r="M18" s="57"/>
       <c r="N18" s="27"/>
@@ -11343,11 +11471,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="126" t="s">
+      <c r="A42" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -11510,6 +11638,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="A42:C42"/>
@@ -11523,16 +11661,6 @@
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K18"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -11557,7 +11685,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K35" sqref="K35:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11567,23 +11695,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -11604,55 +11732,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11673,52 +11801,52 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237" t="s">
+      <c r="B7" s="160"/>
+      <c r="C7" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="237" t="s">
+      <c r="D7" s="168"/>
+      <c r="E7" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="238"/>
-      <c r="G7" s="237" t="s">
+      <c r="F7" s="168"/>
+      <c r="G7" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="238"/>
-      <c r="I7" s="253" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="254"/>
-      <c r="K7" s="239" t="s">
+      <c r="J7" s="224"/>
+      <c r="K7" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="240"/>
-      <c r="M7" s="239" t="s">
+      <c r="L7" s="172"/>
+      <c r="M7" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="240"/>
-      <c r="O7" s="241"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
-      <c r="B8" s="243"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="245"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="256"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="248"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
@@ -11744,11 +11872,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -11779,13 +11907,13 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="167" t="s">
+      <c r="F12" s="219" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="168"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="170"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="222"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -11798,15 +11926,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="165" t="s">
+      <c r="F13" s="213" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="163"/>
-      <c r="H13" s="162" t="s">
+      <c r="G13" s="214"/>
+      <c r="H13" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="162"/>
-      <c r="J13" s="166"/>
+      <c r="I13" s="217"/>
+      <c r="J13" s="218"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -11819,13 +11947,13 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="165" t="s">
+      <c r="F14" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="163"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="166"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="218"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -11838,15 +11966,15 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="165" t="s">
+      <c r="F15" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="163"/>
-      <c r="H15" s="162" t="s">
+      <c r="G15" s="214"/>
+      <c r="H15" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="162"/>
-      <c r="J15" s="166"/>
+      <c r="I15" s="217"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -11859,15 +11987,15 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="165" t="s">
+      <c r="F16" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="163"/>
-      <c r="H16" s="162" t="s">
+      <c r="G16" s="214"/>
+      <c r="H16" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="162"/>
-      <c r="J16" s="166"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="218"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -11880,13 +12008,13 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="163"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="166"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="218"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -11899,13 +12027,13 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="165" t="s">
+      <c r="F18" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="163"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="171"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="215"/>
+      <c r="J18" s="216"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -11918,13 +12046,13 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="165" t="s">
+      <c r="F19" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="163"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="171"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="216"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -11937,13 +12065,13 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="165" t="s">
+      <c r="F20" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="163"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="171"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="215"/>
+      <c r="J20" s="216"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -11977,15 +12105,15 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="119" t="s">
+      <c r="F22" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="121"/>
+      <c r="G22" s="126"/>
       <c r="H22" s="52"/>
-      <c r="I22" s="119" t="s">
+      <c r="I22" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="121"/>
+      <c r="J22" s="126"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -12016,29 +12144,29 @@
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="172" t="s">
+      <c r="C24" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="174" t="s">
+      <c r="D24" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="175"/>
-      <c r="F24" s="174" t="s">
+      <c r="E24" s="210"/>
+      <c r="F24" s="209" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="175"/>
-      <c r="H24" s="174" t="s">
+      <c r="G24" s="210"/>
+      <c r="H24" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="175"/>
-      <c r="J24" s="174" t="s">
+      <c r="I24" s="210"/>
+      <c r="J24" s="209" t="s">
         <v>115</v>
       </c>
-      <c r="K24" s="175"/>
-      <c r="L24" s="172" t="s">
+      <c r="K24" s="210"/>
+      <c r="L24" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="M24" s="172" t="s">
+      <c r="M24" s="207" t="s">
         <v>117</v>
       </c>
       <c r="O24" s="39"/>
@@ -12049,17 +12177,17 @@
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="38"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="176"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="173"/>
-      <c r="M25" s="173"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="212"/>
+      <c r="L25" s="208"/>
+      <c r="M25" s="208"/>
       <c r="O25" s="39"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="27"/>
@@ -12071,18 +12199,18 @@
       <c r="C26" s="71">
         <v>1</v>
       </c>
-      <c r="D26" s="178"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="89" t="s">
+      <c r="D26" s="199"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="201"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M26" s="89" t="s">
+      <c r="M26" s="85" t="s">
         <v>117</v>
       </c>
       <c r="O26" s="39"/>
@@ -12096,18 +12224,18 @@
       <c r="C27" s="71">
         <v>2</v>
       </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="89" t="s">
+      <c r="D27" s="199"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="201"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M27" s="89" t="s">
+      <c r="M27" s="85" t="s">
         <v>117</v>
       </c>
       <c r="O27" s="39"/>
@@ -12121,18 +12249,18 @@
       <c r="C28" s="71">
         <v>3</v>
       </c>
-      <c r="D28" s="178"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="89" t="s">
+      <c r="D28" s="199"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M28" s="89" t="s">
+      <c r="M28" s="85" t="s">
         <v>117</v>
       </c>
       <c r="O28" s="39"/>
@@ -12146,18 +12274,18 @@
       <c r="C29" s="71">
         <v>4</v>
       </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="89" t="s">
+      <c r="D29" s="199"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="199"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M29" s="89" t="s">
+      <c r="M29" s="85" t="s">
         <v>117</v>
       </c>
       <c r="O29" s="39"/>
@@ -12169,18 +12297,18 @@
       <c r="C30" s="71">
         <v>5</v>
       </c>
-      <c r="D30" s="178"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="89" t="s">
+      <c r="D30" s="199"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="M30" s="89" t="s">
+      <c r="M30" s="85" t="s">
         <v>117</v>
       </c>
       <c r="O30" s="39"/>
@@ -12189,19 +12317,19 @@
       <c r="V30" s="27"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C31" s="178" t="s">
+      <c r="C31" s="199" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="179"/>
+      <c r="D31" s="200"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="200"/>
+      <c r="L31" s="200"/>
+      <c r="M31" s="201"/>
       <c r="O31" s="39"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="27"/>
@@ -12225,10 +12353,10 @@
       <c r="V32" s="27"/>
     </row>
     <row r="33" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="143" t="s">
+      <c r="C33" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="145"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
@@ -12261,27 +12389,27 @@
       <c r="V34" s="27"/>
     </row>
     <row r="35" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="277" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="73" t="s">
+      <c r="B35" s="278"/>
+      <c r="C35" s="278"/>
+      <c r="D35" s="278"/>
+      <c r="E35" s="278"/>
+      <c r="F35" s="278"/>
+      <c r="G35" s="278"/>
+      <c r="H35" s="279"/>
+      <c r="I35" s="276" t="s">
         <v>120</v>
       </c>
       <c r="J35" s="27"/>
-      <c r="K35" s="184" t="s">
+      <c r="K35" s="280" t="s">
         <v>119</v>
       </c>
-      <c r="L35" s="185"/>
-      <c r="M35" s="185"/>
-      <c r="N35" s="186"/>
-      <c r="O35" s="72" t="s">
+      <c r="L35" s="281"/>
+      <c r="M35" s="281"/>
+      <c r="N35" s="282"/>
+      <c r="O35" s="275" t="s">
         <v>120</v>
       </c>
       <c r="P35" s="14"/>
@@ -12309,26 +12437,26 @@
       <c r="V36" s="27"/>
     </row>
     <row r="37" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="180" t="s">
+      <c r="A37" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="142"/>
-      <c r="C37" s="143" t="s">
+      <c r="B37" s="175"/>
+      <c r="C37" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="145"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="178"/>
       <c r="H37" s="27"/>
       <c r="I37" s="39"/>
       <c r="J37" s="27"/>
       <c r="K37" s="38"/>
-      <c r="L37" s="187" t="s">
+      <c r="L37" s="203" t="s">
         <v>122</v>
       </c>
       <c r="M37" s="27"/>
-      <c r="N37" s="187" t="s">
+      <c r="N37" s="203" t="s">
         <v>121</v>
       </c>
       <c r="O37" s="39"/>
@@ -12337,39 +12465,39 @@
       <c r="V37" s="27"/>
     </row>
     <row r="38" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="181" t="s">
+      <c r="A38" s="205" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="182"/>
-      <c r="C38" s="143" t="s">
+      <c r="B38" s="206"/>
+      <c r="C38" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="145"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="178"/>
       <c r="H38" s="27"/>
       <c r="I38" s="39"/>
       <c r="J38" s="27"/>
       <c r="K38" s="38"/>
-      <c r="L38" s="188"/>
+      <c r="L38" s="204"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="188"/>
+      <c r="N38" s="204"/>
       <c r="O38" s="39"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="27"/>
       <c r="V38" s="27"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="191" t="s">
+      <c r="A39" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="192"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="145"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="178"/>
       <c r="H39" s="27"/>
       <c r="I39" s="39"/>
       <c r="J39" s="27"/>
@@ -12383,15 +12511,15 @@
       <c r="V39" s="27"/>
     </row>
     <row r="40" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="191" t="s">
+      <c r="A40" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="192"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="145"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="178"/>
       <c r="H40" s="27"/>
       <c r="I40" s="39"/>
       <c r="J40" s="27"/>
@@ -12405,15 +12533,15 @@
       <c r="V40" s="27"/>
     </row>
     <row r="41" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="191" t="s">
+      <c r="A41" s="197" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="192"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="145"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="178"/>
       <c r="H41" s="27"/>
       <c r="I41" s="39"/>
       <c r="J41" s="27"/>
@@ -12464,15 +12592,15 @@
     </row>
     <row r="44" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="176" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="145"/>
+      <c r="C44" s="178"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="189" t="s">
+      <c r="E44" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="190"/>
+      <c r="F44" s="196"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="39"/>
@@ -12505,14 +12633,14 @@
       <c r="V45" s="27"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="39"/>
@@ -12526,14 +12654,14 @@
       <c r="V46" s="27"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="39"/>
@@ -12590,50 +12718,26 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="F22:G22"/>
@@ -12644,26 +12748,50 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -12699,23 +12827,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -12736,55 +12864,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12805,52 +12933,52 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237" t="s">
+      <c r="B7" s="160"/>
+      <c r="C7" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="237" t="s">
+      <c r="D7" s="168"/>
+      <c r="E7" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="238"/>
-      <c r="G7" s="237" t="s">
+      <c r="F7" s="168"/>
+      <c r="G7" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="238"/>
-      <c r="I7" s="239" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="240"/>
-      <c r="K7" s="253" t="s">
+      <c r="J7" s="172"/>
+      <c r="K7" s="223" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="254"/>
-      <c r="M7" s="239" t="s">
+      <c r="L7" s="224"/>
+      <c r="M7" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="240"/>
-      <c r="O7" s="241"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
-      <c r="B8" s="243"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="245"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="255"/>
-      <c r="L8" s="256"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="248"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
@@ -12876,11 +13004,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -12910,14 +13038,14 @@
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="266" t="s">
+      <c r="E12" s="227" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="266"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="209"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="230"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -12929,14 +13057,14 @@
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="182" t="s">
+      <c r="E13" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="182"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="209"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="228"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="230"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -12948,14 +13076,14 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="192" t="s">
+      <c r="E14" s="198" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="192"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="267" t="s">
+      <c r="F14" s="198"/>
+      <c r="G14" s="228"/>
+      <c r="H14" s="229"/>
+      <c r="I14" s="229"/>
+      <c r="J14" s="105" t="s">
         <v>160</v>
       </c>
       <c r="K14" s="27"/>
@@ -12969,16 +13097,16 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="265" t="s">
+      <c r="E15" s="236" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="265"/>
-      <c r="G15" s="143" t="s">
+      <c r="F15" s="236"/>
+      <c r="G15" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="145"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -12990,16 +13118,16 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="192" t="s">
+      <c r="E16" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="156" t="s">
+      <c r="F16" s="198"/>
+      <c r="G16" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="191"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -13013,10 +13141,10 @@
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="57"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="161"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="194"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -13031,9 +13159,9 @@
       <c r="E18" s="27"/>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
-      <c r="H18" s="259"/>
-      <c r="I18" s="259"/>
-      <c r="J18" s="259"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -13047,12 +13175,12 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="207" t="s">
+      <c r="G19" s="228" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="209"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="259"/>
+      <c r="H19" s="230"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -13067,9 +13195,9 @@
       <c r="E20" s="27"/>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
-      <c r="H20" s="259"/>
-      <c r="I20" s="259"/>
-      <c r="J20" s="259"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -13098,14 +13226,14 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="174" t="s">
+      <c r="E22" s="209" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="268"/>
-      <c r="G22" s="268"/>
-      <c r="H22" s="268"/>
-      <c r="I22" s="268"/>
-      <c r="J22" s="175"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="231"/>
+      <c r="H22" s="231"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="210"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -13117,12 +13245,12 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="269"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="257"/>
-      <c r="J23" s="270"/>
+      <c r="E23" s="232"/>
+      <c r="F23" s="233"/>
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="234"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
@@ -13132,34 +13260,34 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="259"/>
-      <c r="D24" s="259"/>
-      <c r="E24" s="269"/>
-      <c r="F24" s="257"/>
-      <c r="G24" s="257"/>
-      <c r="H24" s="257"/>
-      <c r="I24" s="257"/>
-      <c r="J24" s="270"/>
-      <c r="K24" s="259"/>
-      <c r="L24" s="259"/>
-      <c r="M24" s="259"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="234"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
       <c r="N24" s="27"/>
       <c r="O24" s="39"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="38"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="269"/>
-      <c r="F25" s="257"/>
-      <c r="G25" s="257"/>
-      <c r="H25" s="257"/>
-      <c r="I25" s="257"/>
-      <c r="J25" s="270"/>
-      <c r="K25" s="259"/>
-      <c r="L25" s="259"/>
-      <c r="M25" s="259"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="233"/>
+      <c r="G25" s="233"/>
+      <c r="H25" s="233"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="234"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
       <c r="N25" s="27"/>
       <c r="O25" s="39"/>
     </row>
@@ -13167,16 +13295,16 @@
       <c r="A26" s="38"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="258"/>
-      <c r="E26" s="269"/>
-      <c r="F26" s="257"/>
-      <c r="G26" s="257"/>
-      <c r="H26" s="257"/>
-      <c r="I26" s="257"/>
-      <c r="J26" s="270"/>
-      <c r="K26" s="258"/>
-      <c r="L26" s="258"/>
-      <c r="M26" s="258"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="233"/>
+      <c r="G26" s="233"/>
+      <c r="H26" s="233"/>
+      <c r="I26" s="233"/>
+      <c r="J26" s="234"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
       <c r="N26" s="27"/>
       <c r="O26" s="39"/>
     </row>
@@ -13184,16 +13312,16 @@
       <c r="A27" s="38"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="258"/>
-      <c r="E27" s="269"/>
-      <c r="F27" s="257"/>
-      <c r="G27" s="257"/>
-      <c r="H27" s="257"/>
-      <c r="I27" s="257"/>
-      <c r="J27" s="270"/>
-      <c r="K27" s="258"/>
-      <c r="L27" s="258"/>
-      <c r="M27" s="258"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="233"/>
+      <c r="H27" s="233"/>
+      <c r="I27" s="233"/>
+      <c r="J27" s="234"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
       <c r="N27" s="27"/>
       <c r="O27" s="39"/>
     </row>
@@ -13201,16 +13329,16 @@
       <c r="A28" s="38"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="258"/>
-      <c r="E28" s="269"/>
-      <c r="F28" s="257"/>
-      <c r="G28" s="257"/>
-      <c r="H28" s="257"/>
-      <c r="I28" s="257"/>
-      <c r="J28" s="270"/>
-      <c r="K28" s="258"/>
-      <c r="L28" s="258"/>
-      <c r="M28" s="258"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="233"/>
+      <c r="G28" s="233"/>
+      <c r="H28" s="233"/>
+      <c r="I28" s="233"/>
+      <c r="J28" s="234"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
       <c r="N28" s="27"/>
       <c r="O28" s="39"/>
     </row>
@@ -13218,16 +13346,16 @@
       <c r="A29" s="38"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
-      <c r="D29" s="258"/>
-      <c r="E29" s="269"/>
-      <c r="F29" s="257"/>
-      <c r="G29" s="257"/>
-      <c r="H29" s="257"/>
-      <c r="I29" s="257"/>
-      <c r="J29" s="270"/>
-      <c r="K29" s="258"/>
-      <c r="L29" s="258"/>
-      <c r="M29" s="258"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="233"/>
+      <c r="H29" s="233"/>
+      <c r="I29" s="233"/>
+      <c r="J29" s="234"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
       <c r="N29" s="27"/>
       <c r="O29" s="39"/>
     </row>
@@ -13235,33 +13363,33 @@
       <c r="A30" s="38"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="258"/>
-      <c r="E30" s="269"/>
-      <c r="F30" s="257"/>
-      <c r="G30" s="257"/>
-      <c r="H30" s="257"/>
-      <c r="I30" s="257"/>
-      <c r="J30" s="270"/>
-      <c r="K30" s="258"/>
-      <c r="L30" s="258"/>
-      <c r="M30" s="258"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="233"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="233"/>
+      <c r="J30" s="234"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
       <c r="N30" s="27"/>
       <c r="O30" s="39"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="38"/>
       <c r="B31" s="27"/>
-      <c r="C31" s="258"/>
-      <c r="D31" s="258"/>
-      <c r="E31" s="269"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="257"/>
-      <c r="I31" s="257"/>
-      <c r="J31" s="270"/>
-      <c r="K31" s="258"/>
-      <c r="L31" s="258"/>
-      <c r="M31" s="258"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="233"/>
+      <c r="G31" s="233"/>
+      <c r="H31" s="233"/>
+      <c r="I31" s="233"/>
+      <c r="J31" s="234"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
       <c r="N31" s="27"/>
       <c r="O31" s="39"/>
     </row>
@@ -13270,12 +13398,12 @@
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="271"/>
-      <c r="G32" s="271"/>
-      <c r="H32" s="271"/>
-      <c r="I32" s="271"/>
-      <c r="J32" s="177"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="212"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
@@ -13285,8 +13413,8 @@
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
       <c r="B33" s="27"/>
-      <c r="C33" s="258"/>
-      <c r="D33" s="258"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
@@ -13327,11 +13455,11 @@
       <c r="H35" s="27"/>
       <c r="I35" s="34"/>
       <c r="J35" s="27"/>
-      <c r="K35" s="258"/>
-      <c r="L35" s="258"/>
-      <c r="M35" s="258"/>
-      <c r="N35" s="258"/>
-      <c r="O35" s="261"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="101"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="38"/>
@@ -13351,47 +13479,47 @@
       <c r="O36" s="39"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="262"/>
-      <c r="B37" s="260"/>
-      <c r="C37" s="258"/>
-      <c r="D37" s="258"/>
-      <c r="E37" s="258"/>
-      <c r="F37" s="258"/>
-      <c r="G37" s="258"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
-      <c r="L37" s="259"/>
+      <c r="L37" s="99"/>
       <c r="M37" s="27"/>
-      <c r="N37" s="259"/>
+      <c r="N37" s="99"/>
       <c r="O37" s="39"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="263"/>
-      <c r="B38" s="259"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
-      <c r="L38" s="259"/>
+      <c r="L38" s="99"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="259"/>
+      <c r="N38" s="99"/>
       <c r="O38" s="39"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="264"/>
-      <c r="B39" s="258"/>
-      <c r="C39" s="258"/>
-      <c r="D39" s="258"/>
-      <c r="E39" s="258"/>
-      <c r="F39" s="258"/>
-      <c r="G39" s="258"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
@@ -13402,13 +13530,13 @@
       <c r="O39" s="39"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="264"/>
-      <c r="B40" s="258"/>
-      <c r="C40" s="258"/>
-      <c r="D40" s="258"/>
-      <c r="E40" s="258"/>
-      <c r="F40" s="258"/>
-      <c r="G40" s="258"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
@@ -13419,13 +13547,13 @@
       <c r="O40" s="39"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="264"/>
-      <c r="B41" s="258"/>
-      <c r="C41" s="258"/>
-      <c r="D41" s="258"/>
-      <c r="E41" s="258"/>
-      <c r="F41" s="258"/>
-      <c r="G41" s="258"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
@@ -13471,11 +13599,11 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="38"/>
-      <c r="B44" s="258"/>
-      <c r="C44" s="258"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="259"/>
-      <c r="F44" s="259"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -13487,12 +13615,12 @@
       <c r="O44" s="39"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="264"/>
-      <c r="B45" s="258"/>
-      <c r="C45" s="258"/>
-      <c r="D45" s="258"/>
-      <c r="E45" s="258"/>
-      <c r="F45" s="258"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -13504,12 +13632,12 @@
       <c r="O45" s="39"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="264"/>
-      <c r="B46" s="258"/>
-      <c r="C46" s="258"/>
-      <c r="D46" s="258"/>
-      <c r="E46" s="258"/>
-      <c r="F46" s="258"/>
+      <c r="A46" s="104"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -13521,12 +13649,12 @@
       <c r="O46" s="39"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="264"/>
-      <c r="B47" s="258"/>
-      <c r="C47" s="258"/>
-      <c r="D47" s="258"/>
-      <c r="E47" s="258"/>
-      <c r="F47" s="258"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -13538,12 +13666,12 @@
       <c r="O47" s="39"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="264"/>
-      <c r="B48" s="258"/>
-      <c r="C48" s="258"/>
-      <c r="D48" s="258"/>
-      <c r="E48" s="258"/>
-      <c r="F48" s="258"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -13804,6 +13932,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="E22:J32"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:J17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:J15"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="E12:F12"/>
@@ -13812,20 +13953,7 @@
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E22:J32"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:J17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="I7:J8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -13844,30 +13972,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -13888,55 +14019,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13957,52 +14088,52 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237" t="s">
+      <c r="B7" s="160"/>
+      <c r="C7" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="237" t="s">
+      <c r="D7" s="168"/>
+      <c r="E7" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="238"/>
-      <c r="G7" s="237" t="s">
+      <c r="F7" s="168"/>
+      <c r="G7" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="238"/>
-      <c r="I7" s="239" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="240"/>
-      <c r="K7" s="239" t="s">
+      <c r="J7" s="172"/>
+      <c r="K7" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="240"/>
-      <c r="M7" s="253" t="s">
+      <c r="L7" s="172"/>
+      <c r="M7" s="223" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="254"/>
-      <c r="O7" s="241"/>
+      <c r="N7" s="224"/>
+      <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
-      <c r="B8" s="243"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="245"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="256"/>
-      <c r="O8" s="248"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="226"/>
+      <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
@@ -14028,11 +14159,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="207" t="s">
+      <c r="G10" s="228" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="208"/>
-      <c r="I10" s="209"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="230"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -14061,82 +14192,89 @@
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="259"/>
-      <c r="J12" s="259"/>
-      <c r="K12" s="34"/>
+      <c r="D12" s="266" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="267"/>
+      <c r="F12" s="267"/>
+      <c r="G12" s="268"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="57"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="27"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
       <c r="O13" s="39"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="D14" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
+      <c r="I14" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
       <c r="O14" s="39"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="97"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="39"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="57"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="H16" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="35"/>
       <c r="J16" s="57"/>
-      <c r="K16" s="27"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -14148,11 +14286,11 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -14161,166 +14299,193 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="259"/>
-      <c r="I18" s="259"/>
-      <c r="J18" s="259"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
+      <c r="B18" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="209" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="210"/>
+      <c r="E18" s="209" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="210"/>
+      <c r="G18" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="210"/>
+      <c r="I18" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="210"/>
+      <c r="K18" s="209" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" s="210"/>
+      <c r="M18" s="207" t="s">
+        <v>174</v>
+      </c>
+      <c r="N18" s="207"/>
       <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="259"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="212"/>
+      <c r="K19" s="211"/>
+      <c r="L19" s="212"/>
+      <c r="M19" s="208"/>
+      <c r="N19" s="208"/>
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="259"/>
-      <c r="I20" s="259"/>
-      <c r="J20" s="259"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="B20" s="71">
+        <v>1</v>
+      </c>
+      <c r="C20" s="199"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="199"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="85" t="s">
+        <v>175</v>
+      </c>
       <c r="O20" s="39"/>
       <c r="Q20" s="27"/>
       <c r="V20" s="27"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="B21" s="71">
+        <v>2</v>
+      </c>
+      <c r="C21" s="199"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="85" t="s">
+        <v>175</v>
+      </c>
       <c r="O21" s="39"/>
       <c r="Q21" s="27"/>
       <c r="V21" s="27"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
+      <c r="B22" s="71">
+        <v>3</v>
+      </c>
+      <c r="C22" s="199"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="199"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="85" t="s">
+        <v>175</v>
+      </c>
       <c r="O22" s="39"/>
       <c r="Q22" s="27"/>
       <c r="V22" s="27"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
+      <c r="B23" s="71">
+        <v>4</v>
+      </c>
+      <c r="C23" s="199"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="199"/>
+      <c r="L23" s="201"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="85" t="s">
+        <v>175</v>
+      </c>
       <c r="O23" s="39"/>
       <c r="Q23" s="27"/>
       <c r="V23" s="27"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="259"/>
-      <c r="D24" s="259"/>
-      <c r="E24" s="259"/>
-      <c r="F24" s="259"/>
-      <c r="G24" s="259"/>
-      <c r="H24" s="259"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="259"/>
-      <c r="K24" s="259"/>
-      <c r="L24" s="259"/>
-      <c r="M24" s="259"/>
-      <c r="N24" s="27"/>
+      <c r="B24" s="86">
+        <v>5</v>
+      </c>
+      <c r="C24" s="199"/>
+      <c r="D24" s="201"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="201"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="199"/>
+      <c r="L24" s="201"/>
+      <c r="M24" s="269"/>
+      <c r="N24" s="85" t="s">
+        <v>175</v>
+      </c>
       <c r="O24" s="39"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="V24" s="27"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="259"/>
-      <c r="F25" s="259"/>
-      <c r="G25" s="259"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="259"/>
-      <c r="J25" s="259"/>
-      <c r="K25" s="259"/>
-      <c r="L25" s="259"/>
-      <c r="M25" s="259"/>
-      <c r="N25" s="27"/>
+      <c r="B25" s="176" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="178"/>
       <c r="O25" s="39"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
       <c r="V25" s="27"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="258"/>
-      <c r="E26" s="258"/>
-      <c r="F26" s="258"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="258"/>
-      <c r="I26" s="258"/>
-      <c r="J26" s="258"/>
-      <c r="K26" s="258"/>
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
       <c r="N26" s="27"/>
@@ -14329,18 +14494,12 @@
       <c r="Q26" s="27"/>
       <c r="V26" s="27"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="258"/>
-      <c r="E27" s="258"/>
-      <c r="F27" s="258"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="258"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="258"/>
-      <c r="K27" s="258"/>
+      <c r="B27" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="178"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
       <c r="N27" s="27"/>
@@ -14349,18 +14508,9 @@
       <c r="Q27" s="27"/>
       <c r="V27" s="27"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="258"/>
-      <c r="E28" s="258"/>
-      <c r="F28" s="258"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="258"/>
-      <c r="I28" s="258"/>
-      <c r="J28" s="258"/>
-      <c r="K28" s="258"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
       <c r="N28" s="27"/>
@@ -14369,38 +14519,44 @@
       <c r="Q28" s="27"/>
       <c r="V28" s="27"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="258"/>
-      <c r="E29" s="258"/>
-      <c r="F29" s="258"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="258"/>
-      <c r="I29" s="258"/>
-      <c r="J29" s="258"/>
-      <c r="K29" s="258"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
+    <row r="29" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="280" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="281"/>
+      <c r="C29" s="282"/>
+      <c r="D29" s="275" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="283" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="284"/>
+      <c r="H29" s="284"/>
+      <c r="I29" s="284"/>
+      <c r="J29" s="284"/>
+      <c r="K29" s="275" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
       <c r="N29" s="27"/>
       <c r="O29" s="39"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
       <c r="V29" s="27"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="258"/>
-      <c r="E30" s="258"/>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="258"/>
-      <c r="I30" s="258"/>
-      <c r="J30" s="258"/>
-      <c r="K30" s="258"/>
+      <c r="D30" s="39"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="39"/>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="27"/>
@@ -14409,38 +14565,49 @@
       <c r="Q30" s="27"/>
       <c r="V30" s="27"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="258"/>
-      <c r="D31" s="258"/>
-      <c r="E31" s="258"/>
-      <c r="F31" s="258"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="258"/>
-      <c r="I31" s="258"/>
-      <c r="J31" s="258"/>
-      <c r="K31" s="258"/>
-      <c r="L31" s="258"/>
-      <c r="M31" s="258"/>
+    <row r="31" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="176" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="178"/>
+      <c r="D31" s="39"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
       <c r="N31" s="27"/>
       <c r="O31" s="39"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
       <c r="V31" s="27"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+    <row r="32" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="176" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="178"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="39"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
@@ -14449,18 +14616,20 @@
       <c r="Q32" s="27"/>
       <c r="V32" s="27"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="27"/>
-      <c r="C33" s="258"/>
-      <c r="D33" s="258"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="264"/>
       <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="39"/>
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
@@ -14469,18 +14638,22 @@
       <c r="Q33" s="27"/>
       <c r="V33" s="27"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="B34" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="178"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="39"/>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
@@ -14489,38 +14662,42 @@
       <c r="Q34" s="27"/>
       <c r="V34" s="27"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="258"/>
-      <c r="L35" s="258"/>
-      <c r="M35" s="258"/>
-      <c r="N35" s="258"/>
-      <c r="O35" s="261"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="264"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="101"/>
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
       <c r="V35" s="27"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+    <row r="36" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="39"/>
       <c r="L36" s="27"/>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
@@ -14529,58 +14706,62 @@
       <c r="Q36" s="27"/>
       <c r="V36" s="27"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="262"/>
-      <c r="B37" s="260"/>
-      <c r="C37" s="258"/>
-      <c r="D37" s="258"/>
-      <c r="E37" s="258"/>
-      <c r="F37" s="258"/>
-      <c r="G37" s="258"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="259"/>
+    <row r="37" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="102"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="270" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="99"/>
       <c r="M37" s="27"/>
-      <c r="N37" s="259"/>
+      <c r="N37" s="99"/>
       <c r="O37" s="39"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="V37" s="27"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="263"/>
-      <c r="B38" s="259"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
+    <row r="38" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="103"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="98"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="259"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="99"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="259"/>
+      <c r="N38" s="99"/>
       <c r="O38" s="39"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
       <c r="V38" s="27"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="264"/>
-      <c r="B39" s="258"/>
-      <c r="C39" s="258"/>
-      <c r="D39" s="258"/>
-      <c r="E39" s="258"/>
-      <c r="F39" s="258"/>
-      <c r="G39" s="258"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+    <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="104"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="176" t="s">
+        <v>178</v>
+      </c>
+      <c r="I39" s="178"/>
       <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
+      <c r="K39" s="39"/>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
@@ -14589,18 +14770,18 @@
       <c r="Q39" s="27"/>
       <c r="V39" s="27"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="264"/>
-      <c r="B40" s="258"/>
-      <c r="C40" s="258"/>
-      <c r="D40" s="258"/>
-      <c r="E40" s="258"/>
-      <c r="F40" s="258"/>
-      <c r="G40" s="258"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+    <row r="40" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="104"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="265"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
@@ -14610,13 +14791,13 @@
       <c r="V40" s="27"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="264"/>
-      <c r="B41" s="258"/>
-      <c r="C41" s="258"/>
-      <c r="D41" s="258"/>
-      <c r="E41" s="258"/>
-      <c r="F41" s="258"/>
-      <c r="G41" s="258"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
@@ -14666,14 +14847,14 @@
       <c r="Q43" s="27"/>
       <c r="V43" s="27"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="258"/>
-      <c r="B44" s="258"/>
-      <c r="C44" s="258"/>
-      <c r="D44" s="258"/>
-      <c r="E44" s="258"/>
-      <c r="F44" s="258"/>
-      <c r="G44" s="258"/>
+    <row r="44" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
@@ -14686,13 +14867,15 @@
       <c r="V44" s="27"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="258"/>
-      <c r="B45" s="258"/>
-      <c r="C45" s="258"/>
-      <c r="D45" s="258"/>
-      <c r="E45" s="258"/>
-      <c r="F45" s="258"/>
-      <c r="G45" s="258"/>
+      <c r="A45" s="271" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="272"/>
+      <c r="C45" s="272"/>
+      <c r="D45" s="272"/>
+      <c r="E45" s="273"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
@@ -14705,13 +14888,15 @@
       <c r="V45" s="27"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="258"/>
-      <c r="B46" s="258"/>
-      <c r="C46" s="258"/>
-      <c r="D46" s="258"/>
-      <c r="E46" s="258"/>
-      <c r="F46" s="258"/>
-      <c r="G46" s="258"/>
+      <c r="A46" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="264"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
@@ -14723,14 +14908,14 @@
       <c r="Q46" s="27"/>
       <c r="V46" s="27"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="258"/>
-      <c r="B47" s="258"/>
-      <c r="C47" s="258"/>
-      <c r="D47" s="258"/>
-      <c r="E47" s="258"/>
-      <c r="F47" s="258"/>
-      <c r="G47" s="258"/>
+    <row r="47" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="265"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="274"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
@@ -14743,13 +14928,13 @@
       <c r="V47" s="27"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="258"/>
-      <c r="B48" s="258"/>
-      <c r="C48" s="258"/>
-      <c r="D48" s="258"/>
-      <c r="E48" s="258"/>
-      <c r="F48" s="258"/>
-      <c r="G48" s="258"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
@@ -14762,13 +14947,13 @@
       <c r="V48" s="27"/>
     </row>
     <row r="49" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="272"/>
-      <c r="B49" s="272"/>
-      <c r="C49" s="272"/>
-      <c r="D49" s="272"/>
-      <c r="E49" s="272"/>
-      <c r="F49" s="272"/>
-      <c r="G49" s="272"/>
+      <c r="A49" s="106"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
       <c r="H49" s="47"/>
       <c r="I49" s="47"/>
       <c r="J49" s="47"/>
@@ -14785,7 +14970,46 @@
       <c r="V49" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="49">
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>

--- a/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
+++ b/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="190">
   <si>
     <t>Phần màn hình dành cho đại lý thu phí</t>
   </si>
@@ -616,6 +616,18 @@
   </si>
   <si>
     <t xml:space="preserve">Vị trí đón </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày đi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách hàng </t>
+  </si>
+  <si>
+    <t>Mệnh khách hàng</t>
+  </si>
+  <si>
+    <t>Mã Lái Xe : #123</t>
   </si>
 </sst>
 </file>
@@ -1744,6 +1756,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1753,19 +1783,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1840,57 +1912,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2008,6 +2029,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2020,98 +2134,17 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2128,27 +2161,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2161,6 +2209,18 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2173,6 +2233,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2185,75 +2266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2639,18 +2651,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -2676,55 +2688,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2732,14 +2744,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -2768,16 +2780,16 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135" t="s">
+      <c r="F8" s="137"/>
+      <c r="G8" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -2789,14 +2801,14 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="134" t="s">
+      <c r="E9" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -2808,16 +2820,16 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="134"/>
-      <c r="G10" s="135" t="s">
+      <c r="F10" s="137"/>
+      <c r="G10" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -2848,10 +2860,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="135"/>
+      <c r="H12" s="138"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -3485,17 +3497,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="E14:J18"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3511,7 +3523,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3520,23 +3532,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="161" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="163"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -3557,55 +3569,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3626,22 +3638,22 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="155" t="s">
+      <c r="B7" s="174"/>
+      <c r="C7" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="264"/>
-      <c r="E7" s="159" t="s">
+      <c r="D7" s="269"/>
+      <c r="E7" s="181" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="160"/>
-      <c r="G7" s="159" t="s">
+      <c r="F7" s="182"/>
+      <c r="G7" s="181" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="160"/>
+      <c r="H7" s="182"/>
       <c r="I7" s="75"/>
       <c r="J7" s="75"/>
       <c r="K7" s="75"/>
@@ -3651,14 +3663,14 @@
       <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="162"/>
+      <c r="A8" s="175"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="270"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="184"/>
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
       <c r="K8" s="76"/>
@@ -3691,11 +3703,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="163" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="G10" s="153" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -3723,25 +3735,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="163" t="s">
+      <c r="D12" s="160"/>
+      <c r="E12" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="165"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="166" t="s">
+      <c r="I12" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="166"/>
-      <c r="K12" s="163" t="s">
+      <c r="J12" s="160"/>
+      <c r="K12" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="164"/>
-      <c r="M12" s="165"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="155"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -3769,11 +3781,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="163" t="s">
+      <c r="G14" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="164"/>
-      <c r="I14" s="165"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -3803,19 +3815,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="167" t="s">
+      <c r="E16" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="169" t="s">
+      <c r="F16" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169" t="s">
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="169"/>
-      <c r="K16" s="170"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -3826,13 +3838,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="171"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="144"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -3846,12 +3858,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="171"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="144"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -3865,12 +3877,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="171"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="144"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -3884,12 +3896,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="171"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="144"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -3905,12 +3917,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="171"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="144"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -3926,12 +3938,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="171"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="144"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -3944,15 +3956,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="172" t="s">
+      <c r="E23" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="174"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -3985,15 +3997,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="177" t="s">
+      <c r="E25" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="179"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="152"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -4483,14 +4495,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="G10:I10"/>
@@ -4504,12 +4514,14 @@
     <mergeCell ref="I16:K17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -4526,7 +4538,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4535,23 +4547,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
-      <c r="H1" s="298"/>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="298"/>
-      <c r="L1" s="298"/>
-      <c r="M1" s="298"/>
-      <c r="N1" s="298"/>
-      <c r="O1" s="299"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="273"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -4572,55 +4584,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4641,46 +4653,46 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="187" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="295"/>
-      <c r="E7" s="195" t="s">
+      <c r="D7" s="274"/>
+      <c r="E7" s="200" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="196"/>
-      <c r="G7" s="195" t="s">
+      <c r="F7" s="201"/>
+      <c r="G7" s="200" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="196"/>
-      <c r="I7" s="290"/>
-      <c r="J7" s="290"/>
-      <c r="K7" s="290"/>
-      <c r="L7" s="290"/>
-      <c r="M7" s="290"/>
-      <c r="N7" s="290"/>
-      <c r="O7" s="291"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="132"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="296"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="293"/>
-      <c r="J8" s="293"/>
-      <c r="K8" s="293"/>
-      <c r="L8" s="293"/>
-      <c r="M8" s="293"/>
-      <c r="N8" s="293"/>
-      <c r="O8" s="294"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="134"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
@@ -4706,11 +4718,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="163" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="G10" s="153" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -4738,25 +4750,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="166" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="163" t="s">
+      <c r="C12" s="160" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="160"/>
+      <c r="E12" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="165"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="166" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="166"/>
-      <c r="K12" s="163" t="s">
+      <c r="I12" s="160" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="160"/>
+      <c r="K12" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="164"/>
-      <c r="M12" s="165"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="155"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -4784,11 +4796,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="163" t="s">
+      <c r="G14" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="164"/>
-      <c r="I14" s="165"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -4818,19 +4830,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="167" t="s">
+      <c r="E16" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="169" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="169"/>
-      <c r="K16" s="170"/>
+      <c r="F16" s="158" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -4841,13 +4853,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="171"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="144"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -4861,12 +4873,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="171"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="144"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -4880,12 +4892,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="171"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="144"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -4899,12 +4911,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="171"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="144"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -4920,12 +4932,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="171"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="144"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -4941,12 +4953,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="171"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="144"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -4959,15 +4971,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="172" t="s">
+      <c r="E23" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="174"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -5000,15 +5012,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="177" t="s">
+      <c r="E25" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="179"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="152"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -5498,22 +5510,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="I12:J12"/>
@@ -5525,6 +5521,22 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="E7:F8"/>
     <mergeCell ref="G7:H8"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -5540,8 +5552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5550,23 +5562,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="161" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="163"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -5587,55 +5599,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5656,46 +5668,46 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="191" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="219" t="s">
+      <c r="D7" s="278"/>
+      <c r="E7" s="255" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="220"/>
-      <c r="G7" s="195" t="s">
+      <c r="F7" s="256"/>
+      <c r="G7" s="200" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="196"/>
-      <c r="I7" s="290"/>
-      <c r="J7" s="290"/>
-      <c r="K7" s="290"/>
-      <c r="L7" s="290"/>
-      <c r="M7" s="290"/>
-      <c r="N7" s="290"/>
-      <c r="O7" s="291"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="132"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="292"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="293"/>
-      <c r="J8" s="293"/>
-      <c r="K8" s="293"/>
-      <c r="L8" s="293"/>
-      <c r="M8" s="293"/>
-      <c r="N8" s="293"/>
-      <c r="O8" s="294"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="279"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="134"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
@@ -5721,11 +5733,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="259" t="s">
+      <c r="G10" s="260" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="263"/>
-      <c r="I10" s="260"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="262"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -5866,26 +5878,26 @@
       <c r="C18" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="235" t="s">
+      <c r="D18" s="241" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="236"/>
-      <c r="F18" s="235" t="s">
+      <c r="E18" s="242"/>
+      <c r="F18" s="241" t="s">
         <v>170</v>
       </c>
-      <c r="G18" s="236"/>
-      <c r="H18" s="235" t="s">
+      <c r="G18" s="242"/>
+      <c r="H18" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="236"/>
-      <c r="J18" s="235" t="s">
+      <c r="I18" s="242"/>
+      <c r="J18" s="241" t="s">
         <v>172</v>
       </c>
-      <c r="K18" s="236"/>
-      <c r="L18" s="233" t="s">
+      <c r="K18" s="242"/>
+      <c r="L18" s="239" t="s">
         <v>174</v>
       </c>
-      <c r="M18" s="233"/>
+      <c r="M18" s="239"/>
       <c r="N18" s="27"/>
       <c r="O18" s="39"/>
     </row>
@@ -5893,16 +5905,16 @@
       <c r="A19" s="38"/>
       <c r="B19" s="27"/>
       <c r="C19" s="108"/>
-      <c r="D19" s="237"/>
-      <c r="E19" s="238"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="238"/>
-      <c r="H19" s="237"/>
-      <c r="I19" s="238"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="243"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="243"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="240"/>
+      <c r="M19" s="240"/>
       <c r="N19" s="27"/>
       <c r="O19" s="39"/>
     </row>
@@ -5912,14 +5924,14 @@
       <c r="C20" s="71">
         <v>1</v>
       </c>
-      <c r="D20" s="239"/>
-      <c r="E20" s="240"/>
-      <c r="F20" s="239"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="239"/>
-      <c r="I20" s="240"/>
-      <c r="J20" s="239"/>
-      <c r="K20" s="240"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="228"/>
+      <c r="K20" s="230"/>
       <c r="L20" s="71"/>
       <c r="M20" s="85" t="s">
         <v>175</v>
@@ -5933,14 +5945,14 @@
       <c r="C21" s="71">
         <v>2</v>
       </c>
-      <c r="D21" s="239"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="239"/>
-      <c r="G21" s="240"/>
-      <c r="H21" s="239"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="239"/>
-      <c r="K21" s="240"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="230"/>
+      <c r="J21" s="228"/>
+      <c r="K21" s="230"/>
       <c r="L21" s="71"/>
       <c r="M21" s="85" t="s">
         <v>175</v>
@@ -5954,14 +5966,14 @@
       <c r="C22" s="71">
         <v>3</v>
       </c>
-      <c r="D22" s="239"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="239"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="239"/>
-      <c r="I22" s="240"/>
-      <c r="J22" s="239"/>
-      <c r="K22" s="240"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="230"/>
+      <c r="H22" s="228"/>
+      <c r="I22" s="230"/>
+      <c r="J22" s="228"/>
+      <c r="K22" s="230"/>
       <c r="L22" s="71"/>
       <c r="M22" s="85" t="s">
         <v>175</v>
@@ -5975,14 +5987,14 @@
       <c r="C23" s="71">
         <v>4</v>
       </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="240"/>
-      <c r="F23" s="239"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="239"/>
-      <c r="K23" s="240"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="230"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="228"/>
+      <c r="K23" s="230"/>
       <c r="L23" s="71"/>
       <c r="M23" s="85" t="s">
         <v>175</v>
@@ -5996,14 +6008,14 @@
       <c r="C24" s="86">
         <v>5</v>
       </c>
-      <c r="D24" s="300"/>
-      <c r="E24" s="301"/>
-      <c r="F24" s="300"/>
-      <c r="G24" s="301"/>
-      <c r="H24" s="300"/>
-      <c r="I24" s="301"/>
-      <c r="J24" s="300"/>
-      <c r="K24" s="301"/>
+      <c r="D24" s="276"/>
+      <c r="E24" s="277"/>
+      <c r="F24" s="276"/>
+      <c r="G24" s="277"/>
+      <c r="H24" s="276"/>
+      <c r="I24" s="277"/>
+      <c r="J24" s="276"/>
+      <c r="K24" s="277"/>
       <c r="L24" s="118"/>
       <c r="M24" s="87" t="s">
         <v>175</v>
@@ -6014,19 +6026,19 @@
     <row r="25" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="200" t="s">
+      <c r="C25" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="202"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="207"/>
       <c r="N25" s="98"/>
       <c r="O25" s="39"/>
       <c r="P25" s="27"/>
@@ -6053,10 +6065,10 @@
     </row>
     <row r="27" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="C27" s="200" t="s">
+      <c r="C27" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="202"/>
+      <c r="D27" s="207"/>
       <c r="E27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -6092,11 +6104,11 @@
       <c r="V28" s="27"/>
     </row>
     <row r="29" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="242" t="s">
+      <c r="A29" s="231" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="243"/>
-      <c r="C29" s="244"/>
+      <c r="B29" s="232"/>
+      <c r="C29" s="233"/>
       <c r="D29" s="124" t="s">
         <v>120</v>
       </c>
@@ -6143,10 +6155,10 @@
       <c r="A31" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="200" t="s">
+      <c r="B31" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="202"/>
+      <c r="C31" s="207"/>
       <c r="D31" s="39"/>
       <c r="E31" s="27"/>
       <c r="F31" s="38"/>
@@ -6169,10 +6181,10 @@
       <c r="A32" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="200" t="s">
+      <c r="B32" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="202"/>
+      <c r="C32" s="207"/>
       <c r="D32" s="39"/>
       <c r="E32" s="27"/>
       <c r="F32" s="38"/>
@@ -6215,10 +6227,10 @@
     </row>
     <row r="34" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
-      <c r="B34" s="200" t="s">
+      <c r="B34" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="202"/>
+      <c r="C34" s="207"/>
       <c r="D34" s="39"/>
       <c r="E34" s="27"/>
       <c r="F34" s="38"/>
@@ -6309,10 +6321,10 @@
       <c r="E38" s="98"/>
       <c r="F38" s="104"/>
       <c r="G38" s="98"/>
-      <c r="H38" s="200" t="s">
+      <c r="H38" s="205" t="s">
         <v>178</v>
       </c>
-      <c r="I38" s="202"/>
+      <c r="I38" s="207"/>
       <c r="J38" s="27"/>
       <c r="K38" s="39"/>
       <c r="L38" s="99"/>
@@ -6524,25 +6536,17 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G10:I10"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="D20:E20"/>
@@ -6553,17 +6557,25 @@
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="J18:K19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -6600,23 +6612,23 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="161" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="163"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -6637,55 +6649,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6706,51 +6718,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="280" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="267"/>
-      <c r="C7" s="285" t="s">
+      <c r="B7" s="281"/>
+      <c r="C7" s="284" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="286"/>
-      <c r="E7" s="270" t="s">
+      <c r="D7" s="285"/>
+      <c r="E7" s="288" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="271"/>
-      <c r="G7" s="270" t="s">
+      <c r="F7" s="289"/>
+      <c r="G7" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="271"/>
-      <c r="I7" s="270" t="s">
+      <c r="H7" s="289"/>
+      <c r="I7" s="288" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="271"/>
-      <c r="K7" s="270" t="s">
+      <c r="J7" s="289"/>
+      <c r="K7" s="288" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="271"/>
-      <c r="M7" s="270" t="s">
+      <c r="L7" s="289"/>
+      <c r="M7" s="288" t="s">
         <v>141</v>
       </c>
-      <c r="N7" s="271"/>
+      <c r="N7" s="289"/>
       <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="268"/>
-      <c r="B8" s="269"/>
-      <c r="C8" s="287"/>
-      <c r="D8" s="288"/>
-      <c r="E8" s="272"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="272"/>
-      <c r="H8" s="273"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="273"/>
-      <c r="K8" s="272"/>
-      <c r="L8" s="273"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="273"/>
+      <c r="A8" s="282"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="287"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="291"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="291"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="291"/>
+      <c r="K8" s="290"/>
+      <c r="L8" s="291"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="291"/>
       <c r="O8" s="48"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -6776,12 +6788,12 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="278" t="s">
+      <c r="F10" s="292" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="292"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -6809,42 +6821,42 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="279"/>
+      <c r="D12" s="293"/>
       <c r="E12" s="82"/>
       <c r="F12" s="83"/>
       <c r="G12" s="84"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="134" t="s">
+      <c r="I12" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="134"/>
-      <c r="K12" s="259"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="260"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="260"/>
+      <c r="L12" s="261"/>
+      <c r="M12" s="262"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="253" t="s">
+      <c r="C13" s="227" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="280"/>
+      <c r="D13" s="294"/>
       <c r="E13" s="64"/>
       <c r="F13" s="65"/>
       <c r="G13" s="66"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="253" t="s">
+      <c r="I13" s="227" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="253"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="202"/>
+      <c r="J13" s="227"/>
+      <c r="K13" s="205"/>
+      <c r="L13" s="206"/>
+      <c r="M13" s="207"/>
       <c r="N13" s="27"/>
       <c r="O13" s="39"/>
     </row>
@@ -6872,10 +6884,10 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="200" t="s">
+      <c r="G15" s="205" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="202"/>
+      <c r="H15" s="207"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -6904,10 +6916,10 @@
     <row r="17" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="200" t="s">
+      <c r="C17" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="202"/>
+      <c r="D17" s="207"/>
       <c r="N17" s="27"/>
       <c r="O17" s="39"/>
     </row>
@@ -6920,29 +6932,29 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="233" t="s">
+      <c r="C19" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="235" t="s">
+      <c r="D19" s="241" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="236"/>
-      <c r="F19" s="281" t="s">
+      <c r="E19" s="242"/>
+      <c r="F19" s="295" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="282"/>
-      <c r="H19" s="281" t="s">
+      <c r="G19" s="296"/>
+      <c r="H19" s="295" t="s">
         <v>144</v>
       </c>
-      <c r="I19" s="282"/>
-      <c r="J19" s="281" t="s">
+      <c r="I19" s="296"/>
+      <c r="J19" s="295" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="282"/>
-      <c r="L19" s="233" t="s">
+      <c r="K19" s="296"/>
+      <c r="L19" s="239" t="s">
         <v>116</v>
       </c>
-      <c r="M19" s="233" t="s">
+      <c r="M19" s="239" t="s">
         <v>117</v>
       </c>
       <c r="N19" s="27"/>
@@ -6951,17 +6963,17 @@
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="238"/>
-      <c r="F20" s="283"/>
-      <c r="G20" s="284"/>
-      <c r="H20" s="283"/>
-      <c r="I20" s="284"/>
-      <c r="J20" s="283"/>
-      <c r="K20" s="284"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="297"/>
+      <c r="G20" s="298"/>
+      <c r="H20" s="297"/>
+      <c r="I20" s="298"/>
+      <c r="J20" s="297"/>
+      <c r="K20" s="298"/>
+      <c r="L20" s="240"/>
+      <c r="M20" s="240"/>
       <c r="N20" s="27"/>
       <c r="O20" s="39"/>
       <c r="Q20" s="27"/>
@@ -6973,14 +6985,14 @@
       <c r="C21" s="71">
         <v>1</v>
       </c>
-      <c r="D21" s="239"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="276"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="239"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="239"/>
-      <c r="K21" s="240"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="301"/>
+      <c r="G21" s="302"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="230"/>
+      <c r="J21" s="228"/>
+      <c r="K21" s="230"/>
       <c r="L21" s="85" t="s">
         <v>116</v>
       </c>
@@ -6998,14 +7010,14 @@
       <c r="C22" s="71">
         <v>2</v>
       </c>
-      <c r="D22" s="239"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="239"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="239"/>
-      <c r="I22" s="240"/>
-      <c r="J22" s="239"/>
-      <c r="K22" s="240"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="230"/>
+      <c r="H22" s="228"/>
+      <c r="I22" s="230"/>
+      <c r="J22" s="228"/>
+      <c r="K22" s="230"/>
       <c r="L22" s="85" t="s">
         <v>116</v>
       </c>
@@ -7023,14 +7035,14 @@
       <c r="C23" s="71">
         <v>3</v>
       </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="240"/>
-      <c r="F23" s="239"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="239"/>
-      <c r="K23" s="240"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="230"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="228"/>
+      <c r="K23" s="230"/>
       <c r="L23" s="85" t="s">
         <v>116</v>
       </c>
@@ -7048,14 +7060,14 @@
       <c r="C24" s="71">
         <v>4</v>
       </c>
-      <c r="D24" s="239"/>
-      <c r="E24" s="240"/>
-      <c r="F24" s="239"/>
-      <c r="G24" s="240"/>
-      <c r="H24" s="239"/>
-      <c r="I24" s="240"/>
-      <c r="J24" s="239"/>
-      <c r="K24" s="240"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="228"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="230"/>
+      <c r="J24" s="228"/>
+      <c r="K24" s="230"/>
       <c r="L24" s="85" t="s">
         <v>116</v>
       </c>
@@ -7074,14 +7086,14 @@
       <c r="C25" s="86">
         <v>5</v>
       </c>
-      <c r="D25" s="274"/>
-      <c r="E25" s="275"/>
-      <c r="F25" s="239"/>
-      <c r="G25" s="240"/>
-      <c r="H25" s="239"/>
-      <c r="I25" s="240"/>
-      <c r="J25" s="239"/>
-      <c r="K25" s="240"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="300"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="230"/>
+      <c r="J25" s="228"/>
+      <c r="K25" s="230"/>
       <c r="L25" s="87" t="s">
         <v>116</v>
       </c>
@@ -7097,19 +7109,19 @@
     <row r="26" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="200" t="s">
+      <c r="C26" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
-      <c r="M26" s="202"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="206"/>
+      <c r="L26" s="206"/>
+      <c r="M26" s="207"/>
       <c r="N26" s="27"/>
       <c r="O26" s="39"/>
       <c r="P26" s="27"/>
@@ -7556,14 +7568,28 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="J21:K21"/>
@@ -7580,28 +7606,14 @@
     <mergeCell ref="J19:K20"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7622,23 +7634,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7661,57 +7673,57 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
       <c r="O3" s="3"/>
       <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="5"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
       <c r="O5" s="5"/>
       <c r="P5"/>
     </row>
@@ -7720,14 +7732,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -7774,23 +7786,23 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9"/>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
       <c r="H9"/>
-      <c r="I9" s="134" t="s">
+      <c r="I9" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="134"/>
-      <c r="K9" s="135" t="s">
+      <c r="J9" s="137"/>
+      <c r="K9" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
       <c r="N9"/>
       <c r="O9" s="5"/>
       <c r="P9"/>
@@ -7798,25 +7810,25 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10"/>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135" t="s">
+      <c r="D10" s="137"/>
+      <c r="E10" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
       <c r="H10"/>
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J10"/>
-      <c r="K10" s="135" t="s">
+      <c r="K10" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
       <c r="N10"/>
       <c r="O10" s="5"/>
       <c r="P10"/>
@@ -7846,11 +7858,11 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -7879,47 +7891,47 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135" t="s">
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135" t="s">
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
       <c r="O14" s="5"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
       <c r="O15" s="5"/>
       <c r="P15"/>
     </row>
@@ -7928,26 +7940,26 @@
       <c r="B16" s="22">
         <v>1</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135" t="s">
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="138">
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="142">
         <v>41983</v>
       </c>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="135">
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="138">
         <v>500000</v>
       </c>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
       <c r="O16" s="5"/>
       <c r="P16"/>
     </row>
@@ -7956,26 +7968,26 @@
       <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135" t="s">
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="138">
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="142">
         <v>41924</v>
       </c>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="135">
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="138">
         <v>50000</v>
       </c>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
       <c r="O17" s="5"/>
       <c r="P17"/>
     </row>
@@ -7984,26 +7996,26 @@
       <c r="B18" s="22">
         <v>3</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135" t="s">
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135" t="s">
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135" t="s">
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
       <c r="O18" s="5"/>
       <c r="P18"/>
     </row>
@@ -8012,26 +8024,26 @@
       <c r="B19" s="22">
         <v>4</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135" t="s">
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135" t="s">
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135" t="s">
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
       <c r="O19" s="5"/>
       <c r="P19"/>
     </row>
@@ -8040,46 +8052,46 @@
       <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135" t="s">
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135" t="s">
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135" t="s">
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
       <c r="O20" s="5"/>
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
       <c r="O21" s="5"/>
       <c r="P21"/>
     </row>
@@ -8544,27 +8556,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="K10:M10"/>
@@ -8574,13 +8572,27 @@
     <mergeCell ref="F14:H15"/>
     <mergeCell ref="I14:K15"/>
     <mergeCell ref="L14:N15"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="B21:N21"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8605,23 +8617,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="163"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -8642,55 +8654,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8711,51 +8723,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="155" t="s">
+      <c r="B7" s="174"/>
+      <c r="C7" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="156"/>
-      <c r="E7" s="155" t="s">
+      <c r="D7" s="178"/>
+      <c r="E7" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="156"/>
-      <c r="G7" s="155" t="s">
+      <c r="F7" s="178"/>
+      <c r="G7" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="156"/>
-      <c r="I7" s="159" t="s">
+      <c r="H7" s="178"/>
+      <c r="I7" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="160"/>
-      <c r="K7" s="159" t="s">
+      <c r="J7" s="182"/>
+      <c r="K7" s="181" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="160"/>
-      <c r="M7" s="159" t="s">
+      <c r="L7" s="182"/>
+      <c r="M7" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="160"/>
+      <c r="N7" s="182"/>
       <c r="O7" s="93"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="162"/>
+      <c r="A8" s="175"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="184"/>
       <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8782,11 +8794,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -8814,25 +8826,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="163" t="s">
+      <c r="D12" s="160"/>
+      <c r="E12" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="165"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="166" t="s">
+      <c r="I12" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="166"/>
-      <c r="K12" s="163" t="s">
+      <c r="J12" s="160"/>
+      <c r="K12" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="164"/>
-      <c r="M12" s="165"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="155"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -8860,11 +8872,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="163" t="s">
+      <c r="G14" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="164"/>
-      <c r="I14" s="165"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -8894,19 +8906,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="167" t="s">
+      <c r="E16" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="169" t="s">
+      <c r="F16" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169" t="s">
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="169"/>
-      <c r="K16" s="170"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -8917,13 +8929,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="171"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="144"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -8937,12 +8949,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="171"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="144"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -8956,12 +8968,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="171"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="144"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -8975,12 +8987,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="171"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="144"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -8996,12 +9008,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="171"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="144"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -9017,12 +9029,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="171"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="144"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -9035,15 +9047,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="172" t="s">
+      <c r="E23" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="174"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -9076,15 +9088,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="177" t="s">
+      <c r="E25" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="179"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="152"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -9435,11 +9447,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="39"/>
@@ -9600,28 +9612,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -9631,6 +9621,28 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E25:K25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -9664,23 +9676,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="182"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -9701,55 +9713,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9770,51 +9782,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="187" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="193"/>
+      <c r="E7" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="192"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="197"/>
+      <c r="G7" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="195" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="196"/>
-      <c r="K7" s="195" t="s">
+      <c r="J7" s="201"/>
+      <c r="K7" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="195" t="s">
+      <c r="L7" s="201"/>
+      <c r="M7" s="200" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="196"/>
+      <c r="N7" s="201"/>
       <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="198"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="203"/>
       <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9841,11 +9853,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -9873,25 +9885,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="163" t="s">
+      <c r="D12" s="160"/>
+      <c r="E12" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="165"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="166" t="s">
+      <c r="I12" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="166"/>
-      <c r="K12" s="163" t="s">
+      <c r="J12" s="160"/>
+      <c r="K12" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="164"/>
-      <c r="M12" s="165"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="155"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -9919,11 +9931,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="163" t="s">
+      <c r="G14" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="164"/>
-      <c r="I14" s="165"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -9953,19 +9965,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="167" t="s">
+      <c r="E16" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="169" t="s">
+      <c r="F16" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169" t="s">
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="169"/>
-      <c r="K16" s="170"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -9976,13 +9988,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="171"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="144"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -9996,12 +10008,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="171"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="144"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -10015,12 +10027,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="171"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="144"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -10034,12 +10046,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="171"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="144"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -10055,12 +10067,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="171"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="144"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -10076,12 +10088,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="171"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="144"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -10094,15 +10106,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="172" t="s">
+      <c r="E23" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="174"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -10135,15 +10147,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="177" t="s">
+      <c r="E25" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="179"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="152"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -10496,11 +10508,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -10661,28 +10673,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -10692,6 +10682,28 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E25:K25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -10725,23 +10737,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="163"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -10762,55 +10774,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10831,51 +10843,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="191" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="187" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="193"/>
+      <c r="G7" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="195" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="196"/>
-      <c r="K7" s="195" t="s">
+      <c r="J7" s="201"/>
+      <c r="K7" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="195" t="s">
+      <c r="L7" s="201"/>
+      <c r="M7" s="200" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="196"/>
+      <c r="N7" s="201"/>
       <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="198"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="203"/>
       <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10902,11 +10914,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -10934,23 +10946,23 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="163" t="s">
+      <c r="D12" s="160"/>
+      <c r="E12" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="165"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="166" t="s">
+      <c r="I12" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="166"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="165"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="155"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -10978,11 +10990,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="163" t="s">
+      <c r="G14" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="164"/>
-      <c r="I14" s="165"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -11012,19 +11024,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="167" t="s">
+      <c r="E16" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="169" t="s">
+      <c r="F16" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169" t="s">
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="169"/>
-      <c r="K16" s="170"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -11035,13 +11047,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="171"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="144"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -11055,12 +11067,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="171"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="144"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -11074,12 +11086,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="171"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="144"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -11093,12 +11105,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="171"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="144"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -11114,12 +11126,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="171"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="144"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -11135,12 +11147,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="171"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="144"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -11153,15 +11165,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="172" t="s">
+      <c r="E23" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="174"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -11194,15 +11206,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="177" t="s">
+      <c r="E25" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="179"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="152"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -11555,11 +11567,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -11707,28 +11719,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -11738,6 +11728,28 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E25:K25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -11771,76 +11783,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="163"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11848,51 +11860,51 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="191" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="192"/>
-      <c r="G7" s="187" t="s">
+      <c r="F7" s="197"/>
+      <c r="G7" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="I7" s="195" t="s">
+      <c r="H7" s="193"/>
+      <c r="I7" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="196"/>
-      <c r="K7" s="195" t="s">
+      <c r="J7" s="201"/>
+      <c r="K7" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="195" t="s">
+      <c r="L7" s="201"/>
+      <c r="M7" s="200" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="196"/>
+      <c r="N7" s="201"/>
       <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="198"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="203"/>
       <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11919,11 +11931,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -11953,17 +11965,17 @@
       <c r="B12" s="27"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="199" t="s">
+      <c r="E12" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="199"/>
-      <c r="G12" s="200" t="s">
+      <c r="F12" s="204"/>
+      <c r="G12" s="205" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="201"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="202"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="207"/>
       <c r="L12" s="57"/>
       <c r="M12" s="57"/>
       <c r="N12" s="27"/>
@@ -11974,15 +11986,15 @@
       <c r="B13" s="27"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="203" t="s">
+      <c r="E13" s="208" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="203"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="205"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="206"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="209"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="211"/>
       <c r="L13" s="57"/>
       <c r="M13" s="57"/>
       <c r="N13" s="27"/>
@@ -11993,17 +12005,17 @@
       <c r="B14" s="27"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
-      <c r="E14" s="203" t="s">
+      <c r="E14" s="208" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="203"/>
-      <c r="G14" s="207" t="s">
+      <c r="F14" s="208"/>
+      <c r="G14" s="212" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="208"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="209"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="214"/>
       <c r="L14" s="57"/>
       <c r="M14" s="57"/>
       <c r="N14" s="27"/>
@@ -12014,15 +12026,15 @@
       <c r="B15" s="27"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="203" t="s">
+      <c r="E15" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="203"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="212"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="217"/>
       <c r="L15" s="57"/>
       <c r="M15" s="57"/>
       <c r="N15" s="27"/>
@@ -12033,17 +12045,17 @@
       <c r="B16" s="27"/>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="204" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="199"/>
-      <c r="G16" s="200" t="s">
+      <c r="F16" s="204"/>
+      <c r="G16" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="202"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="207"/>
       <c r="L16" s="57"/>
       <c r="M16" s="57"/>
       <c r="N16" s="27"/>
@@ -12054,17 +12066,17 @@
       <c r="B17" s="27"/>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
-      <c r="E17" s="203" t="s">
+      <c r="E17" s="208" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="203"/>
-      <c r="G17" s="213" t="s">
+      <c r="F17" s="208"/>
+      <c r="G17" s="218" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="214"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="214"/>
-      <c r="K17" s="215"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="219"/>
+      <c r="K17" s="220"/>
       <c r="L17" s="57"/>
       <c r="M17" s="57"/>
       <c r="N17" s="27"/>
@@ -12077,11 +12089,11 @@
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
       <c r="F18" s="57"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="218"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="222"/>
+      <c r="K18" s="223"/>
       <c r="L18" s="57"/>
       <c r="M18" s="57"/>
       <c r="N18" s="27"/>
@@ -12557,11 +12569,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -12724,6 +12736,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="A42:C42"/>
@@ -12737,16 +12759,6 @@
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K18"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -12781,23 +12793,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="163"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -12818,55 +12830,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12887,51 +12899,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="191" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="192"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="197"/>
+      <c r="G7" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="219" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="255" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="220"/>
-      <c r="K7" s="195" t="s">
+      <c r="J7" s="256"/>
+      <c r="K7" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="195" t="s">
+      <c r="L7" s="201"/>
+      <c r="M7" s="200" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="196"/>
+      <c r="N7" s="201"/>
       <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="198"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="257"/>
+      <c r="J8" s="258"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="203"/>
       <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12958,11 +12970,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -12993,13 +13005,13 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="223" t="s">
+      <c r="F12" s="251" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="224"/>
-      <c r="H12" s="225"/>
-      <c r="I12" s="225"/>
-      <c r="J12" s="226"/>
+      <c r="G12" s="252"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="254"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -13012,15 +13024,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="227" t="s">
+      <c r="F13" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="228"/>
-      <c r="H13" s="229" t="s">
+      <c r="G13" s="246"/>
+      <c r="H13" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="229"/>
-      <c r="J13" s="230"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="250"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -13033,13 +13045,13 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="227" t="s">
+      <c r="F14" s="245" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="228"/>
-      <c r="H14" s="229"/>
-      <c r="I14" s="229"/>
-      <c r="J14" s="230"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="250"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -13052,15 +13064,15 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="227" t="s">
+      <c r="F15" s="245" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="228"/>
-      <c r="H15" s="229" t="s">
+      <c r="G15" s="246"/>
+      <c r="H15" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="229"/>
-      <c r="J15" s="230"/>
+      <c r="I15" s="249"/>
+      <c r="J15" s="250"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -13073,15 +13085,15 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="227" t="s">
+      <c r="F16" s="245" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="228"/>
-      <c r="H16" s="229" t="s">
+      <c r="G16" s="246"/>
+      <c r="H16" s="249" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="229"/>
-      <c r="J16" s="230"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="250"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -13094,13 +13106,13 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="227" t="s">
+      <c r="F17" s="245" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="228"/>
-      <c r="H17" s="229"/>
-      <c r="I17" s="229"/>
-      <c r="J17" s="230"/>
+      <c r="G17" s="246"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="250"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -13113,13 +13125,13 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="227" t="s">
+      <c r="F18" s="245" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="228"/>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="232"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="248"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -13132,13 +13144,13 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="227" t="s">
+      <c r="F19" s="245" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="228"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="232"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="247"/>
+      <c r="J19" s="248"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -13151,13 +13163,13 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="227" t="s">
+      <c r="F20" s="245" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="228"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="232"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="247"/>
+      <c r="J20" s="248"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -13191,15 +13203,15 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="163" t="s">
+      <c r="F22" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="165"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="52"/>
-      <c r="I22" s="163" t="s">
+      <c r="I22" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="165"/>
+      <c r="J22" s="155"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -13230,29 +13242,29 @@
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="233" t="s">
+      <c r="C24" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="235" t="s">
+      <c r="D24" s="241" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="236"/>
-      <c r="F24" s="235" t="s">
+      <c r="E24" s="242"/>
+      <c r="F24" s="241" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="236"/>
-      <c r="H24" s="235" t="s">
+      <c r="G24" s="242"/>
+      <c r="H24" s="241" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="236"/>
-      <c r="J24" s="235" t="s">
+      <c r="I24" s="242"/>
+      <c r="J24" s="241" t="s">
         <v>115</v>
       </c>
-      <c r="K24" s="236"/>
-      <c r="L24" s="233" t="s">
+      <c r="K24" s="242"/>
+      <c r="L24" s="239" t="s">
         <v>116</v>
       </c>
-      <c r="M24" s="233" t="s">
+      <c r="M24" s="239" t="s">
         <v>117</v>
       </c>
       <c r="O24" s="39"/>
@@ -13263,17 +13275,17 @@
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="38"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="234"/>
-      <c r="D25" s="237"/>
-      <c r="E25" s="238"/>
-      <c r="F25" s="237"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="237"/>
-      <c r="I25" s="238"/>
-      <c r="J25" s="237"/>
-      <c r="K25" s="238"/>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
+      <c r="C25" s="240"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="243"/>
+      <c r="I25" s="244"/>
+      <c r="J25" s="243"/>
+      <c r="K25" s="244"/>
+      <c r="L25" s="240"/>
+      <c r="M25" s="240"/>
       <c r="O25" s="39"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
@@ -13285,14 +13297,14 @@
       <c r="C26" s="71">
         <v>1</v>
       </c>
-      <c r="D26" s="239"/>
-      <c r="E26" s="240"/>
-      <c r="F26" s="239"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="239"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="239"/>
-      <c r="K26" s="240"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="230"/>
+      <c r="J26" s="228"/>
+      <c r="K26" s="230"/>
       <c r="L26" s="85" t="s">
         <v>116</v>
       </c>
@@ -13310,14 +13322,14 @@
       <c r="C27" s="71">
         <v>2</v>
       </c>
-      <c r="D27" s="239"/>
-      <c r="E27" s="240"/>
-      <c r="F27" s="239"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="239"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="239"/>
-      <c r="K27" s="240"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="230"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="230"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="230"/>
+      <c r="J27" s="228"/>
+      <c r="K27" s="230"/>
       <c r="L27" s="85" t="s">
         <v>116</v>
       </c>
@@ -13335,14 +13347,14 @@
       <c r="C28" s="71">
         <v>3</v>
       </c>
-      <c r="D28" s="239"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="239"/>
-      <c r="G28" s="240"/>
-      <c r="H28" s="239"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="239"/>
-      <c r="K28" s="240"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="228"/>
+      <c r="K28" s="230"/>
       <c r="L28" s="85" t="s">
         <v>116</v>
       </c>
@@ -13360,14 +13372,14 @@
       <c r="C29" s="71">
         <v>4</v>
       </c>
-      <c r="D29" s="239"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="239"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="239"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="239"/>
-      <c r="K29" s="240"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="230"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="228"/>
+      <c r="K29" s="230"/>
       <c r="L29" s="85" t="s">
         <v>116</v>
       </c>
@@ -13383,14 +13395,14 @@
       <c r="C30" s="71">
         <v>5</v>
       </c>
-      <c r="D30" s="239"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="239"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="239"/>
-      <c r="I30" s="240"/>
-      <c r="J30" s="239"/>
-      <c r="K30" s="240"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="230"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="230"/>
+      <c r="J30" s="228"/>
+      <c r="K30" s="230"/>
       <c r="L30" s="85" t="s">
         <v>116</v>
       </c>
@@ -13403,19 +13415,19 @@
       <c r="V30" s="27"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C31" s="239" t="s">
+      <c r="C31" s="228" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="241"/>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="241"/>
-      <c r="L31" s="241"/>
-      <c r="M31" s="240"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="229"/>
+      <c r="G31" s="229"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="229"/>
+      <c r="J31" s="229"/>
+      <c r="K31" s="229"/>
+      <c r="L31" s="229"/>
+      <c r="M31" s="230"/>
       <c r="O31" s="39"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
@@ -13439,10 +13451,10 @@
       <c r="V32" s="27"/>
     </row>
     <row r="33" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="200" t="s">
+      <c r="C33" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="202"/>
+      <c r="D33" s="207"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
@@ -13489,12 +13501,12 @@
         <v>120</v>
       </c>
       <c r="J35" s="27"/>
-      <c r="K35" s="242" t="s">
+      <c r="K35" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="L35" s="243"/>
-      <c r="M35" s="243"/>
-      <c r="N35" s="244"/>
+      <c r="L35" s="232"/>
+      <c r="M35" s="232"/>
+      <c r="N35" s="233"/>
       <c r="O35" s="124" t="s">
         <v>120</v>
       </c>
@@ -13523,26 +13535,26 @@
       <c r="V36" s="27"/>
     </row>
     <row r="37" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="245" t="s">
+      <c r="A37" s="234" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="199"/>
-      <c r="C37" s="200" t="s">
+      <c r="B37" s="204"/>
+      <c r="C37" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="201"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="202"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="207"/>
       <c r="H37" s="27"/>
       <c r="I37" s="39"/>
       <c r="J37" s="27"/>
       <c r="K37" s="38"/>
-      <c r="L37" s="246" t="s">
+      <c r="L37" s="235" t="s">
         <v>122</v>
       </c>
       <c r="M37" s="27"/>
-      <c r="N37" s="246" t="s">
+      <c r="N37" s="235" t="s">
         <v>121</v>
       </c>
       <c r="O37" s="39"/>
@@ -13551,39 +13563,39 @@
       <c r="V37" s="27"/>
     </row>
     <row r="38" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="248" t="s">
+      <c r="A38" s="237" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="200" t="s">
+      <c r="B38" s="238"/>
+      <c r="C38" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="201"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="201"/>
-      <c r="G38" s="202"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="207"/>
       <c r="H38" s="27"/>
       <c r="I38" s="39"/>
       <c r="J38" s="27"/>
       <c r="K38" s="38"/>
-      <c r="L38" s="247"/>
+      <c r="L38" s="236"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="247"/>
+      <c r="N38" s="236"/>
       <c r="O38" s="39"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
       <c r="V38" s="27"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="252" t="s">
+      <c r="A39" s="226" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="253"/>
-      <c r="C39" s="200"/>
-      <c r="D39" s="201"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="202"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="207"/>
       <c r="H39" s="27"/>
       <c r="I39" s="39"/>
       <c r="J39" s="27"/>
@@ -13597,15 +13609,15 @@
       <c r="V39" s="27"/>
     </row>
     <row r="40" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="252" t="s">
+      <c r="A40" s="226" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="253"/>
-      <c r="C40" s="200"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="202"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="206"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="207"/>
       <c r="H40" s="27"/>
       <c r="I40" s="39"/>
       <c r="J40" s="27"/>
@@ -13619,15 +13631,15 @@
       <c r="V40" s="27"/>
     </row>
     <row r="41" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="252" t="s">
+      <c r="A41" s="226" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="253"/>
-      <c r="C41" s="200"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="202"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="205"/>
+      <c r="D41" s="206"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="207"/>
       <c r="H41" s="27"/>
       <c r="I41" s="39"/>
       <c r="J41" s="27"/>
@@ -13678,15 +13690,15 @@
     </row>
     <row r="44" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
-      <c r="B44" s="200" t="s">
+      <c r="B44" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="202"/>
+      <c r="C44" s="207"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="250" t="s">
+      <c r="E44" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="251"/>
+      <c r="F44" s="225"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="39"/>
@@ -13804,50 +13816,26 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="F22:G22"/>
@@ -13858,26 +13846,50 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -13913,23 +13925,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="163"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -13950,55 +13962,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14019,51 +14031,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="191" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="192"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="197"/>
+      <c r="G7" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="195" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="196"/>
-      <c r="K7" s="219" t="s">
+      <c r="J7" s="201"/>
+      <c r="K7" s="255" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="220"/>
-      <c r="M7" s="195" t="s">
+      <c r="L7" s="256"/>
+      <c r="M7" s="200" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="196"/>
+      <c r="N7" s="201"/>
       <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="221"/>
-      <c r="L8" s="222"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="198"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="257"/>
+      <c r="L8" s="258"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="203"/>
       <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14090,11 +14102,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -14124,14 +14136,14 @@
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="262" t="s">
+      <c r="E12" s="259" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="262"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="263"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="260"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="261"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -14143,14 +14155,14 @@
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="249" t="s">
+      <c r="E13" s="238" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="249"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="263"/>
-      <c r="I13" s="263"/>
-      <c r="J13" s="260"/>
+      <c r="F13" s="238"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="262"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -14162,13 +14174,13 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="253" t="s">
+      <c r="E14" s="227" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="253"/>
-      <c r="G14" s="259"/>
-      <c r="H14" s="263"/>
-      <c r="I14" s="263"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="261"/>
+      <c r="I14" s="261"/>
       <c r="J14" s="105" t="s">
         <v>160</v>
       </c>
@@ -14183,16 +14195,16 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="261" t="s">
+      <c r="E15" s="268" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="261"/>
-      <c r="G15" s="200" t="s">
+      <c r="F15" s="268"/>
+      <c r="G15" s="205" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="202"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="207"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -14204,16 +14216,16 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="253" t="s">
+      <c r="E16" s="227" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="253"/>
-      <c r="G16" s="213" t="s">
+      <c r="F16" s="227"/>
+      <c r="G16" s="218" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="215"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -14227,10 +14239,10 @@
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="57"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="218"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="223"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -14261,10 +14273,10 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="259" t="s">
+      <c r="G19" s="260" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="260"/>
+      <c r="H19" s="262"/>
       <c r="I19" s="99"/>
       <c r="J19" s="99"/>
       <c r="K19" s="27"/>
@@ -14312,14 +14324,14 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="235" t="s">
+      <c r="E22" s="241" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="254"/>
-      <c r="G22" s="254"/>
-      <c r="H22" s="254"/>
-      <c r="I22" s="254"/>
-      <c r="J22" s="236"/>
+      <c r="F22" s="263"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="263"/>
+      <c r="I22" s="263"/>
+      <c r="J22" s="242"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -14331,12 +14343,12 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="255"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="257"/>
+      <c r="E23" s="264"/>
+      <c r="F23" s="265"/>
+      <c r="G23" s="265"/>
+      <c r="H23" s="265"/>
+      <c r="I23" s="265"/>
+      <c r="J23" s="266"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
@@ -14348,12 +14360,12 @@
       <c r="B24" s="27"/>
       <c r="C24" s="99"/>
       <c r="D24" s="99"/>
-      <c r="E24" s="255"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="257"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="265"/>
+      <c r="G24" s="265"/>
+      <c r="H24" s="265"/>
+      <c r="I24" s="265"/>
+      <c r="J24" s="266"/>
       <c r="K24" s="99"/>
       <c r="L24" s="99"/>
       <c r="M24" s="99"/>
@@ -14365,12 +14377,12 @@
       <c r="B25" s="27"/>
       <c r="C25" s="99"/>
       <c r="D25" s="99"/>
-      <c r="E25" s="255"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="256"/>
-      <c r="H25" s="256"/>
-      <c r="I25" s="256"/>
-      <c r="J25" s="257"/>
+      <c r="E25" s="264"/>
+      <c r="F25" s="265"/>
+      <c r="G25" s="265"/>
+      <c r="H25" s="265"/>
+      <c r="I25" s="265"/>
+      <c r="J25" s="266"/>
       <c r="K25" s="99"/>
       <c r="L25" s="99"/>
       <c r="M25" s="99"/>
@@ -14382,12 +14394,12 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="98"/>
-      <c r="E26" s="255"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="257"/>
+      <c r="E26" s="264"/>
+      <c r="F26" s="265"/>
+      <c r="G26" s="265"/>
+      <c r="H26" s="265"/>
+      <c r="I26" s="265"/>
+      <c r="J26" s="266"/>
       <c r="K26" s="98"/>
       <c r="L26" s="98"/>
       <c r="M26" s="98"/>
@@ -14399,12 +14411,12 @@
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="98"/>
-      <c r="E27" s="255"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="256"/>
-      <c r="J27" s="257"/>
+      <c r="E27" s="264"/>
+      <c r="F27" s="265"/>
+      <c r="G27" s="265"/>
+      <c r="H27" s="265"/>
+      <c r="I27" s="265"/>
+      <c r="J27" s="266"/>
       <c r="K27" s="98"/>
       <c r="L27" s="98"/>
       <c r="M27" s="98"/>
@@ -14416,12 +14428,12 @@
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="98"/>
-      <c r="E28" s="255"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="256"/>
-      <c r="I28" s="256"/>
-      <c r="J28" s="257"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="265"/>
+      <c r="H28" s="265"/>
+      <c r="I28" s="265"/>
+      <c r="J28" s="266"/>
       <c r="K28" s="98"/>
       <c r="L28" s="98"/>
       <c r="M28" s="98"/>
@@ -14433,12 +14445,12 @@
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="98"/>
-      <c r="E29" s="255"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="256"/>
-      <c r="H29" s="256"/>
-      <c r="I29" s="256"/>
-      <c r="J29" s="257"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="265"/>
+      <c r="G29" s="265"/>
+      <c r="H29" s="265"/>
+      <c r="I29" s="265"/>
+      <c r="J29" s="266"/>
       <c r="K29" s="98"/>
       <c r="L29" s="98"/>
       <c r="M29" s="98"/>
@@ -14450,12 +14462,12 @@
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="98"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="256"/>
-      <c r="H30" s="256"/>
-      <c r="I30" s="256"/>
-      <c r="J30" s="257"/>
+      <c r="E30" s="264"/>
+      <c r="F30" s="265"/>
+      <c r="G30" s="265"/>
+      <c r="H30" s="265"/>
+      <c r="I30" s="265"/>
+      <c r="J30" s="266"/>
       <c r="K30" s="98"/>
       <c r="L30" s="98"/>
       <c r="M30" s="98"/>
@@ -14467,12 +14479,12 @@
       <c r="B31" s="27"/>
       <c r="C31" s="98"/>
       <c r="D31" s="98"/>
-      <c r="E31" s="255"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="256"/>
-      <c r="H31" s="256"/>
-      <c r="I31" s="256"/>
-      <c r="J31" s="257"/>
+      <c r="E31" s="264"/>
+      <c r="F31" s="265"/>
+      <c r="G31" s="265"/>
+      <c r="H31" s="265"/>
+      <c r="I31" s="265"/>
+      <c r="J31" s="266"/>
       <c r="K31" s="98"/>
       <c r="L31" s="98"/>
       <c r="M31" s="98"/>
@@ -14484,12 +14496,12 @@
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="237"/>
-      <c r="F32" s="258"/>
-      <c r="G32" s="258"/>
-      <c r="H32" s="258"/>
-      <c r="I32" s="258"/>
-      <c r="J32" s="238"/>
+      <c r="E32" s="243"/>
+      <c r="F32" s="267"/>
+      <c r="G32" s="267"/>
+      <c r="H32" s="267"/>
+      <c r="I32" s="267"/>
+      <c r="J32" s="244"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
@@ -15018,19 +15030,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E22:J32"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:J17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:J15"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -15040,6 +15039,19 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
+    <mergeCell ref="E22:J32"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:J17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -15068,23 +15080,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="163"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -15105,55 +15117,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15174,51 +15186,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="191" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="192"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="197"/>
+      <c r="G7" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="195" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="196"/>
-      <c r="K7" s="195" t="s">
+      <c r="J7" s="201"/>
+      <c r="K7" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="219" t="s">
+      <c r="L7" s="201"/>
+      <c r="M7" s="255" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="220"/>
+      <c r="N7" s="256"/>
       <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="221"/>
-      <c r="N8" s="222"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="257"/>
+      <c r="N8" s="258"/>
       <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15245,11 +15257,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="259" t="s">
+      <c r="G10" s="260" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="263"/>
-      <c r="I10" s="260"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="262"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -15388,47 +15400,47 @@
       <c r="B18" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="235" t="s">
+      <c r="C18" s="241" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="236"/>
-      <c r="E18" s="235" t="s">
+      <c r="D18" s="242"/>
+      <c r="E18" s="241" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="236"/>
-      <c r="G18" s="235" t="s">
+      <c r="F18" s="242"/>
+      <c r="G18" s="241" t="s">
         <v>171</v>
       </c>
-      <c r="H18" s="236"/>
-      <c r="I18" s="235" t="s">
+      <c r="H18" s="242"/>
+      <c r="I18" s="241" t="s">
         <v>172</v>
       </c>
-      <c r="J18" s="236"/>
-      <c r="K18" s="235" t="s">
+      <c r="J18" s="242"/>
+      <c r="K18" s="241" t="s">
         <v>173</v>
       </c>
-      <c r="L18" s="236"/>
-      <c r="M18" s="233" t="s">
+      <c r="L18" s="242"/>
+      <c r="M18" s="239" t="s">
         <v>174</v>
       </c>
-      <c r="N18" s="233"/>
+      <c r="N18" s="239"/>
       <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="237"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="238"/>
-      <c r="G19" s="237"/>
-      <c r="H19" s="238"/>
-      <c r="I19" s="237"/>
-      <c r="J19" s="238"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="238"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="244"/>
+      <c r="E19" s="243"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="243"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="243"/>
+      <c r="L19" s="244"/>
+      <c r="M19" s="240"/>
+      <c r="N19" s="240"/>
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -15436,16 +15448,16 @@
       <c r="B20" s="71">
         <v>1</v>
       </c>
-      <c r="C20" s="239"/>
-      <c r="D20" s="240"/>
-      <c r="E20" s="239"/>
-      <c r="F20" s="240"/>
-      <c r="G20" s="239"/>
-      <c r="H20" s="240"/>
-      <c r="I20" s="239"/>
-      <c r="J20" s="240"/>
-      <c r="K20" s="239"/>
-      <c r="L20" s="240"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="230"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="230"/>
+      <c r="I20" s="228"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="228"/>
+      <c r="L20" s="230"/>
       <c r="M20" s="71"/>
       <c r="N20" s="85" t="s">
         <v>175</v>
@@ -15459,16 +15471,16 @@
       <c r="B21" s="71">
         <v>2</v>
       </c>
-      <c r="C21" s="239"/>
-      <c r="D21" s="240"/>
-      <c r="E21" s="239"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="239"/>
-      <c r="H21" s="240"/>
-      <c r="I21" s="239"/>
-      <c r="J21" s="240"/>
-      <c r="K21" s="239"/>
-      <c r="L21" s="240"/>
+      <c r="C21" s="228"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="230"/>
+      <c r="I21" s="228"/>
+      <c r="J21" s="230"/>
+      <c r="K21" s="228"/>
+      <c r="L21" s="230"/>
       <c r="M21" s="71"/>
       <c r="N21" s="85" t="s">
         <v>175</v>
@@ -15482,16 +15494,16 @@
       <c r="B22" s="71">
         <v>3</v>
       </c>
-      <c r="C22" s="239"/>
-      <c r="D22" s="240"/>
-      <c r="E22" s="239"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="239"/>
-      <c r="H22" s="240"/>
-      <c r="I22" s="239"/>
-      <c r="J22" s="240"/>
-      <c r="K22" s="239"/>
-      <c r="L22" s="240"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="230"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="230"/>
+      <c r="I22" s="228"/>
+      <c r="J22" s="230"/>
+      <c r="K22" s="228"/>
+      <c r="L22" s="230"/>
       <c r="M22" s="71"/>
       <c r="N22" s="85" t="s">
         <v>175</v>
@@ -15505,16 +15517,16 @@
       <c r="B23" s="71">
         <v>4</v>
       </c>
-      <c r="C23" s="239"/>
-      <c r="D23" s="240"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="240"/>
-      <c r="G23" s="239"/>
-      <c r="H23" s="240"/>
-      <c r="I23" s="239"/>
-      <c r="J23" s="240"/>
-      <c r="K23" s="239"/>
-      <c r="L23" s="240"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="230"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="230"/>
+      <c r="K23" s="228"/>
+      <c r="L23" s="230"/>
       <c r="M23" s="71"/>
       <c r="N23" s="85" t="s">
         <v>175</v>
@@ -15528,16 +15540,16 @@
       <c r="B24" s="86">
         <v>5</v>
       </c>
-      <c r="C24" s="239"/>
-      <c r="D24" s="240"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="240"/>
-      <c r="G24" s="239"/>
-      <c r="H24" s="240"/>
-      <c r="I24" s="239"/>
-      <c r="J24" s="240"/>
-      <c r="K24" s="239"/>
-      <c r="L24" s="240"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="230"/>
+      <c r="E24" s="228"/>
+      <c r="F24" s="230"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="228"/>
+      <c r="J24" s="230"/>
+      <c r="K24" s="228"/>
+      <c r="L24" s="230"/>
       <c r="M24" s="118"/>
       <c r="N24" s="85" t="s">
         <v>175</v>
@@ -15549,21 +15561,21 @@
     </row>
     <row r="25" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
-      <c r="B25" s="200" t="s">
+      <c r="B25" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="201"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="201"/>
-      <c r="N25" s="202"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="206"/>
+      <c r="N25" s="207"/>
       <c r="O25" s="39"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
@@ -15582,10 +15594,10 @@
     </row>
     <row r="27" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="200" t="s">
+      <c r="B27" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="202"/>
+      <c r="C27" s="207"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
       <c r="N27" s="27"/>
@@ -15606,11 +15618,11 @@
       <c r="V28" s="27"/>
     </row>
     <row r="29" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="242" t="s">
+      <c r="A29" s="231" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="243"/>
-      <c r="C29" s="244"/>
+      <c r="B29" s="232"/>
+      <c r="C29" s="233"/>
       <c r="D29" s="124" t="s">
         <v>120</v>
       </c>
@@ -15655,10 +15667,10 @@
       <c r="A31" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="200" t="s">
+      <c r="B31" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="202"/>
+      <c r="C31" s="207"/>
       <c r="D31" s="39"/>
       <c r="F31" s="38"/>
       <c r="G31" s="27" t="s">
@@ -15680,10 +15692,10 @@
       <c r="A32" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="200" t="s">
+      <c r="B32" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="202"/>
+      <c r="C32" s="207"/>
       <c r="D32" s="39"/>
       <c r="E32" s="27"/>
       <c r="F32" s="38"/>
@@ -15707,7 +15719,7 @@
         <v>185</v>
       </c>
       <c r="B33" s="61"/>
-      <c r="C33" s="302"/>
+      <c r="C33" s="135"/>
       <c r="D33" s="113"/>
       <c r="E33" s="27"/>
       <c r="F33" s="38"/>
@@ -15748,10 +15760,10 @@
     </row>
     <row r="35" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
-      <c r="B35" s="200" t="s">
+      <c r="B35" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="202"/>
+      <c r="C35" s="207"/>
       <c r="D35" s="39"/>
       <c r="E35" s="27"/>
       <c r="F35" s="38"/>
@@ -15842,10 +15854,10 @@
       <c r="E39" s="98"/>
       <c r="F39" s="104"/>
       <c r="G39" s="98"/>
-      <c r="H39" s="200" t="s">
+      <c r="H39" s="205" t="s">
         <v>178</v>
       </c>
-      <c r="I39" s="202"/>
+      <c r="I39" s="207"/>
       <c r="J39" s="27"/>
       <c r="K39" s="39"/>
       <c r="L39" s="27"/>
@@ -16057,18 +16069,26 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="E20:F20"/>
@@ -16084,28 +16104,20 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
     <mergeCell ref="I18:J19"/>
     <mergeCell ref="K18:L19"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>

--- a/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
+++ b/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="705" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="705" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Đại lý - Nạp tiền tài khoản" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="207">
   <si>
     <t>Phần màn hình dành cho đại lý thu phí</t>
   </si>
@@ -676,6 +676,9 @@
   </si>
   <si>
     <t>Giờ đi</t>
+  </si>
+  <si>
+    <t>( khách hay tải )</t>
   </si>
 </sst>
 </file>
@@ -1890,6 +1893,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1899,19 +1943,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1986,57 +2072,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2094,18 +2129,102 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2136,22 +2255,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2166,112 +2354,37 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2295,17 +2408,80 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2319,179 +2495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2877,18 +2880,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -2914,55 +2917,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2970,14 +2973,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -3006,16 +3009,16 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" s="148" t="s">
+      <c r="E8" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149" t="s">
+      <c r="F8" s="160"/>
+      <c r="G8" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -3027,14 +3030,14 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="148"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -3046,16 +3049,16 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="148"/>
-      <c r="G10" s="149" t="s">
+      <c r="F10" s="160"/>
+      <c r="G10" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -3086,10 +3089,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="149"/>
+      <c r="H12" s="161"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -3120,14 +3123,14 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="150" t="s">
+      <c r="E14" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
       <c r="K14" s="6"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -3139,12 +3142,12 @@
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
       <c r="K15" s="6"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -3156,12 +3159,12 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
       <c r="K16" s="6"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -3173,12 +3176,12 @@
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="150"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
       <c r="K17" s="6"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -3190,12 +3193,12 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="150"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
       <c r="K18" s="6"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -3723,17 +3726,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="E14:J18"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3758,23 +3761,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="155"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -3795,55 +3798,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3864,22 +3867,22 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="169" t="s">
+      <c r="B7" s="197"/>
+      <c r="C7" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="273"/>
-      <c r="E7" s="173" t="s">
+      <c r="D7" s="313"/>
+      <c r="E7" s="204" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="174"/>
-      <c r="G7" s="173" t="s">
+      <c r="F7" s="205"/>
+      <c r="G7" s="204" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="174"/>
+      <c r="H7" s="205"/>
       <c r="I7" s="75"/>
       <c r="J7" s="75"/>
       <c r="K7" s="75"/>
@@ -3889,14 +3892,14 @@
       <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="274"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="176"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="207"/>
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
       <c r="K8" s="76"/>
@@ -3929,11 +3932,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="177" t="s">
+      <c r="G10" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -3961,25 +3964,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="177" t="s">
+      <c r="D12" s="183"/>
+      <c r="E12" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="178"/>
-      <c r="G12" s="179"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="178"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="180" t="s">
+      <c r="I12" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="180"/>
-      <c r="K12" s="177" t="s">
+      <c r="J12" s="183"/>
+      <c r="K12" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="178"/>
-      <c r="M12" s="179"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="178"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -4007,11 +4010,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="177" t="s">
+      <c r="G14" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="178"/>
-      <c r="I14" s="179"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -4041,19 +4044,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="183" t="s">
+      <c r="F16" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183" t="s">
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="182"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -4064,13 +4067,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="185"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="167"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -4084,12 +4087,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="185"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="167"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -4103,12 +4106,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="185"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="167"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -4122,12 +4125,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="185"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="167"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -4143,12 +4146,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="185"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="167"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -4164,12 +4167,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="185"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="167"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -4182,15 +4185,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="186" t="s">
+      <c r="E23" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="188"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="170"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -4223,15 +4226,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="191" t="s">
+      <c r="E25" s="173" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="193"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="175"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -4721,14 +4724,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="G10:I10"/>
@@ -4742,12 +4743,14 @@
     <mergeCell ref="I16:K17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -4773,23 +4776,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="315" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="277"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="316"/>
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="317"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -4810,55 +4813,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4879,22 +4882,22 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="201" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="278"/>
-      <c r="E7" s="209" t="s">
+      <c r="D7" s="318"/>
+      <c r="E7" s="223" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="210"/>
-      <c r="G7" s="209" t="s">
+      <c r="F7" s="224"/>
+      <c r="G7" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="210"/>
+      <c r="H7" s="224"/>
       <c r="I7" s="128"/>
       <c r="J7" s="128"/>
       <c r="K7" s="128"/>
@@ -4904,14 +4907,14 @@
       <c r="O7" s="129"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="279"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="212"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="226"/>
       <c r="I8" s="130"/>
       <c r="J8" s="130"/>
       <c r="K8" s="130"/>
@@ -4944,11 +4947,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="177" t="s">
+      <c r="G10" s="176" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -4976,25 +4979,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="183" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="177" t="s">
+      <c r="D12" s="183"/>
+      <c r="E12" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="178"/>
-      <c r="G12" s="179"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="178"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="180" t="s">
+      <c r="I12" s="183" t="s">
         <v>185</v>
       </c>
-      <c r="J12" s="180"/>
-      <c r="K12" s="177" t="s">
+      <c r="J12" s="183"/>
+      <c r="K12" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="178"/>
-      <c r="M12" s="179"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="178"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -5022,11 +5025,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="177" t="s">
+      <c r="G14" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="178"/>
-      <c r="I14" s="179"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -5056,19 +5059,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="183" t="s">
+      <c r="F16" s="181" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183" t="s">
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="182"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -5079,13 +5082,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="185"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="167"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -5099,12 +5102,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="185"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="167"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -5118,12 +5121,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="185"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="167"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -5137,12 +5140,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="185"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="167"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -5158,12 +5161,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="185"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="167"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -5179,12 +5182,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="185"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="167"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -5197,15 +5200,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="186" t="s">
+      <c r="E23" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="188"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="170"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -5238,15 +5241,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="191" t="s">
+      <c r="E25" s="173" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="193"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="175"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -5577,7 +5580,7 @@
       <c r="H40" s="38"/>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
-      <c r="K40" s="311" t="s">
+      <c r="K40" s="146" t="s">
         <v>124</v>
       </c>
       <c r="L40" s="27"/>
@@ -5735,22 +5738,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="I12:J12"/>
@@ -5762,6 +5749,22 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="E7:F8"/>
     <mergeCell ref="G7:H8"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -5777,7 +5780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
@@ -5787,23 +5790,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="155"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -5824,55 +5827,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5893,22 +5896,22 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="205" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="280"/>
-      <c r="E7" s="233" t="s">
+      <c r="D7" s="322"/>
+      <c r="E7" s="298" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="234"/>
-      <c r="G7" s="209" t="s">
+      <c r="F7" s="299"/>
+      <c r="G7" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="210"/>
+      <c r="H7" s="224"/>
       <c r="I7" s="128"/>
       <c r="J7" s="128"/>
       <c r="K7" s="128"/>
@@ -5918,14 +5921,14 @@
       <c r="O7" s="129"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="281"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="212"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="300"/>
+      <c r="F8" s="301"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="226"/>
       <c r="I8" s="130"/>
       <c r="J8" s="130"/>
       <c r="K8" s="130"/>
@@ -5958,11 +5961,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="268" t="s">
+      <c r="G10" s="232" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="272"/>
-      <c r="I10" s="269"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="234"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -6051,9 +6054,9 @@
       <c r="D15" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="214"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="216"/>
+      <c r="E15" s="227"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="229"/>
       <c r="H15" s="27"/>
       <c r="I15" s="138" t="s">
         <v>184</v>
@@ -6127,26 +6130,26 @@
       <c r="C20" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="249" t="s">
+      <c r="D20" s="285" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="250"/>
-      <c r="F20" s="249" t="s">
+      <c r="E20" s="286"/>
+      <c r="F20" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="250"/>
-      <c r="H20" s="249" t="s">
+      <c r="G20" s="286"/>
+      <c r="H20" s="285" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="250"/>
-      <c r="J20" s="249" t="s">
+      <c r="I20" s="286"/>
+      <c r="J20" s="285" t="s">
         <v>170</v>
       </c>
-      <c r="K20" s="250"/>
-      <c r="L20" s="247" t="s">
+      <c r="K20" s="286"/>
+      <c r="L20" s="283" t="s">
         <v>172</v>
       </c>
-      <c r="M20" s="247"/>
+      <c r="M20" s="283"/>
       <c r="N20" s="27"/>
       <c r="O20" s="39"/>
     </row>
@@ -6154,16 +6157,16 @@
       <c r="A21" s="38"/>
       <c r="B21" s="27"/>
       <c r="C21" s="105"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="252"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="252"/>
-      <c r="H21" s="251"/>
-      <c r="I21" s="252"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="252"/>
-      <c r="L21" s="248"/>
-      <c r="M21" s="248"/>
+      <c r="D21" s="287"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="288"/>
+      <c r="J21" s="287"/>
+      <c r="K21" s="288"/>
+      <c r="L21" s="284"/>
+      <c r="M21" s="284"/>
       <c r="N21" s="27"/>
       <c r="O21" s="39"/>
     </row>
@@ -6173,14 +6176,14 @@
       <c r="C22" s="71">
         <v>1</v>
       </c>
-      <c r="D22" s="253"/>
-      <c r="E22" s="254"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="254"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="254"/>
-      <c r="J22" s="253"/>
-      <c r="K22" s="254"/>
+      <c r="D22" s="274"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="274"/>
+      <c r="G22" s="276"/>
+      <c r="H22" s="274"/>
+      <c r="I22" s="276"/>
+      <c r="J22" s="274"/>
+      <c r="K22" s="276"/>
       <c r="L22" s="71"/>
       <c r="M22" s="85" t="s">
         <v>173</v>
@@ -6194,14 +6197,14 @@
       <c r="C23" s="71">
         <v>2</v>
       </c>
-      <c r="D23" s="253"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="254"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="254"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="254"/>
+      <c r="D23" s="274"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="274"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="274"/>
+      <c r="I23" s="276"/>
+      <c r="J23" s="274"/>
+      <c r="K23" s="276"/>
       <c r="L23" s="71"/>
       <c r="M23" s="85" t="s">
         <v>173</v>
@@ -6215,14 +6218,14 @@
       <c r="C24" s="71">
         <v>3</v>
       </c>
-      <c r="D24" s="253"/>
-      <c r="E24" s="254"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="254"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="253"/>
-      <c r="K24" s="254"/>
+      <c r="D24" s="274"/>
+      <c r="E24" s="276"/>
+      <c r="F24" s="274"/>
+      <c r="G24" s="276"/>
+      <c r="H24" s="274"/>
+      <c r="I24" s="276"/>
+      <c r="J24" s="274"/>
+      <c r="K24" s="276"/>
       <c r="L24" s="71"/>
       <c r="M24" s="85" t="s">
         <v>173</v>
@@ -6236,14 +6239,14 @@
       <c r="C25" s="71">
         <v>4</v>
       </c>
-      <c r="D25" s="253"/>
-      <c r="E25" s="254"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="254"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="254"/>
-      <c r="J25" s="253"/>
-      <c r="K25" s="254"/>
+      <c r="D25" s="274"/>
+      <c r="E25" s="276"/>
+      <c r="F25" s="274"/>
+      <c r="G25" s="276"/>
+      <c r="H25" s="274"/>
+      <c r="I25" s="276"/>
+      <c r="J25" s="274"/>
+      <c r="K25" s="276"/>
       <c r="L25" s="71"/>
       <c r="M25" s="85" t="s">
         <v>173</v>
@@ -6259,14 +6262,14 @@
       <c r="C26" s="86">
         <v>5</v>
       </c>
-      <c r="D26" s="282"/>
-      <c r="E26" s="283"/>
-      <c r="F26" s="282"/>
-      <c r="G26" s="283"/>
-      <c r="H26" s="282"/>
-      <c r="I26" s="283"/>
-      <c r="J26" s="282"/>
-      <c r="K26" s="283"/>
+      <c r="D26" s="320"/>
+      <c r="E26" s="321"/>
+      <c r="F26" s="320"/>
+      <c r="G26" s="321"/>
+      <c r="H26" s="320"/>
+      <c r="I26" s="321"/>
+      <c r="J26" s="320"/>
+      <c r="K26" s="321"/>
       <c r="L26" s="115"/>
       <c r="M26" s="87" t="s">
         <v>173</v>
@@ -6279,19 +6282,19 @@
     <row r="27" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="27"/>
-      <c r="C27" s="214" t="s">
+      <c r="C27" s="227" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="215"/>
-      <c r="K27" s="215"/>
-      <c r="L27" s="215"/>
-      <c r="M27" s="216"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="228"/>
+      <c r="J27" s="228"/>
+      <c r="K27" s="228"/>
+      <c r="L27" s="228"/>
+      <c r="M27" s="229"/>
       <c r="N27" s="27"/>
       <c r="O27" s="39"/>
       <c r="P27" s="27"/>
@@ -6321,10 +6324,10 @@
     </row>
     <row r="29" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="C29" s="214" t="s">
+      <c r="C29" s="227" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="216"/>
+      <c r="D29" s="229"/>
       <c r="E29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -6359,11 +6362,11 @@
       <c r="V30" s="27"/>
     </row>
     <row r="31" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="256" t="s">
+      <c r="A31" s="277" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="257"/>
-      <c r="C31" s="258"/>
+      <c r="B31" s="278"/>
+      <c r="C31" s="279"/>
       <c r="D31" s="121" t="s">
         <v>120</v>
       </c>
@@ -6410,10 +6413,10 @@
       <c r="A33" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="214" t="s">
+      <c r="B33" s="227" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="216"/>
+      <c r="C33" s="229"/>
       <c r="D33" s="39"/>
       <c r="E33" s="27"/>
       <c r="F33" s="38"/>
@@ -6435,10 +6438,10 @@
       <c r="A34" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="214" t="s">
+      <c r="B34" s="227" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="216"/>
+      <c r="C34" s="229"/>
       <c r="D34" s="39"/>
       <c r="E34" s="27"/>
       <c r="F34" s="38"/>
@@ -6480,7 +6483,7 @@
       <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="315" t="s">
+      <c r="A36" s="147" t="s">
         <v>184</v>
       </c>
       <c r="B36" s="61"/>
@@ -6503,7 +6506,7 @@
       <c r="Q36" s="27"/>
     </row>
     <row r="37" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="315" t="s">
+      <c r="A37" s="147" t="s">
         <v>188</v>
       </c>
       <c r="B37" s="61"/>
@@ -6548,10 +6551,10 @@
     </row>
     <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
-      <c r="B39" s="214" t="s">
+      <c r="B39" s="227" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="216"/>
+      <c r="C39" s="229"/>
       <c r="D39" s="39"/>
       <c r="E39" s="95"/>
       <c r="F39" s="38"/>
@@ -6566,7 +6569,7 @@
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="348"/>
+      <c r="P39" s="158"/>
       <c r="Q39" s="27"/>
       <c r="V39" s="27"/>
     </row>
@@ -6630,10 +6633,10 @@
     <row r="43" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F43" s="101"/>
       <c r="G43" s="95"/>
-      <c r="H43" s="214" t="s">
+      <c r="H43" s="227" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="216"/>
+      <c r="I43" s="229"/>
       <c r="J43" s="27"/>
       <c r="K43" s="39"/>
       <c r="O43" s="39"/>
@@ -6811,6 +6814,36 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
@@ -6822,36 +6855,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -6877,23 +6880,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="155"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -6914,55 +6917,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6983,22 +6986,22 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="205" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="280"/>
-      <c r="E7" s="209" t="s">
+      <c r="D7" s="322"/>
+      <c r="E7" s="223" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="210"/>
-      <c r="G7" s="233" t="s">
+      <c r="F7" s="224"/>
+      <c r="G7" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="234"/>
+      <c r="H7" s="299"/>
       <c r="I7" s="128"/>
       <c r="J7" s="128"/>
       <c r="K7" s="128"/>
@@ -7008,14 +7011,14 @@
       <c r="O7" s="129"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="281"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="236"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="300"/>
+      <c r="H8" s="301"/>
       <c r="I8" s="130"/>
       <c r="J8" s="130"/>
       <c r="K8" s="130"/>
@@ -7048,11 +7051,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="268" t="s">
+      <c r="G10" s="232" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="272"/>
-      <c r="I10" s="269"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="234"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -7381,14 +7384,14 @@
       <c r="A29" s="116"/>
       <c r="B29" s="116"/>
       <c r="C29" s="116"/>
-      <c r="D29" s="310"/>
+      <c r="D29" s="145"/>
       <c r="E29" s="27"/>
       <c r="F29" s="116"/>
       <c r="G29" s="116"/>
       <c r="H29" s="116"/>
       <c r="I29" s="78"/>
       <c r="J29" s="116"/>
-      <c r="K29" s="310"/>
+      <c r="K29" s="145"/>
       <c r="L29" s="95"/>
       <c r="M29" s="95"/>
       <c r="N29" s="27"/>
@@ -7815,30 +7818,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="155"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -7859,55 +7862,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7928,51 +7931,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="298" t="s">
+      <c r="A7" s="324" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="299"/>
-      <c r="C7" s="302" t="s">
+      <c r="B7" s="325"/>
+      <c r="C7" s="328" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="288" t="s">
+      <c r="D7" s="329"/>
+      <c r="E7" s="332" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="289"/>
-      <c r="G7" s="288" t="s">
+      <c r="F7" s="333"/>
+      <c r="G7" s="332" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="289"/>
-      <c r="I7" s="288" t="s">
+      <c r="H7" s="333"/>
+      <c r="I7" s="332" t="s">
         <v>138</v>
       </c>
-      <c r="J7" s="289"/>
-      <c r="K7" s="288" t="s">
+      <c r="J7" s="333"/>
+      <c r="K7" s="332" t="s">
         <v>139</v>
       </c>
-      <c r="L7" s="289"/>
-      <c r="M7" s="288" t="s">
+      <c r="L7" s="333"/>
+      <c r="M7" s="332" t="s">
         <v>140</v>
       </c>
-      <c r="N7" s="289"/>
+      <c r="N7" s="333"/>
       <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="300"/>
-      <c r="B8" s="301"/>
-      <c r="C8" s="304"/>
-      <c r="D8" s="305"/>
-      <c r="E8" s="290"/>
-      <c r="F8" s="291"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="291"/>
-      <c r="I8" s="290"/>
-      <c r="J8" s="291"/>
-      <c r="K8" s="290"/>
-      <c r="L8" s="291"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="291"/>
+      <c r="A8" s="326"/>
+      <c r="B8" s="327"/>
+      <c r="C8" s="330"/>
+      <c r="D8" s="331"/>
+      <c r="E8" s="334"/>
+      <c r="F8" s="335"/>
+      <c r="G8" s="334"/>
+      <c r="H8" s="335"/>
+      <c r="I8" s="334"/>
+      <c r="J8" s="335"/>
+      <c r="K8" s="334"/>
+      <c r="L8" s="335"/>
+      <c r="M8" s="334"/>
+      <c r="N8" s="335"/>
       <c r="O8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7998,12 +8001,12 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="306" t="s">
+      <c r="F10" s="336" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="307"/>
-      <c r="H10" s="307"/>
-      <c r="I10" s="308"/>
+      <c r="G10" s="337"/>
+      <c r="H10" s="337"/>
+      <c r="I10" s="338"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -8031,42 +8034,42 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="292"/>
+      <c r="D12" s="339"/>
       <c r="E12" s="82"/>
       <c r="F12" s="83"/>
       <c r="G12" s="84"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="148" t="s">
+      <c r="I12" s="160" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="148"/>
-      <c r="K12" s="268"/>
-      <c r="L12" s="272"/>
-      <c r="M12" s="269"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="232"/>
+      <c r="L12" s="233"/>
+      <c r="M12" s="234"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="267" t="s">
+      <c r="C13" s="273" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="293"/>
+      <c r="D13" s="340"/>
       <c r="E13" s="64"/>
       <c r="F13" s="65"/>
       <c r="G13" s="66"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="267" t="s">
+      <c r="I13" s="273" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="267"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="215"/>
-      <c r="M13" s="216"/>
+      <c r="J13" s="273"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="229"/>
       <c r="N13" s="27"/>
       <c r="O13" s="39"/>
     </row>
@@ -8094,10 +8097,10 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="214" t="s">
+      <c r="G15" s="227" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="216"/>
+      <c r="H15" s="229"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -8126,10 +8129,10 @@
     <row r="17" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="214" t="s">
+      <c r="C17" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="216"/>
+      <c r="D17" s="229"/>
       <c r="N17" s="27"/>
       <c r="O17" s="39"/>
     </row>
@@ -8142,29 +8145,29 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="247" t="s">
+      <c r="C19" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="249" t="s">
+      <c r="D19" s="285" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="250"/>
-      <c r="F19" s="294" t="s">
+      <c r="E19" s="286"/>
+      <c r="F19" s="341" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="295"/>
-      <c r="H19" s="294" t="s">
+      <c r="G19" s="342"/>
+      <c r="H19" s="341" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="295"/>
-      <c r="J19" s="294" t="s">
+      <c r="I19" s="342"/>
+      <c r="J19" s="341" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="295"/>
-      <c r="L19" s="247" t="s">
+      <c r="K19" s="342"/>
+      <c r="L19" s="283" t="s">
         <v>116</v>
       </c>
-      <c r="M19" s="247" t="s">
+      <c r="M19" s="283" t="s">
         <v>117</v>
       </c>
       <c r="N19" s="27"/>
@@ -8173,17 +8176,17 @@
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="248"/>
-      <c r="D20" s="251"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="297"/>
-      <c r="H20" s="296"/>
-      <c r="I20" s="297"/>
-      <c r="J20" s="296"/>
-      <c r="K20" s="297"/>
-      <c r="L20" s="248"/>
-      <c r="M20" s="248"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="287"/>
+      <c r="E20" s="288"/>
+      <c r="F20" s="343"/>
+      <c r="G20" s="344"/>
+      <c r="H20" s="343"/>
+      <c r="I20" s="344"/>
+      <c r="J20" s="343"/>
+      <c r="K20" s="344"/>
+      <c r="L20" s="284"/>
+      <c r="M20" s="284"/>
       <c r="N20" s="27"/>
       <c r="O20" s="39"/>
       <c r="Q20" s="27"/>
@@ -8195,14 +8198,14 @@
       <c r="C21" s="71">
         <v>1</v>
       </c>
-      <c r="D21" s="253"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="254"/>
-      <c r="J21" s="253"/>
-      <c r="K21" s="254"/>
+      <c r="D21" s="274"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="347"/>
+      <c r="G21" s="348"/>
+      <c r="H21" s="274"/>
+      <c r="I21" s="276"/>
+      <c r="J21" s="274"/>
+      <c r="K21" s="276"/>
       <c r="L21" s="85" t="s">
         <v>116</v>
       </c>
@@ -8220,14 +8223,14 @@
       <c r="C22" s="71">
         <v>2</v>
       </c>
-      <c r="D22" s="253"/>
-      <c r="E22" s="254"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="254"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="254"/>
-      <c r="J22" s="253"/>
-      <c r="K22" s="254"/>
+      <c r="D22" s="274"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="274"/>
+      <c r="G22" s="276"/>
+      <c r="H22" s="274"/>
+      <c r="I22" s="276"/>
+      <c r="J22" s="274"/>
+      <c r="K22" s="276"/>
       <c r="L22" s="85" t="s">
         <v>116</v>
       </c>
@@ -8245,14 +8248,14 @@
       <c r="C23" s="71">
         <v>3</v>
       </c>
-      <c r="D23" s="253"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="254"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="254"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="254"/>
+      <c r="D23" s="274"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="274"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="274"/>
+      <c r="I23" s="276"/>
+      <c r="J23" s="274"/>
+      <c r="K23" s="276"/>
       <c r="L23" s="85" t="s">
         <v>116</v>
       </c>
@@ -8270,14 +8273,14 @@
       <c r="C24" s="71">
         <v>4</v>
       </c>
-      <c r="D24" s="253"/>
-      <c r="E24" s="254"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="254"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="253"/>
-      <c r="K24" s="254"/>
+      <c r="D24" s="274"/>
+      <c r="E24" s="276"/>
+      <c r="F24" s="274"/>
+      <c r="G24" s="276"/>
+      <c r="H24" s="274"/>
+      <c r="I24" s="276"/>
+      <c r="J24" s="274"/>
+      <c r="K24" s="276"/>
       <c r="L24" s="85" t="s">
         <v>116</v>
       </c>
@@ -8296,14 +8299,14 @@
       <c r="C25" s="86">
         <v>5</v>
       </c>
-      <c r="D25" s="284"/>
-      <c r="E25" s="285"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="254"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="254"/>
-      <c r="J25" s="253"/>
-      <c r="K25" s="254"/>
+      <c r="D25" s="345"/>
+      <c r="E25" s="346"/>
+      <c r="F25" s="274"/>
+      <c r="G25" s="276"/>
+      <c r="H25" s="274"/>
+      <c r="I25" s="276"/>
+      <c r="J25" s="274"/>
+      <c r="K25" s="276"/>
       <c r="L25" s="87" t="s">
         <v>116</v>
       </c>
@@ -8319,19 +8322,19 @@
     <row r="26" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="214" t="s">
+      <c r="C26" s="227" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="215"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="215"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="216"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="228"/>
+      <c r="K26" s="228"/>
+      <c r="L26" s="228"/>
+      <c r="M26" s="229"/>
       <c r="N26" s="27"/>
       <c r="O26" s="39"/>
       <c r="P26" s="27"/>
@@ -8778,14 +8781,28 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="J21:K21"/>
@@ -8802,28 +8819,14 @@
     <mergeCell ref="J19:K20"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8844,23 +8847,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -8883,57 +8886,57 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
       <c r="O3" s="3"/>
       <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
       <c r="O4" s="5"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
       <c r="O5" s="5"/>
       <c r="P5"/>
     </row>
@@ -8942,14 +8945,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -8996,23 +8999,23 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9"/>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
       <c r="H9"/>
-      <c r="I9" s="148" t="s">
+      <c r="I9" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="148"/>
-      <c r="K9" s="149" t="s">
+      <c r="J9" s="160"/>
+      <c r="K9" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="149"/>
-      <c r="M9" s="149"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
       <c r="N9"/>
       <c r="O9" s="5"/>
       <c r="P9"/>
@@ -9020,25 +9023,25 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10"/>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="149" t="s">
+      <c r="D10" s="160"/>
+      <c r="E10" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
       <c r="H10"/>
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J10"/>
-      <c r="K10" s="149" t="s">
+      <c r="K10" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="149"/>
-      <c r="M10" s="149"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
       <c r="N10"/>
       <c r="O10" s="5"/>
       <c r="P10"/>
@@ -9068,11 +9071,11 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -9101,47 +9104,47 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149" t="s">
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149" t="s">
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="149" t="s">
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="149"/>
-      <c r="N14" s="149"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
       <c r="O14" s="5"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="149"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
       <c r="O15" s="5"/>
       <c r="P15"/>
     </row>
@@ -9150,26 +9153,26 @@
       <c r="B16" s="22">
         <v>1</v>
       </c>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149" t="s">
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="152">
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="165">
         <v>41983</v>
       </c>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="149">
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="161">
         <v>500000</v>
       </c>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
       <c r="O16" s="5"/>
       <c r="P16"/>
     </row>
@@ -9178,26 +9181,26 @@
       <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="C17" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149" t="s">
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="152">
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="165">
         <v>41924</v>
       </c>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="149">
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="161">
         <v>50000</v>
       </c>
-      <c r="M17" s="149"/>
-      <c r="N17" s="149"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
       <c r="O17" s="5"/>
       <c r="P17"/>
     </row>
@@ -9206,26 +9209,26 @@
       <c r="B18" s="22">
         <v>3</v>
       </c>
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149" t="s">
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149" t="s">
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149" t="s">
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="149"/>
-      <c r="N18" s="149"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
       <c r="O18" s="5"/>
       <c r="P18"/>
     </row>
@@ -9234,26 +9237,26 @@
       <c r="B19" s="22">
         <v>4</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149" t="s">
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149" t="s">
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="149" t="s">
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="149"/>
-      <c r="N19" s="149"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
       <c r="O19" s="5"/>
       <c r="P19"/>
     </row>
@@ -9262,46 +9265,46 @@
       <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149" t="s">
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149" t="s">
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="149" t="s">
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="149"/>
-      <c r="N20" s="149"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
       <c r="O20" s="5"/>
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="149"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
       <c r="O21" s="5"/>
       <c r="P21"/>
     </row>
@@ -9766,27 +9769,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="K10:M10"/>
@@ -9796,13 +9785,27 @@
     <mergeCell ref="F14:H15"/>
     <mergeCell ref="I14:K15"/>
     <mergeCell ref="L14:N15"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="B21:N21"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9817,8 +9820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:N8"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9827,23 +9830,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="155"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -9864,55 +9867,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9933,51 +9936,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="169" t="s">
+      <c r="B7" s="197"/>
+      <c r="C7" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="169" t="s">
+      <c r="D7" s="201"/>
+      <c r="E7" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="170"/>
-      <c r="G7" s="169" t="s">
+      <c r="F7" s="201"/>
+      <c r="G7" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="173" t="s">
+      <c r="H7" s="201"/>
+      <c r="I7" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="174"/>
-      <c r="K7" s="173" t="s">
+      <c r="J7" s="205"/>
+      <c r="K7" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="174"/>
-      <c r="M7" s="173" t="s">
+      <c r="L7" s="205"/>
+      <c r="M7" s="204" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="174"/>
+      <c r="N7" s="205"/>
       <c r="O7" s="91"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="176"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="206"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="206"/>
+      <c r="L8" s="207"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="207"/>
       <c r="O8" s="92"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10004,11 +10007,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="177" t="s">
+      <c r="G10" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -10036,25 +10039,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="177" t="s">
+      <c r="D12" s="183"/>
+      <c r="E12" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="178"/>
-      <c r="G12" s="179"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="178"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="180" t="s">
+      <c r="I12" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="180"/>
-      <c r="K12" s="177" t="s">
+      <c r="J12" s="183"/>
+      <c r="K12" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="178"/>
-      <c r="M12" s="179"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="178"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -10082,11 +10085,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="177" t="s">
+      <c r="G14" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="178"/>
-      <c r="I14" s="179"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -10116,19 +10119,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="183" t="s">
+      <c r="F16" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183" t="s">
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="182"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -10139,13 +10142,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="185"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="167"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -10159,12 +10162,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="185"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="167"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -10178,12 +10181,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="185"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="167"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -10197,12 +10200,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="185"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="167"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -10218,12 +10221,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="185"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="167"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -10239,12 +10242,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="185"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="167"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -10257,15 +10260,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="186" t="s">
+      <c r="E23" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="188"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="170"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -10298,15 +10301,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="191" t="s">
+      <c r="E25" s="173" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="193"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="175"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -10657,11 +10660,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="39"/>
@@ -10822,28 +10825,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -10853,6 +10834,28 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E25:K25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -10886,23 +10889,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="196"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -10923,55 +10926,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10992,51 +10995,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="201" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="202"/>
-      <c r="E7" s="205" t="s">
+      <c r="D7" s="216"/>
+      <c r="E7" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="206"/>
-      <c r="G7" s="205" t="s">
+      <c r="F7" s="220"/>
+      <c r="G7" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="206"/>
-      <c r="I7" s="209" t="s">
+      <c r="H7" s="220"/>
+      <c r="I7" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="210"/>
-      <c r="K7" s="209" t="s">
+      <c r="J7" s="224"/>
+      <c r="K7" s="223" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="210"/>
-      <c r="M7" s="209" t="s">
+      <c r="L7" s="224"/>
+      <c r="M7" s="223" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="210"/>
+      <c r="N7" s="224"/>
       <c r="O7" s="93"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="207"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="212"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="226"/>
       <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11063,11 +11066,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="177" t="s">
+      <c r="G10" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -11095,25 +11098,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="177" t="s">
+      <c r="D12" s="183"/>
+      <c r="E12" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="178"/>
-      <c r="G12" s="179"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="178"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="180" t="s">
+      <c r="I12" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="180"/>
-      <c r="K12" s="177" t="s">
+      <c r="J12" s="183"/>
+      <c r="K12" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="178"/>
-      <c r="M12" s="179"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="178"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -11141,11 +11144,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="177" t="s">
+      <c r="G14" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="178"/>
-      <c r="I14" s="179"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -11175,19 +11178,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="183" t="s">
+      <c r="F16" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183" t="s">
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="182"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -11198,13 +11201,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="185"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="167"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -11218,12 +11221,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="185"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="167"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -11237,12 +11240,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="185"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="167"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -11256,12 +11259,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="185"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="167"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -11277,12 +11280,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="185"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="167"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -11298,12 +11301,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="185"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="167"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -11316,15 +11319,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="186" t="s">
+      <c r="E23" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="188"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="170"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -11357,15 +11360,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="191" t="s">
+      <c r="E25" s="173" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="193"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="175"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -11718,11 +11721,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -11883,28 +11886,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -11914,6 +11895,28 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E25:K25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -11947,23 +11950,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="155"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -11984,55 +11987,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12053,51 +12056,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="205" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="206"/>
-      <c r="E7" s="201" t="s">
+      <c r="D7" s="220"/>
+      <c r="E7" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="202"/>
-      <c r="G7" s="205" t="s">
+      <c r="F7" s="216"/>
+      <c r="G7" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="206"/>
-      <c r="I7" s="209" t="s">
+      <c r="H7" s="220"/>
+      <c r="I7" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="210"/>
-      <c r="K7" s="209" t="s">
+      <c r="J7" s="224"/>
+      <c r="K7" s="223" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="210"/>
-      <c r="M7" s="209" t="s">
+      <c r="L7" s="224"/>
+      <c r="M7" s="223" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="210"/>
+      <c r="N7" s="224"/>
       <c r="O7" s="93"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="207"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="212"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="226"/>
       <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12124,11 +12127,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="177" t="s">
+      <c r="G10" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -12156,64 +12159,64 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="177" t="s">
+      <c r="D12" s="183"/>
+      <c r="E12" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="178"/>
-      <c r="G12" s="179"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="178"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="180" t="s">
+      <c r="I12" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="180"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="179"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="178"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="309" t="s">
+      <c r="C13" s="230" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="309"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="216"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="229"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="309" t="s">
+      <c r="I13" s="230" t="s">
         <v>191</v>
       </c>
-      <c r="J13" s="309"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="215"/>
-      <c r="M13" s="216"/>
+      <c r="J13" s="230"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="229"/>
       <c r="N13" s="27"/>
       <c r="O13" s="39"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="309" t="s">
+      <c r="C14" s="230" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="309"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="216"/>
-      <c r="I14" s="314" t="s">
+      <c r="D14" s="230"/>
+      <c r="E14" s="227"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="229"/>
+      <c r="I14" s="231" t="s">
         <v>197</v>
       </c>
-      <c r="J14" s="314"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="216"/>
+      <c r="J14" s="231"/>
+      <c r="K14" s="227"/>
+      <c r="L14" s="228"/>
+      <c r="M14" s="229"/>
       <c r="N14" s="27"/>
       <c r="O14" s="39"/>
     </row>
@@ -12225,11 +12228,11 @@
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="268" t="s">
+      <c r="G16" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="272"/>
-      <c r="I16" s="269"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="234"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
@@ -12257,25 +12260,25 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="329" t="s">
+      <c r="C18" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="227" t="s">
+      <c r="D18" s="238" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="228"/>
-      <c r="F18" s="320"/>
-      <c r="G18" s="319" t="s">
+      <c r="E18" s="239"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="228"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="331" t="s">
+      <c r="H18" s="239"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="250" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="312"/>
-      <c r="L18" s="240"/>
-      <c r="M18" s="260" t="s">
+      <c r="K18" s="251"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="256" t="s">
         <v>172</v>
       </c>
       <c r="N18" s="27"/>
@@ -12284,36 +12287,36 @@
     <row r="19" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="330"/>
-      <c r="D19" s="230"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="347"/>
-      <c r="G19" s="327"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="332"/>
-      <c r="K19" s="333"/>
-      <c r="L19" s="334"/>
-      <c r="M19" s="261"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="248"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="253"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="255"/>
+      <c r="M19" s="257"/>
       <c r="N19" s="27"/>
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="328">
+      <c r="C20" s="154">
         <v>1</v>
       </c>
-      <c r="D20" s="321"/>
-      <c r="E20" s="322"/>
-      <c r="F20" s="323"/>
-      <c r="G20" s="321"/>
-      <c r="H20" s="322"/>
-      <c r="I20" s="322"/>
-      <c r="J20" s="321"/>
-      <c r="K20" s="322"/>
-      <c r="L20" s="322"/>
-      <c r="M20" s="335"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="155"/>
       <c r="N20" s="27"/>
       <c r="O20" s="39"/>
     </row>
@@ -12323,16 +12326,16 @@
       <c r="C21" s="56">
         <v>2</v>
       </c>
-      <c r="D21" s="324"/>
-      <c r="E21" s="325"/>
-      <c r="F21" s="326"/>
-      <c r="G21" s="324"/>
-      <c r="H21" s="325"/>
-      <c r="I21" s="325"/>
-      <c r="J21" s="321"/>
-      <c r="K21" s="322"/>
-      <c r="L21" s="322"/>
-      <c r="M21" s="336"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="156"/>
       <c r="N21" s="27"/>
       <c r="O21" s="39"/>
     </row>
@@ -12342,16 +12345,16 @@
       <c r="C22" s="56">
         <v>3</v>
       </c>
-      <c r="D22" s="324"/>
-      <c r="E22" s="325"/>
-      <c r="F22" s="326"/>
-      <c r="G22" s="324"/>
-      <c r="H22" s="325"/>
-      <c r="I22" s="325"/>
-      <c r="J22" s="321"/>
-      <c r="K22" s="322"/>
-      <c r="L22" s="322"/>
-      <c r="M22" s="336"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="156"/>
       <c r="N22" s="27"/>
       <c r="O22" s="39"/>
     </row>
@@ -12361,16 +12364,16 @@
       <c r="C23" s="56">
         <v>4</v>
       </c>
-      <c r="D23" s="324"/>
-      <c r="E23" s="325"/>
-      <c r="F23" s="326"/>
-      <c r="G23" s="324"/>
-      <c r="H23" s="325"/>
-      <c r="I23" s="325"/>
-      <c r="J23" s="321"/>
-      <c r="K23" s="322"/>
-      <c r="L23" s="322"/>
-      <c r="M23" s="336"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="156"/>
       <c r="N23" s="27"/>
       <c r="O23" s="39"/>
     </row>
@@ -12380,35 +12383,35 @@
       <c r="C24" s="56">
         <v>5</v>
       </c>
-      <c r="D24" s="324"/>
-      <c r="E24" s="325"/>
-      <c r="F24" s="326"/>
-      <c r="G24" s="324"/>
-      <c r="H24" s="325"/>
-      <c r="I24" s="325"/>
-      <c r="J24" s="321"/>
-      <c r="K24" s="322"/>
-      <c r="L24" s="322"/>
-      <c r="M24" s="336"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="156"/>
       <c r="N24" s="27"/>
       <c r="O24" s="39"/>
     </row>
     <row r="25" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="316" t="s">
+      <c r="C25" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="317"/>
-      <c r="E25" s="317"/>
-      <c r="F25" s="317"/>
-      <c r="G25" s="317"/>
-      <c r="H25" s="317"/>
-      <c r="I25" s="317"/>
-      <c r="J25" s="317"/>
-      <c r="K25" s="317"/>
-      <c r="L25" s="317"/>
-      <c r="M25" s="318"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="236"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="236"/>
+      <c r="J25" s="236"/>
+      <c r="K25" s="236"/>
+      <c r="L25" s="236"/>
+      <c r="M25" s="237"/>
       <c r="N25" s="27"/>
       <c r="O25" s="39"/>
     </row>
@@ -12743,7 +12746,7 @@
       <c r="H42" s="38"/>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
-      <c r="K42" s="311" t="s">
+      <c r="K42" s="146" t="s">
         <v>124</v>
       </c>
       <c r="L42" s="27"/>
@@ -12752,11 +12755,11 @@
       <c r="O42" s="39"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="190"/>
-      <c r="C43" s="190"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="14"/>
@@ -12872,26 +12875,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="D18:F19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G18:I19"/>
-    <mergeCell ref="J18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
@@ -12902,6 +12885,26 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="J18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -12925,8 +12928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12935,76 +12938,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="155"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13012,51 +13015,51 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="205" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="206"/>
-      <c r="E7" s="205" t="s">
+      <c r="D7" s="220"/>
+      <c r="E7" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="206"/>
-      <c r="G7" s="201" t="s">
+      <c r="F7" s="220"/>
+      <c r="G7" s="215" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="202"/>
-      <c r="I7" s="209" t="s">
+      <c r="H7" s="216"/>
+      <c r="I7" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="210"/>
-      <c r="K7" s="209" t="s">
+      <c r="J7" s="224"/>
+      <c r="K7" s="223" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="210"/>
-      <c r="M7" s="209" t="s">
+      <c r="L7" s="224"/>
+      <c r="M7" s="223" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="210"/>
+      <c r="N7" s="224"/>
       <c r="O7" s="93"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="212"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="226"/>
       <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13083,11 +13086,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="177" t="s">
+      <c r="G10" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -13117,17 +13120,17 @@
       <c r="B12" s="27"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="213" t="s">
+      <c r="E12" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="213"/>
-      <c r="G12" s="214" t="s">
+      <c r="F12" s="258"/>
+      <c r="G12" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="215"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="215"/>
-      <c r="K12" s="216"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="229"/>
       <c r="L12" s="57"/>
       <c r="M12" s="57"/>
       <c r="N12" s="27"/>
@@ -13138,15 +13141,15 @@
       <c r="B13" s="27"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="217" t="s">
+      <c r="E13" s="259" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="217"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="220"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="261"/>
+      <c r="K13" s="262"/>
       <c r="L13" s="57"/>
       <c r="M13" s="57"/>
       <c r="N13" s="27"/>
@@ -13157,17 +13160,17 @@
       <c r="B14" s="27"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
-      <c r="E14" s="217" t="s">
+      <c r="E14" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="217"/>
-      <c r="G14" s="221" t="s">
+      <c r="F14" s="259"/>
+      <c r="G14" s="263" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="222"/>
-      <c r="I14" s="222"/>
-      <c r="J14" s="222"/>
-      <c r="K14" s="223"/>
+      <c r="H14" s="264"/>
+      <c r="I14" s="264"/>
+      <c r="J14" s="264"/>
+      <c r="K14" s="265"/>
       <c r="L14" s="57"/>
       <c r="M14" s="57"/>
       <c r="N14" s="27"/>
@@ -13178,15 +13181,15 @@
       <c r="B15" s="27"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="217" t="s">
+      <c r="E15" s="259" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="217"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="225"/>
-      <c r="J15" s="225"/>
-      <c r="K15" s="226"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="266"/>
+      <c r="H15" s="267"/>
+      <c r="I15" s="267"/>
+      <c r="J15" s="267"/>
+      <c r="K15" s="268"/>
       <c r="L15" s="57"/>
       <c r="M15" s="57"/>
       <c r="N15" s="27"/>
@@ -13197,17 +13200,17 @@
       <c r="B16" s="27"/>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
-      <c r="E16" s="213" t="s">
+      <c r="E16" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="213"/>
-      <c r="G16" s="214" t="s">
+      <c r="F16" s="258"/>
+      <c r="G16" s="227" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="215"/>
-      <c r="I16" s="215"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="216"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="228"/>
+      <c r="J16" s="228"/>
+      <c r="K16" s="229"/>
       <c r="L16" s="57"/>
       <c r="M16" s="57"/>
       <c r="N16" s="27"/>
@@ -13218,18 +13221,20 @@
       <c r="B17" s="27"/>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
-      <c r="E17" s="270" t="s">
+      <c r="E17" s="269" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="270"/>
-      <c r="G17" s="214" t="s">
+      <c r="F17" s="269"/>
+      <c r="G17" s="227" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="215"/>
-      <c r="I17" s="215"/>
-      <c r="J17" s="215"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="57"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="228"/>
+      <c r="J17" s="228"/>
+      <c r="K17" s="229"/>
+      <c r="L17" s="57" t="s">
+        <v>206</v>
+      </c>
       <c r="M17" s="57"/>
       <c r="N17" s="27"/>
       <c r="O17" s="39"/>
@@ -13239,17 +13244,17 @@
       <c r="B18" s="27"/>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
-      <c r="E18" s="217" t="s">
+      <c r="E18" s="259" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="217"/>
-      <c r="G18" s="227" t="s">
+      <c r="F18" s="259"/>
+      <c r="G18" s="238" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="228"/>
-      <c r="I18" s="228"/>
-      <c r="J18" s="228"/>
-      <c r="K18" s="229"/>
+      <c r="H18" s="239"/>
+      <c r="I18" s="239"/>
+      <c r="J18" s="239"/>
+      <c r="K18" s="247"/>
       <c r="L18" s="57"/>
       <c r="M18" s="57"/>
       <c r="N18" s="27"/>
@@ -13262,11 +13267,11 @@
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="230"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="232"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="249"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
       <c r="N19" s="27"/>
@@ -13710,11 +13715,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -13877,6 +13882,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="A42:C42"/>
@@ -13892,16 +13907,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -13925,7 +13930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
@@ -13936,23 +13941,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="155"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -13973,55 +13978,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14042,51 +14047,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="205" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="206"/>
-      <c r="E7" s="205" t="s">
+      <c r="D7" s="220"/>
+      <c r="E7" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="206"/>
-      <c r="G7" s="205" t="s">
+      <c r="F7" s="220"/>
+      <c r="G7" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="206"/>
-      <c r="I7" s="233" t="s">
+      <c r="H7" s="220"/>
+      <c r="I7" s="298" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="234"/>
-      <c r="K7" s="209" t="s">
+      <c r="J7" s="299"/>
+      <c r="K7" s="223" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="210"/>
-      <c r="M7" s="209" t="s">
+      <c r="L7" s="224"/>
+      <c r="M7" s="223" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="210"/>
+      <c r="N7" s="224"/>
       <c r="O7" s="93"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="207"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="236"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="212"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="300"/>
+      <c r="J8" s="301"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="226"/>
       <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14113,11 +14118,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="177" t="s">
+      <c r="G10" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -14148,13 +14153,13 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="237" t="s">
+      <c r="F12" s="295" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="238"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="239"/>
-      <c r="J12" s="240"/>
+      <c r="G12" s="296"/>
+      <c r="H12" s="297"/>
+      <c r="I12" s="297"/>
+      <c r="J12" s="252"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -14167,15 +14172,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="241" t="s">
+      <c r="F13" s="289" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="242"/>
-      <c r="H13" s="243" t="s">
+      <c r="G13" s="290"/>
+      <c r="H13" s="293" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="243"/>
-      <c r="J13" s="244"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="294"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -14188,13 +14193,13 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="241" t="s">
+      <c r="F14" s="289" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="242"/>
-      <c r="H14" s="243"/>
-      <c r="I14" s="243"/>
-      <c r="J14" s="244"/>
+      <c r="G14" s="290"/>
+      <c r="H14" s="293"/>
+      <c r="I14" s="293"/>
+      <c r="J14" s="294"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -14207,15 +14212,15 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="241" t="s">
+      <c r="F15" s="289" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="242"/>
-      <c r="H15" s="243" t="s">
+      <c r="G15" s="290"/>
+      <c r="H15" s="293" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="243"/>
-      <c r="J15" s="244"/>
+      <c r="I15" s="293"/>
+      <c r="J15" s="294"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -14228,15 +14233,15 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="241" t="s">
+      <c r="F16" s="289" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="242"/>
-      <c r="H16" s="243" t="s">
+      <c r="G16" s="290"/>
+      <c r="H16" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="243"/>
-      <c r="J16" s="244"/>
+      <c r="I16" s="293"/>
+      <c r="J16" s="294"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -14249,13 +14254,13 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="241" t="s">
+      <c r="F17" s="289" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="242"/>
-      <c r="H17" s="243"/>
-      <c r="I17" s="243"/>
-      <c r="J17" s="244"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="293"/>
+      <c r="I17" s="293"/>
+      <c r="J17" s="294"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -14268,13 +14273,13 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="241" t="s">
+      <c r="F18" s="289" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="242"/>
-      <c r="H18" s="245"/>
-      <c r="I18" s="245"/>
-      <c r="J18" s="246"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="291"/>
+      <c r="I18" s="291"/>
+      <c r="J18" s="292"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -14287,13 +14292,13 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="241" t="s">
+      <c r="F19" s="289" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="242"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="246"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="291"/>
+      <c r="I19" s="291"/>
+      <c r="J19" s="292"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -14306,13 +14311,13 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="241" t="s">
+      <c r="F20" s="289" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="242"/>
-      <c r="H20" s="245"/>
-      <c r="I20" s="245"/>
-      <c r="J20" s="246"/>
+      <c r="G20" s="290"/>
+      <c r="H20" s="291"/>
+      <c r="I20" s="291"/>
+      <c r="J20" s="292"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -14346,15 +14351,15 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="177" t="s">
+      <c r="F22" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="179"/>
+      <c r="G22" s="178"/>
       <c r="H22" s="52"/>
-      <c r="I22" s="177" t="s">
+      <c r="I22" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="179"/>
+      <c r="J22" s="178"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -14385,29 +14390,29 @@
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="247" t="s">
+      <c r="C24" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="249" t="s">
+      <c r="D24" s="285" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="250"/>
-      <c r="F24" s="249" t="s">
+      <c r="E24" s="286"/>
+      <c r="F24" s="285" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="250"/>
-      <c r="H24" s="249" t="s">
+      <c r="G24" s="286"/>
+      <c r="H24" s="285" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="250"/>
-      <c r="J24" s="249" t="s">
+      <c r="I24" s="286"/>
+      <c r="J24" s="285" t="s">
         <v>115</v>
       </c>
-      <c r="K24" s="250"/>
-      <c r="L24" s="247" t="s">
+      <c r="K24" s="286"/>
+      <c r="L24" s="283" t="s">
         <v>116</v>
       </c>
-      <c r="M24" s="247" t="s">
+      <c r="M24" s="283" t="s">
         <v>117</v>
       </c>
       <c r="O24" s="39"/>
@@ -14418,17 +14423,17 @@
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="38"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="251"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="252"/>
-      <c r="L25" s="248"/>
-      <c r="M25" s="248"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="287"/>
+      <c r="E25" s="288"/>
+      <c r="F25" s="287"/>
+      <c r="G25" s="288"/>
+      <c r="H25" s="287"/>
+      <c r="I25" s="288"/>
+      <c r="J25" s="287"/>
+      <c r="K25" s="288"/>
+      <c r="L25" s="284"/>
+      <c r="M25" s="284"/>
       <c r="O25" s="39"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
@@ -14440,14 +14445,14 @@
       <c r="C26" s="71">
         <v>1</v>
       </c>
-      <c r="D26" s="253"/>
-      <c r="E26" s="254"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="254"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="253"/>
-      <c r="K26" s="254"/>
+      <c r="D26" s="274"/>
+      <c r="E26" s="276"/>
+      <c r="F26" s="274"/>
+      <c r="G26" s="276"/>
+      <c r="H26" s="274"/>
+      <c r="I26" s="276"/>
+      <c r="J26" s="274"/>
+      <c r="K26" s="276"/>
       <c r="L26" s="85" t="s">
         <v>116</v>
       </c>
@@ -14465,14 +14470,14 @@
       <c r="C27" s="71">
         <v>2</v>
       </c>
-      <c r="D27" s="253"/>
-      <c r="E27" s="254"/>
-      <c r="F27" s="253"/>
-      <c r="G27" s="254"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="254"/>
-      <c r="J27" s="253"/>
-      <c r="K27" s="254"/>
+      <c r="D27" s="274"/>
+      <c r="E27" s="276"/>
+      <c r="F27" s="274"/>
+      <c r="G27" s="276"/>
+      <c r="H27" s="274"/>
+      <c r="I27" s="276"/>
+      <c r="J27" s="274"/>
+      <c r="K27" s="276"/>
       <c r="L27" s="85" t="s">
         <v>116</v>
       </c>
@@ -14490,14 +14495,14 @@
       <c r="C28" s="71">
         <v>3</v>
       </c>
-      <c r="D28" s="253"/>
-      <c r="E28" s="254"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="254"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="254"/>
-      <c r="J28" s="253"/>
-      <c r="K28" s="254"/>
+      <c r="D28" s="274"/>
+      <c r="E28" s="276"/>
+      <c r="F28" s="274"/>
+      <c r="G28" s="276"/>
+      <c r="H28" s="274"/>
+      <c r="I28" s="276"/>
+      <c r="J28" s="274"/>
+      <c r="K28" s="276"/>
       <c r="L28" s="85" t="s">
         <v>116</v>
       </c>
@@ -14515,14 +14520,14 @@
       <c r="C29" s="71">
         <v>4</v>
       </c>
-      <c r="D29" s="253"/>
-      <c r="E29" s="254"/>
-      <c r="F29" s="253"/>
-      <c r="G29" s="254"/>
-      <c r="H29" s="253"/>
-      <c r="I29" s="254"/>
-      <c r="J29" s="253"/>
-      <c r="K29" s="254"/>
+      <c r="D29" s="274"/>
+      <c r="E29" s="276"/>
+      <c r="F29" s="274"/>
+      <c r="G29" s="276"/>
+      <c r="H29" s="274"/>
+      <c r="I29" s="276"/>
+      <c r="J29" s="274"/>
+      <c r="K29" s="276"/>
       <c r="L29" s="85" t="s">
         <v>116</v>
       </c>
@@ -14538,14 +14543,14 @@
       <c r="C30" s="71">
         <v>5</v>
       </c>
-      <c r="D30" s="253"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="254"/>
-      <c r="H30" s="253"/>
-      <c r="I30" s="254"/>
-      <c r="J30" s="253"/>
-      <c r="K30" s="254"/>
+      <c r="D30" s="274"/>
+      <c r="E30" s="276"/>
+      <c r="F30" s="274"/>
+      <c r="G30" s="276"/>
+      <c r="H30" s="274"/>
+      <c r="I30" s="276"/>
+      <c r="J30" s="274"/>
+      <c r="K30" s="276"/>
       <c r="L30" s="85" t="s">
         <v>116</v>
       </c>
@@ -14558,19 +14563,19 @@
       <c r="V30" s="27"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C31" s="253" t="s">
+      <c r="C31" s="274" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="255"/>
-      <c r="E31" s="255"/>
-      <c r="F31" s="255"/>
-      <c r="G31" s="255"/>
-      <c r="H31" s="255"/>
-      <c r="I31" s="255"/>
-      <c r="J31" s="255"/>
-      <c r="K31" s="255"/>
-      <c r="L31" s="255"/>
-      <c r="M31" s="254"/>
+      <c r="D31" s="275"/>
+      <c r="E31" s="275"/>
+      <c r="F31" s="275"/>
+      <c r="G31" s="275"/>
+      <c r="H31" s="275"/>
+      <c r="I31" s="275"/>
+      <c r="J31" s="275"/>
+      <c r="K31" s="275"/>
+      <c r="L31" s="275"/>
+      <c r="M31" s="276"/>
       <c r="O31" s="39"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
@@ -14594,10 +14599,10 @@
       <c r="V32" s="27"/>
     </row>
     <row r="33" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="214" t="s">
+      <c r="C33" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="216"/>
+      <c r="D33" s="229"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
@@ -14644,12 +14649,12 @@
         <v>120</v>
       </c>
       <c r="J35" s="27"/>
-      <c r="K35" s="256" t="s">
+      <c r="K35" s="277" t="s">
         <v>119</v>
       </c>
-      <c r="L35" s="257"/>
-      <c r="M35" s="257"/>
-      <c r="N35" s="258"/>
+      <c r="L35" s="278"/>
+      <c r="M35" s="278"/>
+      <c r="N35" s="279"/>
       <c r="O35" s="121" t="s">
         <v>120</v>
       </c>
@@ -14678,26 +14683,26 @@
       <c r="V36" s="27"/>
     </row>
     <row r="37" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="259" t="s">
+      <c r="A37" s="280" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="213"/>
-      <c r="C37" s="214" t="s">
+      <c r="B37" s="258"/>
+      <c r="C37" s="227" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="215"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="216"/>
+      <c r="D37" s="228"/>
+      <c r="E37" s="228"/>
+      <c r="F37" s="228"/>
+      <c r="G37" s="229"/>
       <c r="H37" s="27"/>
       <c r="I37" s="39"/>
       <c r="J37" s="27"/>
       <c r="K37" s="38"/>
-      <c r="L37" s="260" t="s">
+      <c r="L37" s="256" t="s">
         <v>122</v>
       </c>
       <c r="M37" s="27"/>
-      <c r="N37" s="260" t="s">
+      <c r="N37" s="256" t="s">
         <v>121</v>
       </c>
       <c r="O37" s="39"/>
@@ -14706,39 +14711,39 @@
       <c r="V37" s="27"/>
     </row>
     <row r="38" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="262" t="s">
+      <c r="A38" s="281" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="263"/>
-      <c r="C38" s="214" t="s">
+      <c r="B38" s="282"/>
+      <c r="C38" s="227" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="215"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="215"/>
-      <c r="G38" s="216"/>
+      <c r="D38" s="228"/>
+      <c r="E38" s="228"/>
+      <c r="F38" s="228"/>
+      <c r="G38" s="229"/>
       <c r="H38" s="27"/>
       <c r="I38" s="39"/>
       <c r="J38" s="27"/>
       <c r="K38" s="38"/>
-      <c r="L38" s="261"/>
+      <c r="L38" s="257"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="261"/>
+      <c r="N38" s="257"/>
       <c r="O38" s="39"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
       <c r="V38" s="27"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="266" t="s">
+      <c r="A39" s="272" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="267"/>
-      <c r="C39" s="214"/>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="216"/>
+      <c r="B39" s="273"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="228"/>
+      <c r="E39" s="228"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="229"/>
       <c r="H39" s="27"/>
       <c r="I39" s="39"/>
       <c r="J39" s="27"/>
@@ -14752,15 +14757,15 @@
       <c r="V39" s="27"/>
     </row>
     <row r="40" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="266" t="s">
+      <c r="A40" s="272" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="267"/>
-      <c r="C40" s="214"/>
-      <c r="D40" s="215"/>
-      <c r="E40" s="215"/>
-      <c r="F40" s="215"/>
-      <c r="G40" s="216"/>
+      <c r="B40" s="273"/>
+      <c r="C40" s="227"/>
+      <c r="D40" s="228"/>
+      <c r="E40" s="228"/>
+      <c r="F40" s="228"/>
+      <c r="G40" s="229"/>
       <c r="H40" s="27"/>
       <c r="I40" s="39"/>
       <c r="J40" s="27"/>
@@ -14774,15 +14779,15 @@
       <c r="V40" s="27"/>
     </row>
     <row r="41" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="266" t="s">
+      <c r="A41" s="272" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="267"/>
-      <c r="C41" s="214"/>
-      <c r="D41" s="215"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="215"/>
-      <c r="G41" s="216"/>
+      <c r="B41" s="273"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="228"/>
+      <c r="E41" s="228"/>
+      <c r="F41" s="228"/>
+      <c r="G41" s="229"/>
       <c r="H41" s="27"/>
       <c r="I41" s="39"/>
       <c r="J41" s="27"/>
@@ -14833,15 +14838,15 @@
     </row>
     <row r="44" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
-      <c r="B44" s="214" t="s">
+      <c r="B44" s="227" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="216"/>
+      <c r="C44" s="229"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="264" t="s">
+      <c r="E44" s="270" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="265"/>
+      <c r="F44" s="271"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="39"/>
@@ -14958,60 +14963,36 @@
       <c r="V49" s="27"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="346" t="s">
+      <c r="A51" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B51" s="346"/>
-      <c r="C51" s="346"/>
-      <c r="D51" s="346"/>
-      <c r="E51" s="346"/>
+      <c r="B51" s="157"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="157"/>
+      <c r="E51" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="F22:G22"/>
@@ -15022,26 +15003,50 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -15065,7 +15070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7:J8"/>
     </sheetView>
   </sheetViews>
@@ -15077,23 +15082,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="155"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -15114,55 +15119,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15183,51 +15188,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="205" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="206"/>
-      <c r="E7" s="205" t="s">
+      <c r="D7" s="220"/>
+      <c r="E7" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="206"/>
-      <c r="G7" s="205" t="s">
+      <c r="F7" s="220"/>
+      <c r="G7" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="206"/>
-      <c r="I7" s="209" t="s">
+      <c r="H7" s="220"/>
+      <c r="I7" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="210"/>
-      <c r="K7" s="233" t="s">
+      <c r="J7" s="224"/>
+      <c r="K7" s="298" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="234"/>
-      <c r="M7" s="209" t="s">
+      <c r="L7" s="299"/>
+      <c r="M7" s="223" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="210"/>
+      <c r="N7" s="224"/>
       <c r="O7" s="93"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="207"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="212"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="300"/>
+      <c r="L8" s="301"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="226"/>
       <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15254,11 +15259,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="177" t="s">
+      <c r="G10" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -15288,14 +15293,14 @@
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="271" t="s">
+      <c r="E12" s="302" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="271"/>
-      <c r="G12" s="268"/>
-      <c r="H12" s="272"/>
-      <c r="I12" s="272"/>
-      <c r="J12" s="269"/>
+      <c r="F12" s="302"/>
+      <c r="G12" s="232"/>
+      <c r="H12" s="233"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="234"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -15307,14 +15312,14 @@
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="263" t="s">
+      <c r="E13" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="263"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="272"/>
-      <c r="I13" s="272"/>
-      <c r="J13" s="269"/>
+      <c r="F13" s="282"/>
+      <c r="G13" s="232"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="234"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -15326,13 +15331,13 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="267" t="s">
+      <c r="E14" s="273" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="267"/>
-      <c r="G14" s="268"/>
-      <c r="H14" s="272"/>
-      <c r="I14" s="272"/>
+      <c r="F14" s="273"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="233"/>
+      <c r="I14" s="233"/>
       <c r="J14" s="102" t="s">
         <v>159</v>
       </c>
@@ -15347,16 +15352,16 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="270" t="s">
+      <c r="E15" s="269" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="270"/>
-      <c r="G15" s="214" t="s">
+      <c r="F15" s="269"/>
+      <c r="G15" s="227" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="215"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="216"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="228"/>
+      <c r="J15" s="229"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -15368,16 +15373,16 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="267" t="s">
+      <c r="E16" s="273" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="267"/>
-      <c r="G16" s="227" t="s">
+      <c r="F16" s="273"/>
+      <c r="G16" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="228"/>
-      <c r="I16" s="228"/>
-      <c r="J16" s="229"/>
+      <c r="H16" s="239"/>
+      <c r="I16" s="239"/>
+      <c r="J16" s="247"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -15391,10 +15396,10 @@
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="57"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="231"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="232"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="249"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -15425,10 +15430,10 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="268" t="s">
+      <c r="G19" s="232" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="269"/>
+      <c r="H19" s="234"/>
       <c r="I19" s="96"/>
       <c r="J19" s="96"/>
       <c r="K19" s="27"/>
@@ -15476,14 +15481,14 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="337" t="s">
+      <c r="E22" s="303" t="s">
         <v>192</v>
       </c>
-      <c r="F22" s="338"/>
-      <c r="G22" s="338"/>
-      <c r="H22" s="338"/>
-      <c r="I22" s="338"/>
-      <c r="J22" s="339"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="304"/>
+      <c r="H22" s="304"/>
+      <c r="I22" s="304"/>
+      <c r="J22" s="305"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -15495,12 +15500,12 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="341"/>
-      <c r="G23" s="341"/>
-      <c r="H23" s="341"/>
-      <c r="I23" s="341"/>
-      <c r="J23" s="342"/>
+      <c r="E23" s="306"/>
+      <c r="F23" s="307"/>
+      <c r="G23" s="307"/>
+      <c r="H23" s="307"/>
+      <c r="I23" s="307"/>
+      <c r="J23" s="308"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
@@ -15512,12 +15517,12 @@
       <c r="B24" s="27"/>
       <c r="C24" s="96"/>
       <c r="D24" s="96"/>
-      <c r="E24" s="340"/>
-      <c r="F24" s="341"/>
-      <c r="G24" s="341"/>
-      <c r="H24" s="341"/>
-      <c r="I24" s="341"/>
-      <c r="J24" s="342"/>
+      <c r="E24" s="306"/>
+      <c r="F24" s="307"/>
+      <c r="G24" s="307"/>
+      <c r="H24" s="307"/>
+      <c r="I24" s="307"/>
+      <c r="J24" s="308"/>
       <c r="K24" s="96"/>
       <c r="L24" s="96"/>
       <c r="M24" s="96"/>
@@ -15529,12 +15534,12 @@
       <c r="B25" s="27"/>
       <c r="C25" s="96"/>
       <c r="D25" s="96"/>
-      <c r="E25" s="340"/>
-      <c r="F25" s="341"/>
-      <c r="G25" s="341"/>
-      <c r="H25" s="341"/>
-      <c r="I25" s="341"/>
-      <c r="J25" s="342"/>
+      <c r="E25" s="306"/>
+      <c r="F25" s="307"/>
+      <c r="G25" s="307"/>
+      <c r="H25" s="307"/>
+      <c r="I25" s="307"/>
+      <c r="J25" s="308"/>
       <c r="K25" s="96"/>
       <c r="L25" s="96"/>
       <c r="M25" s="96"/>
@@ -15546,12 +15551,12 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="95"/>
-      <c r="E26" s="340"/>
-      <c r="F26" s="341"/>
-      <c r="G26" s="341"/>
-      <c r="H26" s="341"/>
-      <c r="I26" s="341"/>
-      <c r="J26" s="342"/>
+      <c r="E26" s="306"/>
+      <c r="F26" s="307"/>
+      <c r="G26" s="307"/>
+      <c r="H26" s="307"/>
+      <c r="I26" s="307"/>
+      <c r="J26" s="308"/>
       <c r="K26" s="95"/>
       <c r="L26" s="95"/>
       <c r="M26" s="95"/>
@@ -15563,12 +15568,12 @@
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="95"/>
-      <c r="E27" s="340"/>
-      <c r="F27" s="341"/>
-      <c r="G27" s="341"/>
-      <c r="H27" s="341"/>
-      <c r="I27" s="341"/>
-      <c r="J27" s="342"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="307"/>
+      <c r="G27" s="307"/>
+      <c r="H27" s="307"/>
+      <c r="I27" s="307"/>
+      <c r="J27" s="308"/>
       <c r="K27" s="95"/>
       <c r="L27" s="95"/>
       <c r="M27" s="95"/>
@@ -15580,12 +15585,12 @@
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="95"/>
-      <c r="E28" s="340"/>
-      <c r="F28" s="341"/>
-      <c r="G28" s="341"/>
-      <c r="H28" s="341"/>
-      <c r="I28" s="341"/>
-      <c r="J28" s="342"/>
+      <c r="E28" s="306"/>
+      <c r="F28" s="307"/>
+      <c r="G28" s="307"/>
+      <c r="H28" s="307"/>
+      <c r="I28" s="307"/>
+      <c r="J28" s="308"/>
       <c r="K28" s="95"/>
       <c r="L28" s="95"/>
       <c r="M28" s="95"/>
@@ -15597,12 +15602,12 @@
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="95"/>
-      <c r="E29" s="340"/>
-      <c r="F29" s="341"/>
-      <c r="G29" s="341"/>
-      <c r="H29" s="341"/>
-      <c r="I29" s="341"/>
-      <c r="J29" s="342"/>
+      <c r="E29" s="306"/>
+      <c r="F29" s="307"/>
+      <c r="G29" s="307"/>
+      <c r="H29" s="307"/>
+      <c r="I29" s="307"/>
+      <c r="J29" s="308"/>
       <c r="K29" s="95"/>
       <c r="L29" s="95"/>
       <c r="M29" s="95"/>
@@ -15614,12 +15619,12 @@
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="95"/>
-      <c r="E30" s="340"/>
-      <c r="F30" s="341"/>
-      <c r="G30" s="341"/>
-      <c r="H30" s="341"/>
-      <c r="I30" s="341"/>
-      <c r="J30" s="342"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="307"/>
+      <c r="G30" s="307"/>
+      <c r="H30" s="307"/>
+      <c r="I30" s="307"/>
+      <c r="J30" s="308"/>
       <c r="K30" s="95"/>
       <c r="L30" s="95"/>
       <c r="M30" s="95"/>
@@ -15631,12 +15636,12 @@
       <c r="B31" s="27"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
-      <c r="E31" s="340"/>
-      <c r="F31" s="341"/>
-      <c r="G31" s="341"/>
-      <c r="H31" s="341"/>
-      <c r="I31" s="341"/>
-      <c r="J31" s="342"/>
+      <c r="E31" s="306"/>
+      <c r="F31" s="307"/>
+      <c r="G31" s="307"/>
+      <c r="H31" s="307"/>
+      <c r="I31" s="307"/>
+      <c r="J31" s="308"/>
       <c r="K31" s="95"/>
       <c r="L31" s="95"/>
       <c r="M31" s="95"/>
@@ -15648,12 +15653,12 @@
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="343"/>
-      <c r="F32" s="344"/>
-      <c r="G32" s="344"/>
-      <c r="H32" s="344"/>
-      <c r="I32" s="344"/>
-      <c r="J32" s="345"/>
+      <c r="E32" s="309"/>
+      <c r="F32" s="310"/>
+      <c r="G32" s="310"/>
+      <c r="H32" s="310"/>
+      <c r="I32" s="310"/>
+      <c r="J32" s="311"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
@@ -16182,19 +16187,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E22:J32"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:J17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:J15"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -16204,6 +16196,19 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
+    <mergeCell ref="E22:J32"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:J17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -16220,10 +16225,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16232,23 +16237,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="155"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -16269,55 +16274,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="189"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16338,51 +16343,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="205" t="s">
+      <c r="B7" s="212"/>
+      <c r="C7" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="206"/>
-      <c r="E7" s="205" t="s">
+      <c r="D7" s="220"/>
+      <c r="E7" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="206"/>
-      <c r="G7" s="205" t="s">
+      <c r="F7" s="220"/>
+      <c r="G7" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="206"/>
-      <c r="I7" s="209" t="s">
+      <c r="H7" s="220"/>
+      <c r="I7" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="210"/>
-      <c r="K7" s="209" t="s">
+      <c r="J7" s="224"/>
+      <c r="K7" s="223" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="210"/>
-      <c r="M7" s="233" t="s">
+      <c r="L7" s="224"/>
+      <c r="M7" s="298" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="234"/>
+      <c r="N7" s="299"/>
       <c r="O7" s="93"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="207"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="235"/>
-      <c r="N8" s="236"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="300"/>
+      <c r="N8" s="301"/>
       <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16409,11 +16414,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="268" t="s">
+      <c r="G10" s="232" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="272"/>
-      <c r="I10" s="269"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="234"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -16501,20 +16506,20 @@
       <c r="D15" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="214" t="s">
+      <c r="E15" s="227" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="215"/>
-      <c r="G15" s="216"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="229"/>
       <c r="H15" s="27"/>
       <c r="I15" s="138" t="s">
         <v>188</v>
       </c>
-      <c r="J15" s="264" t="s">
+      <c r="J15" s="270" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="313"/>
-      <c r="L15" s="265"/>
+      <c r="K15" s="312"/>
+      <c r="L15" s="271"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="39"/>
@@ -16560,50 +16565,50 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
-      <c r="B19" s="247" t="s">
+      <c r="B19" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="249" t="s">
+      <c r="C19" s="285" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="250"/>
-      <c r="E19" s="249" t="s">
+      <c r="D19" s="286"/>
+      <c r="E19" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="F19" s="250"/>
-      <c r="G19" s="249" t="s">
+      <c r="F19" s="286"/>
+      <c r="G19" s="285" t="s">
         <v>169</v>
       </c>
-      <c r="H19" s="250"/>
-      <c r="I19" s="249" t="s">
+      <c r="H19" s="286"/>
+      <c r="I19" s="285" t="s">
         <v>170</v>
       </c>
-      <c r="J19" s="250"/>
-      <c r="K19" s="249" t="s">
+      <c r="J19" s="286"/>
+      <c r="K19" s="285" t="s">
         <v>171</v>
       </c>
-      <c r="L19" s="250"/>
-      <c r="M19" s="247" t="s">
+      <c r="L19" s="286"/>
+      <c r="M19" s="283" t="s">
         <v>172</v>
       </c>
-      <c r="N19" s="247"/>
+      <c r="N19" s="283"/>
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="248"/>
-      <c r="C20" s="251"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="252"/>
-      <c r="G20" s="251"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="252"/>
-      <c r="K20" s="251"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="248"/>
-      <c r="N20" s="248"/>
+      <c r="B20" s="284"/>
+      <c r="C20" s="287"/>
+      <c r="D20" s="288"/>
+      <c r="E20" s="287"/>
+      <c r="F20" s="288"/>
+      <c r="G20" s="287"/>
+      <c r="H20" s="288"/>
+      <c r="I20" s="287"/>
+      <c r="J20" s="288"/>
+      <c r="K20" s="287"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="284"/>
+      <c r="N20" s="284"/>
       <c r="O20" s="39"/>
       <c r="Q20" s="27"/>
       <c r="V20" s="27"/>
@@ -16727,21 +16732,21 @@
     </row>
     <row r="26" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
-      <c r="B26" s="214" t="s">
+      <c r="B26" s="227" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="215"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="216"/>
+      <c r="C26" s="228"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="228"/>
+      <c r="K26" s="228"/>
+      <c r="L26" s="228"/>
+      <c r="M26" s="228"/>
+      <c r="N26" s="229"/>
       <c r="O26" s="39"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
@@ -16760,10 +16765,10 @@
     </row>
     <row r="28" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="214" t="s">
+      <c r="B28" s="227" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="216"/>
+      <c r="C28" s="229"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
       <c r="N28" s="27"/>
@@ -16776,7 +16781,7 @@
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
     </row>
-    <row r="29" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
       <c r="B29" s="27"/>
       <c r="L29" s="35"/>
@@ -16787,25 +16792,7 @@
       <c r="Q29" s="27"/>
       <c r="V29" s="27"/>
     </row>
-    <row r="30" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="141" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="142"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="126" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="121" t="s">
-        <v>120</v>
-      </c>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="L30" s="95"/>
       <c r="M30" s="95"/>
       <c r="N30" s="27"/>
@@ -16814,17 +16801,7 @@
       <c r="Q30" s="27"/>
       <c r="V30" s="27"/>
     </row>
-    <row r="31" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="39"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="39"/>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
       <c r="N31" s="27"/>
@@ -16833,23 +16810,7 @@
       <c r="Q31" s="27"/>
       <c r="V31" s="27"/>
     </row>
-    <row r="32" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32" s="214" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="216"/>
-      <c r="D32" s="39"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="39"/>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="L32" s="95"/>
       <c r="M32" s="95"/>
       <c r="N32" s="27"/>
@@ -16858,24 +16819,8 @@
       <c r="Q32" s="27"/>
       <c r="V32" s="27"/>
     </row>
-    <row r="33" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" s="214" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="216"/>
-      <c r="D33" s="39"/>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E33" s="27"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="39"/>
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
@@ -16884,22 +16829,8 @@
       <c r="Q33" s="27"/>
       <c r="V33" s="27"/>
     </row>
-    <row r="34" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="110"/>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E34" s="27"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="39"/>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
@@ -16908,22 +16839,8 @@
       <c r="Q34" s="27"/>
       <c r="V34" s="27"/>
     </row>
-    <row r="35" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="39"/>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E35" s="27"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="39"/>
       <c r="L35" s="27"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
@@ -16932,22 +16849,8 @@
       <c r="Q35" s="27"/>
       <c r="V35" s="27"/>
     </row>
-    <row r="36" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="315" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="39"/>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E36" s="27"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="110"/>
       <c r="L36" s="95"/>
       <c r="M36" s="95"/>
       <c r="N36" s="95"/>
@@ -16955,22 +16858,8 @@
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
     </row>
-    <row r="37" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="39"/>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E37" s="27"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="39"/>
       <c r="L37" s="27"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -16978,20 +16867,8 @@
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
     </row>
-    <row r="38" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="39"/>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E38" s="95"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="116" t="s">
-        <v>172</v>
-      </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="39"/>
       <c r="L38" s="96"/>
       <c r="M38" s="27"/>
       <c r="N38" s="96"/>
@@ -16999,22 +16876,8 @@
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
     </row>
-    <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="214" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="216"/>
-      <c r="D39" s="39"/>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E39" s="95"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" s="214"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="39"/>
       <c r="L39" s="96"/>
       <c r="M39" s="27"/>
       <c r="N39" s="96"/>
@@ -17022,20 +16885,8 @@
       <c r="P39" s="27"/>
       <c r="Q39" s="27"/>
     </row>
-    <row r="40" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E40" s="95"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="116" t="s">
-        <v>188</v>
-      </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="39"/>
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
@@ -17044,20 +16895,12 @@
       <c r="Q40" s="27"/>
       <c r="V40" s="27"/>
     </row>
-    <row r="41" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="101"/>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
       <c r="D41" s="95"/>
       <c r="E41" s="95"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="39"/>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
@@ -17065,18 +16908,12 @@
       <c r="Q41" s="27"/>
       <c r="V41" s="27"/>
     </row>
-    <row r="42" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="101"/>
       <c r="B42" s="95"/>
       <c r="C42" s="95"/>
       <c r="D42" s="95"/>
       <c r="E42" s="95"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="39"/>
       <c r="L42" s="27"/>
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
@@ -17084,20 +16921,12 @@
       <c r="Q42" s="27"/>
       <c r="V42" s="27"/>
     </row>
-    <row r="43" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="38"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="214" t="s">
-        <v>176</v>
-      </c>
-      <c r="I43" s="216"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="39"/>
       <c r="L43" s="27"/>
       <c r="M43" s="27"/>
       <c r="N43" s="27"/>
@@ -17105,18 +16934,12 @@
       <c r="Q43" s="27"/>
       <c r="V43" s="27"/>
     </row>
-    <row r="44" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="38"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="48"/>
       <c r="L44" s="27"/>
       <c r="M44" s="27"/>
       <c r="N44" s="27"/>
@@ -17229,9 +17052,233 @@
       <c r="U49" s="27"/>
       <c r="V49" s="27"/>
     </row>
+    <row r="51" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="126" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="127"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" s="141" t="s">
+        <v>174</v>
+      </c>
+      <c r="I52" s="142"/>
+      <c r="J52" s="143"/>
+      <c r="K52" s="121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="39"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="39"/>
+    </row>
+    <row r="54" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="61"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="39"/>
+      <c r="H54" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I54" s="227" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="229"/>
+      <c r="K54" s="39"/>
+    </row>
+    <row r="55" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="61"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="39"/>
+      <c r="H55" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="I55" s="227" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="229"/>
+      <c r="K55" s="39"/>
+    </row>
+    <row r="56" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="39"/>
+      <c r="H56" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="I56" s="61"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="110"/>
+    </row>
+    <row r="57" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
+      <c r="B57" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="61"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="39"/>
+      <c r="H57" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="I57" s="61"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="39"/>
+    </row>
+    <row r="58" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
+      <c r="B58" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="110"/>
+      <c r="H58" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="I58" s="61"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="39"/>
+    </row>
+    <row r="59" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
+      <c r="B59" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="39"/>
+      <c r="H59" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="I59" s="61"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="39"/>
+    </row>
+    <row r="60" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="101"/>
+      <c r="B60" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="61"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="39"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="39"/>
+    </row>
+    <row r="61" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="101"/>
+      <c r="B61" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="227"/>
+      <c r="D61" s="228"/>
+      <c r="E61" s="229"/>
+      <c r="F61" s="39"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="227" t="s">
+        <v>174</v>
+      </c>
+      <c r="J61" s="229"/>
+      <c r="K61" s="39"/>
+    </row>
+    <row r="62" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="101"/>
+      <c r="B62" s="116" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="61"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="39"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="48"/>
+    </row>
+    <row r="63" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="101"/>
+      <c r="B63" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="61"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="39"/>
+    </row>
+    <row r="64" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="39"/>
+    </row>
+    <row r="65" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="227" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="229"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="39"/>
+    </row>
+    <row r="66" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="111"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="48"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="C65:D65"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="B26:N26"/>
     <mergeCell ref="B19:B20"/>
@@ -17243,21 +17290,10 @@
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I54:J54"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="I61:J61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>

--- a/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
+++ b/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\References\Templates\Web MockUp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="705" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="705" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Đại lý - Nạp tiền tài khoản" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="211">
   <si>
     <t>Phần màn hình dành cho đại lý thu phí</t>
   </si>
@@ -679,6 +684,18 @@
   </si>
   <si>
     <t>( khách hay tải )</t>
+  </si>
+  <si>
+    <t>Từ ngày</t>
+  </si>
+  <si>
+    <t>Đến ngày</t>
+  </si>
+  <si>
+    <t>Tổng số tiền thu được</t>
+  </si>
+  <si>
+    <t>Số tiền thanh toán</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1925,29 +1942,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1976,102 +2089,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2129,6 +2146,84 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2144,84 +2239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2258,6 +2275,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2270,120 +2371,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2408,16 +2425,67 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2444,55 +2512,13 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2577,6 +2603,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2624,7 +2653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2659,7 +2688,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2870,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2880,18 +2909,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -2917,55 +2946,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2973,14 +3002,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="164" t="s">
+      <c r="E6" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -3009,16 +3038,16 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" s="160" t="s">
+      <c r="E8" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161" t="s">
+      <c r="F8" s="162"/>
+      <c r="G8" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -3030,14 +3059,14 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="160" t="s">
+      <c r="E9" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -3049,16 +3078,14 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" s="160" t="s">
+      <c r="E10" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="349"/>
+      <c r="H10" s="350"/>
+      <c r="I10" s="350"/>
+      <c r="J10" s="351"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -3089,10 +3116,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="161" t="s">
+      <c r="G12" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="161"/>
+      <c r="H12" s="163"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -3123,14 +3150,14 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="159" t="s">
+      <c r="E14" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
       <c r="K14" s="6"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -3142,12 +3169,12 @@
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
       <c r="K15" s="6"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -3159,12 +3186,12 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
       <c r="K16" s="6"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -3176,12 +3203,12 @@
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
       <c r="K17" s="6"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -3193,12 +3220,12 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
       <c r="K18" s="6"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -3726,20 +3753,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:J8"/>
     <mergeCell ref="E14:J18"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3761,23 +3788,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -3798,55 +3825,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3867,22 +3894,22 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="200" t="s">
+      <c r="B7" s="180"/>
+      <c r="C7" s="183" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="313"/>
-      <c r="E7" s="204" t="s">
+      <c r="E7" s="187" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="205"/>
-      <c r="G7" s="204" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="187" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="205"/>
+      <c r="H7" s="188"/>
       <c r="I7" s="75"/>
       <c r="J7" s="75"/>
       <c r="K7" s="75"/>
@@ -3892,14 +3919,14 @@
       <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="198"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="202"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="185"/>
       <c r="D8" s="314"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="207"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="190"/>
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
       <c r="K8" s="76"/>
@@ -3932,11 +3959,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="191" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -3964,25 +3991,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="183" t="s">
+      <c r="C12" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="176" t="s">
+      <c r="D12" s="194"/>
+      <c r="E12" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="177"/>
-      <c r="G12" s="178"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="193"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="183" t="s">
+      <c r="I12" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="183"/>
-      <c r="K12" s="176" t="s">
+      <c r="J12" s="194"/>
+      <c r="K12" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="193"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -4010,11 +4037,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="176" t="s">
+      <c r="G14" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -4044,19 +4071,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="179" t="s">
+      <c r="E16" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="181" t="s">
+      <c r="F16" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181" t="s">
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="181"/>
-      <c r="K16" s="182"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -4067,13 +4094,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="199"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -4087,12 +4114,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="167"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="199"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -4106,12 +4133,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="167"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="199"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -4125,12 +4152,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="167"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="199"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -4146,12 +4173,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="167"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="199"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -4167,12 +4194,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="167"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="199"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -4185,15 +4212,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="168" t="s">
+      <c r="E23" s="200" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="170"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="202"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -4226,15 +4253,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="173" t="s">
+      <c r="E25" s="205" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="175"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="207"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -4724,12 +4751,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="G10:I10"/>
@@ -4743,14 +4772,12 @@
     <mergeCell ref="I16:K17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -4813,55 +4840,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4947,11 +4974,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="191" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -4979,25 +5006,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="183" t="s">
+      <c r="C12" s="194" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="176" t="s">
+      <c r="D12" s="194"/>
+      <c r="E12" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="177"/>
-      <c r="G12" s="178"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="193"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="183" t="s">
+      <c r="I12" s="194" t="s">
         <v>185</v>
       </c>
-      <c r="J12" s="183"/>
-      <c r="K12" s="176" t="s">
+      <c r="J12" s="194"/>
+      <c r="K12" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="193"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -5025,11 +5052,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="176" t="s">
+      <c r="G14" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -5059,19 +5086,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="179" t="s">
+      <c r="E16" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="181" t="s">
+      <c r="F16" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181" t="s">
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="181"/>
-      <c r="K16" s="182"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -5082,13 +5109,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="199"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -5102,12 +5129,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="167"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="199"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -5121,12 +5148,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="167"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="199"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -5140,12 +5167,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="167"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="199"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -5161,12 +5188,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="167"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="199"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -5182,12 +5209,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="167"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="199"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -5200,15 +5227,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="168" t="s">
+      <c r="E23" s="200" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="170"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="202"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -5241,15 +5268,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="173" t="s">
+      <c r="E25" s="205" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="175"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="207"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -5738,6 +5765,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="I12:J12"/>
@@ -5749,22 +5792,6 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="E7:F8"/>
     <mergeCell ref="G7:H8"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -5790,23 +5817,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -5827,55 +5854,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5903,11 +5930,11 @@
       <c r="C7" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="322"/>
-      <c r="E7" s="298" t="s">
+      <c r="D7" s="320"/>
+      <c r="E7" s="270" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="299"/>
+      <c r="F7" s="271"/>
       <c r="G7" s="223" t="s">
         <v>181</v>
       </c>
@@ -5924,9 +5951,9 @@
       <c r="A8" s="213"/>
       <c r="B8" s="214"/>
       <c r="C8" s="221"/>
-      <c r="D8" s="323"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="301"/>
+      <c r="D8" s="321"/>
+      <c r="E8" s="272"/>
+      <c r="F8" s="273"/>
       <c r="G8" s="225"/>
       <c r="H8" s="226"/>
       <c r="I8" s="130"/>
@@ -5961,11 +5988,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="232" t="s">
+      <c r="G10" s="227" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="233"/>
-      <c r="I10" s="234"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="229"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -6054,9 +6081,9 @@
       <c r="D15" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="227"/>
-      <c r="F15" s="228"/>
-      <c r="G15" s="229"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="255"/>
       <c r="H15" s="27"/>
       <c r="I15" s="138" t="s">
         <v>184</v>
@@ -6176,14 +6203,14 @@
       <c r="C22" s="71">
         <v>1</v>
       </c>
-      <c r="D22" s="274"/>
-      <c r="E22" s="276"/>
-      <c r="F22" s="274"/>
-      <c r="G22" s="276"/>
-      <c r="H22" s="274"/>
-      <c r="I22" s="276"/>
-      <c r="J22" s="274"/>
-      <c r="K22" s="276"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="289"/>
+      <c r="G22" s="290"/>
+      <c r="H22" s="289"/>
+      <c r="I22" s="290"/>
+      <c r="J22" s="289"/>
+      <c r="K22" s="290"/>
       <c r="L22" s="71"/>
       <c r="M22" s="85" t="s">
         <v>173</v>
@@ -6197,14 +6224,14 @@
       <c r="C23" s="71">
         <v>2</v>
       </c>
-      <c r="D23" s="274"/>
-      <c r="E23" s="276"/>
-      <c r="F23" s="274"/>
-      <c r="G23" s="276"/>
-      <c r="H23" s="274"/>
-      <c r="I23" s="276"/>
-      <c r="J23" s="274"/>
-      <c r="K23" s="276"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="289"/>
+      <c r="G23" s="290"/>
+      <c r="H23" s="289"/>
+      <c r="I23" s="290"/>
+      <c r="J23" s="289"/>
+      <c r="K23" s="290"/>
       <c r="L23" s="71"/>
       <c r="M23" s="85" t="s">
         <v>173</v>
@@ -6218,14 +6245,14 @@
       <c r="C24" s="71">
         <v>3</v>
       </c>
-      <c r="D24" s="274"/>
-      <c r="E24" s="276"/>
-      <c r="F24" s="274"/>
-      <c r="G24" s="276"/>
-      <c r="H24" s="274"/>
-      <c r="I24" s="276"/>
-      <c r="J24" s="274"/>
-      <c r="K24" s="276"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="289"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="289"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="289"/>
+      <c r="K24" s="290"/>
       <c r="L24" s="71"/>
       <c r="M24" s="85" t="s">
         <v>173</v>
@@ -6239,14 +6266,14 @@
       <c r="C25" s="71">
         <v>4</v>
       </c>
-      <c r="D25" s="274"/>
-      <c r="E25" s="276"/>
-      <c r="F25" s="274"/>
-      <c r="G25" s="276"/>
-      <c r="H25" s="274"/>
-      <c r="I25" s="276"/>
-      <c r="J25" s="274"/>
-      <c r="K25" s="276"/>
+      <c r="D25" s="289"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="289"/>
+      <c r="G25" s="290"/>
+      <c r="H25" s="289"/>
+      <c r="I25" s="290"/>
+      <c r="J25" s="289"/>
+      <c r="K25" s="290"/>
       <c r="L25" s="71"/>
       <c r="M25" s="85" t="s">
         <v>173</v>
@@ -6262,14 +6289,14 @@
       <c r="C26" s="86">
         <v>5</v>
       </c>
-      <c r="D26" s="320"/>
-      <c r="E26" s="321"/>
-      <c r="F26" s="320"/>
-      <c r="G26" s="321"/>
-      <c r="H26" s="320"/>
-      <c r="I26" s="321"/>
-      <c r="J26" s="320"/>
-      <c r="K26" s="321"/>
+      <c r="D26" s="322"/>
+      <c r="E26" s="323"/>
+      <c r="F26" s="322"/>
+      <c r="G26" s="323"/>
+      <c r="H26" s="322"/>
+      <c r="I26" s="323"/>
+      <c r="J26" s="322"/>
+      <c r="K26" s="323"/>
       <c r="L26" s="115"/>
       <c r="M26" s="87" t="s">
         <v>173</v>
@@ -6282,19 +6309,19 @@
     <row r="27" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="27"/>
-      <c r="C27" s="227" t="s">
+      <c r="C27" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="228"/>
-      <c r="E27" s="228"/>
-      <c r="F27" s="228"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="228"/>
-      <c r="I27" s="228"/>
-      <c r="J27" s="228"/>
-      <c r="K27" s="228"/>
-      <c r="L27" s="228"/>
-      <c r="M27" s="229"/>
+      <c r="D27" s="254"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="254"/>
+      <c r="J27" s="254"/>
+      <c r="K27" s="254"/>
+      <c r="L27" s="254"/>
+      <c r="M27" s="255"/>
       <c r="N27" s="27"/>
       <c r="O27" s="39"/>
       <c r="P27" s="27"/>
@@ -6324,10 +6351,10 @@
     </row>
     <row r="29" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="C29" s="227" t="s">
+      <c r="C29" s="253" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="229"/>
+      <c r="D29" s="255"/>
       <c r="E29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -6362,11 +6389,11 @@
       <c r="V30" s="27"/>
     </row>
     <row r="31" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="277" t="s">
+      <c r="A31" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="278"/>
-      <c r="C31" s="279"/>
+      <c r="B31" s="293"/>
+      <c r="C31" s="294"/>
       <c r="D31" s="121" t="s">
         <v>120</v>
       </c>
@@ -6413,10 +6440,10 @@
       <c r="A33" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="227" t="s">
+      <c r="B33" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="229"/>
+      <c r="C33" s="255"/>
       <c r="D33" s="39"/>
       <c r="E33" s="27"/>
       <c r="F33" s="38"/>
@@ -6438,10 +6465,10 @@
       <c r="A34" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="227" t="s">
+      <c r="B34" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="229"/>
+      <c r="C34" s="255"/>
       <c r="D34" s="39"/>
       <c r="E34" s="27"/>
       <c r="F34" s="38"/>
@@ -6551,10 +6578,10 @@
     </row>
     <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
-      <c r="B39" s="227" t="s">
+      <c r="B39" s="253" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="229"/>
+      <c r="C39" s="255"/>
       <c r="D39" s="39"/>
       <c r="E39" s="95"/>
       <c r="F39" s="38"/>
@@ -6633,10 +6660,10 @@
     <row r="43" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F43" s="101"/>
       <c r="G43" s="95"/>
-      <c r="H43" s="227" t="s">
+      <c r="H43" s="253" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="229"/>
+      <c r="I43" s="255"/>
       <c r="J43" s="27"/>
       <c r="K43" s="39"/>
       <c r="O43" s="39"/>
@@ -6814,36 +6841,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
@@ -6855,6 +6852,36 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -6880,23 +6907,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -6917,55 +6944,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6993,15 +7020,15 @@
       <c r="C7" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="322"/>
+      <c r="D7" s="320"/>
       <c r="E7" s="223" t="s">
         <v>180</v>
       </c>
       <c r="F7" s="224"/>
-      <c r="G7" s="298" t="s">
+      <c r="G7" s="270" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="299"/>
+      <c r="H7" s="271"/>
       <c r="I7" s="128"/>
       <c r="J7" s="128"/>
       <c r="K7" s="128"/>
@@ -7014,11 +7041,11 @@
       <c r="A8" s="213"/>
       <c r="B8" s="214"/>
       <c r="C8" s="221"/>
-      <c r="D8" s="323"/>
+      <c r="D8" s="321"/>
       <c r="E8" s="225"/>
       <c r="F8" s="226"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="301"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="273"/>
       <c r="I8" s="130"/>
       <c r="J8" s="130"/>
       <c r="K8" s="130"/>
@@ -7051,11 +7078,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="232" t="s">
+      <c r="G10" s="227" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="233"/>
-      <c r="I10" s="234"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="229"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -7825,23 +7852,23 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -7862,55 +7889,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7931,51 +7958,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="324" t="s">
+      <c r="A7" s="341" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="325"/>
-      <c r="C7" s="328" t="s">
+      <c r="B7" s="342"/>
+      <c r="C7" s="345" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="329"/>
-      <c r="E7" s="332" t="s">
+      <c r="D7" s="346"/>
+      <c r="E7" s="328" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="333"/>
-      <c r="G7" s="332" t="s">
+      <c r="F7" s="329"/>
+      <c r="G7" s="328" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="333"/>
-      <c r="I7" s="332" t="s">
+      <c r="H7" s="329"/>
+      <c r="I7" s="328" t="s">
         <v>138</v>
       </c>
-      <c r="J7" s="333"/>
-      <c r="K7" s="332" t="s">
+      <c r="J7" s="329"/>
+      <c r="K7" s="328" t="s">
         <v>139</v>
       </c>
-      <c r="L7" s="333"/>
-      <c r="M7" s="332" t="s">
+      <c r="L7" s="329"/>
+      <c r="M7" s="328" t="s">
         <v>140</v>
       </c>
-      <c r="N7" s="333"/>
+      <c r="N7" s="329"/>
       <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="326"/>
-      <c r="B8" s="327"/>
-      <c r="C8" s="330"/>
-      <c r="D8" s="331"/>
-      <c r="E8" s="334"/>
-      <c r="F8" s="335"/>
-      <c r="G8" s="334"/>
-      <c r="H8" s="335"/>
-      <c r="I8" s="334"/>
-      <c r="J8" s="335"/>
-      <c r="K8" s="334"/>
-      <c r="L8" s="335"/>
-      <c r="M8" s="334"/>
-      <c r="N8" s="335"/>
+      <c r="A8" s="343"/>
+      <c r="B8" s="344"/>
+      <c r="C8" s="347"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="331"/>
+      <c r="G8" s="330"/>
+      <c r="H8" s="331"/>
+      <c r="I8" s="330"/>
+      <c r="J8" s="331"/>
+      <c r="K8" s="330"/>
+      <c r="L8" s="331"/>
+      <c r="M8" s="330"/>
+      <c r="N8" s="331"/>
       <c r="O8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8001,12 +8028,12 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="336" t="s">
+      <c r="F10" s="332" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="337"/>
-      <c r="H10" s="337"/>
-      <c r="I10" s="338"/>
+      <c r="G10" s="333"/>
+      <c r="H10" s="333"/>
+      <c r="I10" s="334"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -8034,42 +8061,42 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="339"/>
+      <c r="D12" s="335"/>
       <c r="E12" s="82"/>
       <c r="F12" s="83"/>
       <c r="G12" s="84"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="160" t="s">
+      <c r="I12" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="160"/>
-      <c r="K12" s="232"/>
-      <c r="L12" s="233"/>
-      <c r="M12" s="234"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="229"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="273" t="s">
+      <c r="C13" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="340"/>
+      <c r="D13" s="336"/>
       <c r="E13" s="64"/>
       <c r="F13" s="65"/>
       <c r="G13" s="66"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="273" t="s">
+      <c r="I13" s="301" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="273"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="228"/>
-      <c r="M13" s="229"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="255"/>
       <c r="N13" s="27"/>
       <c r="O13" s="39"/>
     </row>
@@ -8097,10 +8124,10 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="227" t="s">
+      <c r="G15" s="253" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="229"/>
+      <c r="H15" s="255"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -8129,10 +8156,10 @@
     <row r="17" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="227" t="s">
+      <c r="C17" s="253" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="229"/>
+      <c r="D17" s="255"/>
       <c r="N17" s="27"/>
       <c r="O17" s="39"/>
     </row>
@@ -8152,18 +8179,18 @@
         <v>112</v>
       </c>
       <c r="E19" s="286"/>
-      <c r="F19" s="341" t="s">
+      <c r="F19" s="337" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="342"/>
-      <c r="H19" s="341" t="s">
+      <c r="G19" s="338"/>
+      <c r="H19" s="337" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="342"/>
-      <c r="J19" s="341" t="s">
+      <c r="I19" s="338"/>
+      <c r="J19" s="337" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="342"/>
+      <c r="K19" s="338"/>
       <c r="L19" s="283" t="s">
         <v>116</v>
       </c>
@@ -8179,12 +8206,12 @@
       <c r="C20" s="284"/>
       <c r="D20" s="287"/>
       <c r="E20" s="288"/>
-      <c r="F20" s="343"/>
-      <c r="G20" s="344"/>
-      <c r="H20" s="343"/>
-      <c r="I20" s="344"/>
-      <c r="J20" s="343"/>
-      <c r="K20" s="344"/>
+      <c r="F20" s="339"/>
+      <c r="G20" s="340"/>
+      <c r="H20" s="339"/>
+      <c r="I20" s="340"/>
+      <c r="J20" s="339"/>
+      <c r="K20" s="340"/>
       <c r="L20" s="284"/>
       <c r="M20" s="284"/>
       <c r="N20" s="27"/>
@@ -8198,14 +8225,14 @@
       <c r="C21" s="71">
         <v>1</v>
       </c>
-      <c r="D21" s="274"/>
-      <c r="E21" s="276"/>
-      <c r="F21" s="347"/>
-      <c r="G21" s="348"/>
-      <c r="H21" s="274"/>
-      <c r="I21" s="276"/>
-      <c r="J21" s="274"/>
-      <c r="K21" s="276"/>
+      <c r="D21" s="289"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="326"/>
+      <c r="G21" s="327"/>
+      <c r="H21" s="289"/>
+      <c r="I21" s="290"/>
+      <c r="J21" s="289"/>
+      <c r="K21" s="290"/>
       <c r="L21" s="85" t="s">
         <v>116</v>
       </c>
@@ -8223,14 +8250,14 @@
       <c r="C22" s="71">
         <v>2</v>
       </c>
-      <c r="D22" s="274"/>
-      <c r="E22" s="276"/>
-      <c r="F22" s="274"/>
-      <c r="G22" s="276"/>
-      <c r="H22" s="274"/>
-      <c r="I22" s="276"/>
-      <c r="J22" s="274"/>
-      <c r="K22" s="276"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="289"/>
+      <c r="G22" s="290"/>
+      <c r="H22" s="289"/>
+      <c r="I22" s="290"/>
+      <c r="J22" s="289"/>
+      <c r="K22" s="290"/>
       <c r="L22" s="85" t="s">
         <v>116</v>
       </c>
@@ -8248,14 +8275,14 @@
       <c r="C23" s="71">
         <v>3</v>
       </c>
-      <c r="D23" s="274"/>
-      <c r="E23" s="276"/>
-      <c r="F23" s="274"/>
-      <c r="G23" s="276"/>
-      <c r="H23" s="274"/>
-      <c r="I23" s="276"/>
-      <c r="J23" s="274"/>
-      <c r="K23" s="276"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="289"/>
+      <c r="G23" s="290"/>
+      <c r="H23" s="289"/>
+      <c r="I23" s="290"/>
+      <c r="J23" s="289"/>
+      <c r="K23" s="290"/>
       <c r="L23" s="85" t="s">
         <v>116</v>
       </c>
@@ -8273,14 +8300,14 @@
       <c r="C24" s="71">
         <v>4</v>
       </c>
-      <c r="D24" s="274"/>
-      <c r="E24" s="276"/>
-      <c r="F24" s="274"/>
-      <c r="G24" s="276"/>
-      <c r="H24" s="274"/>
-      <c r="I24" s="276"/>
-      <c r="J24" s="274"/>
-      <c r="K24" s="276"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="289"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="289"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="289"/>
+      <c r="K24" s="290"/>
       <c r="L24" s="85" t="s">
         <v>116</v>
       </c>
@@ -8299,14 +8326,14 @@
       <c r="C25" s="86">
         <v>5</v>
       </c>
-      <c r="D25" s="345"/>
-      <c r="E25" s="346"/>
-      <c r="F25" s="274"/>
-      <c r="G25" s="276"/>
-      <c r="H25" s="274"/>
-      <c r="I25" s="276"/>
-      <c r="J25" s="274"/>
-      <c r="K25" s="276"/>
+      <c r="D25" s="324"/>
+      <c r="E25" s="325"/>
+      <c r="F25" s="289"/>
+      <c r="G25" s="290"/>
+      <c r="H25" s="289"/>
+      <c r="I25" s="290"/>
+      <c r="J25" s="289"/>
+      <c r="K25" s="290"/>
       <c r="L25" s="87" t="s">
         <v>116</v>
       </c>
@@ -8322,19 +8349,19 @@
     <row r="26" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="227" t="s">
+      <c r="C26" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="228"/>
-      <c r="E26" s="228"/>
-      <c r="F26" s="228"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="228"/>
-      <c r="I26" s="228"/>
-      <c r="J26" s="228"/>
-      <c r="K26" s="228"/>
-      <c r="L26" s="228"/>
-      <c r="M26" s="229"/>
+      <c r="D26" s="254"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="254"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="254"/>
+      <c r="L26" s="254"/>
+      <c r="M26" s="255"/>
       <c r="N26" s="27"/>
       <c r="O26" s="39"/>
       <c r="P26" s="27"/>
@@ -8781,6 +8808,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="J19:K20"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="C26:M26"/>
@@ -8797,36 +8854,6 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="J19:K20"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8838,7 +8865,7 @@
   <dimension ref="A1:AMK47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:J6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8847,23 +8874,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -8886,57 +8913,57 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
       <c r="O3" s="3"/>
       <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
       <c r="O4" s="5"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
       <c r="O5" s="5"/>
       <c r="P5"/>
     </row>
@@ -8945,14 +8972,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="164" t="s">
+      <c r="E6" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -8981,17 +9008,25 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8"/>
-      <c r="C8"/>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
       <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
+      <c r="E8" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
       <c r="H8"/>
-      <c r="I8"/>
+      <c r="I8" t="s">
+        <v>208</v>
+      </c>
       <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
+      <c r="K8" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
       <c r="N8"/>
       <c r="O8" s="5"/>
       <c r="P8"/>
@@ -8999,23 +9034,23 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9"/>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="160"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
       <c r="H9"/>
-      <c r="I9" s="160" t="s">
+      <c r="I9" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="160"/>
-      <c r="K9" s="161" t="s">
+      <c r="J9" s="162"/>
+      <c r="K9" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
       <c r="N9"/>
       <c r="O9" s="5"/>
       <c r="P9"/>
@@ -9023,25 +9058,18 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10"/>
-      <c r="C10" s="160" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="161" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
+      <c r="C10"/>
+      <c r="D10"/>
       <c r="H10"/>
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J10"/>
-      <c r="K10" s="161" t="s">
+      <c r="K10" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
       <c r="N10"/>
       <c r="O10" s="5"/>
       <c r="P10"/>
@@ -9071,11 +9099,11 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="161" t="s">
+      <c r="G12" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -9104,47 +9132,47 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161" t="s">
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161" t="s">
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161" t="s">
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
       <c r="O14" s="5"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
       <c r="O15" s="5"/>
       <c r="P15"/>
     </row>
@@ -9153,26 +9181,26 @@
       <c r="B16" s="22">
         <v>1</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161" t="s">
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="165">
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="166">
         <v>41983</v>
       </c>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="161">
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="163">
         <v>500000</v>
       </c>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
       <c r="O16" s="5"/>
       <c r="P16"/>
     </row>
@@ -9181,26 +9209,26 @@
       <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="161" t="s">
+      <c r="C17" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161" t="s">
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="165">
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="166">
         <v>41924</v>
       </c>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="161">
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="163">
         <v>50000</v>
       </c>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
       <c r="O17" s="5"/>
       <c r="P17"/>
     </row>
@@ -9209,26 +9237,26 @@
       <c r="B18" s="22">
         <v>3</v>
       </c>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161" t="s">
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161" t="s">
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161" t="s">
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
       <c r="O18" s="5"/>
       <c r="P18"/>
     </row>
@@ -9237,26 +9265,26 @@
       <c r="B19" s="22">
         <v>4</v>
       </c>
-      <c r="C19" s="161" t="s">
+      <c r="C19" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161" t="s">
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161" t="s">
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161" t="s">
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
       <c r="O19" s="5"/>
       <c r="P19"/>
     </row>
@@ -9265,46 +9293,46 @@
       <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="C20" s="161" t="s">
+      <c r="C20" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161" t="s">
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161" t="s">
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161" t="s">
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
       <c r="O20" s="5"/>
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
       <c r="O21" s="5"/>
       <c r="P21"/>
     </row>
@@ -9328,7 +9356,9 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="23" t="s">
+        <v>209</v>
+      </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -9769,22 +9799,19 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="F14:H15"/>
-    <mergeCell ref="I14:K15"/>
-    <mergeCell ref="L14:N15"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="I16:K16"/>
@@ -9793,19 +9820,22 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="L17:N17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="L14:N15"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9820,8 +9850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9830,23 +9860,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -9867,55 +9897,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9936,51 +9966,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="200" t="s">
+      <c r="B7" s="180"/>
+      <c r="C7" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="200" t="s">
+      <c r="D7" s="184"/>
+      <c r="E7" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="201"/>
-      <c r="G7" s="200" t="s">
+      <c r="F7" s="184"/>
+      <c r="G7" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="201"/>
-      <c r="I7" s="204" t="s">
+      <c r="H7" s="184"/>
+      <c r="I7" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="204" t="s">
+      <c r="J7" s="188"/>
+      <c r="K7" s="187" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="205"/>
-      <c r="M7" s="204" t="s">
+      <c r="L7" s="188"/>
+      <c r="M7" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="205"/>
+      <c r="N7" s="188"/>
       <c r="O7" s="91"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="198"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="207"/>
-      <c r="K8" s="206"/>
-      <c r="L8" s="207"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="207"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="190"/>
       <c r="O8" s="92"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10007,11 +10037,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -10039,25 +10069,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="183" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="176" t="s">
+      <c r="C12" s="194" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="194"/>
+      <c r="E12" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="177"/>
-      <c r="G12" s="178"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="193"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="183" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="183"/>
-      <c r="K12" s="176" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
+      <c r="I12" s="194" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="194"/>
+      <c r="K12" s="191" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="192"/>
+      <c r="M12" s="193"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -10085,11 +10115,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="176" t="s">
+      <c r="G14" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -10119,19 +10149,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="179" t="s">
+      <c r="E16" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="181" t="s">
+      <c r="F16" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181" t="s">
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="181"/>
-      <c r="K16" s="182"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -10142,13 +10172,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="199"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -10162,12 +10192,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="167"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="199"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -10181,12 +10211,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="167"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="199"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -10200,12 +10230,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="167"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="199"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -10221,12 +10251,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="167"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="199"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -10242,12 +10272,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="167"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="199"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -10260,15 +10290,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="168" t="s">
+      <c r="E23" s="200" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="170"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="202"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -10301,15 +10331,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="173" t="s">
+      <c r="E25" s="205" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="175"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="207"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -10660,11 +10690,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="39"/>
@@ -10825,6 +10855,28 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -10834,28 +10886,6 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E25:K25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -10879,8 +10909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10926,55 +10956,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11066,11 +11096,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -11098,25 +11128,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="183" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="176" t="s">
+      <c r="C12" s="194" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="194"/>
+      <c r="E12" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="177"/>
-      <c r="G12" s="178"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="193"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="183" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="183"/>
-      <c r="K12" s="176" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
+      <c r="I12" s="194" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="194"/>
+      <c r="K12" s="191" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="192"/>
+      <c r="M12" s="193"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -11144,11 +11174,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="176" t="s">
+      <c r="G14" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -11178,20 +11208,22 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="179" t="s">
+      <c r="E16" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="181" t="s">
+      <c r="F16" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181" t="s">
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="181"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="27"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="27" t="s">
+        <v>210</v>
+      </c>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
       <c r="O16" s="39"/>
@@ -11201,13 +11233,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="199"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -11221,12 +11253,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="167"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="199"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -11240,12 +11272,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="167"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="199"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -11259,12 +11291,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="167"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="199"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -11280,12 +11312,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="167"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="199"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -11301,12 +11333,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="167"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="199"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -11319,15 +11351,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="168" t="s">
+      <c r="E23" s="200" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="170"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="202"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -11360,15 +11392,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="173" t="s">
+      <c r="E25" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="175"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="207"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -11721,11 +11753,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="203" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -11886,6 +11918,28 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -11895,28 +11949,6 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E25:K25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -11940,8 +11972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:N44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11950,23 +11982,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -11987,55 +12019,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12127,11 +12159,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -12159,64 +12191,64 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="183" t="s">
+      <c r="C12" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="176" t="s">
+      <c r="D12" s="194"/>
+      <c r="E12" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="177"/>
-      <c r="G12" s="178"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="193"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="183" t="s">
+      <c r="I12" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="183"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="193"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="230" t="s">
+      <c r="C13" s="256" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="230"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="229"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="255"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="230" t="s">
+      <c r="I13" s="256" t="s">
         <v>191</v>
       </c>
-      <c r="J13" s="230"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="228"/>
-      <c r="M13" s="229"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="255"/>
       <c r="N13" s="27"/>
       <c r="O13" s="39"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="230" t="s">
+      <c r="C14" s="256" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="230"/>
-      <c r="E14" s="227"/>
-      <c r="F14" s="228"/>
-      <c r="G14" s="229"/>
-      <c r="I14" s="231" t="s">
+      <c r="D14" s="256"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="255"/>
+      <c r="I14" s="257" t="s">
         <v>197</v>
       </c>
-      <c r="J14" s="231"/>
-      <c r="K14" s="227"/>
-      <c r="L14" s="228"/>
-      <c r="M14" s="229"/>
+      <c r="J14" s="257"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="255"/>
       <c r="N14" s="27"/>
       <c r="O14" s="39"/>
     </row>
@@ -12228,11 +12260,11 @@
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="232" t="s">
+      <c r="G16" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="233"/>
-      <c r="I16" s="234"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="229"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
@@ -12260,25 +12292,25 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="244" t="s">
+      <c r="C18" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="238" t="s">
+      <c r="D18" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="239"/>
-      <c r="F18" s="240"/>
-      <c r="G18" s="246" t="s">
+      <c r="E18" s="234"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="239"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="250" t="s">
+      <c r="H18" s="234"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="245" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="251"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="256" t="s">
+      <c r="K18" s="246"/>
+      <c r="L18" s="247"/>
+      <c r="M18" s="251" t="s">
         <v>172</v>
       </c>
       <c r="N18" s="27"/>
@@ -12287,17 +12319,17 @@
     <row r="19" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="243"/>
-      <c r="G19" s="248"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="254"/>
-      <c r="L19" s="255"/>
-      <c r="M19" s="257"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="237"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="248"/>
+      <c r="K19" s="249"/>
+      <c r="L19" s="250"/>
+      <c r="M19" s="252"/>
       <c r="N19" s="27"/>
       <c r="O19" s="39"/>
     </row>
@@ -12399,19 +12431,19 @@
     <row r="25" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="235" t="s">
+      <c r="C25" s="230" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="236"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="236"/>
-      <c r="J25" s="236"/>
-      <c r="K25" s="236"/>
-      <c r="L25" s="236"/>
-      <c r="M25" s="237"/>
+      <c r="D25" s="231"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="231"/>
+      <c r="M25" s="232"/>
       <c r="N25" s="27"/>
       <c r="O25" s="39"/>
     </row>
@@ -12755,11 +12787,11 @@
       <c r="O42" s="39"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="203" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="204"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="14"/>
@@ -12875,16 +12907,10 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="C12:D12"/>
@@ -12901,10 +12927,16 @@
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -12928,8 +12960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12938,76 +12970,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13086,11 +13118,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -13124,13 +13156,13 @@
         <v>110</v>
       </c>
       <c r="F12" s="258"/>
-      <c r="G12" s="227" t="s">
+      <c r="G12" s="253" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="228"/>
-      <c r="I12" s="228"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="229"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="254"/>
+      <c r="K12" s="255"/>
       <c r="L12" s="57"/>
       <c r="M12" s="57"/>
       <c r="N12" s="27"/>
@@ -13204,13 +13236,13 @@
         <v>103</v>
       </c>
       <c r="F16" s="258"/>
-      <c r="G16" s="227" t="s">
+      <c r="G16" s="253" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="228"/>
-      <c r="I16" s="228"/>
-      <c r="J16" s="228"/>
-      <c r="K16" s="229"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="254"/>
+      <c r="K16" s="255"/>
       <c r="L16" s="57"/>
       <c r="M16" s="57"/>
       <c r="N16" s="27"/>
@@ -13225,13 +13257,13 @@
         <v>200</v>
       </c>
       <c r="F17" s="269"/>
-      <c r="G17" s="227" t="s">
+      <c r="G17" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="228"/>
-      <c r="I17" s="228"/>
-      <c r="J17" s="228"/>
-      <c r="K17" s="229"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="255"/>
       <c r="L17" s="57" t="s">
         <v>206</v>
       </c>
@@ -13248,13 +13280,13 @@
         <v>92</v>
       </c>
       <c r="F18" s="259"/>
-      <c r="G18" s="238" t="s">
+      <c r="G18" s="233" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="239"/>
-      <c r="I18" s="239"/>
-      <c r="J18" s="239"/>
-      <c r="K18" s="247"/>
+      <c r="H18" s="234"/>
+      <c r="I18" s="234"/>
+      <c r="J18" s="234"/>
+      <c r="K18" s="242"/>
       <c r="L18" s="57"/>
       <c r="M18" s="57"/>
       <c r="N18" s="27"/>
@@ -13267,11 +13299,11 @@
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
-      <c r="K19" s="249"/>
+      <c r="G19" s="236"/>
+      <c r="H19" s="237"/>
+      <c r="I19" s="237"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="244"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
       <c r="N19" s="27"/>
@@ -13715,11 +13747,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -13882,16 +13914,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="A42:C42"/>
@@ -13907,6 +13929,16 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -13941,23 +13973,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -13978,55 +14010,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14063,10 +14095,10 @@
         <v>85</v>
       </c>
       <c r="H7" s="220"/>
-      <c r="I7" s="298" t="s">
+      <c r="I7" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="299"/>
+      <c r="J7" s="271"/>
       <c r="K7" s="223" t="s">
         <v>147</v>
       </c>
@@ -14086,8 +14118,8 @@
       <c r="F8" s="222"/>
       <c r="G8" s="221"/>
       <c r="H8" s="222"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="301"/>
+      <c r="I8" s="272"/>
+      <c r="J8" s="273"/>
       <c r="K8" s="225"/>
       <c r="L8" s="226"/>
       <c r="M8" s="225"/>
@@ -14118,11 +14150,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -14153,13 +14185,13 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="295" t="s">
+      <c r="F12" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="296"/>
-      <c r="H12" s="297"/>
-      <c r="I12" s="297"/>
-      <c r="J12" s="252"/>
+      <c r="G12" s="275"/>
+      <c r="H12" s="276"/>
+      <c r="I12" s="276"/>
+      <c r="J12" s="247"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -14172,15 +14204,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="289" t="s">
+      <c r="F13" s="277" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="290"/>
-      <c r="H13" s="293" t="s">
+      <c r="G13" s="278"/>
+      <c r="H13" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="293"/>
-      <c r="J13" s="294"/>
+      <c r="I13" s="279"/>
+      <c r="J13" s="280"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -14193,13 +14225,13 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="289" t="s">
+      <c r="F14" s="277" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="290"/>
-      <c r="H14" s="293"/>
-      <c r="I14" s="293"/>
-      <c r="J14" s="294"/>
+      <c r="G14" s="278"/>
+      <c r="H14" s="279"/>
+      <c r="I14" s="279"/>
+      <c r="J14" s="280"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -14212,15 +14244,15 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="289" t="s">
+      <c r="F15" s="277" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="290"/>
-      <c r="H15" s="293" t="s">
+      <c r="G15" s="278"/>
+      <c r="H15" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="293"/>
-      <c r="J15" s="294"/>
+      <c r="I15" s="279"/>
+      <c r="J15" s="280"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -14233,15 +14265,15 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="289" t="s">
+      <c r="F16" s="277" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="290"/>
-      <c r="H16" s="293" t="s">
+      <c r="G16" s="278"/>
+      <c r="H16" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="293"/>
-      <c r="J16" s="294"/>
+      <c r="I16" s="279"/>
+      <c r="J16" s="280"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -14254,13 +14286,13 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="289" t="s">
+      <c r="F17" s="277" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="290"/>
-      <c r="H17" s="293"/>
-      <c r="I17" s="293"/>
-      <c r="J17" s="294"/>
+      <c r="G17" s="278"/>
+      <c r="H17" s="279"/>
+      <c r="I17" s="279"/>
+      <c r="J17" s="280"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -14273,13 +14305,13 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="289" t="s">
+      <c r="F18" s="277" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="290"/>
-      <c r="H18" s="291"/>
-      <c r="I18" s="291"/>
-      <c r="J18" s="292"/>
+      <c r="G18" s="278"/>
+      <c r="H18" s="281"/>
+      <c r="I18" s="281"/>
+      <c r="J18" s="282"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -14292,13 +14324,13 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="289" t="s">
+      <c r="F19" s="277" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="290"/>
-      <c r="H19" s="291"/>
-      <c r="I19" s="291"/>
-      <c r="J19" s="292"/>
+      <c r="G19" s="278"/>
+      <c r="H19" s="281"/>
+      <c r="I19" s="281"/>
+      <c r="J19" s="282"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -14311,13 +14343,13 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="289" t="s">
+      <c r="F20" s="277" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="290"/>
-      <c r="H20" s="291"/>
-      <c r="I20" s="291"/>
-      <c r="J20" s="292"/>
+      <c r="G20" s="278"/>
+      <c r="H20" s="281"/>
+      <c r="I20" s="281"/>
+      <c r="J20" s="282"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -14351,15 +14383,15 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="176" t="s">
+      <c r="F22" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="178"/>
+      <c r="G22" s="193"/>
       <c r="H22" s="52"/>
-      <c r="I22" s="176" t="s">
+      <c r="I22" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="178"/>
+      <c r="J22" s="193"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -14445,14 +14477,14 @@
       <c r="C26" s="71">
         <v>1</v>
       </c>
-      <c r="D26" s="274"/>
-      <c r="E26" s="276"/>
-      <c r="F26" s="274"/>
-      <c r="G26" s="276"/>
-      <c r="H26" s="274"/>
-      <c r="I26" s="276"/>
-      <c r="J26" s="274"/>
-      <c r="K26" s="276"/>
+      <c r="D26" s="289"/>
+      <c r="E26" s="290"/>
+      <c r="F26" s="289"/>
+      <c r="G26" s="290"/>
+      <c r="H26" s="289"/>
+      <c r="I26" s="290"/>
+      <c r="J26" s="289"/>
+      <c r="K26" s="290"/>
       <c r="L26" s="85" t="s">
         <v>116</v>
       </c>
@@ -14470,14 +14502,14 @@
       <c r="C27" s="71">
         <v>2</v>
       </c>
-      <c r="D27" s="274"/>
-      <c r="E27" s="276"/>
-      <c r="F27" s="274"/>
-      <c r="G27" s="276"/>
-      <c r="H27" s="274"/>
-      <c r="I27" s="276"/>
-      <c r="J27" s="274"/>
-      <c r="K27" s="276"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="289"/>
+      <c r="G27" s="290"/>
+      <c r="H27" s="289"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="289"/>
+      <c r="K27" s="290"/>
       <c r="L27" s="85" t="s">
         <v>116</v>
       </c>
@@ -14495,14 +14527,14 @@
       <c r="C28" s="71">
         <v>3</v>
       </c>
-      <c r="D28" s="274"/>
-      <c r="E28" s="276"/>
-      <c r="F28" s="274"/>
-      <c r="G28" s="276"/>
-      <c r="H28" s="274"/>
-      <c r="I28" s="276"/>
-      <c r="J28" s="274"/>
-      <c r="K28" s="276"/>
+      <c r="D28" s="289"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="289"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="289"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="289"/>
+      <c r="K28" s="290"/>
       <c r="L28" s="85" t="s">
         <v>116</v>
       </c>
@@ -14520,14 +14552,14 @@
       <c r="C29" s="71">
         <v>4</v>
       </c>
-      <c r="D29" s="274"/>
-      <c r="E29" s="276"/>
-      <c r="F29" s="274"/>
-      <c r="G29" s="276"/>
-      <c r="H29" s="274"/>
-      <c r="I29" s="276"/>
-      <c r="J29" s="274"/>
-      <c r="K29" s="276"/>
+      <c r="D29" s="289"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="289"/>
+      <c r="G29" s="290"/>
+      <c r="H29" s="289"/>
+      <c r="I29" s="290"/>
+      <c r="J29" s="289"/>
+      <c r="K29" s="290"/>
       <c r="L29" s="85" t="s">
         <v>116</v>
       </c>
@@ -14543,14 +14575,14 @@
       <c r="C30" s="71">
         <v>5</v>
       </c>
-      <c r="D30" s="274"/>
-      <c r="E30" s="276"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="276"/>
-      <c r="H30" s="274"/>
-      <c r="I30" s="276"/>
-      <c r="J30" s="274"/>
-      <c r="K30" s="276"/>
+      <c r="D30" s="289"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="289"/>
+      <c r="G30" s="290"/>
+      <c r="H30" s="289"/>
+      <c r="I30" s="290"/>
+      <c r="J30" s="289"/>
+      <c r="K30" s="290"/>
       <c r="L30" s="85" t="s">
         <v>116</v>
       </c>
@@ -14563,19 +14595,19 @@
       <c r="V30" s="27"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C31" s="274" t="s">
+      <c r="C31" s="289" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="275"/>
-      <c r="E31" s="275"/>
-      <c r="F31" s="275"/>
-      <c r="G31" s="275"/>
-      <c r="H31" s="275"/>
-      <c r="I31" s="275"/>
-      <c r="J31" s="275"/>
-      <c r="K31" s="275"/>
-      <c r="L31" s="275"/>
-      <c r="M31" s="276"/>
+      <c r="D31" s="291"/>
+      <c r="E31" s="291"/>
+      <c r="F31" s="291"/>
+      <c r="G31" s="291"/>
+      <c r="H31" s="291"/>
+      <c r="I31" s="291"/>
+      <c r="J31" s="291"/>
+      <c r="K31" s="291"/>
+      <c r="L31" s="291"/>
+      <c r="M31" s="290"/>
       <c r="O31" s="39"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
@@ -14599,10 +14631,10 @@
       <c r="V32" s="27"/>
     </row>
     <row r="33" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="227" t="s">
+      <c r="C33" s="253" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="229"/>
+      <c r="D33" s="255"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
@@ -14649,12 +14681,12 @@
         <v>120</v>
       </c>
       <c r="J35" s="27"/>
-      <c r="K35" s="277" t="s">
+      <c r="K35" s="292" t="s">
         <v>119</v>
       </c>
-      <c r="L35" s="278"/>
-      <c r="M35" s="278"/>
-      <c r="N35" s="279"/>
+      <c r="L35" s="293"/>
+      <c r="M35" s="293"/>
+      <c r="N35" s="294"/>
       <c r="O35" s="121" t="s">
         <v>120</v>
       </c>
@@ -14683,26 +14715,26 @@
       <c r="V36" s="27"/>
     </row>
     <row r="37" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="280" t="s">
+      <c r="A37" s="295" t="s">
         <v>110</v>
       </c>
       <c r="B37" s="258"/>
-      <c r="C37" s="227" t="s">
+      <c r="C37" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="228"/>
-      <c r="E37" s="228"/>
-      <c r="F37" s="228"/>
-      <c r="G37" s="229"/>
+      <c r="D37" s="254"/>
+      <c r="E37" s="254"/>
+      <c r="F37" s="254"/>
+      <c r="G37" s="255"/>
       <c r="H37" s="27"/>
       <c r="I37" s="39"/>
       <c r="J37" s="27"/>
       <c r="K37" s="38"/>
-      <c r="L37" s="256" t="s">
+      <c r="L37" s="251" t="s">
         <v>122</v>
       </c>
       <c r="M37" s="27"/>
-      <c r="N37" s="256" t="s">
+      <c r="N37" s="251" t="s">
         <v>121</v>
       </c>
       <c r="O37" s="39"/>
@@ -14711,39 +14743,39 @@
       <c r="V37" s="27"/>
     </row>
     <row r="38" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="281" t="s">
+      <c r="A38" s="296" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="282"/>
-      <c r="C38" s="227" t="s">
+      <c r="B38" s="297"/>
+      <c r="C38" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="228"/>
-      <c r="E38" s="228"/>
-      <c r="F38" s="228"/>
-      <c r="G38" s="229"/>
+      <c r="D38" s="254"/>
+      <c r="E38" s="254"/>
+      <c r="F38" s="254"/>
+      <c r="G38" s="255"/>
       <c r="H38" s="27"/>
       <c r="I38" s="39"/>
       <c r="J38" s="27"/>
       <c r="K38" s="38"/>
-      <c r="L38" s="257"/>
+      <c r="L38" s="252"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="257"/>
+      <c r="N38" s="252"/>
       <c r="O38" s="39"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
       <c r="V38" s="27"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="272" t="s">
+      <c r="A39" s="300" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="273"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="228"/>
-      <c r="E39" s="228"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="229"/>
+      <c r="B39" s="301"/>
+      <c r="C39" s="253"/>
+      <c r="D39" s="254"/>
+      <c r="E39" s="254"/>
+      <c r="F39" s="254"/>
+      <c r="G39" s="255"/>
       <c r="H39" s="27"/>
       <c r="I39" s="39"/>
       <c r="J39" s="27"/>
@@ -14757,15 +14789,15 @@
       <c r="V39" s="27"/>
     </row>
     <row r="40" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="272" t="s">
+      <c r="A40" s="300" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="273"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="228"/>
-      <c r="E40" s="228"/>
-      <c r="F40" s="228"/>
-      <c r="G40" s="229"/>
+      <c r="B40" s="301"/>
+      <c r="C40" s="253"/>
+      <c r="D40" s="254"/>
+      <c r="E40" s="254"/>
+      <c r="F40" s="254"/>
+      <c r="G40" s="255"/>
       <c r="H40" s="27"/>
       <c r="I40" s="39"/>
       <c r="J40" s="27"/>
@@ -14779,15 +14811,15 @@
       <c r="V40" s="27"/>
     </row>
     <row r="41" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="272" t="s">
+      <c r="A41" s="300" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="273"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="228"/>
-      <c r="E41" s="228"/>
-      <c r="F41" s="228"/>
-      <c r="G41" s="229"/>
+      <c r="B41" s="301"/>
+      <c r="C41" s="253"/>
+      <c r="D41" s="254"/>
+      <c r="E41" s="254"/>
+      <c r="F41" s="254"/>
+      <c r="G41" s="255"/>
       <c r="H41" s="27"/>
       <c r="I41" s="39"/>
       <c r="J41" s="27"/>
@@ -14838,15 +14870,15 @@
     </row>
     <row r="44" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
-      <c r="B44" s="227" t="s">
+      <c r="B44" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="229"/>
+      <c r="C44" s="255"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="270" t="s">
+      <c r="E44" s="298" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="271"/>
+      <c r="F44" s="299"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="39"/>
@@ -14973,26 +15005,50 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="F22:G22"/>
@@ -15003,50 +15059,26 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -15082,23 +15114,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -15119,55 +15151,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15208,10 +15240,10 @@
         <v>43</v>
       </c>
       <c r="J7" s="224"/>
-      <c r="K7" s="298" t="s">
+      <c r="K7" s="270" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="299"/>
+      <c r="L7" s="271"/>
       <c r="M7" s="223" t="s">
         <v>148</v>
       </c>
@@ -15229,8 +15261,8 @@
       <c r="H8" s="222"/>
       <c r="I8" s="225"/>
       <c r="J8" s="226"/>
-      <c r="K8" s="300"/>
-      <c r="L8" s="301"/>
+      <c r="K8" s="272"/>
+      <c r="L8" s="273"/>
       <c r="M8" s="225"/>
       <c r="N8" s="226"/>
       <c r="O8" s="94"/>
@@ -15259,11 +15291,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -15293,14 +15325,14 @@
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="302" t="s">
+      <c r="E12" s="311" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="302"/>
-      <c r="G12" s="232"/>
-      <c r="H12" s="233"/>
-      <c r="I12" s="233"/>
-      <c r="J12" s="234"/>
+      <c r="F12" s="311"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="229"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -15312,14 +15344,14 @@
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="282" t="s">
+      <c r="E13" s="297" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="282"/>
-      <c r="G13" s="232"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="234"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="228"/>
+      <c r="J13" s="229"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -15331,13 +15363,13 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="273" t="s">
+      <c r="E14" s="301" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="273"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="233"/>
-      <c r="I14" s="233"/>
+      <c r="F14" s="301"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="228"/>
       <c r="J14" s="102" t="s">
         <v>159</v>
       </c>
@@ -15356,12 +15388,12 @@
         <v>160</v>
       </c>
       <c r="F15" s="269"/>
-      <c r="G15" s="227" t="s">
+      <c r="G15" s="253" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="228"/>
-      <c r="I15" s="228"/>
-      <c r="J15" s="229"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="254"/>
+      <c r="J15" s="255"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -15373,16 +15405,16 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="273" t="s">
+      <c r="E16" s="301" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="273"/>
-      <c r="G16" s="238" t="s">
+      <c r="F16" s="301"/>
+      <c r="G16" s="233" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="239"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="247"/>
+      <c r="H16" s="234"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="242"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -15396,10 +15428,10 @@
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="57"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="242"/>
-      <c r="J17" s="249"/>
+      <c r="G17" s="236"/>
+      <c r="H17" s="237"/>
+      <c r="I17" s="237"/>
+      <c r="J17" s="244"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -15430,10 +15462,10 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="232" t="s">
+      <c r="G19" s="227" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="234"/>
+      <c r="H19" s="229"/>
       <c r="I19" s="96"/>
       <c r="J19" s="96"/>
       <c r="K19" s="27"/>
@@ -15481,14 +15513,14 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="303" t="s">
+      <c r="E22" s="302" t="s">
         <v>192</v>
       </c>
-      <c r="F22" s="304"/>
-      <c r="G22" s="304"/>
-      <c r="H22" s="304"/>
-      <c r="I22" s="304"/>
-      <c r="J22" s="305"/>
+      <c r="F22" s="303"/>
+      <c r="G22" s="303"/>
+      <c r="H22" s="303"/>
+      <c r="I22" s="303"/>
+      <c r="J22" s="304"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -15500,12 +15532,12 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="306"/>
-      <c r="F23" s="307"/>
-      <c r="G23" s="307"/>
-      <c r="H23" s="307"/>
-      <c r="I23" s="307"/>
-      <c r="J23" s="308"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="306"/>
+      <c r="G23" s="306"/>
+      <c r="H23" s="306"/>
+      <c r="I23" s="306"/>
+      <c r="J23" s="307"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
@@ -15517,12 +15549,12 @@
       <c r="B24" s="27"/>
       <c r="C24" s="96"/>
       <c r="D24" s="96"/>
-      <c r="E24" s="306"/>
-      <c r="F24" s="307"/>
-      <c r="G24" s="307"/>
-      <c r="H24" s="307"/>
-      <c r="I24" s="307"/>
-      <c r="J24" s="308"/>
+      <c r="E24" s="305"/>
+      <c r="F24" s="306"/>
+      <c r="G24" s="306"/>
+      <c r="H24" s="306"/>
+      <c r="I24" s="306"/>
+      <c r="J24" s="307"/>
       <c r="K24" s="96"/>
       <c r="L24" s="96"/>
       <c r="M24" s="96"/>
@@ -15534,12 +15566,12 @@
       <c r="B25" s="27"/>
       <c r="C25" s="96"/>
       <c r="D25" s="96"/>
-      <c r="E25" s="306"/>
-      <c r="F25" s="307"/>
-      <c r="G25" s="307"/>
-      <c r="H25" s="307"/>
-      <c r="I25" s="307"/>
-      <c r="J25" s="308"/>
+      <c r="E25" s="305"/>
+      <c r="F25" s="306"/>
+      <c r="G25" s="306"/>
+      <c r="H25" s="306"/>
+      <c r="I25" s="306"/>
+      <c r="J25" s="307"/>
       <c r="K25" s="96"/>
       <c r="L25" s="96"/>
       <c r="M25" s="96"/>
@@ -15551,12 +15583,12 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="95"/>
-      <c r="E26" s="306"/>
-      <c r="F26" s="307"/>
-      <c r="G26" s="307"/>
-      <c r="H26" s="307"/>
-      <c r="I26" s="307"/>
-      <c r="J26" s="308"/>
+      <c r="E26" s="305"/>
+      <c r="F26" s="306"/>
+      <c r="G26" s="306"/>
+      <c r="H26" s="306"/>
+      <c r="I26" s="306"/>
+      <c r="J26" s="307"/>
       <c r="K26" s="95"/>
       <c r="L26" s="95"/>
       <c r="M26" s="95"/>
@@ -15568,12 +15600,12 @@
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="95"/>
-      <c r="E27" s="306"/>
-      <c r="F27" s="307"/>
-      <c r="G27" s="307"/>
-      <c r="H27" s="307"/>
-      <c r="I27" s="307"/>
-      <c r="J27" s="308"/>
+      <c r="E27" s="305"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="307"/>
       <c r="K27" s="95"/>
       <c r="L27" s="95"/>
       <c r="M27" s="95"/>
@@ -15585,12 +15617,12 @@
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="95"/>
-      <c r="E28" s="306"/>
-      <c r="F28" s="307"/>
-      <c r="G28" s="307"/>
-      <c r="H28" s="307"/>
-      <c r="I28" s="307"/>
-      <c r="J28" s="308"/>
+      <c r="E28" s="305"/>
+      <c r="F28" s="306"/>
+      <c r="G28" s="306"/>
+      <c r="H28" s="306"/>
+      <c r="I28" s="306"/>
+      <c r="J28" s="307"/>
       <c r="K28" s="95"/>
       <c r="L28" s="95"/>
       <c r="M28" s="95"/>
@@ -15602,12 +15634,12 @@
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="95"/>
-      <c r="E29" s="306"/>
-      <c r="F29" s="307"/>
-      <c r="G29" s="307"/>
-      <c r="H29" s="307"/>
-      <c r="I29" s="307"/>
-      <c r="J29" s="308"/>
+      <c r="E29" s="305"/>
+      <c r="F29" s="306"/>
+      <c r="G29" s="306"/>
+      <c r="H29" s="306"/>
+      <c r="I29" s="306"/>
+      <c r="J29" s="307"/>
       <c r="K29" s="95"/>
       <c r="L29" s="95"/>
       <c r="M29" s="95"/>
@@ -15619,12 +15651,12 @@
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="95"/>
-      <c r="E30" s="306"/>
-      <c r="F30" s="307"/>
-      <c r="G30" s="307"/>
-      <c r="H30" s="307"/>
-      <c r="I30" s="307"/>
-      <c r="J30" s="308"/>
+      <c r="E30" s="305"/>
+      <c r="F30" s="306"/>
+      <c r="G30" s="306"/>
+      <c r="H30" s="306"/>
+      <c r="I30" s="306"/>
+      <c r="J30" s="307"/>
       <c r="K30" s="95"/>
       <c r="L30" s="95"/>
       <c r="M30" s="95"/>
@@ -15636,12 +15668,12 @@
       <c r="B31" s="27"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
-      <c r="E31" s="306"/>
-      <c r="F31" s="307"/>
-      <c r="G31" s="307"/>
-      <c r="H31" s="307"/>
-      <c r="I31" s="307"/>
-      <c r="J31" s="308"/>
+      <c r="E31" s="305"/>
+      <c r="F31" s="306"/>
+      <c r="G31" s="306"/>
+      <c r="H31" s="306"/>
+      <c r="I31" s="306"/>
+      <c r="J31" s="307"/>
       <c r="K31" s="95"/>
       <c r="L31" s="95"/>
       <c r="M31" s="95"/>
@@ -15653,12 +15685,12 @@
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="309"/>
-      <c r="F32" s="310"/>
-      <c r="G32" s="310"/>
-      <c r="H32" s="310"/>
-      <c r="I32" s="310"/>
-      <c r="J32" s="311"/>
+      <c r="E32" s="308"/>
+      <c r="F32" s="309"/>
+      <c r="G32" s="309"/>
+      <c r="H32" s="309"/>
+      <c r="I32" s="309"/>
+      <c r="J32" s="310"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
@@ -16187,6 +16219,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E22:J32"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:J17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:J15"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -16196,19 +16241,6 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
-    <mergeCell ref="E22:J32"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:J17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -16237,23 +16269,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -16274,55 +16306,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16367,10 +16399,10 @@
         <v>147</v>
       </c>
       <c r="L7" s="224"/>
-      <c r="M7" s="298" t="s">
+      <c r="M7" s="270" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="299"/>
+      <c r="N7" s="271"/>
       <c r="O7" s="93"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16386,8 +16418,8 @@
       <c r="J8" s="226"/>
       <c r="K8" s="225"/>
       <c r="L8" s="226"/>
-      <c r="M8" s="300"/>
-      <c r="N8" s="301"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="273"/>
       <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16414,11 +16446,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="232" t="s">
+      <c r="G10" s="227" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="233"/>
-      <c r="I10" s="234"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="229"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -16506,20 +16538,20 @@
       <c r="D15" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="227" t="s">
+      <c r="E15" s="253" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="228"/>
-      <c r="G15" s="229"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="255"/>
       <c r="H15" s="27"/>
       <c r="I15" s="138" t="s">
         <v>188</v>
       </c>
-      <c r="J15" s="270" t="s">
+      <c r="J15" s="298" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="312"/>
-      <c r="L15" s="271"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="39"/>
@@ -16732,21 +16764,21 @@
     </row>
     <row r="26" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
-      <c r="B26" s="227" t="s">
+      <c r="B26" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="228"/>
-      <c r="D26" s="228"/>
-      <c r="E26" s="228"/>
-      <c r="F26" s="228"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="228"/>
-      <c r="I26" s="228"/>
-      <c r="J26" s="228"/>
-      <c r="K26" s="228"/>
-      <c r="L26" s="228"/>
-      <c r="M26" s="228"/>
-      <c r="N26" s="229"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="254"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="254"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="254"/>
+      <c r="L26" s="254"/>
+      <c r="M26" s="254"/>
+      <c r="N26" s="255"/>
       <c r="O26" s="39"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
@@ -16765,10 +16797,10 @@
     </row>
     <row r="28" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="227" t="s">
+      <c r="B28" s="253" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="229"/>
+      <c r="C28" s="255"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
       <c r="N28" s="27"/>
@@ -17097,10 +17129,10 @@
       <c r="H54" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="I54" s="227" t="s">
+      <c r="I54" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="229"/>
+      <c r="J54" s="255"/>
       <c r="K54" s="39"/>
     </row>
     <row r="55" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17115,10 +17147,10 @@
       <c r="H55" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="I55" s="227" t="s">
+      <c r="I55" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="229"/>
+      <c r="J55" s="255"/>
       <c r="K55" s="39"/>
     </row>
     <row r="56" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17204,15 +17236,15 @@
       <c r="B61" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="C61" s="227"/>
-      <c r="D61" s="228"/>
-      <c r="E61" s="229"/>
+      <c r="C61" s="253"/>
+      <c r="D61" s="254"/>
+      <c r="E61" s="255"/>
       <c r="F61" s="39"/>
       <c r="H61" s="38"/>
-      <c r="I61" s="227" t="s">
+      <c r="I61" s="253" t="s">
         <v>174</v>
       </c>
-      <c r="J61" s="229"/>
+      <c r="J61" s="255"/>
       <c r="K61" s="39"/>
     </row>
     <row r="62" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17250,10 +17282,10 @@
     <row r="65" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="95"/>
-      <c r="C65" s="227" t="s">
+      <c r="C65" s="253" t="s">
         <v>176</v>
       </c>
-      <c r="D65" s="229"/>
+      <c r="D65" s="255"/>
       <c r="E65" s="27"/>
       <c r="F65" s="39"/>
     </row>
@@ -17267,17 +17299,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="B26:N26"/>
@@ -17294,6 +17315,17 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="C61:E61"/>
     <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>

--- a/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
+++ b/trunk/References/Templates/Web MockUp/WEB_MockUp ver 1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="705" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Đại lý - Nạp tiền tài khoản" sheetId="1" r:id="rId1"/>
@@ -900,7 +900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1687,12 +1687,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1993,15 +2043,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2011,35 +2070,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2050,6 +2157,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2065,156 +2256,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2287,28 +2328,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2337,13 +2387,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2352,14 +2423,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2370,113 +2483,62 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2487,27 +2549,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2556,6 +2597,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2934,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2944,18 +2999,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -2981,55 +3036,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="165"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3037,14 +3092,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="166" t="s">
+      <c r="E6" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -3073,16 +3128,16 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" s="159" t="s">
+      <c r="E8" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160" t="s">
+      <c r="F8" s="161"/>
+      <c r="G8" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -3094,14 +3149,14 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="159" t="s">
+      <c r="E9" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="159"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -3113,14 +3168,14 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" s="159" t="s">
+      <c r="E10" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="163"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="166"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -3151,10 +3206,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="160" t="s">
+      <c r="G12" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="160"/>
+      <c r="H12" s="162"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -3185,14 +3240,14 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="158" t="s">
+      <c r="E14" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
       <c r="K14" s="6"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -3204,12 +3259,12 @@
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
       <c r="K15" s="6"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -3221,12 +3276,12 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
       <c r="K16" s="6"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -3238,12 +3293,12 @@
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
       <c r="K17" s="6"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -3255,12 +3310,12 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
       <c r="K18" s="6"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -3788,17 +3843,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:J8"/>
     <mergeCell ref="E14:J18"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
@@ -3823,23 +3878,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="199"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -3860,55 +3915,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3929,22 +3984,22 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="213" t="s">
+      <c r="B7" s="209"/>
+      <c r="C7" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="329"/>
-      <c r="E7" s="217" t="s">
+      <c r="D7" s="318"/>
+      <c r="E7" s="216" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="218"/>
-      <c r="G7" s="217" t="s">
+      <c r="F7" s="217"/>
+      <c r="G7" s="216" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="218"/>
+      <c r="H7" s="217"/>
       <c r="I7" s="70"/>
       <c r="J7" s="70"/>
       <c r="K7" s="70"/>
@@ -3954,14 +4009,14 @@
       <c r="O7" s="64"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="211"/>
-      <c r="B8" s="212"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="330"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
       <c r="I8" s="71"/>
       <c r="J8" s="71"/>
       <c r="K8" s="71"/>
@@ -3994,9 +4049,9 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="220"/>
+      <c r="I10" s="220"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -4024,25 +4079,25 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="193"/>
-      <c r="E12" s="194" t="s">
+      <c r="D12" s="220"/>
+      <c r="E12" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="195"/>
-      <c r="G12" s="196"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="223"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="193" t="s">
+      <c r="I12" s="220" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="193"/>
-      <c r="K12" s="194" t="s">
+      <c r="J12" s="220"/>
+      <c r="K12" s="221" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="195"/>
-      <c r="M12" s="196"/>
+      <c r="L12" s="222"/>
+      <c r="M12" s="223"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -4070,11 +4125,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="194" t="s">
+      <c r="G14" s="221" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="223"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -4104,19 +4159,19 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="325" t="s">
+      <c r="E16" s="321" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="327" t="s">
+      <c r="F16" s="323" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="327"/>
-      <c r="H16" s="327"/>
-      <c r="I16" s="327" t="s">
+      <c r="G16" s="323"/>
+      <c r="H16" s="323"/>
+      <c r="I16" s="323" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="327"/>
-      <c r="K16" s="328"/>
+      <c r="J16" s="323"/>
+      <c r="K16" s="324"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -4127,13 +4182,13 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="326"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="324"/>
+      <c r="E17" s="322"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="320"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -4147,12 +4202,12 @@
       <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="324"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="320"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -4166,12 +4221,12 @@
       <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="324"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="320"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -4185,12 +4240,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="324"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="320"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -4206,12 +4261,12 @@
       <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="324"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="320"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -4227,12 +4282,12 @@
       <c r="E22" s="56">
         <v>5</v>
       </c>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="324"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="320"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -4245,15 +4300,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="321" t="s">
+      <c r="E23" s="325" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="322"/>
-      <c r="G23" s="322"/>
-      <c r="H23" s="322"/>
-      <c r="I23" s="322"/>
-      <c r="J23" s="322"/>
-      <c r="K23" s="323"/>
+      <c r="F23" s="326"/>
+      <c r="G23" s="326"/>
+      <c r="H23" s="326"/>
+      <c r="I23" s="326"/>
+      <c r="J23" s="326"/>
+      <c r="K23" s="327"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -4286,15 +4341,15 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="179" t="s">
+      <c r="E25" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="181"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="227"/>
+      <c r="H25" s="227"/>
+      <c r="I25" s="227"/>
+      <c r="J25" s="227"/>
+      <c r="K25" s="228"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -4784,12 +4839,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="G10:I10"/>
@@ -4803,14 +4860,12 @@
     <mergeCell ref="I16:K17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -4836,23 +4891,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="332"/>
-      <c r="O1" s="333"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
+      <c r="F1" s="329"/>
+      <c r="G1" s="329"/>
+      <c r="H1" s="329"/>
+      <c r="I1" s="329"/>
+      <c r="J1" s="329"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="330"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -4873,55 +4928,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4942,22 +4997,22 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="239" t="s">
+      <c r="B7" s="233"/>
+      <c r="C7" s="236" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="334"/>
-      <c r="E7" s="247" t="s">
+      <c r="D7" s="331"/>
+      <c r="E7" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="248"/>
-      <c r="G7" s="247" t="s">
+      <c r="F7" s="245"/>
+      <c r="G7" s="244" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="248"/>
+      <c r="H7" s="245"/>
       <c r="I7" s="110"/>
       <c r="J7" s="110"/>
       <c r="K7" s="110"/>
@@ -4967,14 +5022,14 @@
       <c r="O7" s="111"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="335"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="250"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="332"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="247"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -5020,112 +5075,112 @@
     <row r="11" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="27"/>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="161" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="260"/>
-      <c r="E11" s="194" t="s">
+      <c r="D11" s="258"/>
+      <c r="E11" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="195"/>
-      <c r="G11" s="196"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="223"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="256" t="s">
+      <c r="I11" s="257" t="s">
         <v>173</v>
       </c>
-      <c r="J11" s="259"/>
-      <c r="K11" s="194" t="s">
+      <c r="J11" s="256"/>
+      <c r="K11" s="221" t="s">
         <v>189</v>
       </c>
-      <c r="L11" s="195"/>
-      <c r="M11" s="196"/>
+      <c r="L11" s="222"/>
+      <c r="M11" s="223"/>
       <c r="N11" s="27"/>
       <c r="O11" s="39"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="264" t="s">
+      <c r="C12" s="255" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="259"/>
-      <c r="E12" s="253" t="s">
+      <c r="D12" s="256"/>
+      <c r="E12" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="254"/>
-      <c r="G12" s="255"/>
-      <c r="I12" s="256" t="s">
+      <c r="F12" s="251"/>
+      <c r="G12" s="252"/>
+      <c r="I12" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="J12" s="259"/>
-      <c r="K12" s="253" t="s">
+      <c r="J12" s="256"/>
+      <c r="K12" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="254"/>
-      <c r="M12" s="255"/>
+      <c r="L12" s="251"/>
+      <c r="M12" s="252"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
-      <c r="C13" s="256" t="s">
+      <c r="C13" s="257" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="259"/>
-      <c r="E13" s="261" t="s">
+      <c r="D13" s="256"/>
+      <c r="E13" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="262"/>
-      <c r="G13" s="263"/>
-      <c r="I13" s="256" t="s">
+      <c r="F13" s="259"/>
+      <c r="G13" s="254"/>
+      <c r="I13" s="257" t="s">
         <v>186</v>
       </c>
-      <c r="J13" s="259"/>
-      <c r="K13" s="253" t="s">
+      <c r="J13" s="256"/>
+      <c r="K13" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="254"/>
-      <c r="M13" s="255"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="252"/>
       <c r="O13" s="39"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
-      <c r="C14" s="257" t="s">
+      <c r="C14" s="260" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="258"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="254"/>
-      <c r="G14" s="255"/>
-      <c r="I14" s="256" t="s">
+      <c r="D14" s="261"/>
+      <c r="E14" s="250"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="252"/>
+      <c r="I14" s="257" t="s">
         <v>188</v>
       </c>
-      <c r="J14" s="259"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="255"/>
+      <c r="J14" s="256"/>
+      <c r="K14" s="250"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="252"/>
       <c r="N14" s="27"/>
       <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="256" t="s">
+      <c r="C15" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="256"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="254"/>
-      <c r="G15" s="255"/>
-      <c r="I15" s="256" t="s">
+      <c r="D15" s="257"/>
+      <c r="E15" s="250"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="252"/>
+      <c r="I15" s="257" t="s">
         <v>219</v>
       </c>
-      <c r="J15" s="256"/>
-      <c r="K15" s="253" t="s">
+      <c r="J15" s="257"/>
+      <c r="K15" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="254"/>
-      <c r="M15" s="255"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="252"/>
       <c r="N15" s="27"/>
       <c r="O15" s="39"/>
     </row>
@@ -5137,11 +5192,11 @@
     <row r="17" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="27"/>
-      <c r="G17" s="182" t="s">
+      <c r="G17" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="183"/>
-      <c r="I17" s="184"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="173"/>
       <c r="N17" s="27"/>
       <c r="O17" s="39"/>
     </row>
@@ -5163,25 +5218,25 @@
       <c r="A19" s="38"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="251" t="s">
+      <c r="D19" s="248" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="187" t="s">
+      <c r="E19" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="189"/>
-      <c r="G19" s="187" t="s">
+      <c r="F19" s="186"/>
+      <c r="G19" s="184" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="189"/>
-      <c r="I19" s="187" t="s">
+      <c r="H19" s="186"/>
+      <c r="I19" s="184" t="s">
         <v>167</v>
       </c>
-      <c r="J19" s="189"/>
-      <c r="K19" s="251" t="s">
+      <c r="J19" s="186"/>
+      <c r="K19" s="248" t="s">
         <v>203</v>
       </c>
-      <c r="L19" s="251" t="s">
+      <c r="L19" s="248" t="s">
         <v>220</v>
       </c>
       <c r="M19" s="27"/>
@@ -5192,15 +5247,15 @@
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="252"/>
-      <c r="L20" s="252"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="249"/>
+      <c r="L20" s="249"/>
       <c r="M20" s="27"/>
       <c r="O20" s="39"/>
       <c r="R20" s="27"/>
@@ -5212,14 +5267,14 @@
       </c>
       <c r="E21" s="133"/>
       <c r="F21" s="134"/>
-      <c r="G21" s="253" t="s">
+      <c r="G21" s="250" t="s">
         <v>190</v>
       </c>
-      <c r="H21" s="255"/>
-      <c r="I21" s="253" t="s">
+      <c r="H21" s="252"/>
+      <c r="I21" s="250" t="s">
         <v>190</v>
       </c>
-      <c r="J21" s="255"/>
+      <c r="J21" s="252"/>
       <c r="K21" s="121" t="s">
         <v>221</v>
       </c>
@@ -5234,10 +5289,10 @@
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="134"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="255"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="255"/>
+      <c r="G22" s="250"/>
+      <c r="H22" s="252"/>
+      <c r="I22" s="250"/>
+      <c r="J22" s="252"/>
       <c r="K22" s="144"/>
       <c r="L22" s="144"/>
       <c r="M22" s="27"/>
@@ -5250,10 +5305,10 @@
       </c>
       <c r="E23" s="133"/>
       <c r="F23" s="134"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="255"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="255"/>
+      <c r="G23" s="250"/>
+      <c r="H23" s="252"/>
+      <c r="I23" s="250"/>
+      <c r="J23" s="252"/>
       <c r="K23" s="144"/>
       <c r="L23" s="144"/>
       <c r="M23" s="27"/>
@@ -5282,10 +5337,10 @@
       </c>
       <c r="E25" s="145"/>
       <c r="F25" s="151"/>
-      <c r="G25" s="261"/>
-      <c r="H25" s="263"/>
-      <c r="I25" s="261"/>
-      <c r="J25" s="263"/>
+      <c r="G25" s="253"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="253"/>
+      <c r="J25" s="254"/>
       <c r="K25" s="150"/>
       <c r="L25" s="150"/>
       <c r="M25" s="27"/>
@@ -5293,17 +5348,17 @@
     </row>
     <row r="26" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
-      <c r="D26" s="253" t="s">
+      <c r="D26" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="254"/>
-      <c r="F26" s="254"/>
-      <c r="G26" s="254"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="254"/>
-      <c r="K26" s="254"/>
-      <c r="L26" s="255"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="251"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="252"/>
       <c r="M26" s="83"/>
       <c r="N26" s="83"/>
       <c r="O26" s="39"/>
@@ -5657,11 +5712,11 @@
       <c r="V49" s="27"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="177" t="s">
+      <c r="A52" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="178"/>
-      <c r="C52" s="178"/>
+      <c r="B52" s="225"/>
+      <c r="C52" s="225"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
       <c r="F52" s="14"/>
@@ -5929,33 +5984,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:M14"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="A1:O1"/>
@@ -5972,6 +6000,33 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:M11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -5997,23 +6052,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="199"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -6034,55 +6089,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6103,22 +6158,22 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="233"/>
+      <c r="C7" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="336"/>
-      <c r="E7" s="297" t="s">
+      <c r="D7" s="333"/>
+      <c r="E7" s="290" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="298"/>
-      <c r="G7" s="247" t="s">
+      <c r="F7" s="291"/>
+      <c r="G7" s="244" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="248"/>
+      <c r="H7" s="245"/>
       <c r="I7" s="110"/>
       <c r="J7" s="110"/>
       <c r="K7" s="110"/>
@@ -6128,14 +6183,14 @@
       <c r="O7" s="111"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="337"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="250"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="334"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="293"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="247"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -6234,17 +6289,17 @@
     <row r="14" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="264" t="s">
+      <c r="C14" s="255" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="259"/>
+      <c r="D14" s="256"/>
       <c r="E14" s="130"/>
       <c r="F14" s="131"/>
       <c r="G14" s="132"/>
-      <c r="I14" s="278" t="s">
+      <c r="I14" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="320"/>
+      <c r="J14" s="316"/>
       <c r="K14" s="61"/>
       <c r="L14" s="62"/>
       <c r="M14" s="63"/>
@@ -6254,42 +6309,42 @@
     <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="264" t="s">
+      <c r="C15" s="255" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="259"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="254"/>
-      <c r="G15" s="255"/>
-      <c r="I15" s="256" t="s">
+      <c r="D15" s="256"/>
+      <c r="E15" s="250"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="252"/>
+      <c r="I15" s="257" t="s">
         <v>186</v>
       </c>
-      <c r="J15" s="259"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="255"/>
+      <c r="J15" s="256"/>
+      <c r="K15" s="250"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="252"/>
       <c r="N15" s="27"/>
       <c r="O15" s="39"/>
     </row>
     <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="264" t="s">
+      <c r="C16" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="259"/>
-      <c r="E16" s="253" t="s">
+      <c r="D16" s="256"/>
+      <c r="E16" s="250" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="254"/>
-      <c r="G16" s="255"/>
-      <c r="I16" s="264" t="s">
+      <c r="F16" s="251"/>
+      <c r="G16" s="252"/>
+      <c r="I16" s="255" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="259"/>
-      <c r="K16" s="279" t="s">
+      <c r="J16" s="256"/>
+      <c r="K16" s="274" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="319"/>
-      <c r="M16" s="280"/>
+      <c r="L16" s="317"/>
+      <c r="M16" s="275"/>
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6334,50 +6389,50 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="302" t="s">
+      <c r="B20" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="304" t="s">
+      <c r="C20" s="286" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="305"/>
-      <c r="E20" s="304" t="s">
+      <c r="D20" s="287"/>
+      <c r="E20" s="286" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="305"/>
-      <c r="G20" s="304" t="s">
+      <c r="F20" s="287"/>
+      <c r="G20" s="286" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="305"/>
-      <c r="I20" s="304" t="s">
+      <c r="H20" s="287"/>
+      <c r="I20" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="305"/>
-      <c r="K20" s="302" t="s">
+      <c r="J20" s="287"/>
+      <c r="K20" s="276" t="s">
         <v>149</v>
       </c>
-      <c r="L20" s="304" t="s">
+      <c r="L20" s="286" t="s">
         <v>111</v>
       </c>
-      <c r="M20" s="305"/>
-      <c r="N20" s="302"/>
+      <c r="M20" s="287"/>
+      <c r="N20" s="276"/>
       <c r="O20" s="39"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
-      <c r="B21" s="303"/>
-      <c r="C21" s="306"/>
-      <c r="D21" s="307"/>
-      <c r="E21" s="306"/>
-      <c r="F21" s="307"/>
-      <c r="G21" s="306"/>
-      <c r="H21" s="307"/>
-      <c r="I21" s="306"/>
-      <c r="J21" s="307"/>
-      <c r="K21" s="303"/>
-      <c r="L21" s="306"/>
-      <c r="M21" s="307"/>
-      <c r="N21" s="303"/>
+      <c r="B21" s="277"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="289"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="289"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="289"/>
+      <c r="I21" s="288"/>
+      <c r="J21" s="289"/>
+      <c r="K21" s="277"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="289"/>
+      <c r="N21" s="277"/>
       <c r="O21" s="39"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
@@ -6491,21 +6546,21 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
-      <c r="B27" s="286" t="s">
+      <c r="B27" s="278" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="308"/>
-      <c r="D27" s="308"/>
-      <c r="E27" s="308"/>
-      <c r="F27" s="308"/>
-      <c r="G27" s="308"/>
-      <c r="H27" s="308"/>
-      <c r="I27" s="308"/>
-      <c r="J27" s="308"/>
-      <c r="K27" s="308"/>
-      <c r="L27" s="308"/>
-      <c r="M27" s="308"/>
-      <c r="N27" s="287"/>
+      <c r="C27" s="279"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
+      <c r="K27" s="279"/>
+      <c r="L27" s="279"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="280"/>
       <c r="O27" s="39"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
@@ -6525,10 +6580,10 @@
     </row>
     <row r="29" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="253" t="s">
+      <c r="B29" s="250" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="255"/>
+      <c r="C29" s="252"/>
       <c r="L29" s="135"/>
       <c r="M29" s="135"/>
       <c r="N29" s="27"/>
@@ -6807,15 +6862,15 @@
       <c r="F52" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="H52" s="282" t="s">
+      <c r="H52" s="303" t="s">
         <v>209</v>
       </c>
-      <c r="I52" s="283"/>
-      <c r="J52" s="283"/>
-      <c r="K52" s="283"/>
-      <c r="L52" s="283"/>
-      <c r="M52" s="283"/>
-      <c r="N52" s="284"/>
+      <c r="I52" s="304"/>
+      <c r="J52" s="304"/>
+      <c r="K52" s="304"/>
+      <c r="L52" s="304"/>
+      <c r="M52" s="304"/>
+      <c r="N52" s="305"/>
       <c r="O52" s="103"/>
     </row>
     <row r="53" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6868,10 +6923,10 @@
         <v>185</v>
       </c>
       <c r="J55" s="83"/>
-      <c r="K55" s="253"/>
-      <c r="L55" s="254"/>
-      <c r="M55" s="254"/>
-      <c r="N55" s="255"/>
+      <c r="K55" s="250"/>
+      <c r="L55" s="251"/>
+      <c r="M55" s="251"/>
+      <c r="N55" s="252"/>
       <c r="O55" s="92"/>
     </row>
     <row r="56" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6939,9 +6994,9 @@
       <c r="B59" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="253"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="255"/>
+      <c r="C59" s="250"/>
+      <c r="D59" s="251"/>
+      <c r="E59" s="252"/>
       <c r="F59" s="39"/>
       <c r="H59" s="89"/>
       <c r="I59" s="98" t="s">
@@ -6990,12 +7045,12 @@
         <v>215</v>
       </c>
       <c r="J61" s="83"/>
-      <c r="K61" s="221" t="s">
+      <c r="K61" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="L61" s="222"/>
-      <c r="M61" s="222"/>
-      <c r="N61" s="223"/>
+      <c r="L61" s="188"/>
+      <c r="M61" s="188"/>
+      <c r="N61" s="189"/>
       <c r="O61" s="92"/>
     </row>
     <row r="62" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7008,19 +7063,19 @@
       <c r="H62" s="89"/>
       <c r="I62" s="83"/>
       <c r="J62" s="83"/>
-      <c r="K62" s="224"/>
-      <c r="L62" s="225"/>
-      <c r="M62" s="225"/>
-      <c r="N62" s="226"/>
+      <c r="K62" s="190"/>
+      <c r="L62" s="191"/>
+      <c r="M62" s="191"/>
+      <c r="N62" s="192"/>
       <c r="O62" s="92"/>
     </row>
     <row r="63" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="83"/>
-      <c r="C63" s="253" t="s">
+      <c r="C63" s="250" t="s">
         <v>153</v>
       </c>
-      <c r="D63" s="255"/>
+      <c r="D63" s="252"/>
       <c r="E63" s="27"/>
       <c r="F63" s="39"/>
       <c r="H63" s="89"/>
@@ -7042,10 +7097,10 @@
       <c r="H64" s="89"/>
       <c r="I64" s="83"/>
       <c r="J64" s="83"/>
-      <c r="K64" s="253" t="s">
+      <c r="K64" s="250" t="s">
         <v>217</v>
       </c>
-      <c r="L64" s="255"/>
+      <c r="L64" s="252"/>
       <c r="M64" s="83"/>
       <c r="N64" s="83"/>
       <c r="O64" s="92"/>
@@ -7169,6 +7224,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="K61:N62"/>
     <mergeCell ref="K64:L64"/>
@@ -7185,22 +7256,6 @@
     <mergeCell ref="I20:J21"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="L20:M21"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -7226,23 +7281,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="199"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -7263,55 +7318,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7332,22 +7387,22 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="233"/>
+      <c r="C7" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="336"/>
-      <c r="E7" s="247" t="s">
+      <c r="D7" s="333"/>
+      <c r="E7" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="248"/>
-      <c r="G7" s="297" t="s">
+      <c r="F7" s="245"/>
+      <c r="G7" s="290" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="298"/>
+      <c r="H7" s="291"/>
       <c r="I7" s="110"/>
       <c r="J7" s="110"/>
       <c r="K7" s="110"/>
@@ -7357,14 +7412,14 @@
       <c r="O7" s="111"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="337"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="300"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="334"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="293"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -7402,7 +7457,7 @@
       <c r="G10" s="295"/>
       <c r="H10" s="296"/>
       <c r="I10" s="296"/>
-      <c r="J10" s="223"/>
+      <c r="J10" s="189"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
@@ -7415,15 +7470,15 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="288" t="s">
+      <c r="F11" s="297" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="289"/>
-      <c r="H11" s="292" t="s">
+      <c r="G11" s="298"/>
+      <c r="H11" s="299" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="292"/>
-      <c r="J11" s="293"/>
+      <c r="I11" s="299"/>
+      <c r="J11" s="300"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -7436,13 +7491,13 @@
       <c r="C12" s="27"/>
       <c r="D12" s="116"/>
       <c r="E12" s="116"/>
-      <c r="F12" s="288" t="s">
+      <c r="F12" s="297" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="289"/>
-      <c r="H12" s="292"/>
-      <c r="I12" s="292"/>
-      <c r="J12" s="293"/>
+      <c r="G12" s="298"/>
+      <c r="H12" s="299"/>
+      <c r="I12" s="299"/>
+      <c r="J12" s="300"/>
       <c r="K12" s="84"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -7455,15 +7510,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="288" t="s">
+      <c r="F13" s="297" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="289"/>
-      <c r="H13" s="292" t="s">
+      <c r="G13" s="298"/>
+      <c r="H13" s="299" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="292"/>
-      <c r="J13" s="293"/>
+      <c r="I13" s="299"/>
+      <c r="J13" s="300"/>
       <c r="K13" s="84"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -7476,15 +7531,15 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="115"/>
-      <c r="F14" s="288" t="s">
+      <c r="F14" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="289"/>
-      <c r="H14" s="292" t="s">
+      <c r="G14" s="298"/>
+      <c r="H14" s="299" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="292"/>
-      <c r="J14" s="293"/>
+      <c r="I14" s="299"/>
+      <c r="J14" s="300"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -7497,13 +7552,13 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="288" t="s">
+      <c r="F15" s="297" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="289"/>
-      <c r="H15" s="292"/>
-      <c r="I15" s="292"/>
-      <c r="J15" s="293"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="299"/>
+      <c r="J15" s="300"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -7516,13 +7571,13 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="288" t="s">
+      <c r="F16" s="297" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="289"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
-      <c r="J16" s="291"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="301"/>
+      <c r="I16" s="301"/>
+      <c r="J16" s="302"/>
       <c r="K16" s="57"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -7535,13 +7590,13 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="288" t="s">
+      <c r="F17" s="297" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="289"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
-      <c r="J17" s="291"/>
+      <c r="G17" s="298"/>
+      <c r="H17" s="301"/>
+      <c r="I17" s="301"/>
+      <c r="J17" s="302"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -7554,13 +7609,13 @@
       <c r="C18" s="119"/>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
-      <c r="F18" s="288" t="s">
+      <c r="F18" s="297" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="289"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
-      <c r="J18" s="291"/>
+      <c r="G18" s="298"/>
+      <c r="H18" s="301"/>
+      <c r="I18" s="301"/>
+      <c r="J18" s="302"/>
       <c r="K18" s="84"/>
       <c r="L18" s="84"/>
       <c r="M18" s="84"/>
@@ -7577,9 +7632,9 @@
         <v>161</v>
       </c>
       <c r="G19" s="125"/>
-      <c r="H19" s="338"/>
-      <c r="I19" s="338"/>
-      <c r="J19" s="291"/>
+      <c r="H19" s="335"/>
+      <c r="I19" s="335"/>
+      <c r="J19" s="302"/>
       <c r="K19" s="84"/>
       <c r="L19" s="84"/>
       <c r="M19" s="84"/>
@@ -7592,13 +7647,13 @@
       <c r="C20" s="119"/>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
-      <c r="F20" s="288" t="s">
+      <c r="F20" s="297" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="159"/>
-      <c r="H20" s="338"/>
-      <c r="I20" s="338"/>
-      <c r="J20" s="291"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="335"/>
+      <c r="I20" s="335"/>
+      <c r="J20" s="302"/>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
       <c r="M20" s="84"/>
@@ -7628,15 +7683,15 @@
       <c r="C22" s="27"/>
       <c r="D22" s="83"/>
       <c r="E22" s="83"/>
-      <c r="F22" s="194" t="s">
+      <c r="F22" s="221" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="196"/>
+      <c r="G22" s="223"/>
       <c r="H22" s="52"/>
-      <c r="I22" s="194" t="s">
+      <c r="I22" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="196"/>
+      <c r="J22" s="223"/>
       <c r="K22" s="83"/>
       <c r="L22" s="27"/>
       <c r="M22" s="35"/>
@@ -8206,35 +8261,35 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Lái xe - lich sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -8250,7 +8305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
@@ -8260,23 +8315,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="199"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -8297,55 +8352,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8366,51 +8421,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="233"/>
+      <c r="C7" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="243" t="s">
+      <c r="D7" s="241"/>
+      <c r="E7" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="244"/>
-      <c r="G7" s="243" t="s">
+      <c r="F7" s="241"/>
+      <c r="G7" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="244"/>
-      <c r="I7" s="343" t="s">
+      <c r="H7" s="241"/>
+      <c r="I7" s="340" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="344"/>
-      <c r="K7" s="247" t="s">
+      <c r="J7" s="341"/>
+      <c r="K7" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="248"/>
-      <c r="M7" s="247" t="s">
+      <c r="L7" s="245"/>
+      <c r="M7" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="248"/>
+      <c r="N7" s="245"/>
       <c r="O7" s="81"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="345"/>
-      <c r="J8" s="346"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="249"/>
-      <c r="N8" s="250"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="342"/>
+      <c r="J8" s="343"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="247"/>
       <c r="O8" s="82"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -8436,13 +8491,13 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="339" t="s">
+      <c r="F10" s="336" t="s">
         <v>225</v>
       </c>
-      <c r="G10" s="340"/>
-      <c r="H10" s="340"/>
-      <c r="I10" s="340"/>
-      <c r="J10" s="341"/>
+      <c r="G10" s="337"/>
+      <c r="H10" s="337"/>
+      <c r="I10" s="337"/>
+      <c r="J10" s="338"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
@@ -8514,14 +8569,14 @@
       <c r="E14" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="187" t="s">
+      <c r="F14" s="184" t="s">
         <v>216</v>
       </c>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="189"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="186"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
@@ -8533,12 +8588,12 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="342"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="293"/>
+      <c r="F15" s="339"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="220"/>
+      <c r="K15" s="300"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
@@ -8550,12 +8605,12 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="342"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="293"/>
+      <c r="F16" s="339"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="220"/>
+      <c r="K16" s="300"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -8567,12 +8622,12 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="342"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="293"/>
+      <c r="F17" s="339"/>
+      <c r="G17" s="220"/>
+      <c r="H17" s="220"/>
+      <c r="I17" s="220"/>
+      <c r="J17" s="220"/>
+      <c r="K17" s="300"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -8584,12 +8639,12 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="191"/>
-      <c r="H18" s="191"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="191"/>
-      <c r="K18" s="192"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="177"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -8636,10 +8691,10 @@
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="253" t="s">
+      <c r="G21" s="250" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="255"/>
+      <c r="H21" s="252"/>
       <c r="I21" s="119"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -9207,8 +9262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9217,23 +9272,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -9256,57 +9311,57 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
       <c r="O3" s="3"/>
       <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
       <c r="O4" s="5"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="165"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
       <c r="O5" s="5"/>
       <c r="P5"/>
     </row>
@@ -9315,14 +9370,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="166" t="s">
+      <c r="E6" s="160" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -9355,21 +9410,21 @@
         <v>172</v>
       </c>
       <c r="D8"/>
-      <c r="E8" s="160" t="s">
+      <c r="E8" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
       <c r="H8"/>
       <c r="I8" t="s">
         <v>173</v>
       </c>
       <c r="J8"/>
-      <c r="K8" s="160" t="s">
+      <c r="K8" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
       <c r="N8"/>
       <c r="O8" s="5"/>
       <c r="P8"/>
@@ -9377,23 +9432,23 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9"/>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
       <c r="H9"/>
-      <c r="I9" s="159" t="s">
+      <c r="I9" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="159"/>
-      <c r="K9" s="160" t="s">
+      <c r="J9" s="161"/>
+      <c r="K9" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="160"/>
-      <c r="M9" s="160"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
       <c r="N9"/>
       <c r="O9" s="5"/>
       <c r="P9"/>
@@ -9408,11 +9463,11 @@
         <v>3</v>
       </c>
       <c r="J10"/>
-      <c r="K10" s="160" t="s">
+      <c r="K10" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="160"/>
-      <c r="M10" s="160"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
       <c r="N10"/>
       <c r="O10" s="5"/>
       <c r="P10"/>
@@ -9442,11 +9497,11 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="160" t="s">
+      <c r="G12" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -9455,7 +9510,7 @@
       <c r="O12" s="5"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -9475,211 +9530,211 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="321" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="323" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160" t="s">
+      <c r="D14" s="323"/>
+      <c r="E14" s="323"/>
+      <c r="F14" s="323" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160" t="s">
+      <c r="G14" s="323"/>
+      <c r="H14" s="323"/>
+      <c r="I14" s="323" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160" t="s">
+      <c r="J14" s="323"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="168" t="s">
+      <c r="M14" s="323"/>
+      <c r="N14" s="323"/>
+      <c r="O14" s="344" t="s">
         <v>235</v>
       </c>
-      <c r="P14" s="169"/>
+      <c r="P14" s="186"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
+      <c r="B15" s="322"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
       <c r="O15" s="170"/>
-      <c r="P15" s="171"/>
+      <c r="P15" s="345"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="22">
+      <c r="B16" s="346">
         <v>1</v>
       </c>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160" t="s">
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="172">
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="168">
         <v>41983</v>
       </c>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="160">
+      <c r="J16" s="168"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="162">
         <v>500000</v>
       </c>
-      <c r="M16" s="160"/>
-      <c r="N16" s="160"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
+      <c r="P16" s="347"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="22">
+      <c r="B17" s="346">
         <v>2</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160" t="s">
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="172">
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="168">
         <v>41924</v>
       </c>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="160">
+      <c r="J17" s="168"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="162">
         <v>50000</v>
       </c>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
+      <c r="P17" s="347"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="22">
+      <c r="B18" s="346">
         <v>3</v>
       </c>
-      <c r="C18" s="160" t="s">
+      <c r="C18" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160" t="s">
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160" t="s">
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="160" t="s">
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="160"/>
-      <c r="N18" s="160"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
+      <c r="P18" s="347"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="22">
+      <c r="B19" s="346">
         <v>4</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160" t="s">
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160" t="s">
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160" t="s">
+      <c r="J19" s="162"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P19" s="347"/>
+    </row>
+    <row r="20" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="22">
+      <c r="B20" s="348">
         <v>5</v>
       </c>
-      <c r="C20" s="160" t="s">
+      <c r="C20" s="349" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160" t="s">
+      <c r="D20" s="349"/>
+      <c r="E20" s="349"/>
+      <c r="F20" s="349" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160" t="s">
+      <c r="G20" s="349"/>
+      <c r="H20" s="349"/>
+      <c r="I20" s="349" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160" t="s">
+      <c r="J20" s="349"/>
+      <c r="K20" s="349"/>
+      <c r="L20" s="349" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M20" s="349"/>
+      <c r="N20" s="349"/>
+      <c r="O20" s="350"/>
+      <c r="P20" s="351"/>
+    </row>
+    <row r="21" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="5"/>
-      <c r="P21"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="173"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
@@ -9709,12 +9764,12 @@
       <c r="B24" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="169"/>
       <c r="O24" s="23"/>
       <c r="P24" s="4"/>
     </row>
@@ -10203,6 +10258,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="L14:N15"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="E6:J6"/>
@@ -10212,36 +10297,6 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="F14:H15"/>
-    <mergeCell ref="I14:K15"/>
-    <mergeCell ref="L14:N15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10268,23 +10323,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="199"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -10305,55 +10360,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10374,51 +10429,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="213" t="s">
+      <c r="B7" s="209"/>
+      <c r="C7" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="214"/>
-      <c r="E7" s="213" t="s">
+      <c r="D7" s="213"/>
+      <c r="E7" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="214"/>
-      <c r="G7" s="213" t="s">
+      <c r="F7" s="213"/>
+      <c r="G7" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="214"/>
-      <c r="I7" s="217" t="s">
+      <c r="H7" s="213"/>
+      <c r="I7" s="216" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="218"/>
-      <c r="K7" s="217" t="s">
+      <c r="J7" s="217"/>
+      <c r="K7" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="218"/>
-      <c r="M7" s="217" t="s">
+      <c r="L7" s="217"/>
+      <c r="M7" s="216" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="218"/>
+      <c r="N7" s="217"/>
       <c r="O7" s="79"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="211"/>
-      <c r="B8" s="212"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="220"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="219"/>
+      <c r="M8" s="218"/>
+      <c r="N8" s="219"/>
       <c r="O8" s="80"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -10441,12 +10496,12 @@
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="228" t="s">
+      <c r="C10" s="178" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="228"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
       <c r="N10" s="27"/>
       <c r="O10" s="39"/>
     </row>
@@ -10458,25 +10513,25 @@
     </row>
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="220" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="193"/>
-      <c r="E12" s="194" t="s">
+      <c r="D12" s="220"/>
+      <c r="E12" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="195"/>
-      <c r="G12" s="196"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="223"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="193" t="s">
+      <c r="I12" s="220" t="s">
         <v>173</v>
       </c>
-      <c r="J12" s="193"/>
-      <c r="K12" s="194" t="s">
+      <c r="J12" s="220"/>
+      <c r="K12" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="195"/>
-      <c r="M12" s="196"/>
+      <c r="L12" s="222"/>
+      <c r="M12" s="223"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
@@ -10502,11 +10557,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="194" t="s">
+      <c r="G14" s="221" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="223"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -10532,39 +10587,39 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="38"/>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="187" t="s">
+      <c r="D16" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="188"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="187" t="s">
+      <c r="E16" s="185"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="221" t="s">
+      <c r="H16" s="185"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="222"/>
-      <c r="L16" s="223"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="189"/>
       <c r="N16" s="27"/>
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="191"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="224"/>
-      <c r="K17" s="225"/>
-      <c r="L17" s="226"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="192"/>
       <c r="N17" s="27"/>
       <c r="O17" s="39"/>
     </row>
@@ -10573,15 +10628,15 @@
       <c r="C18" s="90">
         <v>1</v>
       </c>
-      <c r="D18" s="174"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="176"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="195"/>
       <c r="N18" s="27"/>
       <c r="O18" s="39"/>
     </row>
@@ -10590,15 +10645,15 @@
       <c r="C19" s="90">
         <v>2</v>
       </c>
-      <c r="D19" s="174"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="174"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="176"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="195"/>
       <c r="N19" s="27"/>
       <c r="O19" s="39"/>
     </row>
@@ -10607,15 +10662,15 @@
       <c r="C20" s="90">
         <v>3</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="176"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="195"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
       <c r="O20" s="39"/>
@@ -10625,15 +10680,15 @@
       <c r="C21" s="90">
         <v>4</v>
       </c>
-      <c r="D21" s="174"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="176"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="195"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
       <c r="O21" s="39"/>
@@ -10643,33 +10698,33 @@
       <c r="C22" s="90">
         <v>5</v>
       </c>
-      <c r="D22" s="182"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="184"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="173"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
-      <c r="C23" s="182" t="s">
+      <c r="C23" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="184"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="173"/>
       <c r="M23" s="57"/>
       <c r="N23" s="27"/>
       <c r="O23" s="39"/>
@@ -10695,15 +10750,15 @@
       <c r="A25" s="38"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="179" t="s">
+      <c r="E25" s="226" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="181"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="227"/>
+      <c r="H25" s="227"/>
+      <c r="I25" s="227"/>
+      <c r="J25" s="227"/>
+      <c r="K25" s="228"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -10719,13 +10774,13 @@
     <row r="27" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="27"/>
-      <c r="C27" s="229" t="s">
+      <c r="C27" s="179" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="229"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
       <c r="N27" s="27"/>
       <c r="O27" s="39"/>
       <c r="P27" s="27"/>
@@ -10755,21 +10810,21 @@
         <v>172</v>
       </c>
       <c r="D29" s="126"/>
-      <c r="E29" s="182" t="s">
+      <c r="E29" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="183"/>
-      <c r="G29" s="184"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="173"/>
       <c r="H29" s="27"/>
       <c r="I29" s="126" t="s">
         <v>173</v>
       </c>
       <c r="J29" s="126"/>
-      <c r="K29" s="182" t="s">
+      <c r="K29" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="183"/>
-      <c r="M29" s="184"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="173"/>
       <c r="N29" s="27"/>
       <c r="O29" s="39"/>
       <c r="P29" s="27"/>
@@ -10799,11 +10854,11 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="182" t="s">
+      <c r="G31" s="171" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="183"/>
-      <c r="I31" s="184"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="173"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
@@ -10833,25 +10888,25 @@
       <c r="V32" s="27"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C33" s="185" t="s">
+      <c r="C33" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="187" t="s">
+      <c r="D33" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="188"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="188" t="s">
+      <c r="E33" s="185"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="188"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="187" t="s">
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="K33" s="188"/>
-      <c r="L33" s="189"/>
-      <c r="M33" s="230" t="s">
+      <c r="K33" s="185"/>
+      <c r="L33" s="186"/>
+      <c r="M33" s="180" t="s">
         <v>150</v>
       </c>
       <c r="N33" s="27"/>
@@ -10861,17 +10916,17 @@
       <c r="V33" s="27"/>
     </row>
     <row r="34" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="186"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="190"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="231"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="181"/>
       <c r="N34" s="27"/>
       <c r="O34" s="39"/>
       <c r="P34" s="27"/>
@@ -10882,15 +10937,15 @@
       <c r="C35" s="121">
         <v>1</v>
       </c>
-      <c r="D35" s="182"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="182"/>
-      <c r="K35" s="183"/>
-      <c r="L35" s="184"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="172"/>
+      <c r="L35" s="173"/>
       <c r="M35" s="90"/>
       <c r="N35" s="27"/>
       <c r="O35" s="39"/>
@@ -10902,15 +10957,15 @@
       <c r="C36" s="121">
         <v>2</v>
       </c>
-      <c r="D36" s="182"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="182"/>
-      <c r="K36" s="183"/>
-      <c r="L36" s="184"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="171"/>
+      <c r="K36" s="172"/>
+      <c r="L36" s="173"/>
       <c r="M36" s="90"/>
       <c r="N36" s="27"/>
       <c r="O36" s="39"/>
@@ -10922,15 +10977,15 @@
       <c r="C37" s="121">
         <v>3</v>
       </c>
-      <c r="D37" s="182"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="182"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="182"/>
-      <c r="K37" s="183"/>
-      <c r="L37" s="184"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="172"/>
+      <c r="L37" s="173"/>
       <c r="M37" s="90"/>
       <c r="N37" s="27"/>
       <c r="O37" s="39"/>
@@ -10942,15 +10997,15 @@
       <c r="C38" s="121">
         <v>4</v>
       </c>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="182"/>
-      <c r="K38" s="183"/>
-      <c r="L38" s="184"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="173"/>
       <c r="M38" s="90"/>
       <c r="N38" s="27"/>
       <c r="O38" s="39"/>
@@ -10962,15 +11017,15 @@
       <c r="C39" s="121">
         <v>5</v>
       </c>
-      <c r="D39" s="182"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="182"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="184"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="173"/>
       <c r="M39" s="90"/>
       <c r="N39" s="27"/>
       <c r="O39" s="39"/>
@@ -10979,19 +11034,19 @@
       <c r="V39" s="27"/>
     </row>
     <row r="40" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="190" t="s">
+      <c r="C40" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
-      <c r="I40" s="227"/>
-      <c r="J40" s="227"/>
-      <c r="K40" s="227"/>
-      <c r="L40" s="227"/>
-      <c r="M40" s="192"/>
+      <c r="D40" s="175"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="176"/>
+      <c r="H40" s="176"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="176"/>
+      <c r="K40" s="176"/>
+      <c r="L40" s="176"/>
+      <c r="M40" s="177"/>
       <c r="N40" s="27"/>
       <c r="O40" s="39"/>
       <c r="P40" s="27"/>
@@ -11257,11 +11312,11 @@
       <c r="F63" s="39"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A64" s="177" t="s">
+      <c r="A64" s="224" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="178"/>
-      <c r="C64" s="178"/>
+      <c r="B64" s="225"/>
+      <c r="C64" s="225"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
       <c r="F64" s="39"/>
@@ -11314,6 +11369,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:F34"/>
+    <mergeCell ref="G33:I34"/>
+    <mergeCell ref="J33:L34"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="J16:L17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="J39:L39"/>
@@ -11330,52 +11431,6 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:L35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="G16:I17"/>
-    <mergeCell ref="J16:L17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:F34"/>
-    <mergeCell ref="G33:I34"/>
-    <mergeCell ref="J33:L34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -11409,23 +11464,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-      <c r="N1" s="233"/>
-      <c r="O1" s="234"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="230"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="231"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -11446,55 +11501,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11515,51 +11570,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="239" t="s">
+      <c r="B7" s="233"/>
+      <c r="C7" s="236" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="240"/>
-      <c r="E7" s="243" t="s">
+      <c r="D7" s="237"/>
+      <c r="E7" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="244"/>
-      <c r="G7" s="243" t="s">
+      <c r="F7" s="241"/>
+      <c r="G7" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="244"/>
-      <c r="I7" s="247" t="s">
+      <c r="H7" s="241"/>
+      <c r="I7" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="248"/>
-      <c r="K7" s="247" t="s">
+      <c r="J7" s="245"/>
+      <c r="K7" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="248"/>
-      <c r="M7" s="247" t="s">
+      <c r="L7" s="245"/>
+      <c r="M7" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="248"/>
+      <c r="N7" s="245"/>
       <c r="O7" s="81"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="249"/>
-      <c r="N8" s="250"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="247"/>
       <c r="O8" s="82"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11586,21 +11641,21 @@
         <v>172</v>
       </c>
       <c r="D10" s="126"/>
-      <c r="E10" s="182" t="s">
+      <c r="E10" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="173"/>
       <c r="H10" s="27"/>
       <c r="I10" s="126" t="s">
         <v>173</v>
       </c>
       <c r="J10" s="126"/>
-      <c r="K10" s="182" t="s">
+      <c r="K10" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="183"/>
-      <c r="M10" s="184"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="173"/>
       <c r="N10" s="27"/>
       <c r="O10" s="39"/>
     </row>
@@ -11628,11 +11683,11 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="182" t="s">
+      <c r="G12" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="183"/>
-      <c r="I12" s="184"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="173"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
@@ -11660,25 +11715,25 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="185" t="s">
+      <c r="C14" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="187" t="s">
+      <c r="D14" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="188" t="s">
+      <c r="E14" s="185"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="188"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="187" t="s">
+      <c r="H14" s="185"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="188"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="230" t="s">
+      <c r="K14" s="185"/>
+      <c r="L14" s="186"/>
+      <c r="M14" s="180" t="s">
         <v>150</v>
       </c>
       <c r="N14" s="34"/>
@@ -11687,17 +11742,17 @@
     <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="191"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="231"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="181"/>
       <c r="N15" s="27"/>
       <c r="O15" s="39"/>
     </row>
@@ -11707,15 +11762,15 @@
       <c r="C16" s="121">
         <v>1</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="184"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="173"/>
       <c r="M16" s="90"/>
       <c r="N16" s="27"/>
       <c r="O16" s="39"/>
@@ -11726,15 +11781,15 @@
       <c r="C17" s="121">
         <v>2</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="184"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="173"/>
       <c r="M17" s="90"/>
       <c r="N17" s="27"/>
       <c r="O17" s="39"/>
@@ -11745,15 +11800,15 @@
       <c r="C18" s="121">
         <v>3</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="184"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="173"/>
       <c r="M18" s="90"/>
       <c r="N18" s="27"/>
       <c r="O18" s="39"/>
@@ -11764,15 +11819,15 @@
       <c r="C19" s="121">
         <v>4</v>
       </c>
-      <c r="D19" s="182"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="184"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="173"/>
       <c r="M19" s="90"/>
       <c r="N19" s="27"/>
       <c r="O19" s="39"/>
@@ -11783,15 +11838,15 @@
       <c r="C20" s="121">
         <v>5</v>
       </c>
-      <c r="D20" s="182"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="184"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="173"/>
       <c r="M20" s="90"/>
       <c r="N20" s="27"/>
       <c r="O20" s="39"/>
@@ -11801,19 +11856,19 @@
     <row r="21" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="190" t="s">
+      <c r="C21" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="227"/>
-      <c r="K21" s="227"/>
-      <c r="L21" s="227"/>
-      <c r="M21" s="192"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="177"/>
       <c r="N21" s="27"/>
       <c r="O21" s="39"/>
       <c r="Q21" s="27"/>
@@ -12216,11 +12271,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="177" t="s">
+      <c r="A42" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="178"/>
-      <c r="C42" s="178"/>
+      <c r="B42" s="225"/>
+      <c r="C42" s="225"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -12381,24 +12436,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:F15"/>
-    <mergeCell ref="G14:I15"/>
-    <mergeCell ref="J14:L15"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="E10:G10"/>
@@ -12415,6 +12452,24 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="J14:L15"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -12448,23 +12503,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="199"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -12485,55 +12540,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12554,51 +12609,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="233"/>
+      <c r="C7" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="239" t="s">
+      <c r="D7" s="241"/>
+      <c r="E7" s="236" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="243" t="s">
+      <c r="F7" s="237"/>
+      <c r="G7" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="244"/>
-      <c r="I7" s="247" t="s">
+      <c r="H7" s="241"/>
+      <c r="I7" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="248"/>
-      <c r="K7" s="247" t="s">
+      <c r="J7" s="245"/>
+      <c r="K7" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="248"/>
-      <c r="M7" s="247" t="s">
+      <c r="L7" s="245"/>
+      <c r="M7" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="248"/>
+      <c r="N7" s="245"/>
       <c r="O7" s="81"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="249"/>
-      <c r="N8" s="250"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="247"/>
       <c r="O8" s="82"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -12655,133 +12710,133 @@
     <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="161" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="260"/>
-      <c r="E12" s="194" t="s">
+      <c r="D12" s="258"/>
+      <c r="E12" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="195"/>
-      <c r="G12" s="196"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="223"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="256" t="s">
+      <c r="I12" s="257" t="s">
         <v>173</v>
       </c>
-      <c r="J12" s="259"/>
-      <c r="K12" s="194" t="s">
+      <c r="J12" s="256"/>
+      <c r="K12" s="221" t="s">
         <v>189</v>
       </c>
-      <c r="L12" s="195"/>
-      <c r="M12" s="196"/>
+      <c r="L12" s="222"/>
+      <c r="M12" s="223"/>
       <c r="N12" s="27"/>
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="264" t="s">
+      <c r="C13" s="255" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="259"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="255"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="250"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="252"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="159" t="s">
+      <c r="I13" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="260"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="255"/>
+      <c r="J13" s="258"/>
+      <c r="K13" s="250"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="252"/>
       <c r="N13" s="27"/>
       <c r="O13" s="39"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="264" t="s">
+      <c r="C14" s="255" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="259"/>
-      <c r="E14" s="253" t="s">
+      <c r="D14" s="256"/>
+      <c r="E14" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="254"/>
-      <c r="G14" s="255"/>
-      <c r="I14" s="256" t="s">
+      <c r="F14" s="251"/>
+      <c r="G14" s="252"/>
+      <c r="I14" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="J14" s="259"/>
-      <c r="K14" s="253" t="s">
+      <c r="J14" s="256"/>
+      <c r="K14" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="254"/>
-      <c r="M14" s="255"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="252"/>
       <c r="N14" s="27"/>
       <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="256" t="s">
+      <c r="C15" s="257" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="259"/>
-      <c r="E15" s="261" t="s">
+      <c r="D15" s="256"/>
+      <c r="E15" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="262"/>
-      <c r="G15" s="263"/>
-      <c r="I15" s="256" t="s">
+      <c r="F15" s="259"/>
+      <c r="G15" s="254"/>
+      <c r="I15" s="257" t="s">
         <v>186</v>
       </c>
-      <c r="J15" s="259"/>
-      <c r="K15" s="253" t="s">
+      <c r="J15" s="256"/>
+      <c r="K15" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="254"/>
-      <c r="M15" s="255"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="252"/>
       <c r="O15" s="39"/>
     </row>
     <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="257" t="s">
+      <c r="C16" s="260" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="258"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="254"/>
-      <c r="G16" s="255"/>
-      <c r="I16" s="256" t="s">
+      <c r="D16" s="261"/>
+      <c r="E16" s="250"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="252"/>
+      <c r="I16" s="257" t="s">
         <v>188</v>
       </c>
-      <c r="J16" s="259"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="255"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="250"/>
+      <c r="L16" s="251"/>
+      <c r="M16" s="252"/>
       <c r="N16" s="27"/>
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="256" t="s">
+      <c r="C17" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="256"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="254"/>
-      <c r="G17" s="255"/>
-      <c r="I17" s="256" t="s">
+      <c r="D17" s="257"/>
+      <c r="E17" s="250"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="252"/>
+      <c r="I17" s="257" t="s">
         <v>219</v>
       </c>
-      <c r="J17" s="256"/>
-      <c r="K17" s="253" t="s">
+      <c r="J17" s="257"/>
+      <c r="K17" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="254"/>
-      <c r="M17" s="255"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="252"/>
       <c r="N17" s="27"/>
       <c r="O17" s="39"/>
     </row>
@@ -12793,11 +12848,11 @@
     <row r="19" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="27"/>
-      <c r="G19" s="182" t="s">
+      <c r="G19" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="183"/>
-      <c r="I19" s="184"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="173"/>
       <c r="N19" s="27"/>
       <c r="O19" s="39"/>
     </row>
@@ -12834,52 +12889,52 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
-      <c r="B22" s="251" t="s">
+      <c r="B22" s="248" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="189"/>
-      <c r="E22" s="187" t="s">
+      <c r="D22" s="186"/>
+      <c r="E22" s="184" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="189"/>
-      <c r="G22" s="187" t="s">
+      <c r="F22" s="186"/>
+      <c r="G22" s="184" t="s">
         <v>167</v>
       </c>
-      <c r="H22" s="189"/>
-      <c r="I22" s="187" t="s">
+      <c r="H22" s="186"/>
+      <c r="I22" s="184" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="189"/>
-      <c r="K22" s="187" t="s">
+      <c r="J22" s="186"/>
+      <c r="K22" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="189"/>
-      <c r="M22" s="251" t="s">
+      <c r="L22" s="186"/>
+      <c r="M22" s="248" t="s">
         <v>203</v>
       </c>
-      <c r="N22" s="251" t="s">
+      <c r="N22" s="248" t="s">
         <v>220</v>
       </c>
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
-      <c r="B23" s="252"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="252"/>
-      <c r="N23" s="252"/>
+      <c r="B23" s="249"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="174"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="249"/>
+      <c r="N23" s="249"/>
       <c r="O23" s="39"/>
     </row>
     <row r="24" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12887,18 +12942,18 @@
       <c r="B24" s="144"/>
       <c r="C24" s="133"/>
       <c r="D24" s="134"/>
-      <c r="E24" s="253" t="s">
+      <c r="E24" s="250" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="255"/>
-      <c r="G24" s="253" t="s">
+      <c r="F24" s="252"/>
+      <c r="G24" s="250" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="255"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="255"/>
-      <c r="K24" s="253"/>
-      <c r="L24" s="255"/>
+      <c r="H24" s="252"/>
+      <c r="I24" s="250"/>
+      <c r="J24" s="252"/>
+      <c r="K24" s="250"/>
+      <c r="L24" s="252"/>
       <c r="M24" s="144" t="s">
         <v>221</v>
       </c>
@@ -12910,14 +12965,14 @@
       <c r="B25" s="144"/>
       <c r="C25" s="133"/>
       <c r="D25" s="134"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="255"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="255"/>
-      <c r="I25" s="253"/>
-      <c r="J25" s="255"/>
-      <c r="K25" s="253"/>
-      <c r="L25" s="255"/>
+      <c r="E25" s="250"/>
+      <c r="F25" s="252"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="252"/>
+      <c r="I25" s="250"/>
+      <c r="J25" s="252"/>
+      <c r="K25" s="250"/>
+      <c r="L25" s="252"/>
       <c r="M25" s="144"/>
       <c r="N25" s="144"/>
       <c r="O25" s="39"/>
@@ -12927,14 +12982,14 @@
       <c r="B26" s="144"/>
       <c r="C26" s="133"/>
       <c r="D26" s="134"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="255"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="255"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="255"/>
-      <c r="K26" s="253"/>
-      <c r="L26" s="255"/>
+      <c r="E26" s="250"/>
+      <c r="F26" s="252"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="252"/>
+      <c r="I26" s="250"/>
+      <c r="J26" s="252"/>
+      <c r="K26" s="250"/>
+      <c r="L26" s="252"/>
       <c r="M26" s="144"/>
       <c r="N26" s="144"/>
       <c r="O26" s="39"/>
@@ -12944,35 +12999,35 @@
       <c r="B27" s="150"/>
       <c r="C27" s="145"/>
       <c r="D27" s="151"/>
-      <c r="E27" s="261"/>
-      <c r="F27" s="263"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="261"/>
-      <c r="J27" s="263"/>
-      <c r="K27" s="261"/>
-      <c r="L27" s="263"/>
+      <c r="E27" s="253"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="253"/>
+      <c r="J27" s="254"/>
+      <c r="K27" s="253"/>
+      <c r="L27" s="254"/>
       <c r="M27" s="150"/>
       <c r="N27" s="150"/>
       <c r="O27" s="39"/>
     </row>
     <row r="28" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="253" t="s">
+      <c r="B28" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="254"/>
-      <c r="D28" s="254"/>
-      <c r="E28" s="254"/>
-      <c r="F28" s="254"/>
-      <c r="G28" s="254"/>
-      <c r="H28" s="254"/>
-      <c r="I28" s="254"/>
-      <c r="J28" s="254"/>
-      <c r="K28" s="254"/>
-      <c r="L28" s="254"/>
-      <c r="M28" s="254"/>
-      <c r="N28" s="255"/>
+      <c r="C28" s="251"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="251"/>
+      <c r="J28" s="251"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="251"/>
+      <c r="M28" s="251"/>
+      <c r="N28" s="252"/>
       <c r="O28" s="39"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -13495,11 +13550,11 @@
       <c r="O67" s="39"/>
     </row>
     <row r="68" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="177" t="s">
+      <c r="A68" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="178"/>
-      <c r="C68" s="178"/>
+      <c r="B68" s="225"/>
+      <c r="C68" s="225"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="14"/>
@@ -13587,6 +13642,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="K22:L23"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="B28:N28"/>
     <mergeCell ref="E27:F27"/>
@@ -13603,50 +13702,6 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -13680,76 +13735,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="199"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13757,51 +13812,51 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="233"/>
+      <c r="C7" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="243" t="s">
+      <c r="D7" s="241"/>
+      <c r="E7" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="244"/>
-      <c r="G7" s="239" t="s">
+      <c r="F7" s="241"/>
+      <c r="G7" s="236" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="240"/>
-      <c r="I7" s="247" t="s">
+      <c r="H7" s="237"/>
+      <c r="I7" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="248"/>
-      <c r="K7" s="247" t="s">
+      <c r="J7" s="245"/>
+      <c r="K7" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="248"/>
-      <c r="M7" s="247" t="s">
+      <c r="L7" s="245"/>
+      <c r="M7" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="248"/>
+      <c r="N7" s="245"/>
       <c r="O7" s="81"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="249"/>
-      <c r="N8" s="250"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="239"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="247"/>
       <c r="O8" s="82"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13828,11 +13883,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="194" t="s">
+      <c r="G10" s="221" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="195"/>
-      <c r="I10" s="196"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="223"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -13862,17 +13917,17 @@
       <c r="B12" s="27"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="275" t="s">
+      <c r="E12" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="275"/>
-      <c r="G12" s="253" t="s">
+      <c r="F12" s="262"/>
+      <c r="G12" s="250" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="254"/>
-      <c r="I12" s="254"/>
-      <c r="J12" s="254"/>
-      <c r="K12" s="255"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="251"/>
+      <c r="K12" s="252"/>
       <c r="L12" s="57"/>
       <c r="M12" s="57"/>
       <c r="N12" s="27"/>
@@ -13883,17 +13938,17 @@
       <c r="B13" s="27"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="276" t="s">
+      <c r="E13" s="263" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="276"/>
-      <c r="G13" s="253" t="s">
+      <c r="F13" s="263"/>
+      <c r="G13" s="250" t="s">
         <v>192</v>
       </c>
-      <c r="H13" s="254"/>
-      <c r="I13" s="254"/>
-      <c r="J13" s="254"/>
-      <c r="K13" s="255"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251"/>
+      <c r="K13" s="252"/>
       <c r="L13" s="57"/>
       <c r="M13" s="57"/>
       <c r="N13" s="27"/>
@@ -13904,10 +13959,10 @@
       <c r="B14" s="27"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
-      <c r="E14" s="274" t="s">
+      <c r="E14" s="264" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="274"/>
+      <c r="F14" s="264"/>
       <c r="G14" s="265"/>
       <c r="H14" s="266"/>
       <c r="I14" s="266"/>
@@ -13923,10 +13978,10 @@
       <c r="B15" s="27"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="274" t="s">
+      <c r="E15" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="274"/>
+      <c r="F15" s="264"/>
       <c r="G15" s="268" t="s">
         <v>93</v>
       </c>
@@ -13944,10 +13999,10 @@
       <c r="B16" s="27"/>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
-      <c r="E16" s="274" t="s">
+      <c r="E16" s="264" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="274"/>
+      <c r="F16" s="264"/>
       <c r="G16" s="271"/>
       <c r="H16" s="272"/>
       <c r="I16" s="272"/>
@@ -13963,17 +14018,17 @@
       <c r="B17" s="27"/>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
-      <c r="E17" s="275" t="s">
+      <c r="E17" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="275"/>
-      <c r="G17" s="253" t="s">
+      <c r="F17" s="262"/>
+      <c r="G17" s="250" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="254"/>
-      <c r="I17" s="254"/>
-      <c r="J17" s="254"/>
-      <c r="K17" s="255"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="251"/>
+      <c r="K17" s="252"/>
       <c r="N17" s="27"/>
       <c r="O17" s="39"/>
     </row>
@@ -13982,17 +14037,17 @@
       <c r="B18" s="27"/>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
-      <c r="E18" s="256" t="s">
+      <c r="E18" s="257" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="256"/>
-      <c r="G18" s="253" t="s">
+      <c r="F18" s="257"/>
+      <c r="G18" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="254"/>
-      <c r="I18" s="254"/>
-      <c r="J18" s="254"/>
-      <c r="K18" s="255"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251"/>
+      <c r="K18" s="252"/>
       <c r="L18" s="57" t="s">
         <v>171</v>
       </c>
@@ -14005,17 +14060,17 @@
       <c r="B19" s="27"/>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
-      <c r="E19" s="274" t="s">
+      <c r="E19" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="274"/>
-      <c r="G19" s="187" t="s">
+      <c r="F19" s="264"/>
+      <c r="G19" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="188"/>
-      <c r="K19" s="189"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="186"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
       <c r="N19" s="27"/>
@@ -14035,11 +14090,11 @@
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
       <c r="F20" s="57"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="191"/>
-      <c r="K20" s="192"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="177"/>
       <c r="L20" s="57"/>
       <c r="M20" s="57"/>
       <c r="N20" s="27"/>
@@ -14466,11 +14521,11 @@
       <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="177" t="s">
+      <c r="A42" s="224" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="178"/>
-      <c r="C42" s="178"/>
+      <c r="B42" s="225"/>
+      <c r="C42" s="225"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="14"/>
@@ -14633,6 +14688,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G19:K20"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A1:O1"/>
@@ -14647,19 +14715,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G19:K20"/>
-    <mergeCell ref="G18:K18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -14683,7 +14738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
@@ -14694,23 +14749,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="199"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -14731,55 +14786,55 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14810,34 +14865,34 @@
       <c r="X6" s="123"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="233"/>
+      <c r="C7" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="243" t="s">
+      <c r="D7" s="241"/>
+      <c r="E7" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="244"/>
-      <c r="G7" s="243" t="s">
+      <c r="F7" s="241"/>
+      <c r="G7" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="244"/>
-      <c r="I7" s="297" t="s">
+      <c r="H7" s="241"/>
+      <c r="I7" s="290" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="298"/>
-      <c r="K7" s="247" t="s">
+      <c r="J7" s="291"/>
+      <c r="K7" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="248"/>
-      <c r="M7" s="247" t="s">
+      <c r="L7" s="245"/>
+      <c r="M7" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="248"/>
+      <c r="N7" s="245"/>
       <c r="O7" s="81"/>
       <c r="Q7" s="123" t="s">
         <v>199</v>
@@ -14851,20 +14906,20 @@
       <c r="X7" s="123"/>
     </row>
     <row r="8" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="300"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="249"/>
-      <c r="N8" s="250"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="293"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="247"/>
       <c r="O8" s="82"/>
       <c r="Q8" s="123" t="s">
         <v>200</v>
@@ -14911,9 +14966,9 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -14960,7 +15015,7 @@
       <c r="G12" s="295"/>
       <c r="H12" s="296"/>
       <c r="I12" s="296"/>
-      <c r="J12" s="223"/>
+      <c r="J12" s="189"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -14973,15 +15028,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="288" t="s">
+      <c r="F13" s="297" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="289"/>
-      <c r="H13" s="292" t="s">
+      <c r="G13" s="298"/>
+      <c r="H13" s="299" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="292"/>
-      <c r="J13" s="293"/>
+      <c r="I13" s="299"/>
+      <c r="J13" s="300"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -14994,13 +15049,13 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="288" t="s">
+      <c r="F14" s="297" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="289"/>
-      <c r="H14" s="292"/>
-      <c r="I14" s="292"/>
-      <c r="J14" s="293"/>
+      <c r="G14" s="298"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="299"/>
+      <c r="J14" s="300"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -15013,15 +15068,15 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="288" t="s">
+      <c r="F15" s="297" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="289"/>
-      <c r="H15" s="292" t="s">
+      <c r="G15" s="298"/>
+      <c r="H15" s="299" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="292"/>
-      <c r="J15" s="293"/>
+      <c r="I15" s="299"/>
+      <c r="J15" s="300"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -15034,15 +15089,15 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="288" t="s">
+      <c r="F16" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="289"/>
-      <c r="H16" s="292" t="s">
+      <c r="G16" s="298"/>
+      <c r="H16" s="299" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="292"/>
-      <c r="J16" s="293"/>
+      <c r="I16" s="299"/>
+      <c r="J16" s="300"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -15055,13 +15110,13 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="288" t="s">
+      <c r="F17" s="297" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="289"/>
-      <c r="H17" s="292"/>
-      <c r="I17" s="292"/>
-      <c r="J17" s="293"/>
+      <c r="G17" s="298"/>
+      <c r="H17" s="299"/>
+      <c r="I17" s="299"/>
+      <c r="J17" s="300"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -15074,13 +15129,13 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="288" t="s">
+      <c r="F18" s="297" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="289"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
-      <c r="J18" s="291"/>
+      <c r="G18" s="298"/>
+      <c r="H18" s="301"/>
+      <c r="I18" s="301"/>
+      <c r="J18" s="302"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -15093,13 +15148,13 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="288" t="s">
+      <c r="F19" s="297" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="289"/>
-      <c r="H19" s="290"/>
-      <c r="I19" s="290"/>
-      <c r="J19" s="291"/>
+      <c r="G19" s="298"/>
+      <c r="H19" s="301"/>
+      <c r="I19" s="301"/>
+      <c r="J19" s="302"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -15112,13 +15167,13 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="288" t="s">
+      <c r="F20" s="297" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="289"/>
-      <c r="H20" s="290"/>
-      <c r="I20" s="290"/>
-      <c r="J20" s="291"/>
+      <c r="G20" s="298"/>
+      <c r="H20" s="301"/>
+      <c r="I20" s="301"/>
+      <c r="J20" s="302"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -15152,15 +15207,15 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="194" t="s">
+      <c r="F22" s="221" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="196"/>
+      <c r="G22" s="223"/>
       <c r="H22" s="52"/>
-      <c r="I22" s="194" t="s">
+      <c r="I22" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="196"/>
+      <c r="J22" s="223"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -15190,13 +15245,13 @@
     </row>
     <row r="24" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
-      <c r="B24" s="301" t="s">
+      <c r="B24" s="282" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="301"/>
-      <c r="D24" s="301"/>
-      <c r="E24" s="301"/>
-      <c r="F24" s="301"/>
+      <c r="C24" s="282"/>
+      <c r="D24" s="282"/>
+      <c r="E24" s="282"/>
+      <c r="F24" s="282"/>
       <c r="G24" s="126"/>
       <c r="H24" s="135"/>
       <c r="I24" s="126"/>
@@ -15230,32 +15285,32 @@
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="38"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="302" t="s">
+      <c r="C26" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="304" t="s">
+      <c r="D26" s="286" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="305"/>
-      <c r="F26" s="304" t="s">
+      <c r="E26" s="287"/>
+      <c r="F26" s="286" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="305"/>
-      <c r="H26" s="304" t="s">
+      <c r="G26" s="287"/>
+      <c r="H26" s="286" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="305"/>
-      <c r="J26" s="304" t="s">
+      <c r="I26" s="287"/>
+      <c r="J26" s="286" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="305"/>
-      <c r="L26" s="302" t="s">
+      <c r="K26" s="287"/>
+      <c r="L26" s="276" t="s">
         <v>203</v>
       </c>
-      <c r="M26" s="302" t="s">
+      <c r="M26" s="276" t="s">
         <v>114</v>
       </c>
-      <c r="N26" s="302" t="s">
+      <c r="N26" s="276" t="s">
         <v>115</v>
       </c>
       <c r="O26" s="39"/>
@@ -15265,18 +15320,18 @@
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="27"/>
-      <c r="C27" s="303"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="307"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="307"/>
-      <c r="H27" s="306"/>
-      <c r="I27" s="307"/>
-      <c r="J27" s="306"/>
-      <c r="K27" s="307"/>
-      <c r="L27" s="303"/>
-      <c r="M27" s="303"/>
-      <c r="N27" s="303"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="289"/>
+      <c r="H27" s="288"/>
+      <c r="I27" s="289"/>
+      <c r="J27" s="288"/>
+      <c r="K27" s="289"/>
+      <c r="L27" s="277"/>
+      <c r="M27" s="277"/>
+      <c r="N27" s="277"/>
       <c r="O27" s="39"/>
       <c r="P27" s="27"/>
       <c r="V27" s="27"/>
@@ -15287,14 +15342,14 @@
       <c r="C28" s="68">
         <v>1</v>
       </c>
-      <c r="D28" s="286"/>
-      <c r="E28" s="287"/>
-      <c r="F28" s="286"/>
-      <c r="G28" s="287"/>
-      <c r="H28" s="286"/>
-      <c r="I28" s="287"/>
-      <c r="J28" s="286"/>
-      <c r="K28" s="287"/>
+      <c r="D28" s="278"/>
+      <c r="E28" s="280"/>
+      <c r="F28" s="278"/>
+      <c r="G28" s="280"/>
+      <c r="H28" s="278"/>
+      <c r="I28" s="280"/>
+      <c r="J28" s="278"/>
+      <c r="K28" s="280"/>
       <c r="L28" s="73" t="s">
         <v>204</v>
       </c>
@@ -15314,14 +15369,14 @@
       <c r="C29" s="68">
         <v>2</v>
       </c>
-      <c r="D29" s="286"/>
-      <c r="E29" s="287"/>
-      <c r="F29" s="286"/>
-      <c r="G29" s="287"/>
-      <c r="H29" s="286"/>
-      <c r="I29" s="287"/>
-      <c r="J29" s="286"/>
-      <c r="K29" s="287"/>
+      <c r="D29" s="278"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="278"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="278"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="278"/>
+      <c r="K29" s="280"/>
       <c r="L29" s="73" t="s">
         <v>205</v>
       </c>
@@ -15341,14 +15396,14 @@
       <c r="C30" s="68">
         <v>3</v>
       </c>
-      <c r="D30" s="286"/>
-      <c r="E30" s="287"/>
-      <c r="F30" s="286"/>
-      <c r="G30" s="287"/>
-      <c r="H30" s="286"/>
-      <c r="I30" s="287"/>
-      <c r="J30" s="286"/>
-      <c r="K30" s="287"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="280"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="280"/>
+      <c r="H30" s="278"/>
+      <c r="I30" s="280"/>
+      <c r="J30" s="278"/>
+      <c r="K30" s="280"/>
       <c r="L30" s="73"/>
       <c r="M30" s="73" t="s">
         <v>114</v>
@@ -15366,14 +15421,14 @@
       <c r="C31" s="68">
         <v>4</v>
       </c>
-      <c r="D31" s="286"/>
-      <c r="E31" s="287"/>
-      <c r="F31" s="286"/>
-      <c r="G31" s="287"/>
-      <c r="H31" s="286"/>
-      <c r="I31" s="287"/>
-      <c r="J31" s="286"/>
-      <c r="K31" s="287"/>
+      <c r="D31" s="278"/>
+      <c r="E31" s="280"/>
+      <c r="F31" s="278"/>
+      <c r="G31" s="280"/>
+      <c r="H31" s="278"/>
+      <c r="I31" s="280"/>
+      <c r="J31" s="278"/>
+      <c r="K31" s="280"/>
       <c r="L31" s="73"/>
       <c r="M31" s="73" t="s">
         <v>114</v>
@@ -15389,14 +15444,14 @@
       <c r="C32" s="68">
         <v>5</v>
       </c>
-      <c r="D32" s="286"/>
-      <c r="E32" s="287"/>
-      <c r="F32" s="286"/>
-      <c r="G32" s="287"/>
-      <c r="H32" s="286"/>
-      <c r="I32" s="287"/>
-      <c r="J32" s="286"/>
-      <c r="K32" s="287"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="280"/>
+      <c r="F32" s="278"/>
+      <c r="G32" s="280"/>
+      <c r="H32" s="278"/>
+      <c r="I32" s="280"/>
+      <c r="J32" s="278"/>
+      <c r="K32" s="280"/>
       <c r="L32" s="73"/>
       <c r="M32" s="73" t="s">
         <v>114</v>
@@ -15410,20 +15465,20 @@
       <c r="V32" s="27"/>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C33" s="286" t="s">
+      <c r="C33" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="308"/>
-      <c r="E33" s="308"/>
-      <c r="F33" s="308"/>
-      <c r="G33" s="308"/>
-      <c r="H33" s="308"/>
-      <c r="I33" s="308"/>
-      <c r="J33" s="308"/>
-      <c r="K33" s="308"/>
-      <c r="L33" s="308"/>
-      <c r="M33" s="308"/>
-      <c r="N33" s="287"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="279"/>
+      <c r="H33" s="279"/>
+      <c r="I33" s="279"/>
+      <c r="J33" s="279"/>
+      <c r="K33" s="279"/>
+      <c r="L33" s="279"/>
+      <c r="M33" s="279"/>
+      <c r="N33" s="280"/>
       <c r="O33" s="39"/>
       <c r="P33" s="27"/>
       <c r="Q33" s="27"/>
@@ -15447,10 +15502,10 @@
       <c r="V34" s="27"/>
     </row>
     <row r="35" spans="3:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="253" t="s">
+      <c r="C35" s="250" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="255"/>
+      <c r="D35" s="252"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
@@ -15484,12 +15539,12 @@
     </row>
     <row r="37" spans="3:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J37" s="27"/>
-      <c r="K37" s="282" t="s">
+      <c r="K37" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="L37" s="283"/>
-      <c r="M37" s="283"/>
-      <c r="N37" s="284"/>
+      <c r="L37" s="304"/>
+      <c r="M37" s="304"/>
+      <c r="N37" s="305"/>
       <c r="O37" s="103" t="s">
         <v>118</v>
       </c>
@@ -15511,11 +15566,11 @@
     <row r="39" spans="3:22" x14ac:dyDescent="0.2">
       <c r="J39" s="27"/>
       <c r="K39" s="38"/>
-      <c r="L39" s="251" t="s">
+      <c r="L39" s="248" t="s">
         <v>120</v>
       </c>
       <c r="M39" s="27"/>
-      <c r="N39" s="251" t="s">
+      <c r="N39" s="248" t="s">
         <v>119</v>
       </c>
       <c r="O39" s="39"/>
@@ -15526,9 +15581,9 @@
     <row r="40" spans="3:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J40" s="27"/>
       <c r="K40" s="38"/>
-      <c r="L40" s="252"/>
+      <c r="L40" s="249"/>
       <c r="M40" s="27"/>
-      <c r="N40" s="252"/>
+      <c r="N40" s="249"/>
       <c r="O40" s="39"/>
       <c r="P40" s="27"/>
       <c r="Q40" s="27"/>
@@ -15718,58 +15773,58 @@
       <c r="S56" s="39"/>
     </row>
     <row r="57" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="285" t="s">
+      <c r="A57" s="283" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="275"/>
-      <c r="C57" s="253" t="s">
+      <c r="B57" s="262"/>
+      <c r="C57" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="254"/>
-      <c r="E57" s="254"/>
-      <c r="F57" s="254"/>
-      <c r="G57" s="255"/>
+      <c r="D57" s="251"/>
+      <c r="E57" s="251"/>
+      <c r="F57" s="251"/>
+      <c r="G57" s="252"/>
       <c r="H57" s="27"/>
       <c r="I57" s="39"/>
-      <c r="K57" s="285" t="s">
+      <c r="K57" s="283" t="s">
         <v>108</v>
       </c>
-      <c r="L57" s="275"/>
-      <c r="M57" s="253" t="s">
+      <c r="L57" s="262"/>
+      <c r="M57" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="254"/>
-      <c r="O57" s="254"/>
-      <c r="P57" s="254"/>
-      <c r="Q57" s="255"/>
+      <c r="N57" s="251"/>
+      <c r="O57" s="251"/>
+      <c r="P57" s="251"/>
+      <c r="Q57" s="252"/>
       <c r="R57" s="27"/>
       <c r="S57" s="39"/>
     </row>
     <row r="58" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="277" t="s">
+      <c r="A58" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="278"/>
-      <c r="C58" s="253" t="s">
+      <c r="B58" s="285"/>
+      <c r="C58" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="254"/>
-      <c r="E58" s="254"/>
-      <c r="F58" s="254"/>
-      <c r="G58" s="255"/>
+      <c r="D58" s="251"/>
+      <c r="E58" s="251"/>
+      <c r="F58" s="251"/>
+      <c r="G58" s="252"/>
       <c r="H58" s="27"/>
       <c r="I58" s="39"/>
-      <c r="K58" s="277" t="s">
+      <c r="K58" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="L58" s="278"/>
-      <c r="M58" s="253" t="s">
+      <c r="L58" s="285"/>
+      <c r="M58" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="N58" s="254"/>
-      <c r="O58" s="254"/>
-      <c r="P58" s="254"/>
-      <c r="Q58" s="255"/>
+      <c r="N58" s="251"/>
+      <c r="O58" s="251"/>
+      <c r="P58" s="251"/>
+      <c r="Q58" s="252"/>
       <c r="R58" s="27"/>
       <c r="S58" s="39"/>
     </row>
@@ -15777,23 +15832,23 @@
       <c r="A59" s="281" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="264"/>
-      <c r="C59" s="253"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="254"/>
-      <c r="F59" s="254"/>
-      <c r="G59" s="255"/>
+      <c r="B59" s="255"/>
+      <c r="C59" s="250"/>
+      <c r="D59" s="251"/>
+      <c r="E59" s="251"/>
+      <c r="F59" s="251"/>
+      <c r="G59" s="252"/>
       <c r="H59" s="27"/>
       <c r="I59" s="39"/>
       <c r="K59" s="281" t="s">
         <v>123</v>
       </c>
-      <c r="L59" s="264"/>
-      <c r="M59" s="253"/>
-      <c r="N59" s="254"/>
-      <c r="O59" s="254"/>
-      <c r="P59" s="254"/>
-      <c r="Q59" s="255"/>
+      <c r="L59" s="255"/>
+      <c r="M59" s="250"/>
+      <c r="N59" s="251"/>
+      <c r="O59" s="251"/>
+      <c r="P59" s="251"/>
+      <c r="Q59" s="252"/>
       <c r="R59" s="27"/>
       <c r="S59" s="39"/>
     </row>
@@ -15801,23 +15856,23 @@
       <c r="A60" s="281" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="264"/>
-      <c r="C60" s="253"/>
-      <c r="D60" s="254"/>
-      <c r="E60" s="254"/>
-      <c r="F60" s="254"/>
-      <c r="G60" s="255"/>
+      <c r="B60" s="255"/>
+      <c r="C60" s="250"/>
+      <c r="D60" s="251"/>
+      <c r="E60" s="251"/>
+      <c r="F60" s="251"/>
+      <c r="G60" s="252"/>
       <c r="H60" s="27"/>
       <c r="I60" s="39"/>
       <c r="K60" s="281" t="s">
         <v>124</v>
       </c>
-      <c r="L60" s="264"/>
-      <c r="M60" s="253"/>
-      <c r="N60" s="254"/>
-      <c r="O60" s="254"/>
-      <c r="P60" s="254"/>
-      <c r="Q60" s="255"/>
+      <c r="L60" s="255"/>
+      <c r="M60" s="250"/>
+      <c r="N60" s="251"/>
+      <c r="O60" s="251"/>
+      <c r="P60" s="251"/>
+      <c r="Q60" s="252"/>
       <c r="R60" s="27"/>
       <c r="S60" s="39"/>
     </row>
@@ -15825,23 +15880,23 @@
       <c r="A61" s="281" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="264"/>
-      <c r="C61" s="253"/>
-      <c r="D61" s="254"/>
-      <c r="E61" s="254"/>
-      <c r="F61" s="254"/>
-      <c r="G61" s="255"/>
+      <c r="B61" s="255"/>
+      <c r="C61" s="250"/>
+      <c r="D61" s="251"/>
+      <c r="E61" s="251"/>
+      <c r="F61" s="251"/>
+      <c r="G61" s="252"/>
       <c r="H61" s="27"/>
       <c r="I61" s="39"/>
       <c r="K61" s="281" t="s">
         <v>113</v>
       </c>
-      <c r="L61" s="264"/>
-      <c r="M61" s="253"/>
-      <c r="N61" s="254"/>
-      <c r="O61" s="254"/>
-      <c r="P61" s="254"/>
-      <c r="Q61" s="255"/>
+      <c r="L61" s="255"/>
+      <c r="M61" s="250"/>
+      <c r="N61" s="251"/>
+      <c r="O61" s="251"/>
+      <c r="P61" s="251"/>
+      <c r="Q61" s="252"/>
       <c r="R61" s="27"/>
       <c r="S61" s="39"/>
     </row>
@@ -15885,28 +15940,28 @@
     </row>
     <row r="64" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
-      <c r="B64" s="253" t="s">
+      <c r="B64" s="250" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="255"/>
+      <c r="C64" s="252"/>
       <c r="D64" s="27"/>
-      <c r="E64" s="279" t="s">
+      <c r="E64" s="274" t="s">
         <v>121</v>
       </c>
-      <c r="F64" s="280"/>
+      <c r="F64" s="275"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="39"/>
       <c r="K64" s="38"/>
-      <c r="L64" s="253" t="s">
+      <c r="L64" s="250" t="s">
         <v>196</v>
       </c>
-      <c r="M64" s="255"/>
+      <c r="M64" s="252"/>
       <c r="N64" s="27"/>
-      <c r="O64" s="279" t="s">
+      <c r="O64" s="274" t="s">
         <v>121</v>
       </c>
-      <c r="P64" s="280"/>
+      <c r="P64" s="275"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="27"/>
       <c r="S64" s="39"/>
@@ -16009,6 +16064,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:N5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="L26:L27"/>
@@ -16025,78 +16152,6 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B3:N5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -16132,23 +16187,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="199"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -16169,55 +16224,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16238,51 +16293,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="233"/>
+      <c r="C7" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="243" t="s">
+      <c r="D7" s="241"/>
+      <c r="E7" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="244"/>
-      <c r="G7" s="243" t="s">
+      <c r="F7" s="241"/>
+      <c r="G7" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="244"/>
-      <c r="I7" s="247" t="s">
+      <c r="H7" s="241"/>
+      <c r="I7" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="248"/>
-      <c r="K7" s="297" t="s">
+      <c r="J7" s="245"/>
+      <c r="K7" s="290" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="298"/>
-      <c r="M7" s="247" t="s">
+      <c r="L7" s="291"/>
+      <c r="M7" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="248"/>
+      <c r="N7" s="245"/>
       <c r="O7" s="81"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="299"/>
-      <c r="L8" s="300"/>
-      <c r="M8" s="249"/>
-      <c r="N8" s="250"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="292"/>
+      <c r="L8" s="293"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="247"/>
       <c r="O8" s="82"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16309,11 +16364,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="194" t="s">
+      <c r="G10" s="221" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="195"/>
-      <c r="I10" s="196"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="223"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -16343,14 +16398,14 @@
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="309" t="s">
+      <c r="E12" s="315" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="309"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="184"/>
+      <c r="F12" s="315"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="173"/>
       <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -16362,14 +16417,14 @@
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="278" t="s">
+      <c r="E13" s="285" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="278"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="173"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -16381,13 +16436,13 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="264" t="s">
+      <c r="E14" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="264"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
+      <c r="F14" s="255"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
       <c r="J14" s="90" t="s">
         <v>139</v>
       </c>
@@ -16402,16 +16457,16 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="256" t="s">
+      <c r="E15" s="257" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="256"/>
-      <c r="G15" s="253" t="s">
+      <c r="F15" s="257"/>
+      <c r="G15" s="250" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="254"/>
-      <c r="I15" s="254"/>
-      <c r="J15" s="255"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="252"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -16423,16 +16478,16 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="264" t="s">
+      <c r="E16" s="255" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="264"/>
-      <c r="G16" s="187" t="s">
+      <c r="F16" s="255"/>
+      <c r="G16" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="189"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -16446,10 +16501,10 @@
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="57"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="191"/>
-      <c r="I17" s="191"/>
-      <c r="J17" s="192"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="177"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -16480,10 +16535,10 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="182" t="s">
+      <c r="G19" s="171" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="184"/>
+      <c r="H19" s="173"/>
       <c r="I19" s="84"/>
       <c r="J19" s="84"/>
       <c r="K19" s="27"/>
@@ -16531,14 +16586,14 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="310" t="s">
+      <c r="E22" s="306" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="311"/>
-      <c r="G22" s="311"/>
-      <c r="H22" s="311"/>
-      <c r="I22" s="311"/>
-      <c r="J22" s="312"/>
+      <c r="F22" s="307"/>
+      <c r="G22" s="307"/>
+      <c r="H22" s="307"/>
+      <c r="I22" s="307"/>
+      <c r="J22" s="308"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -16550,12 +16605,12 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="313"/>
-      <c r="F23" s="314"/>
-      <c r="G23" s="314"/>
-      <c r="H23" s="314"/>
-      <c r="I23" s="314"/>
-      <c r="J23" s="315"/>
+      <c r="E23" s="309"/>
+      <c r="F23" s="310"/>
+      <c r="G23" s="310"/>
+      <c r="H23" s="310"/>
+      <c r="I23" s="310"/>
+      <c r="J23" s="311"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
@@ -16567,12 +16622,12 @@
       <c r="B24" s="27"/>
       <c r="C24" s="84"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="313"/>
-      <c r="F24" s="314"/>
-      <c r="G24" s="314"/>
-      <c r="H24" s="314"/>
-      <c r="I24" s="314"/>
-      <c r="J24" s="315"/>
+      <c r="E24" s="309"/>
+      <c r="F24" s="310"/>
+      <c r="G24" s="310"/>
+      <c r="H24" s="310"/>
+      <c r="I24" s="310"/>
+      <c r="J24" s="311"/>
       <c r="K24" s="84"/>
       <c r="L24" s="84"/>
       <c r="M24" s="84"/>
@@ -16584,12 +16639,12 @@
       <c r="B25" s="27"/>
       <c r="C25" s="84"/>
       <c r="D25" s="84"/>
-      <c r="E25" s="313"/>
-      <c r="F25" s="314"/>
-      <c r="G25" s="314"/>
-      <c r="H25" s="314"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="315"/>
+      <c r="E25" s="309"/>
+      <c r="F25" s="310"/>
+      <c r="G25" s="310"/>
+      <c r="H25" s="310"/>
+      <c r="I25" s="310"/>
+      <c r="J25" s="311"/>
       <c r="K25" s="84"/>
       <c r="L25" s="84"/>
       <c r="M25" s="84"/>
@@ -16601,12 +16656,12 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="83"/>
-      <c r="E26" s="313"/>
-      <c r="F26" s="314"/>
-      <c r="G26" s="314"/>
-      <c r="H26" s="314"/>
-      <c r="I26" s="314"/>
-      <c r="J26" s="315"/>
+      <c r="E26" s="309"/>
+      <c r="F26" s="310"/>
+      <c r="G26" s="310"/>
+      <c r="H26" s="310"/>
+      <c r="I26" s="310"/>
+      <c r="J26" s="311"/>
       <c r="K26" s="83"/>
       <c r="L26" s="83"/>
       <c r="M26" s="83"/>
@@ -16618,12 +16673,12 @@
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="83"/>
-      <c r="E27" s="313"/>
-      <c r="F27" s="314"/>
-      <c r="G27" s="314"/>
-      <c r="H27" s="314"/>
-      <c r="I27" s="314"/>
-      <c r="J27" s="315"/>
+      <c r="E27" s="309"/>
+      <c r="F27" s="310"/>
+      <c r="G27" s="310"/>
+      <c r="H27" s="310"/>
+      <c r="I27" s="310"/>
+      <c r="J27" s="311"/>
       <c r="K27" s="83"/>
       <c r="L27" s="83"/>
       <c r="M27" s="83"/>
@@ -16635,12 +16690,12 @@
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="83"/>
-      <c r="E28" s="313"/>
-      <c r="F28" s="314"/>
-      <c r="G28" s="314"/>
-      <c r="H28" s="314"/>
-      <c r="I28" s="314"/>
-      <c r="J28" s="315"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="310"/>
+      <c r="G28" s="310"/>
+      <c r="H28" s="310"/>
+      <c r="I28" s="310"/>
+      <c r="J28" s="311"/>
       <c r="K28" s="83"/>
       <c r="L28" s="83"/>
       <c r="M28" s="83"/>
@@ -16652,12 +16707,12 @@
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="83"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="314"/>
-      <c r="G29" s="314"/>
-      <c r="H29" s="314"/>
-      <c r="I29" s="314"/>
-      <c r="J29" s="315"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="310"/>
+      <c r="G29" s="310"/>
+      <c r="H29" s="310"/>
+      <c r="I29" s="310"/>
+      <c r="J29" s="311"/>
       <c r="K29" s="83"/>
       <c r="L29" s="83"/>
       <c r="M29" s="83"/>
@@ -16669,12 +16724,12 @@
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="83"/>
-      <c r="E30" s="313"/>
-      <c r="F30" s="314"/>
-      <c r="G30" s="314"/>
-      <c r="H30" s="314"/>
-      <c r="I30" s="314"/>
-      <c r="J30" s="315"/>
+      <c r="E30" s="309"/>
+      <c r="F30" s="310"/>
+      <c r="G30" s="310"/>
+      <c r="H30" s="310"/>
+      <c r="I30" s="310"/>
+      <c r="J30" s="311"/>
       <c r="K30" s="83"/>
       <c r="L30" s="83"/>
       <c r="M30" s="83"/>
@@ -16686,12 +16741,12 @@
       <c r="B31" s="27"/>
       <c r="C31" s="83"/>
       <c r="D31" s="83"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="314"/>
-      <c r="G31" s="314"/>
-      <c r="H31" s="314"/>
-      <c r="I31" s="314"/>
-      <c r="J31" s="315"/>
+      <c r="E31" s="309"/>
+      <c r="F31" s="310"/>
+      <c r="G31" s="310"/>
+      <c r="H31" s="310"/>
+      <c r="I31" s="310"/>
+      <c r="J31" s="311"/>
       <c r="K31" s="83"/>
       <c r="L31" s="83"/>
       <c r="M31" s="83"/>
@@ -16703,12 +16758,12 @@
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="316"/>
-      <c r="F32" s="317"/>
-      <c r="G32" s="317"/>
-      <c r="H32" s="317"/>
-      <c r="I32" s="317"/>
-      <c r="J32" s="318"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="313"/>
+      <c r="G32" s="313"/>
+      <c r="H32" s="313"/>
+      <c r="I32" s="313"/>
+      <c r="J32" s="314"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
@@ -17237,6 +17292,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E22:J32"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:J17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:J15"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A7:B8"/>
@@ -17246,19 +17314,6 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
-    <mergeCell ref="E22:J32"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:J17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
@@ -17287,23 +17342,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="199"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="198"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -17324,55 +17379,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="205"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="204"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17393,51 +17448,51 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="233"/>
+      <c r="C7" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="243" t="s">
+      <c r="D7" s="241"/>
+      <c r="E7" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="244"/>
-      <c r="G7" s="243" t="s">
+      <c r="F7" s="241"/>
+      <c r="G7" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="244"/>
-      <c r="I7" s="247" t="s">
+      <c r="H7" s="241"/>
+      <c r="I7" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="248"/>
-      <c r="K7" s="247" t="s">
+      <c r="J7" s="245"/>
+      <c r="K7" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="248"/>
-      <c r="M7" s="297" t="s">
+      <c r="L7" s="245"/>
+      <c r="M7" s="290" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="298"/>
+      <c r="N7" s="291"/>
       <c r="O7" s="81"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="299"/>
-      <c r="N8" s="300"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="293"/>
       <c r="O8" s="82"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -17529,17 +17584,17 @@
     <row r="14" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="264" t="s">
+      <c r="C14" s="255" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="259"/>
+      <c r="D14" s="256"/>
       <c r="E14" s="76"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
-      <c r="I14" s="278" t="s">
+      <c r="I14" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="320"/>
+      <c r="J14" s="316"/>
       <c r="K14" s="61"/>
       <c r="L14" s="62"/>
       <c r="M14" s="63"/>
@@ -17549,42 +17604,42 @@
     <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="264" t="s">
+      <c r="C15" s="255" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="259"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="254"/>
-      <c r="G15" s="255"/>
-      <c r="I15" s="256" t="s">
+      <c r="D15" s="256"/>
+      <c r="E15" s="250"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="252"/>
+      <c r="I15" s="257" t="s">
         <v>186</v>
       </c>
-      <c r="J15" s="259"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="255"/>
+      <c r="J15" s="256"/>
+      <c r="K15" s="250"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="252"/>
       <c r="N15" s="27"/>
       <c r="O15" s="39"/>
     </row>
     <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="264" t="s">
+      <c r="C16" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="259"/>
-      <c r="E16" s="253" t="s">
+      <c r="D16" s="256"/>
+      <c r="E16" s="250" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="254"/>
-      <c r="G16" s="255"/>
-      <c r="I16" s="264" t="s">
+      <c r="F16" s="251"/>
+      <c r="G16" s="252"/>
+      <c r="I16" s="255" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="259"/>
-      <c r="K16" s="279" t="s">
+      <c r="J16" s="256"/>
+      <c r="K16" s="274" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="319"/>
-      <c r="M16" s="280"/>
+      <c r="L16" s="317"/>
+      <c r="M16" s="275"/>
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17629,50 +17684,50 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="302" t="s">
+      <c r="B20" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="304" t="s">
+      <c r="C20" s="286" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="305"/>
-      <c r="E20" s="304" t="s">
+      <c r="D20" s="287"/>
+      <c r="E20" s="286" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="305"/>
-      <c r="G20" s="304" t="s">
+      <c r="F20" s="287"/>
+      <c r="G20" s="286" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="305"/>
-      <c r="I20" s="304" t="s">
+      <c r="H20" s="287"/>
+      <c r="I20" s="286" t="s">
         <v>223</v>
       </c>
-      <c r="J20" s="305"/>
-      <c r="K20" s="302" t="s">
+      <c r="J20" s="287"/>
+      <c r="K20" s="276" t="s">
         <v>149</v>
       </c>
-      <c r="L20" s="304" t="s">
+      <c r="L20" s="286" t="s">
         <v>208</v>
       </c>
-      <c r="M20" s="305"/>
-      <c r="N20" s="302"/>
+      <c r="M20" s="287"/>
+      <c r="N20" s="276"/>
       <c r="O20" s="39"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
-      <c r="B21" s="303"/>
-      <c r="C21" s="306"/>
-      <c r="D21" s="307"/>
-      <c r="E21" s="306"/>
-      <c r="F21" s="307"/>
-      <c r="G21" s="306"/>
-      <c r="H21" s="307"/>
-      <c r="I21" s="306"/>
-      <c r="J21" s="307"/>
-      <c r="K21" s="303"/>
-      <c r="L21" s="306"/>
-      <c r="M21" s="307"/>
-      <c r="N21" s="303"/>
+      <c r="B21" s="277"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="289"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="289"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="289"/>
+      <c r="I21" s="288"/>
+      <c r="J21" s="289"/>
+      <c r="K21" s="277"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="289"/>
+      <c r="N21" s="277"/>
       <c r="O21" s="39"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
@@ -17782,21 +17837,21 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
-      <c r="B27" s="286" t="s">
+      <c r="B27" s="278" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="308"/>
-      <c r="D27" s="308"/>
-      <c r="E27" s="308"/>
-      <c r="F27" s="308"/>
-      <c r="G27" s="308"/>
-      <c r="H27" s="308"/>
-      <c r="I27" s="308"/>
-      <c r="J27" s="308"/>
-      <c r="K27" s="308"/>
-      <c r="L27" s="308"/>
-      <c r="M27" s="308"/>
-      <c r="N27" s="287"/>
+      <c r="C27" s="279"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
+      <c r="K27" s="279"/>
+      <c r="L27" s="279"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="280"/>
       <c r="O27" s="39"/>
       <c r="P27" s="83"/>
       <c r="Q27" s="27"/>
@@ -17813,10 +17868,10 @@
     </row>
     <row r="29" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="253" t="s">
+      <c r="B29" s="250" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="255"/>
+      <c r="C29" s="252"/>
       <c r="L29" s="35"/>
       <c r="M29" s="35"/>
       <c r="N29" s="27"/>
@@ -18100,15 +18155,15 @@
       <c r="F52" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="H52" s="282" t="s">
+      <c r="H52" s="303" t="s">
         <v>209</v>
       </c>
-      <c r="I52" s="283"/>
-      <c r="J52" s="283"/>
-      <c r="K52" s="283"/>
-      <c r="L52" s="283"/>
-      <c r="M52" s="283"/>
-      <c r="N52" s="284"/>
+      <c r="I52" s="304"/>
+      <c r="J52" s="304"/>
+      <c r="K52" s="304"/>
+      <c r="L52" s="304"/>
+      <c r="M52" s="304"/>
+      <c r="N52" s="305"/>
       <c r="O52" s="103"/>
       <c r="P52" s="27"/>
       <c r="Q52" s="27"/>
@@ -18167,10 +18222,10 @@
         <v>185</v>
       </c>
       <c r="J55" s="83"/>
-      <c r="K55" s="253"/>
-      <c r="L55" s="254"/>
-      <c r="M55" s="254"/>
-      <c r="N55" s="255"/>
+      <c r="K55" s="250"/>
+      <c r="L55" s="251"/>
+      <c r="M55" s="251"/>
+      <c r="N55" s="252"/>
       <c r="O55" s="92"/>
       <c r="P55" s="27"/>
       <c r="Q55" s="27"/>
@@ -18292,21 +18347,21 @@
       <c r="B61" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C61" s="253"/>
-      <c r="D61" s="254"/>
-      <c r="E61" s="255"/>
+      <c r="C61" s="250"/>
+      <c r="D61" s="251"/>
+      <c r="E61" s="252"/>
       <c r="F61" s="39"/>
       <c r="H61" s="89"/>
       <c r="I61" s="98" t="s">
         <v>215</v>
       </c>
       <c r="J61" s="83"/>
-      <c r="K61" s="221" t="s">
+      <c r="K61" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="L61" s="222"/>
-      <c r="M61" s="222"/>
-      <c r="N61" s="223"/>
+      <c r="L61" s="188"/>
+      <c r="M61" s="188"/>
+      <c r="N61" s="189"/>
       <c r="O61" s="92"/>
       <c r="P61" s="27"/>
       <c r="Q61" s="27"/>
@@ -18323,10 +18378,10 @@
       <c r="H62" s="89"/>
       <c r="I62" s="83"/>
       <c r="J62" s="83"/>
-      <c r="K62" s="224"/>
-      <c r="L62" s="225"/>
-      <c r="M62" s="225"/>
-      <c r="N62" s="226"/>
+      <c r="K62" s="190"/>
+      <c r="L62" s="191"/>
+      <c r="M62" s="191"/>
+      <c r="N62" s="192"/>
       <c r="O62" s="92"/>
       <c r="P62" s="83"/>
       <c r="Q62" s="27"/>
@@ -18361,10 +18416,10 @@
       <c r="H64" s="89"/>
       <c r="I64" s="83"/>
       <c r="J64" s="83"/>
-      <c r="K64" s="253" t="s">
+      <c r="K64" s="250" t="s">
         <v>217</v>
       </c>
-      <c r="L64" s="255"/>
+      <c r="L64" s="252"/>
       <c r="M64" s="83"/>
       <c r="N64" s="83"/>
       <c r="O64" s="92"/>
@@ -18376,10 +18431,10 @@
       <c r="B65" s="154" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="253" t="s">
+      <c r="D65" s="250" t="s">
         <v>153</v>
       </c>
-      <c r="E65" s="255"/>
+      <c r="E65" s="252"/>
       <c r="F65" s="39"/>
       <c r="H65" s="93"/>
       <c r="I65" s="91"/>
@@ -18428,11 +18483,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="H52:N52"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K61:N62"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="N20:N21"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A1:O1"/>
@@ -18449,20 +18513,11 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B27:N27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="H52:N52"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K61:N62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7:B8" location="'Khách hàng - Lịch sử nạp tiền '!A1" display="LỊCH SỬ NẠP TIỀN"/>
